--- a/Bence folder/Image processing - Adhesion assay/condition_plot_df.xlsx
+++ b/Bence folder/Image processing - Adhesion assay/condition_plot_df.xlsx
@@ -220,178 +220,178 @@
     <t>[0.04315944513805384]</t>
   </si>
   <si>
-    <t>[0.11079780227485579, 0.07682094327313733, 0.06488607978741746, 0.08636121684909272, 0.1779884792283763, 0.030971346588406133]</t>
-  </si>
-  <si>
-    <t>[0.06453754219181082, 0.050181417104594735, 0.029856577136341364, 0.031136806399455864, 0.05371101318289565, 0.00968001896183924]</t>
-  </si>
-  <si>
-    <t>[0.056510959770567505, 0.03643082589245232, 0.024131532508697727, 0.027034053887703906, 0.05008122822658678, 0.00825953412953318]</t>
-  </si>
-  <si>
-    <t>[0.05293627824912213, 0.03742922651734276, 0.021761323526150584, 0.02324040281074133, 0.04590423709456376, 0.00862945472374905]</t>
-  </si>
-  <si>
-    <t>[0.08065403487653088, 0.06978303142901612, 0.03654211434531803, 0.06890121759867887, 0.10834754901327726, 0.09826220725069214]</t>
-  </si>
-  <si>
-    <t>[0.06308841315681096, 0.04818646200483861, 0.026371300072268816, 0.03139230709233046, 0.08329962046216419, 0.07401792084609898]</t>
-  </si>
-  <si>
-    <t>[0.1537447762146297, 0.1401818485025212, 0.137509649658102, 0.11061136141851644, 0.2007515655543232, 0.43232713657127986]</t>
-  </si>
-  <si>
-    <t>[0.07489777867312146, 0.06724844242153237, 0.03819259279443046, 0.043347979643482894, 0.06326655698570922, 0.001777048480678689]</t>
-  </si>
-  <si>
-    <t>[0.5469423770114503, 0.3868344481631397, 0.4371966689936789, 0.5443934081689406, 0.6007287740272227, 0.28904511702178115]</t>
-  </si>
-  <si>
-    <t>[0.030944027415143568, 0.028946900851960253, 0.022685684299589073, 0.011841315339718638, 0.026297443087768546, 0.021645930261935543]</t>
-  </si>
-  <si>
-    <t>[0.028135517116935585, 0.023922915045599503, 0.01764041255151331, 0.009362005589726706, 0.021728733360127518, 0.011702953189375597]</t>
-  </si>
-  <si>
-    <t>[0.039302925775135576, 0.03478656045632456, 0.029758001913321168, 0.018528309004240948, 0.04380667744774927, 0.012996569474165626]</t>
-  </si>
-  <si>
-    <t>[0.04691951446741284, 0.037108358306213333, 0.026242448314941637, 0.015503812120263763, 0.035604266911072095, 0.034040245678577906]</t>
-  </si>
-  <si>
-    <t>[0.038127766747022035, 0.02880855960703857, 0.02696870516808284, 0.0074844671261729825, 0.0344768988889472, 0.02270920915798262]</t>
-  </si>
-  <si>
-    <t>[0.04946147927430566, 0.041486297412955925, 0.0267732632028525, 0.020190354678574895, 0.04384718175048708, 0.02014638698927387]</t>
-  </si>
-  <si>
-    <t>[0.051429035381714824, 0.037692088745893915, 0.024539659019157042, 0.02643003384925104, 0.043653440705527534, 0.027543524939715618]</t>
-  </si>
-  <si>
-    <t>[0.0455082257096845, 0.030588835214017358, 0.022018926145461686, 0.02123672221430317, 0.03757849293563581, 0.01618821788338968]</t>
-  </si>
-  <si>
-    <t>[0.17684662144837604, 0.17277844160821745, 0.1373999527584849, 0.11393520716246676, 0.16446813903182275, 0.20303301866958204]</t>
-  </si>
-  <si>
-    <t>[0.039100760569641145, 0.026338384551057536, 0.01690475657001169, 0.019439818885999216, 0.027591194028538567, 0.017404792949957212]</t>
-  </si>
-  <si>
-    <t>[0.10077643752765171, 0.08326665157875636, 0.087981410172994, 0.10553427641981213, 0.07635023898995111, 0.07786072927902575]</t>
-  </si>
-  <si>
-    <t>[0.15789897060438357, 0.1358258972688058, 0.14306467384629595, 0.20310865496681343, 0.1461278754523896, 0.1417719300772491]</t>
-  </si>
-  <si>
-    <t>[0.021622858516470788, 0.01577994588928765, 0.01473401645140996, 0.006905393062674561, 0.01891679793138104, 0.025349478555805563]</t>
-  </si>
-  <si>
-    <t>[0.0277061259358574, 0.022468409501061458, 0.017577396310694344, 0.008274577400802173, 0.020125815552297574, 0.02570407369551097]</t>
-  </si>
-  <si>
-    <t>[0.036229312073707075, 0.026915559032704227, 0.021037540118070776, 0.013382437542340803, 0.026881063630854716, 0.029161807355117222]</t>
-  </si>
-  <si>
-    <t>[0.05096328485193013, 0.03816740429986913, 0.024180405796512996, 0.020627708307539943, 0.03759462796653259, 0.035116392484623185]</t>
-  </si>
-  <si>
-    <t>[0.07267547405467421, 0.06986579244157297, 0.04461432406101108, 0.060718076168971076, 0.12639107767695187, 0.08660881606770976]</t>
-  </si>
-  <si>
-    <t>[0.036962307643667196, 0.02938822653004397, 0.018364052374779713, 0.01939433624829253, 0.03121828754467069, 0.026038380372758643]</t>
-  </si>
-  <si>
-    <t>[0.08715350262928413, 0.0766896819999832, 0.06272213709164329, 0.055439766569403956, 0.07767542908024253, 0.07789700031594991]</t>
-  </si>
-  <si>
-    <t>[0.039022714032982464, 0.02830598873634353, 0.01690698798306865, 0.014217424873488453, 0.028489387623851312, 0.013824721577269664]</t>
-  </si>
-  <si>
-    <t>[0.08859690461414987, 0.06617455421651863, 0.060408857390190696, 0.0734148522111374, 0.09812547775787524, 0.13116150630947973]</t>
-  </si>
-  <si>
-    <t>[0.020743598747679285, 0.01947009340785743, 0.018039758791308334, 0.009207058646753934, 0.020470064944556977, 0.040057113275791395]</t>
-  </si>
-  <si>
-    <t>[0.02470125978186328, 0.018356204485726706, 0.014534838859583172, 0.010086701642278411, 0.021108453137677976, 0.0272739873776861]</t>
+    <t>[0.11079780227485579, 0.07682094327313733, 0.06541565323375081, 0.086152449492604, 0.1779884792283763, 0.030971346588406133]</t>
+  </si>
+  <si>
+    <t>[0.06453754219181082, 0.050181417104594735, 0.030268949454706474, 0.03130714554911782, 0.05371101318289565, 0.00968001896183924]</t>
+  </si>
+  <si>
+    <t>[0.056510959770567505, 0.03643082589245232, 0.024521016417504524, 0.027231775325551034, 0.05008122822658678, 0.00825953412953318]</t>
+  </si>
+  <si>
+    <t>[0.05293627824912213, 0.03742922651734276, 0.02205491550346673, 0.02341496208320145, 0.04590423709456376, 0.00862945472374905]</t>
+  </si>
+  <si>
+    <t>[0.08065403487653088, 0.06978303142901612, 0.036844818934215665, 0.06899070110627138, 0.10834754901327726, 0.09826220725069214]</t>
+  </si>
+  <si>
+    <t>[0.06308841315681096, 0.04818646200483861, 0.026673119056054292, 0.031513021239809307, 0.08329962046216419, 0.07401792084609898]</t>
+  </si>
+  <si>
+    <t>[0.1537447762146297, 0.1401818485025212, 0.1378508774678711, 0.11077169248672625, 0.2007515655543232, 0.43232713657127986]</t>
+  </si>
+  <si>
+    <t>[0.07489777867312146, 0.06724844242153237, 0.03870106362882087, 0.043497306514948424, 0.06326655698570922, 0.001777048480678689]</t>
+  </si>
+  <si>
+    <t>[0.5469423770114503, 0.3868344481631397, 0.43615854399314924, 0.5417790095959003, 0.6007287740272227, 0.28904511702178115]</t>
+  </si>
+  <si>
+    <t>[0.030944027415143568, 0.028946900851960253, 0.02296013466267149, 0.011972769466089776, 0.026297443087768546, 0.021645930261935543]</t>
+  </si>
+  <si>
+    <t>[0.028135517116935585, 0.023922915045599503, 0.01785632961544816, 0.009463818200858716, 0.021728733360127518, 0.011702953189375597]</t>
+  </si>
+  <si>
+    <t>[0.039302925775135576, 0.03478656045632456, 0.030250351670847213, 0.018879717049061263, 0.04380667744774927, 0.012996569474165626]</t>
+  </si>
+  <si>
+    <t>[0.04691951446741284, 0.037108358306213333, 0.026517185865814887, 0.015621359516036592, 0.035604266911072095, 0.034040245678577906]</t>
+  </si>
+  <si>
+    <t>[0.038127766747022035, 0.02880855960703857, 0.02728764638594524, 0.007553326941862766, 0.0344768988889472, 0.02270920915798262]</t>
+  </si>
+  <si>
+    <t>[0.04946147927430566, 0.041486297412955925, 0.027044327178280314, 0.0203287822682352, 0.04384718175048708, 0.02014638698927387]</t>
+  </si>
+  <si>
+    <t>[0.051429035381714824, 0.037692088745893915, 0.024579144254056634, 0.026564997877509697, 0.043653440705527534, 0.027543524939715618]</t>
+  </si>
+  <si>
+    <t>[0.0455082257096845, 0.030588835214017358, 0.022239389107551848, 0.02108801151372074, 0.03757849293563581, 0.01618821788338968]</t>
+  </si>
+  <si>
+    <t>[0.17684662144837604, 0.17277844160821745, 0.137626405859287, 0.11358147382044675, 0.16446813903182275, 0.20303301866958204]</t>
+  </si>
+  <si>
+    <t>[0.039100760569641145, 0.026338384551057536, 0.016986897440631175, 0.01936329827045026, 0.027591194028538567, 0.017404792949957212]</t>
+  </si>
+  <si>
+    <t>[0.10077643752765171, 0.08326665157875636, 0.08814096729029205, 0.1052907018521456, 0.07635023898995111, 0.07786072927902575]</t>
+  </si>
+  <si>
+    <t>[0.15789897060438357, 0.1358258972688058, 0.14322644702991177, 0.20309320626219843, 0.1461278754523896, 0.1417719300772491]</t>
+  </si>
+  <si>
+    <t>[0.021622858516470788, 0.01577994588928765, 0.014953840289962933, 0.006944778284171867, 0.01891679793138104, 0.025349478555805563]</t>
+  </si>
+  <si>
+    <t>[0.0277061259358574, 0.022468409501061458, 0.01774958261861784, 0.008293163261394496, 0.020125815552297574, 0.02570407369551097]</t>
+  </si>
+  <si>
+    <t>[0.036229312073707075, 0.026915559032704227, 0.021308180763321662, 0.013418431941325143, 0.026881063630854716, 0.029161807355117222]</t>
+  </si>
+  <si>
+    <t>[0.05096328485193013, 0.03816740429986913, 0.02441350519079114, 0.020616116665228414, 0.03759462796653259, 0.035116392484623185]</t>
+  </si>
+  <si>
+    <t>[0.07267547405467421, 0.06986579244157297, 0.044780775216223465, 0.060635837312949935, 0.12639107767695187, 0.08660881606770976]</t>
+  </si>
+  <si>
+    <t>[0.036962307643667196, 0.02938822653004397, 0.01858973728581101, 0.019437150759685256, 0.03121828754467069, 0.026038380372758643]</t>
+  </si>
+  <si>
+    <t>[0.08715350262928413, 0.0766896819999832, 0.0627033221474755, 0.05528394546313477, 0.07767542908024253, 0.07789700031594991]</t>
+  </si>
+  <si>
+    <t>[0.039022714032982464, 0.02830598873634353, 0.017311568640416174, 0.014332892196738794, 0.028489387623851312, 0.013824721577269664]</t>
+  </si>
+  <si>
+    <t>[0.08859690461414987, 0.06617455421651863, 0.060754925581734905, 0.07334614360402844, 0.09812547775787524, 0.13116150630947973]</t>
+  </si>
+  <si>
+    <t>[0.020743598747679285, 0.01947009340785743, 0.01832941664272613, 0.00924264969681277, 0.020470064944556977, 0.040057113275791395]</t>
+  </si>
+  <si>
+    <t>[0.02470125978186328, 0.018356204485726706, 0.014748647703299428, 0.010094721171298912, 0.021108453137677976, 0.0272739873776861]</t>
   </si>
   <si>
     <t>[0.9707765340867188]</t>
   </si>
   <si>
-    <t>[0.028164060088032645, 0.025015911637513884, 0.014673107853555118, 0.015666675809858175, 0.02049821033650861, 0.04439732010847981]</t>
-  </si>
-  <si>
-    <t>[0.02953553115569126, 0.02213288345295154, 0.02286694087611699, 0.009692296770913749, 0.020275335459021715, 0.030824761385070912]</t>
-  </si>
-  <si>
-    <t>[0.05078111195663181, 0.06496938127049386, 0.05375403209930755, 0.044152067439012906, 0.04377126782022484, 0.06439334166699823]</t>
-  </si>
-  <si>
-    <t>[0.021918306101613213, 0.01261493303624164, 0.005548143606522289, 0.005927388132136614, 0.01435319213774194, 0.017793439074594953]</t>
-  </si>
-  <si>
-    <t>[0.02416695098373701, 0.014969111879277632, 0.011436281070089194, 0.006998756318563663, 0.01798675530138058, 0.014294545961423674]</t>
-  </si>
-  <si>
-    <t>[0.02129630705924743, 0.011862041683176006, 0.006658570911249237, 0.007270871113607216, 0.015239679663417485, 0.008996408721052994]</t>
-  </si>
-  <si>
-    <t>[0.008685129366572846, 0.009944608961680366, 0.01170019326348327, 0.005853092752687431, 0.015239215030213396, 0.02628938546616991]</t>
-  </si>
-  <si>
-    <t>[0.004692124194846054, 0.008941479730269295, 0.0055067771173321345, 0.0, 0.00906342417287047, 0.019701228925246485]</t>
-  </si>
-  <si>
-    <t>[0.009177319318809711, 0.0361176512225174, 0.005644488314822884, 0.0019708653508588242, 0.01211632487190659, 0.024461990504702682]</t>
-  </si>
-  <si>
-    <t>[0.01038737933410904, 0.013312831292522169, 0.0055362395927569565, 0.0021394795722652323, 0.010582271627240928, 0.02289091071454528]</t>
-  </si>
-  <si>
-    <t>[0.08370805366772006, 0.08207374834538328, 0.062129671068142635, 0.09429084674568976, 0.08404589842448197, 0.18514028663457344]</t>
-  </si>
-  <si>
-    <t>[0.1014176663031624, 0.07880361099426504, 0.16223540534483014, 0.08769373246533933, 0.07734387624290347, 0.09173934088458786]</t>
-  </si>
-  <si>
-    <t>[0.992385392016357, 0.9983719539050256, 0.9265905418383911, 0.9711280814576633, 0.9902141210782611, 0.9973195198158197]</t>
-  </si>
-  <si>
-    <t>[0.01361598721966612, 0.013461202759882109, 0.005547141311468332, 0.010390106645360758, 0.024422721268163798, 0.046327178734220674]</t>
-  </si>
-  <si>
-    <t>[0.016824699769136295, 0.011628119390248921, 0.004637937687186465, 0.00674505160083651, 0.011629461798462297, 0.019077996351114974]</t>
-  </si>
-  <si>
-    <t>[0.019418008042222157, 0.011969396896166764, 0.010380970457878636, 0.010027095929660472, 0.014325445131733828, 0.007950717292973147]</t>
-  </si>
-  <si>
-    <t>[0.02922082190628188, 0.031136335552188265, 0.02991072407584731, 0.027529160775601077, 0.02816648511473687, 0.037058185060765796]</t>
-  </si>
-  <si>
-    <t>[0.01872358681057572, 0.01967391845641154, 0.01686844966397157, 0.013164137994884818, 0.02124817612222128, 0.044046816790797645]</t>
-  </si>
-  <si>
-    <t>[0.0040529446579406535, 0.011350505133991199, 0.0088669622673123, 0.006472740112176901, 0.008283232409635655, 0.027820117811899178]</t>
-  </si>
-  <si>
-    <t>[0.007218821194796197, 0.01132352148128862, 0.007894781182674941, 0.006126948122284153, 0.008044667410328134, 0.023415071739641424]</t>
-  </si>
-  <si>
-    <t>[0.019861028876676186, 0.01843246928309143, 0.015431266189046005, 0.016657166825152968, 0.018650767862994574, 0.03616522303574298]</t>
-  </si>
-  <si>
-    <t>[0.019558809511134978, 0.019694934690384223, 0.01643706097347952, 0.014418663766928849, 0.012507596085796414, 0.032667562429875535]</t>
-  </si>
-  <si>
-    <t>[0.026602034395247987, 0.029723886526531348, 0.03601203088930162, 0.030065173261156024, 0.035839058307882164, 0.06095028340080972]</t>
-  </si>
-  <si>
-    <t>[0.019756653009951823, 0.03297793735319553, 0.018749781993788905, 0.01226321526988623, 0.019533332607962417, 0.04833914415588948]</t>
-  </si>
-  <si>
-    <t>[0.2825284283065561, 0.28337427539699717, 0.25610113847535065, 0.25904868319806124, 0.25689331766855195, 0.20369403094823468]</t>
+    <t>[0.028164060088032645, 0.025015911637513884, 0.014810643219796566, 0.01564049985867673, 0.02049821033650861, 0.04439732010847981]</t>
+  </si>
+  <si>
+    <t>[0.02953553115569126, 0.02213288345295154, 0.022982740570038428, 0.009691043772888062, 0.020275335459021715, 0.030824761385070912]</t>
+  </si>
+  <si>
+    <t>[0.05078111195663181, 0.06496938127049386, 0.05390889909936763, 0.043937989721122214, 0.04377126782022484, 0.06439334166699823]</t>
+  </si>
+  <si>
+    <t>[0.021918306101613213, 0.01261493303624164, 0.005778674696405111, 0.005947625147945771, 0.01435319213774194, 0.017793439074594953]</t>
+  </si>
+  <si>
+    <t>[0.02416695098373701, 0.014969111879277632, 0.011656021334832714, 0.007013211763325044, 0.01798675530138058, 0.014294545961423674]</t>
+  </si>
+  <si>
+    <t>[0.02129630705924743, 0.011862041683176006, 0.007024530635088086, 0.0072730030624547325, 0.015239679663417485, 0.008996408721052994]</t>
+  </si>
+  <si>
+    <t>[0.008685129366572846, 0.009944608961680366, 0.011969924004050685, 0.005915251107385841, 0.015239215030213396, 0.02628938546616991]</t>
+  </si>
+  <si>
+    <t>[0.004692124194846054, 0.008941479730269295, 0.00576064259768186, 0.0, 0.00906342417287047, 0.019701228925246485]</t>
+  </si>
+  <si>
+    <t>[0.009177319318809711, 0.0361176512225174, 0.005879853336244868, 0.0019786044731659714, 0.01211632487190659, 0.024461990504702682]</t>
+  </si>
+  <si>
+    <t>[0.01038737933410904, 0.013312831292522169, 0.005812660849804931, 0.002248176709908704, 0.010582271627240928, 0.02289091071454528]</t>
+  </si>
+  <si>
+    <t>[0.08370805366772006, 0.08207374834538328, 0.06233254274213002, 0.09427606246013558, 0.08404589842448197, 0.18514028663457344]</t>
+  </si>
+  <si>
+    <t>[0.1014176663031624, 0.07880361099426504, 0.16604656970482037, 0.08770635621400887, 0.07734387624290347, 0.09173934088458786]</t>
+  </si>
+  <si>
+    <t>[0.992385392016357, 0.9983719539050256, 0.928273910652614, 0.9707445755313282, 0.9902141210782611, 0.9973195198158197]</t>
+  </si>
+  <si>
+    <t>[0.01361598721966612, 0.013461202759882109, 0.005801280899810012, 0.01036815897459536, 0.024422721268163798, 0.046327178734220674]</t>
+  </si>
+  <si>
+    <t>[0.016824699769136295, 0.011628119390248921, 0.004794488214709819, 0.006703579122888935, 0.011629461798462297, 0.019077996351114974]</t>
+  </si>
+  <si>
+    <t>[0.019418008042222157, 0.011969396896166764, 0.010648757002675707, 0.009987575428784553, 0.014325445131733828, 0.007950717292973147]</t>
+  </si>
+  <si>
+    <t>[0.02922082190628188, 0.031136335552188265, 0.03028153782066848, 0.027636727406263027, 0.02816648511473687, 0.037058185060765796]</t>
+  </si>
+  <si>
+    <t>[0.01872358681057572, 0.01967391845641154, 0.017059575395265734, 0.013112956139422408, 0.02124817612222128, 0.044046816790797645]</t>
+  </si>
+  <si>
+    <t>[0.0040529446579406535, 0.011350505133991199, 0.00906559237959059, 0.006527271992751314, 0.008283232409635655, 0.027820117811899178]</t>
+  </si>
+  <si>
+    <t>[0.007218821194796197, 0.01132352148128862, 0.00803936404984069, 0.006068246297030772, 0.008044667410328134, 0.023415071739641424]</t>
+  </si>
+  <si>
+    <t>[0.019861028876676186, 0.01843246928309143, 0.015561563459134932, 0.016595414238239157, 0.018650767862994574, 0.03616522303574298]</t>
+  </si>
+  <si>
+    <t>[0.019558809511134978, 0.019694934690384223, 0.017245109721168918, 0.014426292885283921, 0.012507596085796414, 0.032667562429875535]</t>
+  </si>
+  <si>
+    <t>[0.026602034395247987, 0.029723886526531348, 0.03732488466458932, 0.030103211820540977, 0.035839058307882164, 0.06095028340080972]</t>
+  </si>
+  <si>
+    <t>[0.019756653009951823, 0.03297793735319553, 0.019036025725075036, 0.012236454701144163, 0.019533332607962417, 0.04833914415588948]</t>
+  </si>
+  <si>
+    <t>[0.2825284283065561, 0.28337427539699717, 0.2553790443872676, 0.2588873223525822, 0.25689331766855195, 0.20369403094823468]</t>
   </si>
   <si>
     <t>[0.07613232073733361, 0.17826819889195644, 0.07290436603430243, 0.05253020257866953, 0.09373151020789453, 0.1710057932712726, 0.09597730012390668, 0.09268779624812146, 0.052462038254807435]</t>
@@ -898,529 +898,529 @@
     <t>[0.04840254331014328, 0.050932153527501065, 0.11909588306004085, 0.09630224766295793, 0.0382649223684653, 0.07023801679984551]</t>
   </si>
   <si>
-    <t>[0.8235594165542443, 0.2393587998651804, 0.22792583316516793, 0.23877386535468736, 0.787395589827278, 0.5097960825903584, 0.6598924583206585, 0.6441251107108382, 0.7160226787918477, 0.6625866351175242]</t>
-  </si>
-  <si>
-    <t>[0.5552307072019596, 0.03438858803310515, 0.04042614826680716, 0.05158399738552033, 0.05878796677863063, 0.050011987287666385, 0.058065805460135234, 0.04516233245784321, 0.035464701860783446, 0.06486920941107702]</t>
-  </si>
-  <si>
-    <t>[0.626116642555209, 0.03494921771275881, 0.049230233473354944, 0.04873200210491985, 0.06017610594165139, 0.024572166186417957, 0.040609147446180265, 0.029918291943886625, 0.02476765012136621, 0.04858538746758553]</t>
-  </si>
-  <si>
-    <t>[0.485830656090683, 0.031195400825644086, 0.11561380898577453, 0.05277889264204693, 0.05652703578678497, 0.021898128869514703, 0.03321366242216347, 0.022201965162147067, 0.022731752736764463, 0.04159403008642877]</t>
-  </si>
-  <si>
-    <t>[0.09118228833722705, 0.061602879902092296, 0.047579801712413196, 0.18842630013110873, 0.3988448328499551, 0.2152366607506191, 0.12566914334131016, 0.08822527056020918, 0.3531101450820719, 0.16293296683895275]</t>
-  </si>
-  <si>
-    <t>[0.13139705050542208, 0.08849541387529622, 0.12209435690732659, 0.13754153264644148, 0.10755862907918957, 0.02646461096879703, 0.0471273475587652, 0.02884544063829344, 0.024037732472396472, 0.07115717992071052]</t>
-  </si>
-  <si>
-    <t>[0.12653077155309378, 0.025628802294447514, 0.032454978850862765, 0.046910374667434154, 0.047454098603921635, 0.02553987567322158, 0.02666075157599799, 0.01797151454051851, 0.028141757107028657, 0.03222715266503579]</t>
-  </si>
-  <si>
-    <t>[0.01134895038754443, 0.024364536803303048, 0.01641322308978543, 0.02917893372600638, 0.02952948727717552, 0.005810680022200266, 0.012481716069942929, 0.013851268333880565, 0.022166764944401902, 0.034784079873406586]</t>
-  </si>
-  <si>
-    <t>[0.04948282243579307, 0.008132379630340735, 0.03564385029463901, 0.03558707115177701, 0.002672709829413659, 0.013707156069683948, 0.021349053965705137, 0.015002436112472197, 0.0, 0.013487290762536167]</t>
-  </si>
-  <si>
-    <t>[0.07717438162174506, 0.03061145550000609, 0.04537837119970048, 0.03748810171769812, 0.09771438190099459, 0.018651293212490552, 0.02756669659627063, 0.022900386358054643, 0.023404400659063285, 0.030504412739834598]</t>
-  </si>
-  <si>
-    <t>[0.1328832564049509, 0.07869310550024353, 0.06975198718844684, 0.27969397884160846, 0.2409277261504156, 0.10087838253895658, 0.10198635918653398, 0.07031794688999075, 0.10143130852359153, 0.07854581938794572]</t>
-  </si>
-  <si>
-    <t>[0.029047099446346054, 0.05074147997095305, 0.07907433433547242, 0.057775862806507684, 0.2677013307936985, 0.04164224416936156, 0.06534611973243785, 0.046496897952036154, 0.05359412518037921, 0.06080368600460903]</t>
-  </si>
-  <si>
-    <t>[0.06633540590530307, 0.043346980592844114, 0.05978775165939444, 0.053530687948865736, 0.04916097952349693, 0.03845868006897095, 0.026933488941912626, 0.011880577001522263, 0.03849849526708132, 0.04007717889314636]</t>
-  </si>
-  <si>
-    <t>[0.2593742116939677, 0.31613551935444584, 0.4082721689143266, 0.37052397657937, 0.328957465986399, 0.2860527006868471, 0.3265430993879011, 0.25114160582373446, 0.32050337081423824, 0.27492818769050964]</t>
-  </si>
-  <si>
-    <t>[0.021030847950724574, 0.00319961060148657, 0.08599137316626641, 0.03382347105987912, 0.012035148445234359, 0.007567892393921804, 0.020496318494939495, 0.013604795544567642, 0.007379848631550578, 0.018147205370268392]</t>
-  </si>
-  <si>
-    <t>[0.023180847905024293, 0.009801704020386775, 0.057141679309931574, 0.017451173394306872, 0.005763243034549246, 0.007425756793879803, 0.035049762074498315, 0.023730323887745326, 0.015015619801514895, 0.02359578692515666]</t>
-  </si>
-  <si>
-    <t>[0.06061519914824642, 0.018525821078738337, 0.04876640193932994, 0.05401028656607187, 0.036629149472729994, 0.02417626644577769, 0.012633839897755697, 0.011454763131961232, 0.014688133491287038, 0.014794074503658577]</t>
-  </si>
-  <si>
-    <t>[0.11089009921630885, 0.09639775899231763, 0.11636750881871051, 0.09703577676116029, 0.11121182971334273, 0.09761545128882985, 0.1152423228391786, 0.1128212353764947, 0.11243841051203163, 0.12498467207358228]</t>
-  </si>
-  <si>
-    <t>[0.016621124503742337, 0.03059066483501677, 0.06483240997478835, 0.0704885266125718, 0.03434188990328857, 0.03233274203772552, 0.018176698304565402, 0.0017340352720930552, 0.021568578555355482, 0.021759926367225037]</t>
-  </si>
-  <si>
-    <t>[0.09240809855697044, 0.048428599965069104, 0.0710577055089312, 0.06848515561138188, 0.10854380354632438, 0.09701524104575279, 0.10342362634028752, 0.05387109550792832, 0.07457279459643548, 0.06584129637310028]</t>
-  </si>
-  <si>
-    <t>[0.1390702341697752, 0.04976664387342915, 0.10058590596096154, 0.12026603020179927, 0.13036194892634315, 0.10731168185577879, 0.13258074737577807, 0.05876298418322878, 0.06961595788937515, 0.07209401138363626]</t>
-  </si>
-  <si>
-    <t>[0.023887581698594368, 0.017589741960539355, 0.03548049403085699, 0.03297134628776264, 0.07902793402430638, 0.03214504780916335, 0.03414158389964731, 0.021170896165562923, 0.022168250186949973, 0.028755843005814657]</t>
-  </si>
-  <si>
-    <t>[0.023937551459782002, 0.019601161143427772, 0.034187868217090155, 0.034476460413981724, 0.03268789871251146, 0.03293043939259744, 0.028295749874538558, 0.017222381943639835, 0.02241248680536206, 0.02480764754172372]</t>
-  </si>
-  <si>
-    <t>[0.22389103872524277, 0.07389115032831263, 0.4426230315907608, 0.9659035351473512, 0.15098135360647696, 0.6496731365156907, 0.06640367592513911, 0.010749917468928116, 0.45817015543237927, 0.15646492350119084]</t>
-  </si>
-  <si>
-    <t>[0.025795394826945147, 0.02008431449171894, 0.09777548691084426, 0.7458846500982876, 0.03325163981118627, 0.03392151275595571, 0.02171378539712608, 0.009121114310359777, 0.16643035693695626, 0.025916654105887903]</t>
-  </si>
-  <si>
-    <t>[0.053878908978349044, 0.053798270747762986, 0.0918901664787619, 0.05232721517394017, 0.10370429550506405, 0.061491425004088156, 0.054907531068974454, 0.0424730608188689, 0.05385355727356066, 0.05081201676688504]</t>
-  </si>
-  <si>
-    <t>[0.041933714419098496, 0.033546755973678004, 0.04576563027497478, 0.054266252386732765, 0.03778749430558549, 0.04106264992492535, 0.030134267234366345, 0.015059917924753136, 0.027491404417705048, 0.03527331441322613]</t>
-  </si>
-  <si>
-    <t>[0.12375137664726385, 0.09877382428440766, 0.13989218196078, 0.3947759566609718, 0.09785124670916186, 0.150875071068325, 0.11310848140415032, 0.07034068107948681, 0.09780147199311964, 0.08880691472155239]</t>
-  </si>
-  <si>
-    <t>[0.02839538942673823, 0.009979968291929764, 0.010901596487020979, 0.033537711933066594, 0.01967880039726673, 0.0, 0.006902021274161348, 0.0011042258721536645, 0.006736562201070002, 0.0095396625482486]</t>
-  </si>
-  <si>
-    <t>[0.17838659886464042, 0.1572270770496394, 0.19744430872879734, 0.189837432422068, 0.23870908809159375, 0.11057803745101334, 0.09615517439787333, 0.05205671501577265, 0.08380907607761524, 0.08163356682049196]</t>
-  </si>
-  <si>
-    <t>[0.2973472384864363, 0.20241757156568316, 0.28372380174050177, 0.22952063752400015, 0.27480274288483253, 0.1497115598365689, 0.20841965123589049, 0.12551318840157033, 0.18982143927206774, 0.16962007015642241]</t>
-  </si>
-  <si>
-    <t>[0.1038614472608557, 0.024696064320372926, 0.21919666687616923, 0.6343795177059702, 0.06404620658656199, 0.02475381069457065, 0.026263618627805407, 0.015607838852693708, 0.023940069882074044, 0.010354590403104803]</t>
+    <t>[0.8235594165542443, 0.2393587998651804, 0.22792583316516793, 0.23877386535468736, 0.7897174963720225, 0.5097960825903584, 0.6598924583206585, 0.6441251107108382, 0.7160226787918477, 0.6625866351175242]</t>
+  </si>
+  <si>
+    <t>[0.5552307072019596, 0.03438858803310515, 0.04042614826680716, 0.05158399738552033, 0.06627169530967938, 0.050011987287666385, 0.058065805460135234, 0.04516233245784321, 0.035464701860783446, 0.06486920941107702]</t>
+  </si>
+  <si>
+    <t>[0.626116642555209, 0.03494921771275881, 0.049230233473354944, 0.04873200210491985, 0.061862434732697105, 0.024572166186417957, 0.040609147446180265, 0.029918291943886625, 0.02476765012136621, 0.04858538746758553]</t>
+  </si>
+  <si>
+    <t>[0.485830656090683, 0.031195400825644086, 0.11561380898577453, 0.05277889264204693, 0.05513198506946606, 0.021898128869514703, 0.03321366242216347, 0.022201965162147067, 0.022731752736764463, 0.04159403008642877]</t>
+  </si>
+  <si>
+    <t>[0.09118228833722705, 0.061602879902092296, 0.047579801712413196, 0.18842630013110873, 0.40197681454955403, 0.2152366607506191, 0.12566914334131016, 0.08822527056020918, 0.3531101450820719, 0.16293296683895275]</t>
+  </si>
+  <si>
+    <t>[0.13139705050542208, 0.08849541387529622, 0.12209435690732659, 0.13754153264644148, 0.10909662369283203, 0.02646461096879703, 0.0471273475587652, 0.02884544063829344, 0.024037732472396472, 0.07115717992071052]</t>
+  </si>
+  <si>
+    <t>[0.12653077155309378, 0.025628802294447514, 0.032454978850862765, 0.046910374667434154, 0.04724261011266467, 0.02553987567322158, 0.02666075157599799, 0.01797151454051851, 0.028141757107028657, 0.03222715266503579]</t>
+  </si>
+  <si>
+    <t>[0.01134895038754443, 0.024364536803303048, 0.01641322308978543, 0.02917893372600638, 0.029286106391510972, 0.005810680022200266, 0.012481716069942929, 0.013851268333880565, 0.022166764944401902, 0.034784079873406586]</t>
+  </si>
+  <si>
+    <t>[0.04948282243579307, 0.008132379630340735, 0.03564385029463901, 0.03558707115177701, 0.003584202745142941, 0.013707156069683948, 0.021349053965705137, 0.015002436112472197, 0.0, 0.013487290762536167]</t>
+  </si>
+  <si>
+    <t>[0.07717438162174506, 0.03061145550000609, 0.04537837119970048, 0.03748810171769812, 0.09889331558782576, 0.018651293212490552, 0.02756669659627063, 0.022900386358054643, 0.023404400659063285, 0.030504412739834598]</t>
+  </si>
+  <si>
+    <t>[0.1328832564049509, 0.07869310550024353, 0.06975198718844684, 0.27969397884160846, 0.23496393252826483, 0.10087838253895658, 0.10198635918653398, 0.07031794688999075, 0.10143130852359153, 0.07854581938794572]</t>
+  </si>
+  <si>
+    <t>[0.029047099446346054, 0.05074147997095305, 0.07907433433547242, 0.057775862806507684, 0.2686137792339586, 0.04164224416936156, 0.06534611973243785, 0.046496897952036154, 0.05359412518037921, 0.06080368600460903]</t>
+  </si>
+  <si>
+    <t>[0.06633540590530307, 0.043346980592844114, 0.05978775165939444, 0.053530687948865736, 0.0480022978975795, 0.03845868006897095, 0.026933488941912626, 0.011880577001522263, 0.03849849526708132, 0.04007717889314636]</t>
+  </si>
+  <si>
+    <t>[0.2593742116939677, 0.31613551935444584, 0.4082721689143266, 0.37052397657937, 0.334260601180076, 0.2860527006868471, 0.3265430993879011, 0.25114160582373446, 0.32050337081423824, 0.27492818769050964]</t>
+  </si>
+  <si>
+    <t>[0.021030847950724574, 0.00319961060148657, 0.08599137316626641, 0.03382347105987912, 0.013007717170700338, 0.007567892393921804, 0.020496318494939495, 0.013604795544567642, 0.007379848631550578, 0.018147205370268392]</t>
+  </si>
+  <si>
+    <t>[0.023180847905024293, 0.009801704020386775, 0.057141679309931574, 0.017451173394306872, 0.007021373202260406, 0.007425756793879803, 0.035049762074498315, 0.023730323887745326, 0.015015619801514895, 0.02359578692515666]</t>
+  </si>
+  <si>
+    <t>[0.06061519914824642, 0.018525821078738337, 0.04876640193932994, 0.05401028656607187, 0.039015736227081425, 0.02417626644577769, 0.012633839897755697, 0.011454763131961232, 0.014688133491287038, 0.014794074503658577]</t>
+  </si>
+  <si>
+    <t>[0.11089009921630885, 0.09639775899231763, 0.11636750881871051, 0.09703577676116029, 0.11160850968559129, 0.09761545128882985, 0.1152423228391786, 0.1128212353764947, 0.11243841051203163, 0.12498467207358228]</t>
+  </si>
+  <si>
+    <t>[0.016621124503742337, 0.03059066483501677, 0.06483240997478835, 0.0704885266125718, 0.03404648126471996, 0.03233274203772552, 0.018176698304565402, 0.0017340352720930552, 0.021568578555355482, 0.021759926367225037]</t>
+  </si>
+  <si>
+    <t>[0.09240809855697044, 0.048428599965069104, 0.0710577055089312, 0.06848515561138188, 0.1090290240395477, 0.09701524104575279, 0.10342362634028752, 0.05387109550792832, 0.07457279459643548, 0.06584129637310028]</t>
+  </si>
+  <si>
+    <t>[0.1390702341697752, 0.04976664387342915, 0.10058590596096154, 0.12026603020179927, 0.1307302586358252, 0.10731168185577879, 0.13258074737577807, 0.05876298418322878, 0.06961595788937515, 0.07209401138363626]</t>
+  </si>
+  <si>
+    <t>[0.023887581698594368, 0.017589741960539355, 0.03548049403085699, 0.03297134628776264, 0.08061908047199472, 0.03214504780916335, 0.03414158389964731, 0.021170896165562923, 0.022168250186949973, 0.028755843005814657]</t>
+  </si>
+  <si>
+    <t>[0.023937551459782002, 0.019601161143427772, 0.034187868217090155, 0.034476460413981724, 0.03311049123967656, 0.03293043939259744, 0.028295749874538558, 0.017222381943639835, 0.02241248680536206, 0.02480764754172372]</t>
+  </si>
+  <si>
+    <t>[0.22389103872524277, 0.07389115032831263, 0.4426230315907608, 0.9659035351473512, 0.15515882256067756, 0.6496731365156907, 0.06640367592513911, 0.010749917468928116, 0.45817015543237927, 0.15646492350119084]</t>
+  </si>
+  <si>
+    <t>[0.025795394826945147, 0.02008431449171894, 0.09777548691084426, 0.7458846500982876, 0.03414601870287803, 0.03392151275595571, 0.02171378539712608, 0.009121114310359777, 0.16643035693695626, 0.025916654105887903]</t>
+  </si>
+  <si>
+    <t>[0.053878908978349044, 0.053798270747762986, 0.0918901664787619, 0.05232721517394017, 0.10377482860077056, 0.061491425004088156, 0.054907531068974454, 0.0424730608188689, 0.05385355727356066, 0.05081201676688504]</t>
+  </si>
+  <si>
+    <t>[0.041933714419098496, 0.033546755973678004, 0.04576563027497478, 0.054266252386732765, 0.038551367502345585, 0.04106264992492535, 0.030134267234366345, 0.015059917924753136, 0.027491404417705048, 0.03527331441322613]</t>
+  </si>
+  <si>
+    <t>[0.12375137664726385, 0.09877382428440766, 0.13989218196078, 0.3947759566609718, 0.09943114780628666, 0.150875071068325, 0.11310848140415032, 0.07034068107948681, 0.09780147199311964, 0.08880691472155239]</t>
+  </si>
+  <si>
+    <t>[0.02839538942673823, 0.009979968291929764, 0.010901596487020979, 0.033537711933066594, 0.020087747673148824, 0.0, 0.006902021274161348, 0.0011042258721536645, 0.006736562201070002, 0.0095396625482486]</t>
+  </si>
+  <si>
+    <t>[0.17838659886464042, 0.1572270770496394, 0.19744430872879734, 0.189837432422068, 0.24215388224659254, 0.11057803745101334, 0.09615517439787333, 0.05205671501577265, 0.08380907607761524, 0.08163356682049196]</t>
+  </si>
+  <si>
+    <t>[0.2973472384864363, 0.20241757156568316, 0.28372380174050177, 0.22952063752400015, 0.27521988297304895, 0.1497115598365689, 0.20841965123589049, 0.12551318840157033, 0.18982143927206774, 0.16962007015642241]</t>
+  </si>
+  <si>
+    <t>[0.1038614472608557, 0.024696064320372926, 0.21919666687616923, 0.6343795177059702, 0.06960582759867617, 0.02475381069457065, 0.026263618627805407, 0.015607838852693708, 0.023940069882074044, 0.010354590403104803]</t>
   </si>
   <si>
     <t>[0.9324787161170367, 0.9710953449992225, 1.0, 0.9879862077751331]</t>
   </si>
   <si>
-    <t>[0.5312375757826113, 0.2340811381983884, 0.8064966354743175, 0.9697769933950632, 0.41984627634216865, 0.1793045506617982, 0.024466072102076953, 0.020906260634584745, 0.4058745356387997, 0.052929797952872955]</t>
-  </si>
-  <si>
-    <t>[0.03237084327351942, 0.0, 0.03069714817375407, 0.03547323674312554, 0.019022349663401494, 0.018437874275540184, 0.018546767166713708, 0.00935948187817232, 0.0034732046200242664, 0.015153470436280927]</t>
-  </si>
-  <si>
-    <t>[0.04934605491699274, 0.03863637590559304, 0.049609992864387796, 0.05353356693435385, 0.045447136321919726, 0.04565696589425985, 0.034249463619908875, 0.018477215683085475, 0.03812685080523797, 0.03794120345768513]</t>
-  </si>
-  <si>
-    <t>[0.08317215258572405, 0.06342619159104007, 0.09864881056082826, 0.2956771665251323, 0.12702241496929065, 0.06348274314891576, 0.06203329892097926, 0.02679610975312929, 0.045112822398866055, 0.05411237816501905]</t>
-  </si>
-  <si>
-    <t>[0.035152506800096794, 0.013806847850239477, 0.02282822876042796, 0.037265869339824724, 0.015067927000964666, 0.0009982513279376908, 0.0, 0.0, 0.0028856830438287896, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0396024466394578, 0.01618911149024048, 0.01275739193533242, 0.03645438770281151, 0.022785397954106404, 0.016469498921405402, 0.012465528748458379, 0.001291416717852162, 0.011300646580004781, 0.007760366747793014]</t>
-  </si>
-  <si>
-    <t>[0.04422931542944136, 0.02204422230654877, 0.03894257991143806, 0.03153686827311221, 0.02374348581273829, 0.035969392245836646, 0.033481490740668016, 0.02513446910529258, 0.01234659858069306, 0.009425531853686787]</t>
-  </si>
-  <si>
-    <t>[0.7156250780233395, 0.023949450668999447, 0.026877733018798977, 0.05632075870603174, 0.032342049838666044, 0.043849632588875254, 0.05969654060121722, 0.03198837659845209, 0.02466434073305284, 0.01549226402038129]</t>
-  </si>
-  <si>
-    <t>[0.7718669716399307, 0.03260201634842747, 0.0774326378605897, 0.0572491296284154, 0.07843936116114365, 0.030954695773542523, 0.040029069126102726, 0.026174204602123753, 0.026832242877960592, 0.011214373975527102]</t>
-  </si>
-  <si>
-    <t>[0.49920173266215423, 0.01745745630178697, 0.08091733427473495, 0.042732453762013164, 0.03753352985425606, 0.033999463798877125, 0.0393501773484627, 0.031573142841278594, 0.01836458051914702, 0.020258807202176782]</t>
-  </si>
-  <si>
-    <t>[0.3897647854131888, 0.09377954344856601, 0.1996997211255944, 0.11135811477420442, 0.7359168399022606, 0.05938556198956627, 0.07894239550920201, 0.07443569655475638, 0.07873225977538201, 0.07340612054246072]</t>
-  </si>
-  <si>
-    <t>[0.23892776628270332, 0.027236801297235998, 0.0597568636860449, 0.0444329577351279, 0.0628492381821551, 0.03528928534170878, 0.045736145869657206, 0.03491856509524841, 0.03878617995677684, 0.0448920355988176]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 0.7796212641732837, 1.0, 0.9925609978249696, 0.9265810638883394, 0.9151809349456009, 0.8971670742591552, 0.9905575986294917, 0.9254379868364696]</t>
-  </si>
-  <si>
-    <t>[0.10029634443655339, 0.07474776617560573, 0.0515527417689245, 0.2552458791297299, 0.20380009965541235, 0.0959081604705613, 0.0733412801682607, 0.041366347894523314, 0.1927871211873077, 0.08129922875715823]</t>
-  </si>
-  <si>
-    <t>[0.09227909709989342, 0.03195441276858724, 0.029226397664444223, 0.2611762767848636, 0.1435321225017356, 0.009846040215088009, 0.013388519548422547, 0.006909785260870692, 0.01286193834604193, 0.010167098536060966]</t>
-  </si>
-  <si>
-    <t>[0.04683821220560875, 0.016001551879169, 0.014997688544174652, 0.046020192179174746, 0.05693480486511482, 0.004610177688860413, 0.00819935213733441, 0.007016670184298637, 0.012833076986856325, 0.006653520047828951]</t>
-  </si>
-  <si>
-    <t>[0.06606623272667309, 0.010526078277041271, 0.03596900608298279, 0.04363735605593483, 0.053390133302961856, 0.054589550066937, 0.06098461203028807, 0.03733662471622846, 0.02274470856635735, 0.014938818007276377]</t>
-  </si>
-  <si>
-    <t>[0.3305340766037323, 0.01143670216296147, 0.026945031566540167, 0.041145956800244646, 0.04304473660912312, 0.026813288362342053, 0.05059573337095154, 0.031975722245992905, 0.019684815768982247, 0.0029374265526331766]</t>
-  </si>
-  <si>
-    <t>[0.48679080302227096, 0.007408818731495021, 0.03317658710583729, 0.025074409005471476, 0.046441622822051665, 0.01153295237642816, 0.019423763549089913, 0.021205467572289402, 0.008641528118311063, 0.004896943195916978]</t>
-  </si>
-  <si>
-    <t>[0.9060646023946846, 0.40806988723303106, 0.6152624632084018, 0.5195690684199429, 0.41663940963204615, 0.06946500728798391, 0.06483193979831406, 0.05488703157317082, 0.03781225609804175, 0.03465842353272307]</t>
-  </si>
-  <si>
-    <t>[0.49724045146624696, 0.03534819925345442, 0.19419814027657167, 0.4251382449234553, 0.21396546040968356, 0.05517869575275627, 0.061861505007510025, 0.045831786985820896, 0.2927379697436793, 0.024411067922768554]</t>
-  </si>
-  <si>
-    <t>[0.7403166413455154, 0.05411027869998086, 0.07425161867290178, 0.07604055597467378, 0.24146811740323842, 0.05517580098984597, 0.049410742808168866, 0.03724278759874693, 0.04098722494723997, 0.033914518054814664]</t>
-  </si>
-  <si>
-    <t>[0.1391331662751722, 0.03602779814385987, 0.032052000797915085, 0.04648900007472118, 0.07618430798345752, 0.03555819242899576, 0.037329912467375076, 0.034238036355823606, 0.02676449990723748, 0.028905672275573727]</t>
-  </si>
-  <si>
-    <t>[0.04993718083371425, 0.02333972687022306, 0.021464447604659438, 0.04016503043405267, 0.02980254512494473, 0.014174620952916986, 0.02145552258651475, 0.021403470387005175, 0.017611299871411624, 0.011174219451581762]</t>
-  </si>
-  <si>
-    <t>[0.21793882998208627, 0.21093247511531196, 0.13424071201101753, 0.2575358319066947, 0.7428829722637869, 0.18871896236867958, 0.2023865408643813, 0.18966883403915158, 0.2608160389531951, 0.1283127227148296]</t>
-  </si>
-  <si>
-    <t>[0.054230557335761945, 0.05560751289004809, 0.06958620033104093, 0.22805904262740678, 0.06145167368190316, 0.0491335817013068, 0.06888323703943898, 0.028138445162343678, 0.028133529656889634]</t>
-  </si>
-  <si>
-    <t>[0.9632211179967225, 0.982636240367267, 0.9281604835622612, 0.9776051976369452, 0.9232126214173334, 1.0, 0.9775631392700848, 0.9927257569948055, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.01417806374282006, 0.02369078172735995, 0.046970415744040594, 0.05254430280262188, 0.032298229418154877, 0.004955450849043175, 0.03834328819577514, 0.012762388708287628, 0.05293953440214111]</t>
-  </si>
-  <si>
-    <t>[0.011679118154987995, 0.011724808064281849, 0.03950297509740228, 0.05730137213632467, 0.05179553954694899, 0.043981703033530946, 0.05948260773040711, 0.1556653912970049, 0.06543317875147812]</t>
-  </si>
-  <si>
-    <t>[0.012625805551308853, 0.008693653284559465, 0.029419072085995077, 0.02870370256209951, 0.04617817303140971, 0.03464101388775937, 0.05021696792189461, 0.02597510592067828, 0.07269800437788347]</t>
-  </si>
-  <si>
-    <t>[0.05427045973889251, 0.05990084803625677, 0.07418162042864114, 0.3064510355462137, 0.5419590498403482, 0.7919766614152743, 0.5717362377670674, 0.5512851534096798, 0.533074560977237]</t>
-  </si>
-  <si>
-    <t>[0.019051760801720476, 0.006206055743265237, 0.046406174479825237, 0.05003675598620519, 0.0962546728728666, 0.036046391904745095, 0.09239416634217433, 0.0408809780324363, 0.07644191671155329]</t>
-  </si>
-  <si>
-    <t>[0.032754141868309675, 0.022790585498510853, 0.050161862421672296, 0.037781850751455064, 0.08750801336893785, 0.056798584563377046, 0.09049796657849034, 0.03708117881468726, 0.0546746456024964]</t>
+    <t>[0.5312375757826113, 0.2340811381983884, 0.8064966354743175, 0.9697769933950632, 0.4196779927367161, 0.1793045506617982, 0.024466072102076953, 0.020906260634584745, 0.4058745356387997, 0.052929797952872955]</t>
+  </si>
+  <si>
+    <t>[0.03237084327351942, 0.0, 0.03069714817375407, 0.03547323674312554, 0.020060638935184383, 0.018437874275540184, 0.018546767166713708, 0.00935948187817232, 0.0034732046200242664, 0.015153470436280927]</t>
+  </si>
+  <si>
+    <t>[0.04934605491699274, 0.03863637590559304, 0.049609992864387796, 0.05353356693435385, 0.04704448361529095, 0.04565696589425985, 0.034249463619908875, 0.018477215683085475, 0.03812685080523797, 0.03794120345768513]</t>
+  </si>
+  <si>
+    <t>[0.08317215258572405, 0.06342619159104007, 0.09864881056082826, 0.2956771665251323, 0.13029303645867782, 0.06348274314891576, 0.06203329892097926, 0.02679610975312929, 0.045112822398866055, 0.05411237816501905]</t>
+  </si>
+  <si>
+    <t>[0.035152506800096794, 0.013806847850239477, 0.02282822876042796, 0.037265869339824724, 0.015593166712161691, 0.0009982513279376908, 0.0, 0.0, 0.0028856830438287896, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0396024466394578, 0.01618911149024048, 0.01275739193533242, 0.03645438770281151, 0.02342773382681587, 0.016469498921405402, 0.012465528748458379, 0.001291416717852162, 0.011300646580004781, 0.007760366747793014]</t>
+  </si>
+  <si>
+    <t>[0.04422931542944136, 0.02204422230654877, 0.03894257991143806, 0.03153686827311221, 0.02537811278137822, 0.035969392245836646, 0.033481490740668016, 0.02513446910529258, 0.01234659858069306, 0.009425531853686787]</t>
+  </si>
+  <si>
+    <t>[0.7156250780233395, 0.023949450668999447, 0.026877733018798977, 0.05632075870603174, 0.03575339517228813, 0.043849632588875254, 0.05969654060121722, 0.03198837659845209, 0.02466434073305284, 0.01549226402038129]</t>
+  </si>
+  <si>
+    <t>[0.7718669716399307, 0.03260201634842747, 0.0774326378605897, 0.0572491296284154, 0.08072125251061033, 0.030954695773542523, 0.040029069126102726, 0.026174204602123753, 0.026832242877960592, 0.011214373975527102]</t>
+  </si>
+  <si>
+    <t>[0.49920173266215423, 0.01745745630178697, 0.08091733427473495, 0.042732453762013164, 0.03936821685002443, 0.033999463798877125, 0.0393501773484627, 0.031573142841278594, 0.01836458051914702, 0.020258807202176782]</t>
+  </si>
+  <si>
+    <t>[0.3897647854131888, 0.09377954344856601, 0.1996997211255944, 0.11135811477420442, 0.733995882183197, 0.05938556198956627, 0.07894239550920201, 0.07443569655475638, 0.07873225977538201, 0.07340612054246072]</t>
+  </si>
+  <si>
+    <t>[0.23892776628270332, 0.027236801297235998, 0.0597568636860449, 0.0444329577351279, 0.06535207564767374, 0.03528928534170878, 0.045736145869657206, 0.03491856509524841, 0.03878617995677684, 0.0448920355988176]</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 0.7796212641732837, 1.0, 0.9899212294803574, 0.9265810638883394, 0.9151809349456009, 0.8971670742591552, 0.9905575986294917, 0.9254379868364696]</t>
+  </si>
+  <si>
+    <t>[0.10029634443655339, 0.07474776617560573, 0.0515527417689245, 0.2552458791297299, 0.21039897613418676, 0.0959081604705613, 0.0733412801682607, 0.041366347894523314, 0.1927871211873077, 0.08129922875715823]</t>
+  </si>
+  <si>
+    <t>[0.09227909709989342, 0.03195441276858724, 0.029226397664444223, 0.2611762767848636, 0.15347872410016314, 0.009846040215088009, 0.013388519548422547, 0.006909785260870692, 0.01286193834604193, 0.010167098536060966]</t>
+  </si>
+  <si>
+    <t>[0.04683821220560875, 0.016001551879169, 0.014997688544174652, 0.046020192179174746, 0.06057550384015983, 0.004610177688860413, 0.00819935213733441, 0.007016670184298637, 0.012833076986856325, 0.006653520047828951]</t>
+  </si>
+  <si>
+    <t>[0.06606623272667309, 0.010526078277041271, 0.03596900608298279, 0.04363735605593483, 0.05489928653529678, 0.054589550066937, 0.06098461203028807, 0.03733662471622846, 0.02274470856635735, 0.014938818007276377]</t>
+  </si>
+  <si>
+    <t>[0.3305340766037323, 0.01143670216296147, 0.026945031566540167, 0.041145956800244646, 0.044460142193372146, 0.026813288362342053, 0.05059573337095154, 0.031975722245992905, 0.019684815768982247, 0.0029374265526331766]</t>
+  </si>
+  <si>
+    <t>[0.48679080302227096, 0.007408818731495021, 0.03317658710583729, 0.025074409005471476, 0.04761937057634214, 0.01153295237642816, 0.019423763549089913, 0.021205467572289402, 0.008641528118311063, 0.004896943195916978]</t>
+  </si>
+  <si>
+    <t>[0.9060646023946846, 0.40806988723303106, 0.6152624632084018, 0.5195690684199429, 0.4187277032388037, 0.06946500728798391, 0.06483193979831406, 0.05488703157317082, 0.03781225609804175, 0.03465842353272307]</t>
+  </si>
+  <si>
+    <t>[0.49724045146624696, 0.03534819925345442, 0.19419814027657167, 0.4251382449234553, 0.21345483303648963, 0.05517869575275627, 0.061861505007510025, 0.045831786985820896, 0.2927379697436793, 0.024411067922768554]</t>
+  </si>
+  <si>
+    <t>[0.7403166413455154, 0.05411027869998086, 0.07425161867290178, 0.07604055597467378, 0.24233310984501566, 0.05517580098984597, 0.049410742808168866, 0.03724278759874693, 0.04098722494723997, 0.033914518054814664]</t>
+  </si>
+  <si>
+    <t>[0.1391331662751722, 0.03602779814385987, 0.032052000797915085, 0.04648900007472118, 0.0771224845691225, 0.03555819242899576, 0.037329912467375076, 0.034238036355823606, 0.02676449990723748, 0.028905672275573727]</t>
+  </si>
+  <si>
+    <t>[0.04993718083371425, 0.02333972687022306, 0.021464447604659438, 0.04016503043405267, 0.030664479155403913, 0.014174620952916986, 0.02145552258651475, 0.021403470387005175, 0.017611299871411624, 0.011174219451581762]</t>
+  </si>
+  <si>
+    <t>[0.21793882998208627, 0.21093247511531196, 0.13424071201101753, 0.2575358319066947, 0.7438821080068518, 0.18871896236867958, 0.2023865408643813, 0.18966883403915158, 0.2608160389531951, 0.1283127227148296]</t>
+  </si>
+  <si>
+    <t>[0.054230557335761945, 0.05560751289004809, 0.06958620033104093, 0.2280644357020852, 0.06145167368190316, 0.0491335817013068, 0.06888323703943898, 0.028138445162343678, 0.028133529656889634]</t>
+  </si>
+  <si>
+    <t>[0.9632211179967225, 0.982636240367267, 0.9281604835622612, 0.9754439430346363, 0.9232126214173334, 1.0, 0.9775631392700848, 0.9927257569948055, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.01417806374282006, 0.02369078172735995, 0.046970415744040594, 0.05295252276640074, 0.032298229418154877, 0.004955450849043175, 0.03834328819577514, 0.012762388708287628, 0.05293953440214111]</t>
+  </si>
+  <si>
+    <t>[0.011679118154987995, 0.011724808064281849, 0.03950297509740228, 0.05607398548879894, 0.05179553954694899, 0.043981703033530946, 0.05948260773040711, 0.1556653912970049, 0.06543317875147812]</t>
+  </si>
+  <si>
+    <t>[0.012625805551308853, 0.008693653284559465, 0.029419072085995077, 0.02809889314931619, 0.04617817303140971, 0.03464101388775937, 0.05021696792189461, 0.02597510592067828, 0.07269800437788347]</t>
+  </si>
+  <si>
+    <t>[0.05427045973889251, 0.05990084803625677, 0.07418162042864114, 0.30929925209402215, 0.5419590498403482, 0.7919766614152743, 0.5717362377670674, 0.5512851534096798, 0.533074560977237]</t>
+  </si>
+  <si>
+    <t>[0.019051760801720476, 0.006206055743265237, 0.046406174479825237, 0.04916884889017776, 0.0962546728728666, 0.036046391904745095, 0.09239416634217433, 0.0408809780324363, 0.07644191671155329]</t>
+  </si>
+  <si>
+    <t>[0.032754141868309675, 0.022790585498510853, 0.050161862421672296, 0.03749095944057621, 0.08750801336893785, 0.056798584563377046, 0.09049796657849034, 0.03708117881468726, 0.0546746456024964]</t>
   </si>
   <si>
     <t>[0.011529183029417472, 0.0005143055256529837, 0.010123190530822909, 0.0, 0.054657792854979084, 0.03196704515391444, 0.08199107413560631, 0.03741773069770437, 0.04492583827106919]</t>
   </si>
   <si>
-    <t>[0.008700864945042602, 0.016338286124249, 0.011881373279155692, 0.03593022090969721, 0.03769673685201556, 0.0, 0.031650897063651776, 0.0200304492440595, 0.020669067661406883]</t>
-  </si>
-  <si>
-    <t>[0.07588973546635948, 0.11854022482129405, 0.10622491711922408, 0.148207690497408, 0.3783600749959957, 0.4265989886384715, 0.3868324918482796, 0.34547044569909535, 0.2765338138781139]</t>
-  </si>
-  <si>
-    <t>[0.09495691332875279, 0.15928130259435702, 0.23117211554333178, 0.4430095577673355, 0.08578670282685334, 0.04581056467226249, 0.047209294641367146, 0.03413341322611149, 0.029158926654967516]</t>
-  </si>
-  <si>
-    <t>[0.23204591863845814, 0.3112120058919515, 0.23115524108841082, 0.9658594962500238, 0.9578736698436565, 0.9780800702336925, 0.9201617340178277, 0.9498315076376914, 0.6781438645455853]</t>
-  </si>
-  <si>
-    <t>[0.023132541680332217, 0.019309323337397037, 0.01812237014387304, 0.03839464597669098, 0.032433424772631024, 0.0304788233431695, 0.022731869579179942, 0.030054574357406133, 0.021620300558480722]</t>
-  </si>
-  <si>
-    <t>[0.04122897043860223, 0.1611048874303394, 0.039770430807428044, 0.41231654959401576, 0.1095243352750128, 0.057312655618503565, 0.1130688884602724, 0.11053922173330724, 0.12026675810209575]</t>
-  </si>
-  <si>
-    <t>[0.0066947272659690195, 0.0, 0.03523956395674669, 0.02964105602511435, 0.038826970128300005, 0.012776835740132412, 0.034014670209543435, 0.0006266380401102332, 0.03850023152407833]</t>
-  </si>
-  <si>
-    <t>[0.010776556547153083, 0.0027247553774503498, 0.014043796807139372, 0.02248202011540004, 0.033163247545114447, 0.018030596384100997, 0.02812179757181481, 0.011956168157035612, 0.024535052125296036]</t>
-  </si>
-  <si>
-    <t>[0.007241565955138377, 0.008046910820675308, 0.016438802244081625, 0.005932733425706652, 0.035511574435059506, 0.021214522904659614, 0.03529337835032203, 0.01472314541714374, 0.020757263833479388]</t>
-  </si>
-  <si>
-    <t>[0.07418710311690836, 0.06332773162387867, 0.08473756347911349, 0.09076734977860185, 0.2981894866187706, 0.30581193016121344, 0.29131066114015536, 0.24200373066271463, 0.25390508863489897]</t>
-  </si>
-  <si>
-    <t>[0.0025325190331895483, 0.015282742879529526, 0.005961001296238188, 0.015459158081202276, 0.029634070169911663, 0.021474914928100296, 0.047248941564333166, 0.01652067384477175, 0.0206114182825061]</t>
-  </si>
-  <si>
-    <t>[0.2276105221849679, 0.3984355808545121, 0.26094774780329216, 0.6483684010744417, 0.3143523239265029, 0.4092481952294348, 0.35413433951352996, 0.3322216871796608, 0.15925419387128223]</t>
-  </si>
-  <si>
-    <t>[0.6542487659309482, 0.8126817905006878, 0.562490972159889, 0.8809027477713961, 0.8431496268921481, 0.9278446146837387, 0.877611857535224, 0.8328712338452368, 0.7554307337282146]</t>
-  </si>
-  <si>
-    <t>[0.013062714312606635, 0.03183039029643805, 0.02485587490444078, 0.08794767164683565, 0.025424345397055608, 0.01456229588431835, 0.03388411789252597, 0.01390462277205157, 0.040148498344907774]</t>
-  </si>
-  <si>
-    <t>[0.01351314936366339, 0.051418992281517875, 0.01579457670883097, 0.09015559524407091, 0.023447922965270148, 0.01942163050742971, 0.02204397761409043, 0.011797736505664307, 0.03363397412969027]</t>
-  </si>
-  <si>
-    <t>[0.05529132711489016, 0.08330392818908361, 0.055798865167290566, 0.33941983427069944, 0.03296436078979878, 0.08369587128709048, 0.021199360093230337, 0.0773257438704841, 0.58407514142704]</t>
-  </si>
-  <si>
-    <t>[0.009445432854389653, 0.02085646982483298, 0.004898123263194043, 0.036424392217748625, 0.022512865827356215, 0.007711978771205221, 0.013017396275948672, 0.0, 0.028497622828385125]</t>
-  </si>
-  <si>
-    <t>[0.09628883222714713, 0.10083560854086124, 0.11055703695704605, 0.3466511074395443, 0.20544595840556845, 0.21798591021784808, 0.17157760927098525, 0.1846474144102786, 0.18342976230405378]</t>
-  </si>
-  <si>
-    <t>[0.031144558852513944, 0.11326571968684544, 0.059541430114551104, 0.07129054334308273, 0.105083650822136, 0.10944281589430561, 0.09752184310531585, 0.10050710877711914, 0.11226180380234307]</t>
-  </si>
-  <si>
-    <t>[0.028033749834721684, 0.09747397615152309, 0.05118627193371957, 0.1128812739271915, 0.17616295150558725, 0.20244942579023237, 0.15050550820018554, 0.15863762418763808, 0.12982617395074214]</t>
-  </si>
-  <si>
-    <t>[0.02677138654682022, 0.029700235543595684, 0.012339475000103236, 0.017794626755237637, 0.032906891809269624, 0.028888361400855548, 0.04467726420184608, 0.012586764362985685, 0.01484952480212325]</t>
-  </si>
-  <si>
-    <t>[0.07849404339518688, 0.06512876809874199, 0.044609637113372506, 0.12858302386231482, 0.19881928775052363, 0.23012967244936533, 0.2120168826211991, 0.20649395523648376, 0.14950897981165803]</t>
-  </si>
-  <si>
-    <t>[0.045774092605829576, 0.0896965104026884, 0.036507658684272554, 0.2794810841156154, 0.08899579412002111, 0.0944395296576941, 0.10198471308390321, 0.1033519817171048, 0.0962654110732708]</t>
-  </si>
-  <si>
-    <t>[0.012824303515275005, 0.026309071755960287, 0.014352585106945396, 0.06128367884703044, 0.0, 0.016438756969176016, 0.007356008665436184, 0.005593641088044989, 0.013982628592558322]</t>
+    <t>[0.008700864945042602, 0.016338286124249, 0.011881373279155692, 0.03617137140219533, 0.03769673685201556, 0.0, 0.031650897063651776, 0.0200304492440595, 0.020669067661406883]</t>
+  </si>
+  <si>
+    <t>[0.07588973546635948, 0.11854022482129405, 0.10622491711922408, 0.1477189629931023, 0.3783600749959957, 0.4265989886384715, 0.3868324918482796, 0.34547044569909535, 0.2765338138781139]</t>
+  </si>
+  <si>
+    <t>[0.09495691332875279, 0.15928130259435702, 0.23117211554333178, 0.4487805355809918, 0.08578670282685334, 0.04581056467226249, 0.047209294641367146, 0.03413341322611149, 0.029158926654967516]</t>
+  </si>
+  <si>
+    <t>[0.23204591863845814, 0.3112120058919515, 0.23115524108841082, 0.9648337422981631, 0.9578736698436565, 0.9780800702336925, 0.9201617340178277, 0.9498315076376914, 0.6781438645455853]</t>
+  </si>
+  <si>
+    <t>[0.023132541680332217, 0.019309323337397037, 0.01812237014387304, 0.038396861552047995, 0.032433424772631024, 0.0304788233431695, 0.022731869579179942, 0.030054574357406133, 0.021620300558480722]</t>
+  </si>
+  <si>
+    <t>[0.04122897043860223, 0.1611048874303394, 0.039770430807428044, 0.41233560093083715, 0.1095243352750128, 0.057312655618503565, 0.1130688884602724, 0.11053922173330724, 0.12026675810209575]</t>
+  </si>
+  <si>
+    <t>[0.0066947272659690195, 0.0, 0.03523956395674669, 0.029743441976757514, 0.038826970128300005, 0.012776835740132412, 0.034014670209543435, 0.0006266380401102332, 0.03850023152407833]</t>
+  </si>
+  <si>
+    <t>[0.010776556547153083, 0.0027247553774503498, 0.014043796807139372, 0.0226256179190664, 0.033163247545114447, 0.018030596384100997, 0.02812179757181481, 0.011956168157035612, 0.024535052125296036]</t>
+  </si>
+  <si>
+    <t>[0.007241565955138377, 0.008046910820675308, 0.016438802244081625, 0.005662063020055226, 0.035511574435059506, 0.021214522904659614, 0.03529337835032203, 0.01472314541714374, 0.020757263833479388]</t>
+  </si>
+  <si>
+    <t>[0.07418710311690836, 0.06332773162387867, 0.08473756347911349, 0.09017914961567088, 0.2981894866187706, 0.30581193016121344, 0.29131066114015536, 0.24200373066271463, 0.25390508863489897]</t>
+  </si>
+  <si>
+    <t>[0.0025325190331895483, 0.015282742879529526, 0.005961001296238188, 0.015176368286259968, 0.029634070169911663, 0.021474914928100296, 0.047248941564333166, 0.01652067384477175, 0.0206114182825061]</t>
+  </si>
+  <si>
+    <t>[0.2276105221849679, 0.3984355808545121, 0.26094774780329216, 0.6471022895545232, 0.3143523239265029, 0.4092481952294348, 0.35413433951352996, 0.3322216871796608, 0.15925419387128223]</t>
+  </si>
+  <si>
+    <t>[0.6542487659309482, 0.8126817905006878, 0.562490972159889, 0.8780670844450449, 0.8431496268921481, 0.9278446146837387, 0.877611857535224, 0.8328712338452368, 0.7554307337282146]</t>
+  </si>
+  <si>
+    <t>[0.013062714312606635, 0.03183039029643805, 0.02485587490444078, 0.08850469703793029, 0.025424345397055608, 0.01456229588431835, 0.03388411789252597, 0.01390462277205157, 0.040148498344907774]</t>
+  </si>
+  <si>
+    <t>[0.01351314936366339, 0.051418992281517875, 0.01579457670883097, 0.09075032861655803, 0.023447922965270148, 0.01942163050742971, 0.02204397761409043, 0.011797736505664307, 0.03363397412969027]</t>
+  </si>
+  <si>
+    <t>[0.05529132711489016, 0.08330392818908361, 0.055798865167290566, 0.3411240989129518, 0.03296436078979878, 0.08369587128709048, 0.021199360093230337, 0.0773257438704841, 0.58407514142704]</t>
+  </si>
+  <si>
+    <t>[0.009445432854389653, 0.02085646982483298, 0.004898123263194043, 0.03598922750472978, 0.022512865827356215, 0.007711978771205221, 0.013017396275948672, 0.0, 0.028497622828385125]</t>
+  </si>
+  <si>
+    <t>[0.09628883222714713, 0.10083560854086124, 0.11055703695704605, 0.34639255968744287, 0.20544595840556845, 0.21798591021784808, 0.17157760927098525, 0.1846474144102786, 0.18342976230405378]</t>
+  </si>
+  <si>
+    <t>[0.031144558852513944, 0.11326571968684544, 0.059541430114551104, 0.07141218224097874, 0.105083650822136, 0.10944281589430561, 0.09752184310531585, 0.10050710877711914, 0.11226180380234307]</t>
+  </si>
+  <si>
+    <t>[0.028033749834721684, 0.09747397615152309, 0.05118627193371957, 0.11303064184137433, 0.17616295150558725, 0.20244942579023237, 0.15050550820018554, 0.15863762418763808, 0.12982617395074214]</t>
+  </si>
+  <si>
+    <t>[0.02677138654682022, 0.029700235543595684, 0.012339475000103236, 0.017249579075290115, 0.032906891809269624, 0.028888361400855548, 0.04467726420184608, 0.012586764362985685, 0.01484952480212325]</t>
+  </si>
+  <si>
+    <t>[0.07849404339518688, 0.06512876809874199, 0.044609637113372506, 0.1273812129671808, 0.19881928775052363, 0.23012967244936533, 0.2120168826211991, 0.20649395523648376, 0.14950897981165803]</t>
+  </si>
+  <si>
+    <t>[0.045774092605829576, 0.0896965104026884, 0.036507658684272554, 0.2788568319578721, 0.08899579412002111, 0.0944395296576941, 0.10198471308390321, 0.1033519817171048, 0.0962654110732708]</t>
+  </si>
+  <si>
+    <t>[0.012824303515275005, 0.026309071755960287, 0.014352585106945396, 0.06270650790248428, 0.0, 0.016438756969176016, 0.007356008665436184, 0.005593641088044989, 0.013982628592558322]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[0.13544173132256296, 0.16515140587658714, 0.10101332591094327, 0.16598118006356377, 0.20404077091828843, 0.22115411090865095, 0.147797511180869, 0.15291442105734956, 0.1191508078642969]</t>
-  </si>
-  <si>
-    <t>[0.022190099027623082, 0.03416243633284459, 0.0, 0.024848109495655007, 0.005160957017289312, 0.014473905431240507, 0.0, 0.0017223374860603595, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.03381616446951273, 0.004177580609533967, 0.05212180783716388, 0.06681412722951004, 0.07834923505292983, 0.039676305520833156, 0.050161192535440775, 0.06476665764763649]</t>
-  </si>
-  <si>
-    <t>[0.008334060516154387, 0.027075586671757787, 0.008675844796321037, 0.10099791189582259, 0.49462167826002135, 0.4592005797283739, 0.5843372614070671, 0.7143315243994416, 0.8462207180303936]</t>
-  </si>
-  <si>
-    <t>[0.004070127191474783, 0.023013264359483174, 0.012447809615591936, 0.03736004969144109, 0.018835791174910417, 0.03883163517714862, 0.024179482095851856, 0.030510568902792735, 0.004817265997578925]</t>
-  </si>
-  <si>
-    <t>[0.01046385568449531, 0.03514301116947791, 0.01581897710816714, 0.02784564363844963, 0.04141578419139154, 0.07290124888271483, 0.05301632569502722, 0.0657979135139077, 0.04091666415481671]</t>
-  </si>
-  <si>
-    <t>[0.048795381654906995, 0.028876167699467527, 0.008426216947529814, 0.04004464614945119, 0.03981033881984312, 0.05637528538201709, 0.05502011005622771, 0.061446493011623506, 0.03111623392939761]</t>
-  </si>
-  <si>
-    <t>[0.045502331065861094, 0.05410013142651841, 0.04232022336189178, 0.3669338081052302, 0.07998404219566363, 0.08383238729073118, 0.07560264835471417, 0.09014992579484506, 0.0716084341820699]</t>
-  </si>
-  <si>
-    <t>[0.038128824145361735, 0.05213817060567199, 0.035724989058276715, 0.08610622844491217, 0.03748046778086354, 0.05347522046026983, 0.043853192415580194, 0.055491619076514544, 0.031700265334724614]</t>
-  </si>
-  <si>
-    <t>[0.01529820484185515, 0.03236012056883268, 0.007985306427121495, 0.04353527621115404, 0.0031449023646842873, 0.024983599319304713, 0.003081423744064697, 0.01600261347100577, 0.011458299886297162]</t>
+    <t>[0.13544173132256296, 0.16515140587658714, 0.10101332591094327, 0.16495422426989237, 0.20404077091828843, 0.22115411090865095, 0.147797511180869, 0.15291442105734956, 0.1191508078642969]</t>
+  </si>
+  <si>
+    <t>[0.022190099027623082, 0.03416243633284459, 0.0, 0.024339668418510825, 0.005160957017289312, 0.014473905431240507, 0.0, 0.0017223374860603595, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.03381616446951273, 0.004177580609533967, 0.05208697360124757, 0.06681412722951004, 0.07834923505292983, 0.039676305520833156, 0.050161192535440775, 0.06476665764763649]</t>
+  </si>
+  <si>
+    <t>[0.008334060516154387, 0.027075586671757787, 0.008675844796321037, 0.10165138868227162, 0.49462167826002135, 0.4592005797283739, 0.5843372614070671, 0.7143315243994416, 0.8462207180303936]</t>
+  </si>
+  <si>
+    <t>[0.004070127191474783, 0.023013264359483174, 0.012447809615591936, 0.03824404250075307, 0.018835791174910417, 0.03883163517714862, 0.024179482095851856, 0.030510568902792735, 0.004817265997578925]</t>
+  </si>
+  <si>
+    <t>[0.01046385568449531, 0.03514301116947791, 0.01581897710816714, 0.02818779906358645, 0.04141578419139154, 0.07290124888271483, 0.05301632569502722, 0.0657979135139077, 0.04091666415481671]</t>
+  </si>
+  <si>
+    <t>[0.048795381654906995, 0.028876167699467527, 0.008426216947529814, 0.039607485808378605, 0.03981033881984312, 0.05637528538201709, 0.05502011005622771, 0.061446493011623506, 0.03111623392939761]</t>
+  </si>
+  <si>
+    <t>[0.045502331065861094, 0.05410013142651841, 0.04232022336189178, 0.36521897859251257, 0.07998404219566363, 0.08383238729073118, 0.07560264835471417, 0.09014992579484506, 0.0716084341820699]</t>
+  </si>
+  <si>
+    <t>[0.038128824145361735, 0.05213817060567199, 0.035724989058276715, 0.08555465927515092, 0.03748046778086354, 0.05347522046026983, 0.043853192415580194, 0.055491619076514544, 0.031700265334724614]</t>
+  </si>
+  <si>
+    <t>[0.01529820484185515, 0.03236012056883268, 0.007985306427121495, 0.04405506436837056, 0.0031449023646842873, 0.024983599319304713, 0.003081423744064697, 0.01600261347100577, 0.011458299886297162]</t>
   </si>
   <si>
     <t>[0.08906997335817683, 0.131952831391729, 0.0830130693419419, 0.19267604508316136, 0.27515977635317246, 0.20510016069460463, 0.22047961791767434, 0.18007794301617916]</t>
   </si>
   <si>
-    <t>[0.02287503857118517, 0.06342270983569095, 0.00772356271699855, 0.03989509930055738, 0.07797967560046443, 0.11862281512541892, 0.051225082143498905, 0.08343005828521823, 0.055467222694585365]</t>
-  </si>
-  <si>
-    <t>[0.9849726865807983, 0.99175759445942, 0.9569925881506947, 0.9976847416244505, 0.9668785063446897, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.6422094493992571, 0.5163843248744121, 0.7024126440478755, 0.48332640534637217, 0.8894084892215974, 0.835124754923404, 0.987052009919754, 0.9718093232177438, 0.8378500878861741]</t>
-  </si>
-  <si>
-    <t>[0.011963363117424958, 0.025568002027568072, 0.023707222425506738, 0.38285948797805053, 0.16774784681543875, 0.34251455162345334, 0.1344239100361407, 0.3222182780579662, 0.1440113602977182]</t>
-  </si>
-  <si>
-    <t>[0.03906568361691962, 0.09390363599033703, 0.03603229850659217, 0.045705403401461765, 0.03130631865614662, 0.05687729264660765, 0.06688241541693062, 0.10583823901509531, 0.02428600256813857]</t>
-  </si>
-  <si>
-    <t>[0.07605324462151745, 0.07760392313017671, 0.02510773042228482, 0.10741749210242528, 0.03805617982594898, 0.057996376423097025, 0.057909245528735304, 0.0596796403974455, 0.009194898182744294]</t>
-  </si>
-  <si>
-    <t>[0.05249993854493652, 0.06416451890197197, 0.015448743083972191, 0.07081278966649944, 0.047627258678065616, 0.06949439697698877, 0.062089038749218416, 0.04594005152691828, 0.03421305053913885]</t>
-  </si>
-  <si>
-    <t>[0.028054430207514903, 0.03348952533916271, 0.013975092233191686, 0.05138222741814533, 0.06615626941862997, 0.10835436707912778, 0.07141358396110085, 0.12007046715463071, 0.06908190363680772]</t>
-  </si>
-  <si>
-    <t>[0.25871755970403554, 0.40595184535195283, 0.2193700719039986, 0.566358693276795, 0.10373818045495206, 0.14060004873061424, 0.07447810197596856, 0.10267406806197503, 0.052802634484447705]</t>
-  </si>
-  <si>
-    <t>[0.0442238939377597, 0.04960680136129801, 0.017904120131358205, 0.0602216272384812, 0.04006826242008089, 0.07359859063575226, 0.02322613994136543, 0.0449270990773354, 0.042005890604339284]</t>
-  </si>
-  <si>
-    <t>[0.03507656351870094, 0.060341820341820326, 0.01953846036062268, 0.23599839374217194, 0.8907697625787376, 0.9231850202285469, 0.9400597792377555, 0.8850339682788353, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.05627288705453999, 0.0875660126383787, 0.03545187983945328, 0.06837942226506312, 0.07714005493518256, 0.11822866567296758, 0.08052131876271566, 0.10330522557189663, 0.07803238631890316]</t>
-  </si>
-  <si>
-    <t>[0.04597135995841421, 0.058329843467135344, 0.032228984712569596, 0.03950986461603639, 0.060947741942866576, 0.08653645352354507, 0.053354252443652085, 0.07392941269584223, 0.03591404656038201]</t>
-  </si>
-  <si>
-    <t>[0.9497819605714009, 0.96654698707182, 0.959575746809911, 0.930928087476445, 0.9519991172647488, 1.0, 1.0, 0.994921356153121, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.1255629469325698, 0.040349178135667796, 0.14715673397300338]</t>
-  </si>
-  <si>
-    <t>[0.49092465150639475, 0.6511609570657961, 0.25723669788310977]</t>
-  </si>
-  <si>
-    <t>[0.041802668430768866, 0.021118925323167562, 0.049486430327543844]</t>
-  </si>
-  <si>
-    <t>[0.08472855536298762, 0.04903382452972343, 0.08630210495979242]</t>
-  </si>
-  <si>
-    <t>[0.09093827371612453, 0.05619773953803457, 0.07324108052455401]</t>
-  </si>
-  <si>
-    <t>[0.03598352103062447, 0.49598173588881883, 0.040449002912815585]</t>
-  </si>
-  <si>
-    <t>[0.0625975513631358, 0.034893188649905704, 0.06903568316726369]</t>
-  </si>
-  <si>
-    <t>[0.0484026415897336, 0.017350003998827038, 0.0550128285316755]</t>
-  </si>
-  <si>
-    <t>[0.025002577663603122, 0.010042317424308528, 0.034222486771050824]</t>
-  </si>
-  <si>
-    <t>[0.02812969504410296, 0.01760197059449256, 0.02723924282492953]</t>
-  </si>
-  <si>
-    <t>[0.035034841448687445, 0.024864857454261324, 0.05157437033390762]</t>
-  </si>
-  <si>
-    <t>[0.028678150629690567, 0.04156870577932104, 0.03517539489023205]</t>
-  </si>
-  <si>
-    <t>[0.06178810154683868, 0.024740832353804292, 0.07219367444088706]</t>
-  </si>
-  <si>
-    <t>[0.03740641860881335, 0.019988814138928394, 0.039603864308234975]</t>
-  </si>
-  <si>
-    <t>[0.5466261450674635, 0.5757008896162751, 0.5592096654271315]</t>
-  </si>
-  <si>
-    <t>[0.029419222568822494, 0.0, 0.04466325353146919]</t>
-  </si>
-  <si>
-    <t>[0.02962296016492705, 0.015178749452617638, 0.033390957257611036]</t>
-  </si>
-  <si>
-    <t>[0.019126201935696748, 0.014340160416911111, 0.02141992765120064]</t>
-  </si>
-  <si>
-    <t>[0.2921073005006915, 0.2560928468620776, 0.27140873772343543]</t>
-  </si>
-  <si>
-    <t>[0.021084630738396157, 0.014093820412121328, 0.03787774222556827]</t>
-  </si>
-  <si>
-    <t>[0.14699657101233873, 0.11417128824311878, 0.13529964163435287]</t>
-  </si>
-  <si>
-    <t>[0.15117932782367927, 0.12028380873919864, 0.13743132954956216]</t>
-  </si>
-  <si>
-    <t>[0.012990496259211502, 0.016274292470257922, 0.03026096388546652]</t>
-  </si>
-  <si>
-    <t>[0.012094656993984185, 0.014138486538566855, 0.028067344879493104]</t>
-  </si>
-  <si>
-    <t>[0.13069636043527363, 0.13249120298484124, 0.10142111473311594]</t>
-  </si>
-  <si>
-    <t>[0.021727191476454154, 0.017523848046651153, 0.03388758735057464]</t>
-  </si>
-  <si>
-    <t>[0.1666632870853282, 0.1830674005547729, 0.16369338352399818]</t>
-  </si>
-  <si>
-    <t>[0.03004258703901291, 0.02574807248927782, 0.029634995046690378]</t>
-  </si>
-  <si>
-    <t>[0.13208860795027652, 0.10436537847333122, 0.13664052182696798]</t>
-  </si>
-  <si>
-    <t>[0.012935623716989059, 0.011757324035403674, 0.02195687102378526]</t>
-  </si>
-  <si>
-    <t>[0.34934549126601827, 0.2566618373469923, 0.34790683289842445]</t>
-  </si>
-  <si>
-    <t>[0.4842964371568221, 0.7403447621057073, 0.5245896670625405]</t>
-  </si>
-  <si>
-    <t>[0.008299815819021665, 0.01592196790311643, 0.020560470478039695]</t>
-  </si>
-  <si>
-    <t>[0.310949891187501, 0.2172794641310415, 0.2524654067079917]</t>
-  </si>
-  <si>
-    <t>[0.007248232913088196, 0.011982365225462132, 0.012913371591292975]</t>
-  </si>
-  <si>
-    <t>[0.12064084164233732, 0.12104360723154194, 0.1337622489637818]</t>
-  </si>
-  <si>
-    <t>[0.00414206602285317, 0.026344096971793726, 0.008735326938288223]</t>
-  </si>
-  <si>
-    <t>[0.0034130028447965353, 0.011228605061948654, 0.0]</t>
+    <t>[0.02287503857118517, 0.06342270983569095, 0.00772356271699855, 0.0395950417346306, 0.07797967560046443, 0.11862281512541892, 0.051225082143498905, 0.08343005828521823, 0.055467222694585365]</t>
+  </si>
+  <si>
+    <t>[0.9849726865807983, 0.99175759445942, 0.9569925881506947, 0.9963157736669999, 0.9668785063446897, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.6422094493992571, 0.5163843248744121, 0.7024126440478755, 0.48615542568061754, 0.8894084892215974, 0.835124754923404, 0.987052009919754, 0.9718093232177438, 0.8378500878861741]</t>
+  </si>
+  <si>
+    <t>[0.011963363117424958, 0.025568002027568072, 0.023707222425506738, 0.38483057891922007, 0.16774784681543875, 0.34251455162345334, 0.1344239100361407, 0.3222182780579662, 0.1440113602977182]</t>
+  </si>
+  <si>
+    <t>[0.03906568361691962, 0.09390363599033703, 0.03603229850659217, 0.04600263969903473, 0.03130631865614662, 0.05687729264660765, 0.06688241541693062, 0.10583823901509531, 0.02428600256813857]</t>
+  </si>
+  <si>
+    <t>[0.07605324462151745, 0.07760392313017671, 0.02510773042228482, 0.10736671081527932, 0.03805617982594898, 0.057996376423097025, 0.057909245528735304, 0.0596796403974455, 0.009194898182744294]</t>
+  </si>
+  <si>
+    <t>[0.05249993854493652, 0.06416451890197197, 0.015448743083972191, 0.07090631127192842, 0.047627258678065616, 0.06949439697698877, 0.062089038749218416, 0.04594005152691828, 0.03421305053913885]</t>
+  </si>
+  <si>
+    <t>[0.028054430207514903, 0.03348952533916271, 0.013975092233191686, 0.05067210708163883, 0.06615626941862997, 0.10835436707912778, 0.07141358396110085, 0.12007046715463071, 0.06908190363680772]</t>
+  </si>
+  <si>
+    <t>[0.25871755970403554, 0.40595184535195283, 0.2193700719039986, 0.568542552426064, 0.10373818045495206, 0.14060004873061424, 0.07447810197596856, 0.10267406806197503, 0.052802634484447705]</t>
+  </si>
+  <si>
+    <t>[0.0442238939377597, 0.04960680136129801, 0.017904120131358205, 0.05952061003798117, 0.04006826242008089, 0.07359859063575226, 0.02322613994136543, 0.0449270990773354, 0.042005890604339284]</t>
+  </si>
+  <si>
+    <t>[0.03507656351870094, 0.060341820341820326, 0.01953846036062268, 0.23552174339936868, 0.8907697625787376, 0.9231850202285469, 0.9400597792377555, 0.8850339682788353, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.05627288705453999, 0.0875660126383787, 0.03545187983945328, 0.06796426142042375, 0.07714005493518256, 0.11822866567296758, 0.08052131876271566, 0.10330522557189663, 0.07803238631890316]</t>
+  </si>
+  <si>
+    <t>[0.04597135995841421, 0.058329843467135344, 0.032228984712569596, 0.03921988723877984, 0.060947741942866576, 0.08653645352354507, 0.053354252443652085, 0.07392941269584223, 0.03591404656038201]</t>
+  </si>
+  <si>
+    <t>[0.9497819605714009, 0.96654698707182, 0.959575746809911, 0.9302129505364151, 0.9519991172647488, 1.0, 1.0, 0.994921356153121, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.1257323064396975, 0.040349178135667796, 0.14715673397300338]</t>
+  </si>
+  <si>
+    <t>[0.4907081710390473, 0.6511609570657961, 0.25723669788310977]</t>
+  </si>
+  <si>
+    <t>[0.0419122023298923, 0.021118925323167562, 0.049486430327543844]</t>
+  </si>
+  <si>
+    <t>[0.08506781049511088, 0.04903382452972343, 0.08630210495979242]</t>
+  </si>
+  <si>
+    <t>[0.09127763821948469, 0.05619773953803457, 0.07324108052455401]</t>
+  </si>
+  <si>
+    <t>[0.03607461805424391, 0.49598173588881883, 0.040449002912815585]</t>
+  </si>
+  <si>
+    <t>[0.06277110828983067, 0.034893188649905704, 0.06903568316726369]</t>
+  </si>
+  <si>
+    <t>[0.04838034543494265, 0.017350003998827038, 0.0550128285316755]</t>
+  </si>
+  <si>
+    <t>[0.024977122470863197, 0.010042317424308528, 0.034222486771050824]</t>
+  </si>
+  <si>
+    <t>[0.028047883267439008, 0.01760197059449256, 0.02723924282492953]</t>
+  </si>
+  <si>
+    <t>[0.035145148456212943, 0.024864857454261324, 0.05157437033390762]</t>
+  </si>
+  <si>
+    <t>[0.028765185952705694, 0.04156870577932104, 0.03517539489023205]</t>
+  </si>
+  <si>
+    <t>[0.061981026667209914, 0.024740832353804292, 0.07219367444088706]</t>
+  </si>
+  <si>
+    <t>[0.037460519748434215, 0.019988814138928394, 0.039603864308234975]</t>
+  </si>
+  <si>
+    <t>[0.5465219782012392, 0.5757008896162751, 0.5592096654271315]</t>
+  </si>
+  <si>
+    <t>[0.029574720398704072, 0.0, 0.04466325353146919]</t>
+  </si>
+  <si>
+    <t>[0.029772715681580388, 0.015178749452617638, 0.033390957257611036]</t>
+  </si>
+  <si>
+    <t>[0.019111203797960136, 0.014340160416911111, 0.02141992765120064]</t>
+  </si>
+  <si>
+    <t>[0.29226976570021657, 0.2560928468620776, 0.27140873772343543]</t>
+  </si>
+  <si>
+    <t>[0.021091444665592582, 0.014093820412121328, 0.03787774222556827]</t>
+  </si>
+  <si>
+    <t>[0.14707682633135524, 0.11417128824311878, 0.13529964163435287]</t>
+  </si>
+  <si>
+    <t>[0.15121163865591922, 0.12028380873919864, 0.13743132954956216]</t>
+  </si>
+  <si>
+    <t>[0.012972918067443365, 0.016274292470257922, 0.03026096388546652]</t>
+  </si>
+  <si>
+    <t>[0.012118356357625246, 0.014138486538566855, 0.028067344879493104]</t>
+  </si>
+  <si>
+    <t>[0.130676519936784, 0.13249120298484124, 0.10142111473311594]</t>
+  </si>
+  <si>
+    <t>[0.021678461494519328, 0.017523848046651153, 0.03388758735057464]</t>
+  </si>
+  <si>
+    <t>[0.1666167960079722, 0.1830674005547729, 0.16369338352399818]</t>
+  </si>
+  <si>
+    <t>[0.030133652172117005, 0.02574807248927782, 0.029634995046690378]</t>
+  </si>
+  <si>
+    <t>[0.1320512425158281, 0.10436537847333122, 0.13664052182696798]</t>
+  </si>
+  <si>
+    <t>[0.012950501731013107, 0.011757324035403674, 0.02195687102378526]</t>
+  </si>
+  <si>
+    <t>[0.3494380966153356, 0.2566618373469923, 0.34790683289842445]</t>
+  </si>
+  <si>
+    <t>[0.48484679113088636, 0.7403447621057073, 0.5245896670625405]</t>
+  </si>
+  <si>
+    <t>[0.008255440220910458, 0.01592196790311643, 0.020560470478039695]</t>
+  </si>
+  <si>
+    <t>[0.31109137136244225, 0.2172794641310415, 0.2524654067079917]</t>
+  </si>
+  <si>
+    <t>[0.007245483333814933, 0.011982365225462132, 0.012913371591292975]</t>
+  </si>
+  <si>
+    <t>[0.12063121368364862, 0.12104360723154194, 0.1337622489637818]</t>
+  </si>
+  <si>
+    <t>[0.004103405016998537, 0.026344096971793726, 0.008735326938288223]</t>
+  </si>
+  <si>
+    <t>[0.003410730643640664, 0.011228605061948654, 0.0]</t>
   </si>
   <si>
     <t>[0.0, 0.01959733086008351, 0.0010767684198725205]</t>
   </si>
   <si>
-    <t>[0.016028986343916564, 0.0412763652046061, 0.028767175594920518]</t>
-  </si>
-  <si>
-    <t>[0.03543559188631377, 0.0325895498987209, 0.03847111607039064]</t>
-  </si>
-  <si>
-    <t>[0.023597647433121677, 0.04315854922279799, 0.04306362196783634]</t>
-  </si>
-  <si>
-    <t>[0.001286115052660504, 0.02171309935846184, 0.020210076380371828]</t>
-  </si>
-  <si>
-    <t>[0.14263053484591562, 0.2955155826591829, 0.2071021674926163]</t>
-  </si>
-  <si>
-    <t>[0.014080991758203956, 0.07092558291029086, 0.06255727162793179]</t>
-  </si>
-  <si>
-    <t>[0.7375402833147694, 0.9450558194255286]</t>
-  </si>
-  <si>
-    <t>[0.31054407339451284, 0.9461125841049899, 0.48520991806122726]</t>
-  </si>
-  <si>
-    <t>[0.011691298281075978, 0.4062453491361231, 0.045287713841368614]</t>
-  </si>
-  <si>
-    <t>[0.0013312906437720315, 0.07207645435404011, 0.015464592647444837]</t>
-  </si>
-  <si>
-    <t>[0.04591303199150357, 0.055000789341826166, 0.05612253988185678]</t>
-  </si>
-  <si>
-    <t>[0.04511761365745128, 0.0556585700634747, 0.04683233465660518]</t>
-  </si>
-  <si>
-    <t>[0.00801585120892494, 0.03296434525216913, 0.024134055882851613]</t>
-  </si>
-  <si>
-    <t>[0.010741902407741456, 0.03580788189541993, 0.02254404400409935]</t>
-  </si>
-  <si>
-    <t>[0.011024138073953083, 0.047726564332129094, 0.029488387842703665]</t>
-  </si>
-  <si>
-    <t>[0.04442765667197421, 0.6540321076480584, 0.06446121031302798]</t>
-  </si>
-  <si>
-    <t>[0.021364596964568997, 0.034772819311329306, 0.052366244262144854]</t>
-  </si>
-  <si>
-    <t>[0.0037600897804191823, 0.024597522372038483, 0.024158468330553063]</t>
-  </si>
-  <si>
-    <t>[0.7224919232907491, 0.7667152798957494, 0.6076585621108054]</t>
+    <t>[0.015987479822460186, 0.0412763652046061, 0.028767175594920518]</t>
+  </si>
+  <si>
+    <t>[0.03539738709699303, 0.0325895498987209, 0.03847111607039064]</t>
+  </si>
+  <si>
+    <t>[0.023508046718814225, 0.04315854922279799, 0.04306362196783634]</t>
+  </si>
+  <si>
+    <t>[0.0012720902201555314, 0.02171309935846184, 0.020210076380371828]</t>
+  </si>
+  <si>
+    <t>[0.1426543152020939, 0.2955155826591829, 0.2071021674926163]</t>
+  </si>
+  <si>
+    <t>[0.014147293963404346, 0.07092558291029086, 0.06255727162793179]</t>
+  </si>
+  <si>
+    <t>[0.7374975899760047, 0.9450558194255286]</t>
+  </si>
+  <si>
+    <t>[0.31018208247507373, 0.9461125841049899, 0.48520991806122726]</t>
+  </si>
+  <si>
+    <t>[0.011650428030433703, 0.4062453491361231, 0.045287713841368614]</t>
+  </si>
+  <si>
+    <t>[0.00130969835811112, 0.07207645435404011, 0.015464592647444837]</t>
+  </si>
+  <si>
+    <t>[0.04588816488155603, 0.055000789341826166, 0.05612253988185678]</t>
+  </si>
+  <si>
+    <t>[0.045092881187406765, 0.0556585700634747, 0.04683233465660518]</t>
+  </si>
+  <si>
+    <t>[0.007869049394324559, 0.03296434525216913, 0.024134055882851613]</t>
+  </si>
+  <si>
+    <t>[0.010624622940343114, 0.03580788189541993, 0.02254404400409935]</t>
+  </si>
+  <si>
+    <t>[0.010854956339236329, 0.047726564332129094, 0.029488387842703665]</t>
+  </si>
+  <si>
+    <t>[0.044131719877433966, 0.6540321076480584, 0.06446121031302798]</t>
+  </si>
+  <si>
+    <t>[0.021291642953672103, 0.034772819311329306, 0.052366244262144854]</t>
+  </si>
+  <si>
+    <t>[0.003798117247939402, 0.024597522372038483, 0.024158468330553063]</t>
+  </si>
+  <si>
+    <t>[0.7221191529590659, 0.7667152798957494, 0.6076585621108054]</t>
   </si>
   <si>
     <t>YES
@@ -1878,16 +1878,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.09130431133354762</v>
+        <v>0.09135777901518839</v>
       </c>
       <c r="D3">
-        <v>0.3682113616916001</v>
+        <v>0.367748871705482</v>
       </c>
       <c r="E3">
-        <v>0.03221464525405397</v>
+        <v>0.03219642083586188</v>
       </c>
       <c r="F3">
-        <v>0.02038490689956396</v>
+        <v>0.02036395744437377</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -1907,16 +1907,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.03985056249615628</v>
+        <v>0.03994768107416079</v>
       </c>
       <c r="D4">
-        <v>0.3989565210266992</v>
+        <v>0.3986539215089389</v>
       </c>
       <c r="E4">
-        <v>0.01517258743843369</v>
+        <v>0.01520028444656091</v>
       </c>
       <c r="F4">
-        <v>0.008153438134748199</v>
+        <v>0.008130781027117199</v>
       </c>
       <c r="G4" t="s">
         <v>69</v>
@@ -1936,16 +1936,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.03374135573592357</v>
+        <v>0.03383922329369923</v>
       </c>
       <c r="D5">
-        <v>0.4141635180832346</v>
+        <v>0.4135550057031959</v>
       </c>
       <c r="E5">
-        <v>0.01399432456460408</v>
+        <v>0.01401933923461308</v>
       </c>
       <c r="F5">
-        <v>0.007255663037816345</v>
+        <v>0.007232644995484178</v>
       </c>
       <c r="G5" t="s">
         <v>70</v>
@@ -1965,16 +1965,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.03165015382027827</v>
+        <v>0.03172817902857431</v>
       </c>
       <c r="D6">
-        <v>0.4420304892345772</v>
+        <v>0.4414418900859432</v>
       </c>
       <c r="E6">
-        <v>0.01411972579344851</v>
+        <v>0.01414134319821325</v>
       </c>
       <c r="F6">
-        <v>0.006802306295048887</v>
+        <v>0.006781048849613741</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1994,16 +1994,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.07708169241891888</v>
+        <v>0.07714705710166724</v>
       </c>
       <c r="D7">
-        <v>0.4374528808626996</v>
+        <v>0.4363161865825149</v>
       </c>
       <c r="E7">
-        <v>0.03351406685109439</v>
+        <v>0.03349193483882813</v>
       </c>
       <c r="F7">
-        <v>0.01033211439907646</v>
+        <v>0.01029019690934497</v>
       </c>
       <c r="G7" t="s">
         <v>72</v>
@@ -2023,16 +2023,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.054392670605752</v>
+        <v>0.05446309279429606</v>
       </c>
       <c r="D8">
-        <v>0.3506636681426619</v>
+        <v>0.3502116187395845</v>
       </c>
       <c r="E8">
-        <v>0.0185712084734521</v>
+        <v>0.0185855132394955</v>
       </c>
       <c r="F8">
-        <v>0.00939700145265146</v>
+        <v>0.009357202748376446</v>
       </c>
       <c r="G8" t="s">
         <v>73</v>
@@ -2052,16 +2052,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.1958543896532287</v>
+        <v>0.1959379827995585</v>
       </c>
       <c r="D9">
-        <v>0.2388228153769514</v>
+        <v>0.2386264326143948</v>
       </c>
       <c r="E9">
-        <v>0.04796701635486719</v>
+        <v>0.04795990987032256</v>
       </c>
       <c r="F9">
-        <v>0.04881477791838017</v>
+        <v>0.04879187931236761</v>
       </c>
       <c r="G9" t="s">
         <v>74</v>
@@ -2081,16 +2081,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.04812173316649251</v>
+        <v>0.0482313661174685</v>
       </c>
       <c r="D10">
-        <v>0.3421687028563243</v>
+        <v>0.3420595371782236</v>
       </c>
       <c r="E10">
-        <v>0.01563884581228829</v>
+        <v>0.01566910652263957</v>
       </c>
       <c r="F10">
-        <v>0.01092605396635198</v>
+        <v>0.01090878136660614</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
@@ -2110,16 +2110,16 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.4675234655643689</v>
+        <v>0.4669147116354406</v>
       </c>
       <c r="D11">
-        <v>0.4157870952330207</v>
+        <v>0.4156842562227697</v>
       </c>
       <c r="E11">
-        <v>0.1906741898280384</v>
+        <v>0.190400564890011</v>
       </c>
       <c r="F11">
-        <v>0.04804336887717833</v>
+        <v>0.04792761095732474</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
@@ -2139,16 +2139,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.02372688354268594</v>
+        <v>0.02379453429092819</v>
       </c>
       <c r="D12">
-        <v>0.4150497242876809</v>
+        <v>0.4149994051815991</v>
       </c>
       <c r="E12">
-        <v>0.009862726172340427</v>
+        <v>0.009889084734199549</v>
       </c>
       <c r="F12">
-        <v>0.002784628740589849</v>
+        <v>0.00276280974821268</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2168,16 +2168,16 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.01874875614221303</v>
+        <v>0.01880171108805751</v>
       </c>
       <c r="D13">
-        <v>0.4990306228011737</v>
+        <v>0.4993308614838385</v>
       </c>
       <c r="E13">
-        <v>0.0094115635221732</v>
+        <v>0.00944264690438063</v>
       </c>
       <c r="F13">
-        <v>0.002959427404489013</v>
+        <v>0.002946164046950475</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -2197,16 +2197,16 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.02986317401182286</v>
+        <v>0.03000380031221392</v>
       </c>
       <c r="D14">
-        <v>0.4167003296007609</v>
+        <v>0.4157336725208896</v>
       </c>
       <c r="E14">
-        <v>0.01238417734967741</v>
+        <v>0.01241590992305643</v>
       </c>
       <c r="F14">
-        <v>0.004901504905103765</v>
+        <v>0.004874832862046294</v>
       </c>
       <c r="G14" t="s">
         <v>79</v>
@@ -2226,16 +2226,16 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.03256977429974692</v>
+        <v>0.03263515512418794</v>
       </c>
       <c r="D15">
-        <v>0.4438443874456746</v>
+        <v>0.4437752005547648</v>
       </c>
       <c r="E15">
-        <v>0.01472248315937838</v>
+        <v>0.01474625779256592</v>
       </c>
       <c r="F15">
-        <v>0.004355710192291521</v>
+        <v>0.004327205263082461</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -2255,16 +2255,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.02642926778254104</v>
+        <v>0.02649390128813308</v>
       </c>
       <c r="D16">
-        <v>0.3669750059424841</v>
+        <v>0.3666948359006563</v>
       </c>
       <c r="E16">
-        <v>0.009633495938673941</v>
+        <v>0.009650716813892554</v>
       </c>
       <c r="F16">
-        <v>0.004398164673305882</v>
+        <v>0.004389882313192191</v>
       </c>
       <c r="G16" t="s">
         <v>81</v>
@@ -2284,16 +2284,16 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.03365082721807499</v>
+        <v>0.03371907581225634</v>
       </c>
       <c r="D17">
-        <v>0.3157027998383662</v>
+        <v>0.3158107287967427</v>
       </c>
       <c r="E17">
-        <v>0.01058170924726656</v>
+        <v>0.01060422750688655</v>
       </c>
       <c r="F17">
-        <v>0.005247831523693321</v>
+        <v>0.005224307419679901</v>
       </c>
       <c r="G17" t="s">
         <v>82</v>
@@ -2313,16 +2313,16 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0.03521463044021</v>
+        <v>0.03524370531740304</v>
       </c>
       <c r="D18">
-        <v>0.4570629833278835</v>
+        <v>0.4585777737168088</v>
       </c>
       <c r="E18">
-        <v>0.01600938443054073</v>
+        <v>0.01606151420934041</v>
       </c>
       <c r="F18">
-        <v>0.004435569327092925</v>
+        <v>0.004423530804504187</v>
       </c>
       <c r="G18" t="s">
         <v>83</v>
@@ -2342,16 +2342,16 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0.0288532366837487</v>
+        <v>0.02886519539399999</v>
       </c>
       <c r="D19">
-        <v>0.4882867249139209</v>
+        <v>0.4883961065455749</v>
       </c>
       <c r="E19">
-        <v>0.01413410775796779</v>
+        <v>0.01414159387737369</v>
       </c>
       <c r="F19">
-        <v>0.004552116184749936</v>
+        <v>0.004549632231381458</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
@@ -2371,16 +2371,16 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0.1614102301131583</v>
+        <v>0.161389016739622</v>
       </c>
       <c r="D20">
-        <v>0.3429779189952165</v>
+        <v>0.3433247442581727</v>
       </c>
       <c r="E20">
-        <v>0.05622168949581639</v>
+        <v>0.05625379159083294</v>
       </c>
       <c r="F20">
-        <v>0.01283185744807953</v>
+        <v>0.01286154898501902</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -2400,16 +2400,16 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.02446328459253423</v>
+        <v>0.02446422130171265</v>
       </c>
       <c r="D21">
-        <v>0.4848289036985767</v>
+        <v>0.4859265794136201</v>
       </c>
       <c r="E21">
-        <v>0.01188614998721474</v>
+        <v>0.01190713142579282</v>
       </c>
       <c r="F21">
-        <v>0.003462871535373509</v>
+        <v>0.00346065525880601</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -2429,16 +2429,16 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0.08862829066136518</v>
+        <v>0.08861428775297044</v>
       </c>
       <c r="D22">
-        <v>0.4383085587002968</v>
+        <v>0.4377286593948113</v>
       </c>
       <c r="E22">
-        <v>0.03862940550022792</v>
+        <v>0.03857266292448162</v>
       </c>
       <c r="F22">
-        <v>0.004930335978194702</v>
+        <v>0.004901999018003996</v>
       </c>
       <c r="G22" t="s">
         <v>87</v>
@@ -2458,16 +2458,16 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.1546330003693229</v>
+        <v>0.1546573877824897</v>
       </c>
       <c r="D23">
-        <v>0.4337017457626658</v>
+        <v>0.4331620604794916</v>
       </c>
       <c r="E23">
-        <v>0.0668236642237378</v>
+        <v>0.06675713204738838</v>
       </c>
       <c r="F23">
-        <v>0.01014204653035842</v>
+        <v>0.01013346833239452</v>
       </c>
       <c r="G23" t="s">
         <v>88</v>
@@ -2487,16 +2487,16 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.01721808173450493</v>
+        <v>0.01726128324451331</v>
       </c>
       <c r="D24">
-        <v>0.4707360539341021</v>
+        <v>0.4707789496367884</v>
       </c>
       <c r="E24">
-        <v>0.008179086393232537</v>
+        <v>0.008198981827166449</v>
       </c>
       <c r="F24">
-        <v>0.002601266820634437</v>
+        <v>0.002589284966100593</v>
       </c>
       <c r="G24" t="s">
         <v>89</v>
@@ -2516,16 +2516,16 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.02030939973270399</v>
+        <v>0.02034119509412329</v>
       </c>
       <c r="D25">
-        <v>0.4570465507280511</v>
+        <v>0.456841625459935</v>
       </c>
       <c r="E25">
-        <v>0.009328954194104566</v>
+        <v>0.009339035133346107</v>
       </c>
       <c r="F25">
-        <v>0.002833195388478513</v>
+        <v>0.002825158573381397</v>
       </c>
       <c r="G25" t="s">
         <v>90</v>
@@ -2545,16 +2545,16 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>0.02560128662546581</v>
+        <v>0.02565239246617167</v>
       </c>
       <c r="D26">
-        <v>0.438024161225219</v>
+        <v>0.4380782228835063</v>
       </c>
       <c r="E26">
-        <v>0.01119617350121987</v>
+        <v>0.01121795582932599</v>
       </c>
       <c r="F26">
-        <v>0.003157664902205621</v>
+        <v>0.003140246324178147</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
@@ -2574,16 +2574,16 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0.03444163728450133</v>
+        <v>0.03447855524316243</v>
       </c>
       <c r="D27">
-        <v>0.4533121009036806</v>
+        <v>0.4538781043692724</v>
       </c>
       <c r="E27">
-        <v>0.01561670276954983</v>
+        <v>0.01564596810530068</v>
       </c>
       <c r="F27">
-        <v>0.004447322522023083</v>
+        <v>0.00443073770789548</v>
       </c>
       <c r="G27" t="s">
         <v>92</v>
@@ -2603,16 +2603,16 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.07681226007848184</v>
+        <v>0.07682629546168036</v>
       </c>
       <c r="D28">
-        <v>0.4341785588052307</v>
+        <v>0.4341496460951224</v>
       </c>
       <c r="E28">
-        <v>0.03323424224631039</v>
+        <v>0.03324074466022021</v>
       </c>
       <c r="F28">
-        <v>0.01142384627938146</v>
+        <v>0.01141211281777429</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -2632,16 +2632,16 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>0.02689426511903546</v>
+        <v>0.02693901502277279</v>
       </c>
       <c r="D29">
-        <v>0.4534477131788353</v>
+        <v>0.4537247102459546</v>
       </c>
       <c r="E29">
-        <v>0.0122083155041612</v>
+        <v>0.01223414662250405</v>
       </c>
       <c r="F29">
-        <v>0.002921349545228283</v>
+        <v>0.002895840431904688</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -2661,16 +2661,16 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0.07292958628108449</v>
+        <v>0.07290048027267833</v>
       </c>
       <c r="D30">
-        <v>0.3853584300417387</v>
+        <v>0.3857364042909743</v>
       </c>
       <c r="E30">
-        <v>0.02808298570988263</v>
+        <v>0.02809285388245498</v>
       </c>
       <c r="F30">
-        <v>0.004738994811371122</v>
+        <v>0.004759539113583859</v>
       </c>
       <c r="G30" t="s">
         <v>95</v>
@@ -2690,16 +2690,16 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0.02346120413783401</v>
+        <v>0.02354787880126699</v>
       </c>
       <c r="D31">
-        <v>0.3758626645860617</v>
+        <v>0.3759622083764677</v>
       </c>
       <c r="E31">
-        <v>0.008840667345690847</v>
+        <v>0.008873085284464918</v>
       </c>
       <c r="F31">
-        <v>0.004131917060409968</v>
+        <v>0.004102340689546364</v>
       </c>
       <c r="G31" t="s">
         <v>96</v>
@@ -2719,16 +2719,16 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0.08631369208322526</v>
+        <v>0.08635991868063113</v>
       </c>
       <c r="D32">
-        <v>0.245119451775825</v>
+        <v>0.2450276788426567</v>
       </c>
       <c r="E32">
-        <v>0.02108808209341111</v>
+        <v>0.02109159682763909</v>
       </c>
       <c r="F32">
-        <v>0.01064437752319865</v>
+        <v>0.01061922422216781</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -2748,16 +2748,16 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0.02133128130232456</v>
+        <v>0.02138548945257067</v>
       </c>
       <c r="D33">
-        <v>0.3877182266256973</v>
+        <v>0.3877031588521452</v>
       </c>
       <c r="E33">
-        <v>0.008627143367320131</v>
+        <v>0.008645609724942235</v>
       </c>
       <c r="F33">
-        <v>0.004135370855273335</v>
+        <v>0.004124465388645139</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -2777,16 +2777,16 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.01934357421413594</v>
+        <v>0.01938054560959207</v>
       </c>
       <c r="D34">
-        <v>0.4507531068589712</v>
+        <v>0.4506222652285867</v>
       </c>
       <c r="E34">
-        <v>0.008819877688912245</v>
+        <v>0.00883387555751144</v>
       </c>
       <c r="F34">
-        <v>0.002610871946970457</v>
+        <v>0.002597000674663482</v>
       </c>
       <c r="G34" t="s">
         <v>99</v>
@@ -2832,16 +2832,16 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0.02473588097232471</v>
+        <v>0.02475444087483471</v>
       </c>
       <c r="D36">
-        <v>0.4822362899166334</v>
+        <v>0.482728424541153</v>
       </c>
       <c r="E36">
-        <v>0.01178315839104455</v>
+        <v>0.01179994556455176</v>
       </c>
       <c r="F36">
-        <v>0.0044716542638564</v>
+        <v>0.004463164444546938</v>
       </c>
       <c r="G36" t="s">
         <v>101</v>
@@ -2861,16 +2861,16 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.02255462484996103</v>
+        <v>0.02257371596594365</v>
       </c>
       <c r="D37">
-        <v>0.4667103175152225</v>
+        <v>0.4669455422237643</v>
       </c>
       <c r="E37">
-        <v>0.0105008979149825</v>
+        <v>0.01051169689311125</v>
       </c>
       <c r="F37">
-        <v>0.003098592486950515</v>
+        <v>0.00309921523112058</v>
       </c>
       <c r="G37" t="s">
         <v>102</v>
@@ -2890,16 +2890,16 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0.05363686704211153</v>
+        <v>0.05362699858913977</v>
       </c>
       <c r="D38">
-        <v>0.4420971339207799</v>
+        <v>0.4426253991172965</v>
       </c>
       <c r="E38">
-        <v>0.02355447299189887</v>
+        <v>0.02357357142600619</v>
       </c>
       <c r="F38">
-        <v>0.003827915713844901</v>
+        <v>0.0038460137311986</v>
       </c>
       <c r="G38" t="s">
         <v>103</v>
@@ -2919,16 +2919,16 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>0.01302590034814177</v>
+        <v>0.01306769503242377</v>
       </c>
       <c r="D39">
-        <v>0.4146292814969785</v>
+        <v>0.4148383654135214</v>
       </c>
       <c r="E39">
-        <v>0.005475235506985231</v>
+        <v>0.005493529939803357</v>
       </c>
       <c r="F39">
-        <v>0.002646007210788886</v>
+        <v>0.002622649308758147</v>
       </c>
       <c r="G39" t="s">
         <v>104</v>
@@ -2948,16 +2948,16 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>0.01497540025241196</v>
+        <v>0.01501443287066277</v>
       </c>
       <c r="D40">
-        <v>0.4764281154069026</v>
+        <v>0.4773008222790305</v>
       </c>
       <c r="E40">
-        <v>0.007163913475035084</v>
+        <v>0.007188818066493121</v>
       </c>
       <c r="F40">
-        <v>0.002381656840806056</v>
+        <v>0.002369402504494593</v>
       </c>
       <c r="G40" t="s">
         <v>105</v>
@@ -2977,16 +2977,16 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.0118873131919584</v>
+        <v>0.01194866180407279</v>
       </c>
       <c r="D41">
-        <v>0.4307327699774375</v>
+        <v>0.4308416144246277</v>
       </c>
       <c r="E41">
-        <v>0.005155683708513252</v>
+        <v>0.005183045813345846</v>
       </c>
       <c r="F41">
-        <v>0.002286021122412985</v>
+        <v>0.002258623652552551</v>
       </c>
       <c r="G41" t="s">
         <v>106</v>
@@ -3006,16 +3006,16 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>0.01295193747346787</v>
+        <v>0.01300725232267884</v>
       </c>
       <c r="D42">
-        <v>0.4674422430507876</v>
+        <v>0.4667634697965427</v>
       </c>
       <c r="E42">
-        <v>0.006100323145575935</v>
+        <v>0.006118969207404919</v>
       </c>
       <c r="F42">
-        <v>0.002957077914177445</v>
+        <v>0.002948614255612065</v>
       </c>
       <c r="G42" t="s">
         <v>107</v>
@@ -3035,16 +3035,16 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0.00798417235676074</v>
+        <v>0.008026483270152361</v>
       </c>
       <c r="D43">
-        <v>0.469448051164187</v>
+        <v>0.4684582743282752</v>
       </c>
       <c r="E43">
-        <v>0.003790346266234918</v>
+        <v>0.003806646838091052</v>
       </c>
       <c r="F43">
-        <v>0.002708583350598714</v>
+        <v>0.002701163756303508</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3064,16 +3064,16 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.01491477326393635</v>
+        <v>0.01495529062122454</v>
       </c>
       <c r="D44">
-        <v>0.4269559986742827</v>
+        <v>0.4264609270814378</v>
       </c>
       <c r="E44">
-        <v>0.006504586378822087</v>
+        <v>0.00651884135668696</v>
       </c>
       <c r="F44">
-        <v>0.005275553737268288</v>
+        <v>0.005261259269699032</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,16 +3093,16 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.01080818535557327</v>
+        <v>0.01087237175468851</v>
       </c>
       <c r="D45">
-        <v>0.4313606928857973</v>
+        <v>0.431185124189468</v>
       </c>
       <c r="E45">
-        <v>0.004909664712030849</v>
+        <v>0.004934223898000352</v>
       </c>
       <c r="F45">
-        <v>0.002917952993531622</v>
+        <v>0.002890777933525653</v>
       </c>
       <c r="G45" t="s">
         <v>110</v>
@@ -3122,16 +3122,16 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.09856475081433186</v>
+        <v>0.09859609871240405</v>
       </c>
       <c r="D46">
-        <v>0.3436250760142448</v>
+        <v>0.3432391072415914</v>
       </c>
       <c r="E46">
-        <v>0.0315381423134861</v>
+        <v>0.03152582751870325</v>
       </c>
       <c r="F46">
-        <v>0.0178368311665463</v>
+        <v>0.01782316371397968</v>
       </c>
       <c r="G46" t="s">
         <v>111</v>
@@ -3151,16 +3151,16 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>0.09987227203918138</v>
+        <v>0.1005095700572913</v>
       </c>
       <c r="D47">
-        <v>0.2773182716329197</v>
+        <v>0.2774903064036012</v>
       </c>
       <c r="E47">
-        <v>0.02719069620783118</v>
+        <v>0.02736546438356975</v>
       </c>
       <c r="F47">
-        <v>0.01298387093002389</v>
+        <v>0.01359480316738506</v>
       </c>
       <c r="G47" t="s">
         <v>112</v>
@@ -3180,16 +3180,16 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.9793349350185863</v>
+        <v>0.9795515788332342</v>
       </c>
       <c r="D48">
-        <v>0.3730083918886833</v>
+        <v>0.3728375379211808</v>
       </c>
       <c r="E48">
-        <v>0.3653520133269763</v>
+        <v>0.3652737626470759</v>
       </c>
       <c r="F48">
-        <v>0.01128988921247779</v>
+        <v>0.01103821448990038</v>
       </c>
       <c r="G48" t="s">
         <v>113</v>
@@ -3209,16 +3209,16 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.01896072298979363</v>
+        <v>0.01899942164272301</v>
       </c>
       <c r="D49">
-        <v>0.4826506471555578</v>
+        <v>0.4829315595377253</v>
       </c>
       <c r="E49">
-        <v>0.009279015996017173</v>
+        <v>0.009300678132348564</v>
       </c>
       <c r="F49">
-        <v>0.00603033135181601</v>
+        <v>0.006012657026020944</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -3238,16 +3238,16 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0.01175721109949758</v>
+        <v>0.01177639077442687</v>
       </c>
       <c r="D50">
-        <v>0.4444060408308023</v>
+        <v>0.4441082451227094</v>
       </c>
       <c r="E50">
-        <v>0.005274092907979921</v>
+        <v>0.005281468948834855</v>
       </c>
       <c r="F50">
-        <v>0.002273852233763851</v>
+        <v>0.002260699166454879</v>
       </c>
       <c r="G50" t="s">
         <v>115</v>
@@ -3267,16 +3267,16 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0.0123452722917725</v>
+        <v>0.01238331663242603</v>
       </c>
       <c r="D51">
-        <v>0.4841635647326708</v>
+        <v>0.4837819493522736</v>
       </c>
       <c r="E51">
-        <v>0.005968994999395095</v>
+        <v>0.005983150789873048</v>
       </c>
       <c r="F51">
-        <v>0.0016596233986741</v>
+        <v>0.001651527432561054</v>
       </c>
       <c r="G51" t="s">
         <v>116</v>
@@ -3296,16 +3296,16 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>0.0305036187475702</v>
+        <v>0.03058334881015072</v>
       </c>
       <c r="D52">
-        <v>0.249656040497274</v>
+        <v>0.2495713411998711</v>
       </c>
       <c r="E52">
-        <v>0.007855409664923063</v>
+        <v>0.007869488828282506</v>
       </c>
       <c r="F52">
-        <v>0.001410311499650966</v>
+        <v>0.001398817072462129</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -3325,16 +3325,16 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.02228751430647709</v>
+        <v>0.02231083828578239</v>
       </c>
       <c r="D53">
-        <v>0.3041670625749168</v>
+        <v>0.3044358792443098</v>
       </c>
       <c r="E53">
-        <v>0.007079011207737115</v>
+        <v>0.007090761217869779</v>
       </c>
       <c r="F53">
-        <v>0.004496970046047705</v>
+        <v>0.004492885226299081</v>
       </c>
       <c r="G53" t="s">
         <v>118</v>
@@ -3354,16 +3354,16 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>0.01114108373215932</v>
+        <v>0.01118327739763476</v>
       </c>
       <c r="D54">
-        <v>0.3975414730276878</v>
+        <v>0.3977133793831316</v>
       </c>
       <c r="E54">
-        <v>0.004604600183779987</v>
+        <v>0.004622009320548649</v>
       </c>
       <c r="F54">
-        <v>0.003481417936535309</v>
+        <v>0.003474801222912537</v>
       </c>
       <c r="G54" t="s">
         <v>119</v>
@@ -3383,16 +3383,16 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>0.01067063518850224</v>
+        <v>0.01068494869548764</v>
       </c>
       <c r="D55">
-        <v>0.4523823582136091</v>
+        <v>0.453184569747673</v>
       </c>
       <c r="E55">
-        <v>0.005025415947597876</v>
+        <v>0.005036992477045981</v>
       </c>
       <c r="F55">
-        <v>0.002645802384620207</v>
+        <v>0.002644251577737856</v>
       </c>
       <c r="G55" t="s">
         <v>120</v>
@@ -3412,16 +3412,16 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0.02086632034545069</v>
+        <v>0.02087774445931321</v>
       </c>
       <c r="D56">
-        <v>0.4079373986503678</v>
+        <v>0.4082276757041228</v>
       </c>
       <c r="E56">
-        <v>0.008690456195667362</v>
+        <v>0.008700189395599495</v>
       </c>
       <c r="F56">
-        <v>0.003125999175202359</v>
+        <v>0.003121322581843335</v>
       </c>
       <c r="G56" t="s">
         <v>121</v>
@@ -3441,16 +3441,16 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.01921410457626659</v>
+        <v>0.019350050887274</v>
       </c>
       <c r="D57">
-        <v>0.4402361657738106</v>
+        <v>0.4411936733643851</v>
       </c>
       <c r="E57">
-        <v>0.008658911416783655</v>
+        <v>0.008732129211981068</v>
       </c>
       <c r="F57">
-        <v>0.002927063529489285</v>
+        <v>0.002904089051511093</v>
       </c>
       <c r="G57" t="s">
         <v>122</v>
@@ -3470,16 +3470,16 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>0.03653207779682147</v>
+        <v>0.03675722651926692</v>
       </c>
       <c r="D58">
-        <v>0.3761884866386164</v>
+        <v>0.3765161653052821</v>
       </c>
       <c r="E58">
-        <v>0.01391176929450457</v>
+        <v>0.014000529558746</v>
       </c>
       <c r="F58">
-        <v>0.005111351987879893</v>
+        <v>0.005109928179690737</v>
       </c>
       <c r="G58" t="s">
         <v>123</v>
@@ -3499,16 +3499,16 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>0.02527001073177906</v>
+        <v>0.02531325792553641</v>
       </c>
       <c r="D59">
-        <v>0.3870688479569311</v>
+        <v>0.3874630950776725</v>
       </c>
       <c r="E59">
-        <v>0.009854178893959092</v>
+        <v>0.00987567844076997</v>
       </c>
       <c r="F59">
-        <v>0.005374612389090295</v>
+        <v>0.005365409487182876</v>
       </c>
       <c r="G59" t="s">
         <v>124</v>
@@ -3528,16 +3528,16 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>0.2569399789989587</v>
+        <v>0.2567927365100316</v>
       </c>
       <c r="D60">
-        <v>0.4143941395038997</v>
+        <v>0.4146075340076196</v>
       </c>
       <c r="E60">
-        <v>0.1053528632407608</v>
+        <v>0.1053504002818042</v>
       </c>
       <c r="F60">
-        <v>0.01182345721006953</v>
+        <v>0.01182479387561379</v>
       </c>
       <c r="G60" t="s">
         <v>125</v>
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>0.09841105848314052</v>
+        <v>0.09841105848314054</v>
       </c>
       <c r="D61">
         <v>0.2825141810986015</v>
@@ -3586,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>0.9239063876651302</v>
+        <v>0.9239063876651301</v>
       </c>
       <c r="D62">
         <v>0.3300762105350221</v>
@@ -3644,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>0.03441246169226945</v>
+        <v>0.03441246169226946</v>
       </c>
       <c r="D64">
         <v>0.4554806352644277</v>
@@ -3705,7 +3705,7 @@
         <v>0.2491162746349245</v>
       </c>
       <c r="D66">
-        <v>0.2720364730541141</v>
+        <v>0.2720364730541142</v>
       </c>
       <c r="E66">
         <v>0.05988254703259858</v>
@@ -3818,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="C70">
-        <v>0.03382812725897252</v>
+        <v>0.03382812725897253</v>
       </c>
       <c r="D70">
         <v>0.370931689136251</v>
@@ -3937,7 +3937,7 @@
         <v>0.05238718740146668</v>
       </c>
       <c r="D74">
-        <v>0.4822710452015785</v>
+        <v>0.4822710452015784</v>
       </c>
       <c r="E74">
         <v>0.02449319465743015</v>
@@ -4021,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="C77">
-        <v>0.06254503564984593</v>
+        <v>0.06254503564984594</v>
       </c>
       <c r="D77">
         <v>0.3938223709067873</v>
@@ -4050,10 +4050,10 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>0.02086433101400964</v>
+        <v>0.02086433101400965</v>
       </c>
       <c r="D78">
-        <v>0.5552657198886003</v>
+        <v>0.5552657198886002</v>
       </c>
       <c r="E78">
         <v>0.01153414244952442</v>
@@ -4140,7 +4140,7 @@
         <v>0.03907754307141214</v>
       </c>
       <c r="D81">
-        <v>0.3512262067837956</v>
+        <v>0.3512262067837955</v>
       </c>
       <c r="E81">
         <v>0.01374517224991013</v>
@@ -4227,7 +4227,7 @@
         <v>0.01619230804292584</v>
       </c>
       <c r="D84">
-        <v>0.4605706108880387</v>
+        <v>0.4605706108880386</v>
       </c>
       <c r="E84">
         <v>0.007214551099086317</v>
@@ -4253,13 +4253,13 @@
         <v>32</v>
       </c>
       <c r="C85">
-        <v>0.1945374351238291</v>
+        <v>0.194537435123829</v>
       </c>
       <c r="D85">
-        <v>0.371383279041315</v>
+        <v>0.3713832790413149</v>
       </c>
       <c r="E85">
-        <v>0.06401108614984093</v>
+        <v>0.06401108614984094</v>
       </c>
       <c r="F85">
         <v>0.06238832327693779</v>
@@ -4401,7 +4401,7 @@
         <v>0.03292940501884729</v>
       </c>
       <c r="D90">
-        <v>0.2794342862810262</v>
+        <v>0.2794342862810263</v>
       </c>
       <c r="E90">
         <v>0.008394310924401276</v>
@@ -4427,7 +4427,7 @@
         <v>38</v>
       </c>
       <c r="C91">
-        <v>0.05416281362199257</v>
+        <v>0.05416281362199258</v>
       </c>
       <c r="D91">
         <v>0.318220905350334</v>
@@ -4456,7 +4456,7 @@
         <v>39</v>
       </c>
       <c r="C92">
-        <v>0.02451554935523754</v>
+        <v>0.02451554935523753</v>
       </c>
       <c r="D92">
         <v>0.4618400188675615</v>
@@ -4517,7 +4517,7 @@
         <v>0.4583325544986684</v>
       </c>
       <c r="D94">
-        <v>0.3766605590010363</v>
+        <v>0.3766605590010362</v>
       </c>
       <c r="E94">
         <v>0.1657465308628134</v>
@@ -4633,7 +4633,7 @@
         <v>0.01570108834043558</v>
       </c>
       <c r="D98">
-        <v>0.4856432504081309</v>
+        <v>0.485643250408131</v>
       </c>
       <c r="E98">
         <v>0.007724928244026652</v>
@@ -4688,7 +4688,7 @@
         <v>48</v>
       </c>
       <c r="C100">
-        <v>0.03112762234683705</v>
+        <v>0.03112762234683704</v>
       </c>
       <c r="D100">
         <v>0.4731189699356534</v>
@@ -4749,7 +4749,7 @@
         <v>0.05797423897374249</v>
       </c>
       <c r="D102">
-        <v>0.4784362433631753</v>
+        <v>0.4784362433631751</v>
       </c>
       <c r="E102">
         <v>0.02709861700574145</v>
@@ -4778,7 +4778,7 @@
         <v>0.02564165517238864</v>
       </c>
       <c r="D103">
-        <v>0.3124952070910559</v>
+        <v>0.3124952070910558</v>
       </c>
       <c r="E103">
         <v>0.007643164708392478</v>
@@ -4833,7 +4833,7 @@
         <v>53</v>
       </c>
       <c r="C105">
-        <v>0.045514534105147</v>
+        <v>0.04551453410514699</v>
       </c>
       <c r="D105">
         <v>0.4243253512056954</v>
@@ -4888,7 +4888,7 @@
         <v>55</v>
       </c>
       <c r="C107">
-        <v>0.03352993059116439</v>
+        <v>0.03352993059116441</v>
       </c>
       <c r="D107">
         <v>0.3693261448523458</v>
@@ -4920,7 +4920,7 @@
         <v>0.02767321081336011</v>
       </c>
       <c r="D108">
-        <v>0.3607601081324486</v>
+        <v>0.3607601081324485</v>
       </c>
       <c r="E108">
         <v>0.01007980387780832</v>
@@ -4975,7 +4975,7 @@
         <v>58</v>
       </c>
       <c r="C110">
-        <v>0.05916030056654711</v>
+        <v>0.0591603005665471</v>
       </c>
       <c r="D110">
         <v>0.2967574074496054</v>
@@ -5004,7 +5004,7 @@
         <v>59</v>
       </c>
       <c r="C111">
-        <v>0.0702855318730765</v>
+        <v>0.07028553187307651</v>
       </c>
       <c r="D111">
         <v>0.3113280944430932</v>
@@ -5065,7 +5065,7 @@
         <v>0.02175544142970839</v>
       </c>
       <c r="D113">
-        <v>0.4849712052701685</v>
+        <v>0.4849712052701684</v>
       </c>
       <c r="E113">
         <v>0.01076061537313381</v>
@@ -5123,7 +5123,7 @@
         <v>0.1349408886208242</v>
       </c>
       <c r="D115">
-        <v>0.341459020450561</v>
+        <v>0.3414590204505609</v>
       </c>
       <c r="E115">
         <v>0.04296529545314137</v>
@@ -5152,7 +5152,7 @@
         <v>0.03524229245050529</v>
       </c>
       <c r="D116">
-        <v>0.4662417508944597</v>
+        <v>0.4662417508944598</v>
       </c>
       <c r="E116">
         <v>0.01618946059005048</v>
@@ -5384,7 +5384,7 @@
         <v>0.08512884850678393</v>
       </c>
       <c r="D124">
-        <v>0.1456023052567392</v>
+        <v>0.1456023052567391</v>
       </c>
       <c r="E124">
         <v>0.01241670835731199</v>
@@ -5439,7 +5439,7 @@
         <v>17</v>
       </c>
       <c r="C126">
-        <v>0.05069064741727458</v>
+        <v>0.05069064741727457</v>
       </c>
       <c r="D126">
         <v>0.2791115258219182</v>
@@ -5497,10 +5497,10 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>0.04838440857082864</v>
+        <v>0.04838440857082863</v>
       </c>
       <c r="D128">
-        <v>0.2683703872176398</v>
+        <v>0.2683703872176397</v>
       </c>
       <c r="E128">
         <v>0.01281082909821752</v>
@@ -5584,7 +5584,7 @@
         <v>22</v>
       </c>
       <c r="C131">
-        <v>0.0636027251194585</v>
+        <v>0.06360272511945851</v>
       </c>
       <c r="D131">
         <v>0.2448192962494793</v>
@@ -5700,7 +5700,7 @@
         <v>26</v>
       </c>
       <c r="C135">
-        <v>0.08032873788562826</v>
+        <v>0.08032873788562828</v>
       </c>
       <c r="D135">
         <v>0.3292409297771917</v>
@@ -5842,7 +5842,7 @@
         <v>31</v>
       </c>
       <c r="C140">
-        <v>0.04598542816390029</v>
+        <v>0.04598542816390028</v>
       </c>
       <c r="D140">
         <v>0.2133733047528229</v>
@@ -5987,7 +5987,7 @@
         <v>36</v>
       </c>
       <c r="C145">
-        <v>0.09392802810111592</v>
+        <v>0.09392802810111589</v>
       </c>
       <c r="D145">
         <v>0.1438727225133384</v>
@@ -6106,7 +6106,7 @@
         <v>0.4548376150848855</v>
       </c>
       <c r="D149">
-        <v>0.2547201484542092</v>
+        <v>0.2547201484542091</v>
       </c>
       <c r="E149">
         <v>0.1161760482341736</v>
@@ -6361,7 +6361,7 @@
         <v>53</v>
       </c>
       <c r="C158">
-        <v>0.02653872177146836</v>
+        <v>0.02653872177146837</v>
       </c>
       <c r="D158">
         <v>0.3409572691746649</v>
@@ -6451,7 +6451,7 @@
         <v>0.01707067757161434</v>
       </c>
       <c r="D161">
-        <v>0.411200006194823</v>
+        <v>0.4112000061948231</v>
       </c>
       <c r="E161">
         <v>0.007309256244775991</v>
@@ -6480,7 +6480,7 @@
         <v>0.4503792868566639</v>
       </c>
       <c r="D162">
-        <v>0.147785855245424</v>
+        <v>0.1477858552454239</v>
       </c>
       <c r="E162">
         <v>0.06592360757976155</v>
@@ -6564,7 +6564,7 @@
         <v>62</v>
       </c>
       <c r="C165">
-        <v>0.0536389917116594</v>
+        <v>0.05363899171165939</v>
       </c>
       <c r="D165">
         <v>0.2288939179923456</v>
@@ -6596,7 +6596,7 @@
         <v>0.7190656062112477</v>
       </c>
       <c r="D166">
-        <v>0.2015930057290574</v>
+        <v>0.2015930057290573</v>
       </c>
       <c r="E166">
         <v>0.1386478995000204</v>
@@ -6651,7 +6651,7 @@
         <v>65</v>
       </c>
       <c r="C168">
-        <v>0.08229643074576094</v>
+        <v>0.08229643074576096</v>
       </c>
       <c r="D168">
         <v>0.1508160053741953</v>
@@ -8420,16 +8420,16 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>0.5509436470297785</v>
+        <v>0.5511758376842529</v>
       </c>
       <c r="D229">
-        <v>0.4171554776120849</v>
+        <v>0.4185642446757712</v>
       </c>
       <c r="E229">
-        <v>0.2180268005155507</v>
+        <v>0.2192358106953211</v>
       </c>
       <c r="F229">
-        <v>0.07386665695886369</v>
+        <v>0.07394955951165187</v>
       </c>
       <c r="G229" t="s">
         <v>294</v>
@@ -8449,16 +8449,16 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>0.09939914441435281</v>
+        <v>0.1001475172674577</v>
       </c>
       <c r="D230">
-        <v>0.3829418285297906</v>
+        <v>0.3843393920257387</v>
       </c>
       <c r="E230">
-        <v>0.03399445610801474</v>
+        <v>0.03435605454856056</v>
       </c>
       <c r="F230">
-        <v>0.05074897412304026</v>
+        <v>0.05068791366178822</v>
       </c>
       <c r="G230" t="s">
         <v>295</v>
@@ -8478,16 +8478,16 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>0.09876568449533306</v>
+        <v>0.09893431737443766</v>
       </c>
       <c r="D231">
-        <v>0.3787704659339605</v>
+        <v>0.3790731254216421</v>
       </c>
       <c r="E231">
-        <v>0.03119533275649987</v>
+        <v>0.03126572478595623</v>
       </c>
       <c r="F231">
-        <v>0.0587119575154337</v>
+        <v>0.05869988319845296</v>
       </c>
       <c r="G231" t="s">
         <v>296</v>
@@ -8507,16 +8507,16 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>0.0883585333607952</v>
+        <v>0.08821902828906332</v>
       </c>
       <c r="D232">
-        <v>0.4004393841274215</v>
+        <v>0.4010184345434763</v>
       </c>
       <c r="E232">
-        <v>0.03072388282074006</v>
+        <v>0.03071548992492026</v>
       </c>
       <c r="F232">
-        <v>0.04504345358316486</v>
+        <v>0.04505462223417591</v>
       </c>
       <c r="G232" t="s">
         <v>297</v>
@@ -8536,16 +8536,16 @@
         <v>13</v>
       </c>
       <c r="C233">
-        <v>0.1732810289505959</v>
+        <v>0.1735942271205558</v>
       </c>
       <c r="D233">
-        <v>0.4755596100706806</v>
+        <v>0.4767920569081201</v>
       </c>
       <c r="E233">
-        <v>0.07901979700071977</v>
+        <v>0.07964834367605009</v>
       </c>
       <c r="F233">
-        <v>0.0379807936415141</v>
+        <v>0.03818819094632592</v>
       </c>
       <c r="G233" t="s">
         <v>298</v>
@@ -8565,16 +8565,16 @@
         <v>14</v>
       </c>
       <c r="C234">
-        <v>0.07847192945726386</v>
+        <v>0.07862572891862811</v>
       </c>
       <c r="D234">
-        <v>0.2754010478831856</v>
+        <v>0.2758216711496239</v>
       </c>
       <c r="E234">
-        <v>0.01954689280029405</v>
+        <v>0.01962995539505256</v>
       </c>
       <c r="F234">
-        <v>0.0142619652361414</v>
+        <v>0.0142976019648612</v>
       </c>
       <c r="G234" t="s">
         <v>299</v>
@@ -8594,16 +8594,16 @@
         <v>15</v>
       </c>
       <c r="C235">
-        <v>0.04095200775315624</v>
+        <v>0.04093085890403055</v>
       </c>
       <c r="D235">
-        <v>0.3916103373933991</v>
+        <v>0.3918247823817061</v>
       </c>
       <c r="E235">
-        <v>0.01551689636327893</v>
+        <v>0.01552106573733134</v>
       </c>
       <c r="F235">
-        <v>0.009954678836010509</v>
+        <v>0.009953166322223546</v>
       </c>
       <c r="G235" t="s">
         <v>300</v>
@@ -8623,16 +8623,16 @@
         <v>16</v>
       </c>
       <c r="C236">
-        <v>0.0199929640527647</v>
+        <v>0.01996862596419825</v>
       </c>
       <c r="D236">
-        <v>0.3917793360569489</v>
+        <v>0.3919532632881449</v>
       </c>
       <c r="E236">
-        <v>0.007747667706484609</v>
+        <v>0.007744797877591389</v>
       </c>
       <c r="F236">
-        <v>0.002982822023948631</v>
+        <v>0.002974263207142778</v>
       </c>
       <c r="G236" t="s">
         <v>301</v>
@@ -8652,16 +8652,16 @@
         <v>17</v>
       </c>
       <c r="C237">
-        <v>0.01950647702523609</v>
+        <v>0.01959762631680902</v>
       </c>
       <c r="D237">
-        <v>0.3903798093407634</v>
+        <v>0.3908807067139075</v>
       </c>
       <c r="E237">
-        <v>0.007732032323403371</v>
+        <v>0.007763817032088666</v>
       </c>
       <c r="F237">
-        <v>0.005060055186672439</v>
+        <v>0.005027075892503607</v>
       </c>
       <c r="G237" t="s">
         <v>302</v>
@@ -8681,16 +8681,16 @@
         <v>18</v>
       </c>
       <c r="C238">
-        <v>0.04113938815058581</v>
+        <v>0.04125728151926893</v>
       </c>
       <c r="D238">
-        <v>0.3715918535896604</v>
+        <v>0.3725340410046819</v>
       </c>
       <c r="E238">
-        <v>0.01467146020114856</v>
+        <v>0.01480033176276866</v>
       </c>
       <c r="F238">
-        <v>0.008227065730325833</v>
+        <v>0.008317493062417403</v>
       </c>
       <c r="G238" t="s">
         <v>303</v>
@@ -8710,16 +8710,16 @@
         <v>19</v>
       </c>
       <c r="C239">
-        <v>0.1255109870612684</v>
+        <v>0.1249146076990533</v>
       </c>
       <c r="D239">
-        <v>0.4843371561010247</v>
+        <v>0.4847092124451808</v>
       </c>
       <c r="E239">
-        <v>0.05766781483915207</v>
+        <v>0.05753991793640136</v>
       </c>
       <c r="F239">
-        <v>0.02343803934985242</v>
+        <v>0.0231171218164428</v>
       </c>
       <c r="G239" t="s">
         <v>304</v>
@@ -8739,16 +8739,16 @@
         <v>20</v>
       </c>
       <c r="C240">
-        <v>0.07522231803918016</v>
+        <v>0.07531356288320616</v>
       </c>
       <c r="D240">
-        <v>0.4317137549783795</v>
+        <v>0.4332835053454868</v>
       </c>
       <c r="E240">
-        <v>0.03144161580815208</v>
+        <v>0.03189775615902928</v>
       </c>
       <c r="F240">
-        <v>0.02181356242612754</v>
+        <v>0.0219030284995154</v>
       </c>
       <c r="G240" t="s">
         <v>305</v>
@@ -8768,16 +8768,16 @@
         <v>21</v>
       </c>
       <c r="C241">
-        <v>0.04280102258025378</v>
+        <v>0.04268515441766204</v>
       </c>
       <c r="D241">
-        <v>0.4766426832262395</v>
+        <v>0.4768205806537698</v>
       </c>
       <c r="E241">
-        <v>0.02017688719308004</v>
+        <v>0.02014418197324031</v>
       </c>
       <c r="F241">
-        <v>0.005001031657391813</v>
+        <v>0.004985978724535491</v>
       </c>
       <c r="G241" t="s">
         <v>306</v>
@@ -8797,16 +8797,16 @@
         <v>22</v>
       </c>
       <c r="C242">
-        <v>0.3142432306931739</v>
+        <v>0.3147735442125416</v>
       </c>
       <c r="D242">
-        <v>0.3683996841457949</v>
+        <v>0.369049382302101</v>
       </c>
       <c r="E242">
-        <v>0.1158432368630355</v>
+        <v>0.1162319091610645</v>
       </c>
       <c r="F242">
-        <v>0.01554646514907505</v>
+        <v>0.01561114493398287</v>
       </c>
       <c r="G242" t="s">
         <v>307</v>
@@ -8826,16 +8826,16 @@
         <v>23</v>
       </c>
       <c r="C243">
-        <v>0.0223276511658839</v>
+        <v>0.0224249080384305</v>
       </c>
       <c r="D243">
-        <v>0.2975713182808334</v>
+        <v>0.2977778772627228</v>
       </c>
       <c r="E243">
-        <v>0.006603726240545506</v>
+        <v>0.006632207938617847</v>
       </c>
       <c r="F243">
-        <v>0.007598923912742025</v>
+        <v>0.00758489653139364</v>
       </c>
       <c r="G243" t="s">
         <v>308</v>
@@ -8855,16 +8855,16 @@
         <v>24</v>
       </c>
       <c r="C244">
-        <v>0.02181558971469938</v>
+        <v>0.02194140273147049</v>
       </c>
       <c r="D244">
-        <v>0.3729047105905039</v>
+        <v>0.3732623001918526</v>
       </c>
       <c r="E244">
-        <v>0.007955950939996887</v>
+        <v>0.008007824450934727</v>
       </c>
       <c r="F244">
-        <v>0.004837517107256341</v>
+        <v>0.004792556935029687</v>
       </c>
       <c r="G244" t="s">
         <v>309</v>
@@ -8884,16 +8884,16 @@
         <v>25</v>
       </c>
       <c r="C245">
-        <v>0.02962939356755568</v>
+        <v>0.02986805224299083</v>
       </c>
       <c r="D245">
-        <v>0.4687017305391084</v>
+        <v>0.4689647424496973</v>
       </c>
       <c r="E245">
-        <v>0.01348187401400465</v>
+        <v>0.01357690325377073</v>
       </c>
       <c r="F245">
-        <v>0.005949126603377591</v>
+        <v>0.005985006197924717</v>
       </c>
       <c r="G245" t="s">
         <v>310</v>
@@ -8913,16 +8913,16 @@
         <v>26</v>
       </c>
       <c r="C246">
-        <v>0.1095005065591957</v>
+        <v>0.1095401745564206</v>
       </c>
       <c r="D246">
-        <v>0.3571505371024368</v>
+        <v>0.3578807269104534</v>
       </c>
       <c r="E246">
-        <v>0.03875892762587293</v>
+        <v>0.03885590618337781</v>
       </c>
       <c r="F246">
-        <v>0.003005010060301037</v>
+        <v>0.003007780662749484</v>
       </c>
       <c r="G246" t="s">
         <v>311</v>
@@ -8942,16 +8942,16 @@
         <v>27</v>
       </c>
       <c r="C247">
-        <v>0.03124465963663723</v>
+        <v>0.03121511877278036</v>
       </c>
       <c r="D247">
-        <v>0.4482852466984407</v>
+        <v>0.4482652325580154</v>
       </c>
       <c r="E247">
-        <v>0.01437939917344178</v>
+        <v>0.01436802815329883</v>
       </c>
       <c r="F247">
-        <v>0.00676470052689185</v>
+        <v>0.006763262059877728</v>
       </c>
       <c r="G247" t="s">
         <v>312</v>
@@ -8971,16 +8971,16 @@
         <v>28</v>
       </c>
       <c r="C248">
-        <v>0.07836474170521815</v>
+        <v>0.07841326375454048</v>
       </c>
       <c r="D248">
-        <v>0.4444521291747609</v>
+        <v>0.4465366997953081</v>
       </c>
       <c r="E248">
-        <v>0.03416309895952887</v>
+        <v>0.03440882129004652</v>
       </c>
       <c r="F248">
-        <v>0.006584583258242946</v>
+        <v>0.006609425252541047</v>
       </c>
       <c r="G248" t="s">
         <v>313</v>
@@ -9000,16 +9000,16 @@
         <v>29</v>
       </c>
       <c r="C249">
-        <v>0.09804161458201054</v>
+        <v>0.09807844555295873</v>
       </c>
       <c r="D249">
-        <v>0.4860110714687703</v>
+        <v>0.4879619062977255</v>
       </c>
       <c r="E249">
-        <v>0.04699793643390824</v>
+        <v>0.04726813353159071</v>
       </c>
       <c r="F249">
-        <v>0.010467842407499</v>
+        <v>0.01048053491684277</v>
       </c>
       <c r="G249" t="s">
         <v>314</v>
@@ -9029,16 +9029,16 @@
         <v>30</v>
       </c>
       <c r="C250">
-        <v>0.03273387190691979</v>
+        <v>0.03289298655168863</v>
       </c>
       <c r="D250">
-        <v>0.4324944043266118</v>
+        <v>0.4318175674309789</v>
       </c>
       <c r="E250">
-        <v>0.01389325413668203</v>
+        <v>0.01389877720360861</v>
       </c>
       <c r="F250">
-        <v>0.005499323077454148</v>
+        <v>0.005648431173747131</v>
       </c>
       <c r="G250" t="s">
         <v>315</v>
@@ -9058,16 +9058,16 @@
         <v>31</v>
       </c>
       <c r="C251">
-        <v>0.02705596455046547</v>
+        <v>0.02709822380318199</v>
       </c>
       <c r="D251">
-        <v>0.4277102595878864</v>
+        <v>0.4285798957438661</v>
       </c>
       <c r="E251">
-        <v>0.0116072903473864</v>
+        <v>0.01165093340564934</v>
       </c>
       <c r="F251">
-        <v>0.002006400229722608</v>
+        <v>0.002019979433187739</v>
       </c>
       <c r="G251" t="s">
         <v>316</v>
@@ -9087,16 +9087,16 @@
         <v>32</v>
       </c>
       <c r="C252">
-        <v>0.3198751918241473</v>
+        <v>0.3202929387195673</v>
       </c>
       <c r="D252">
-        <v>0.4450918065585635</v>
+        <v>0.4452551828570352</v>
       </c>
       <c r="E252">
-        <v>0.1476154631683204</v>
+        <v>0.1477978868200423</v>
       </c>
       <c r="F252">
-        <v>0.09690013353630336</v>
+        <v>0.09682009879339018</v>
       </c>
       <c r="G252" t="s">
         <v>317</v>
@@ -9116,16 +9116,16 @@
         <v>33</v>
       </c>
       <c r="C253">
-        <v>0.1179894909645268</v>
+        <v>0.118078928853696</v>
       </c>
       <c r="D253">
-        <v>0.4191863859882006</v>
+        <v>0.4191961755134087</v>
       </c>
       <c r="E253">
-        <v>0.05458895752378349</v>
+        <v>0.05461884706244495</v>
       </c>
       <c r="F253">
-        <v>0.07140956206167534</v>
+        <v>0.07139782476277766</v>
       </c>
       <c r="G253" t="s">
         <v>318</v>
@@ -9145,16 +9145,16 @@
         <v>34</v>
       </c>
       <c r="C254">
-        <v>0.06191364478162553</v>
+        <v>0.06192069809119619</v>
       </c>
       <c r="D254">
-        <v>0.4492233845421982</v>
+        <v>0.4495250650773589</v>
       </c>
       <c r="E254">
-        <v>0.02721460176558497</v>
+        <v>0.02724849823515395</v>
       </c>
       <c r="F254">
-        <v>0.006220733797044128</v>
+        <v>0.006226000439904233</v>
       </c>
       <c r="G254" t="s">
         <v>319</v>
@@ -9174,16 +9174,16 @@
         <v>35</v>
       </c>
       <c r="C255">
-        <v>0.03623214012750455</v>
+        <v>0.03630852744718056</v>
       </c>
       <c r="D255">
-        <v>0.424354761661362</v>
+        <v>0.4244082777324992</v>
       </c>
       <c r="E255">
-        <v>0.01545194296430774</v>
+        <v>0.01547955829894062</v>
       </c>
       <c r="F255">
-        <v>0.003406457401712343</v>
+        <v>0.003411185882817713</v>
       </c>
       <c r="G255" t="s">
         <v>320</v>
@@ -9203,16 +9203,16 @@
         <v>36</v>
       </c>
       <c r="C256">
-        <v>0.1375977206529219</v>
+        <v>0.1377557107626344</v>
       </c>
       <c r="D256">
-        <v>0.3583656809893673</v>
+        <v>0.3584376883858975</v>
       </c>
       <c r="E256">
-        <v>0.04972380290071655</v>
+        <v>0.04978509811405855</v>
       </c>
       <c r="F256">
-        <v>0.02956884854547445</v>
+        <v>0.02954566482030005</v>
       </c>
       <c r="G256" t="s">
         <v>321</v>
@@ -9232,16 +9232,16 @@
         <v>37</v>
       </c>
       <c r="C257">
-        <v>0.01267759384316559</v>
+        <v>0.0127184885707538</v>
       </c>
       <c r="D257">
-        <v>0.3860477877264553</v>
+        <v>0.3861740726016388</v>
       </c>
       <c r="E257">
-        <v>0.004836986932355294</v>
+        <v>0.004851985849400995</v>
       </c>
       <c r="F257">
-        <v>0.00351947882552239</v>
+        <v>0.003528743199435212</v>
       </c>
       <c r="G257" t="s">
         <v>322</v>
@@ -9261,16 +9261,16 @@
         <v>38</v>
       </c>
       <c r="C258">
-        <v>0.1385837074919505</v>
+        <v>0.1389281869074504</v>
       </c>
       <c r="D258">
-        <v>0.2271820084516819</v>
+        <v>0.2272760966661813</v>
       </c>
       <c r="E258">
-        <v>0.02709835641968905</v>
+        <v>0.02716203413248957</v>
       </c>
       <c r="F258">
-        <v>0.01954011517607764</v>
+        <v>0.0197382740707548</v>
       </c>
       <c r="G258" t="s">
         <v>323</v>
@@ -9290,16 +9290,16 @@
         <v>39</v>
       </c>
       <c r="C259">
-        <v>0.2130897901103974</v>
+        <v>0.2131315041192191</v>
       </c>
       <c r="D259">
-        <v>0.3873715236229947</v>
+        <v>0.3875989125390767</v>
       </c>
       <c r="E259">
-        <v>0.08158377930570332</v>
+        <v>0.08165877389093182</v>
       </c>
       <c r="F259">
-        <v>0.01838481948709201</v>
+        <v>0.01840041828629717</v>
       </c>
       <c r="G259" t="s">
         <v>324</v>
@@ -9319,16 +9319,16 @@
         <v>40</v>
       </c>
       <c r="C260">
-        <v>0.1147099831210179</v>
+        <v>0.1152659452222293</v>
       </c>
       <c r="D260">
-        <v>0.440235440201823</v>
+        <v>0.4408967226296253</v>
       </c>
       <c r="E260">
-        <v>0.0553258657687226</v>
+        <v>0.05558496258483697</v>
       </c>
       <c r="F260">
-        <v>0.06115792301772332</v>
+        <v>0.06110925688740982</v>
       </c>
       <c r="G260" t="s">
         <v>325</v>
@@ -9377,16 +9377,16 @@
         <v>42</v>
       </c>
       <c r="C262">
-        <v>0.3644919836182682</v>
+        <v>0.3644751552577229</v>
       </c>
       <c r="D262">
-        <v>0.478075713355049</v>
+        <v>0.4785864546396524</v>
       </c>
       <c r="E262">
-        <v>0.1717076647015668</v>
+        <v>0.171915375336178</v>
       </c>
       <c r="F262">
-        <v>0.1041558607818742</v>
+        <v>0.1041548684100698</v>
       </c>
       <c r="G262" t="s">
         <v>327</v>
@@ -9406,16 +9406,16 @@
         <v>43</v>
       </c>
       <c r="C263">
-        <v>0.01825343762305319</v>
+        <v>0.01835726655023148</v>
       </c>
       <c r="D263">
-        <v>0.4317510442061891</v>
+        <v>0.431763933747713</v>
       </c>
       <c r="E263">
-        <v>0.007957178648014866</v>
+        <v>0.007995569377926063</v>
       </c>
       <c r="F263">
-        <v>0.00378848453894507</v>
+        <v>0.003792246923453622</v>
       </c>
       <c r="G263" t="s">
         <v>328</v>
@@ -9435,16 +9435,16 @@
         <v>44</v>
       </c>
       <c r="C264">
-        <v>0.04110248264034245</v>
+        <v>0.04126221736967957</v>
       </c>
       <c r="D264">
-        <v>0.4764112159965709</v>
+        <v>0.476996303286504</v>
       </c>
       <c r="E264">
-        <v>0.01959096551501934</v>
+        <v>0.01968171708530307</v>
       </c>
       <c r="F264">
-        <v>0.003194233923177481</v>
+        <v>0.003222245490637243</v>
       </c>
       <c r="G264" t="s">
         <v>329</v>
@@ -9464,16 +9464,16 @@
         <v>45</v>
       </c>
       <c r="C265">
-        <v>0.09194840886189248</v>
+        <v>0.09227547101083119</v>
       </c>
       <c r="D265">
-        <v>0.3327384185763031</v>
+        <v>0.3328319085420398</v>
       </c>
       <c r="E265">
-        <v>0.03340698814491875</v>
+        <v>0.03353423527508985</v>
       </c>
       <c r="F265">
-        <v>0.02432333011814759</v>
+        <v>0.02437787015304758</v>
       </c>
       <c r="G265" t="s">
         <v>330</v>
@@ -9493,16 +9493,16 @@
         <v>46</v>
       </c>
       <c r="C266">
-        <v>0.01280053141233201</v>
+        <v>0.01285305538345171</v>
       </c>
       <c r="D266">
-        <v>0.466480691592297</v>
+        <v>0.4664568704142907</v>
       </c>
       <c r="E266">
-        <v>0.006066616627016482</v>
+        <v>0.006086867872413926</v>
       </c>
       <c r="F266">
-        <v>0.004635647958964214</v>
+        <v>0.004638798960264391</v>
       </c>
       <c r="G266" t="s">
         <v>331</v>
@@ -9522,16 +9522,16 @@
         <v>47</v>
       </c>
       <c r="C267">
-        <v>0.01770761934374623</v>
+        <v>0.01777185293101718</v>
       </c>
       <c r="D267">
-        <v>0.4156260294052163</v>
+        <v>0.4157777670459407</v>
       </c>
       <c r="E267">
-        <v>0.007393750830455752</v>
+        <v>0.007420878835653932</v>
       </c>
       <c r="F267">
-        <v>0.003832493441577842</v>
+        <v>0.003842474828548508</v>
       </c>
       <c r="G267" t="s">
         <v>332</v>
@@ -9551,16 +9551,16 @@
         <v>48</v>
       </c>
       <c r="C268">
-        <v>0.02768539542594558</v>
+        <v>0.02784885812280957</v>
       </c>
       <c r="D268">
-        <v>0.4324191487919068</v>
+        <v>0.4331104524303471</v>
       </c>
       <c r="E268">
-        <v>0.01193338078817275</v>
+        <v>0.01200658849880736</v>
       </c>
       <c r="F268">
-        <v>0.003559102065154432</v>
+        <v>0.003542702008962076</v>
       </c>
       <c r="G268" t="s">
         <v>333</v>
@@ -9580,16 +9580,16 @@
         <v>49</v>
       </c>
       <c r="C269">
-        <v>0.1030806224797814</v>
+        <v>0.1034217570131437</v>
       </c>
       <c r="D269">
-        <v>0.3878565013658353</v>
+        <v>0.3892263278736942</v>
       </c>
       <c r="E269">
-        <v>0.02814851625798672</v>
+        <v>0.02835027064395164</v>
       </c>
       <c r="F269">
-        <v>0.06821006712761971</v>
+        <v>0.06817160041882941</v>
       </c>
       <c r="G269" t="s">
         <v>334</v>
@@ -9609,16 +9609,16 @@
         <v>50</v>
       </c>
       <c r="C270">
-        <v>0.1152794702993764</v>
+        <v>0.115507659434323</v>
       </c>
       <c r="D270">
-        <v>0.3882007388247704</v>
+        <v>0.3890764118546284</v>
       </c>
       <c r="E270">
-        <v>0.03269479413448827</v>
+        <v>0.03283487427310642</v>
       </c>
       <c r="F270">
-        <v>0.07329281458458825</v>
+        <v>0.07328042457637046</v>
       </c>
       <c r="G270" t="s">
         <v>335</v>
@@ -9638,16 +9638,16 @@
         <v>51</v>
       </c>
       <c r="C271">
-        <v>0.08213886785648876</v>
+        <v>0.08232233655606559</v>
       </c>
       <c r="D271">
-        <v>0.3586259816759999</v>
+        <v>0.3590476382812101</v>
       </c>
       <c r="E271">
-        <v>0.02699403143544678</v>
+        <v>0.02707005482725965</v>
       </c>
       <c r="F271">
-        <v>0.04669886751323517</v>
+        <v>0.04667975247878632</v>
       </c>
       <c r="G271" t="s">
         <v>336</v>
@@ -9667,16 +9667,16 @@
         <v>52</v>
       </c>
       <c r="C272">
-        <v>0.1895421039035182</v>
+        <v>0.1893500081316118</v>
       </c>
       <c r="D272">
-        <v>0.3111932258275539</v>
+        <v>0.3118951891712206</v>
       </c>
       <c r="E272">
-        <v>0.05819356783368011</v>
+        <v>0.05864451000392055</v>
       </c>
       <c r="F272">
-        <v>0.06849085500649757</v>
+        <v>0.06832064478084716</v>
       </c>
       <c r="G272" t="s">
         <v>337</v>
@@ -9696,16 +9696,16 @@
         <v>53</v>
       </c>
       <c r="C273">
-        <v>0.06328258390454761</v>
+        <v>0.06353286765109947</v>
       </c>
       <c r="D273">
-        <v>0.3982832242391803</v>
+        <v>0.3992987243207598</v>
       </c>
       <c r="E273">
-        <v>0.02596733917619546</v>
+        <v>0.02612561294704234</v>
       </c>
       <c r="F273">
-        <v>0.01981939603386395</v>
+        <v>0.01982036828653928</v>
       </c>
       <c r="G273" t="s">
         <v>338</v>
@@ -9725,16 +9725,16 @@
         <v>54</v>
       </c>
       <c r="C274">
-        <v>0.9427106920557311</v>
+        <v>0.9424467152212698</v>
       </c>
       <c r="D274">
-        <v>0.3866171442055203</v>
+        <v>0.3883244917880515</v>
       </c>
       <c r="E274">
-        <v>0.3643563190538214</v>
+        <v>0.3659656974380535</v>
       </c>
       <c r="F274">
-        <v>0.02226341175165651</v>
+        <v>0.02219920926396701</v>
       </c>
       <c r="G274" t="s">
         <v>339</v>
@@ -9754,16 +9754,16 @@
         <v>55</v>
       </c>
       <c r="C275">
-        <v>0.1170344969644037</v>
+        <v>0.1176943846122811</v>
       </c>
       <c r="D275">
-        <v>0.4855409826012995</v>
+        <v>0.4863029883662421</v>
       </c>
       <c r="E275">
-        <v>0.05565923296925316</v>
+        <v>0.05611683530843446</v>
       </c>
       <c r="F275">
-        <v>0.02311406669505776</v>
+        <v>0.02339698669338871</v>
       </c>
       <c r="G275" t="s">
         <v>340</v>
@@ -9783,16 +9783,16 @@
         <v>56</v>
       </c>
       <c r="C276">
-        <v>0.06113416887260083</v>
+        <v>0.06212882903244359</v>
       </c>
       <c r="D276">
-        <v>0.4664109035941494</v>
+        <v>0.4672896766403233</v>
       </c>
       <c r="E276">
-        <v>0.02751013490699738</v>
+        <v>0.02809298091089601</v>
       </c>
       <c r="F276">
-        <v>0.02633630610470048</v>
+        <v>0.02669837538986117</v>
       </c>
       <c r="G276" t="s">
         <v>341</v>
@@ -9812,16 +9812,16 @@
         <v>57</v>
       </c>
       <c r="C277">
-        <v>0.02201052467184207</v>
+        <v>0.02237459456934657</v>
       </c>
       <c r="D277">
-        <v>0.4976839065071061</v>
+        <v>0.4981894267115985</v>
       </c>
       <c r="E277">
-        <v>0.01054465273949225</v>
+        <v>0.01072106599485288</v>
       </c>
       <c r="F277">
-        <v>0.00626832473190421</v>
+        <v>0.006499997732774007</v>
       </c>
       <c r="G277" t="s">
         <v>342</v>
@@ -9841,16 +9841,16 @@
         <v>58</v>
       </c>
       <c r="C278">
-        <v>0.04001831198326811</v>
+        <v>0.0401692273065016</v>
       </c>
       <c r="D278">
-        <v>0.4157013827941404</v>
+        <v>0.4166889283426256</v>
       </c>
       <c r="E278">
-        <v>0.01641755329487488</v>
+        <v>0.01653169667802411</v>
       </c>
       <c r="F278">
-        <v>0.006094663006238022</v>
+        <v>0.006133199806724969</v>
       </c>
       <c r="G278" t="s">
         <v>343</v>
@@ -9870,16 +9870,16 @@
         <v>59</v>
       </c>
       <c r="C279">
-        <v>0.05851134900435036</v>
+        <v>0.05865288956277527</v>
       </c>
       <c r="D279">
-        <v>0.417929410847961</v>
+        <v>0.418748848494124</v>
       </c>
       <c r="E279">
-        <v>0.02348611042158321</v>
+        <v>0.02357529170813292</v>
       </c>
       <c r="F279">
-        <v>0.03057179457065792</v>
+        <v>0.03056416494140914</v>
       </c>
       <c r="G279" t="s">
         <v>344</v>
@@ -9899,16 +9899,16 @@
         <v>60</v>
       </c>
       <c r="C280">
-        <v>0.06645928954991619</v>
+        <v>0.06657706432534524</v>
       </c>
       <c r="D280">
-        <v>0.4664638600729668</v>
+        <v>0.4665417955708729</v>
       </c>
       <c r="E280">
-        <v>0.02363897155196808</v>
+        <v>0.02368099017878204</v>
       </c>
       <c r="F280">
-        <v>0.04688006690521263</v>
+        <v>0.04687462680504179</v>
       </c>
       <c r="G280" t="s">
         <v>345</v>
@@ -9928,16 +9928,16 @@
         <v>61</v>
       </c>
       <c r="C281">
-        <v>0.312726008917834</v>
+        <v>0.3129348382785098</v>
       </c>
       <c r="D281">
-        <v>0.3740216095301794</v>
+        <v>0.3741650804607281</v>
       </c>
       <c r="E281">
-        <v>0.09659458752870743</v>
+        <v>0.09670802699156211</v>
       </c>
       <c r="F281">
-        <v>0.0969684353062185</v>
+        <v>0.09699352202711332</v>
       </c>
       <c r="G281" t="s">
         <v>346</v>
@@ -9957,16 +9957,16 @@
         <v>62</v>
       </c>
       <c r="C282">
-        <v>0.1845911521741947</v>
+        <v>0.1845400894368753</v>
       </c>
       <c r="D282">
-        <v>0.4185413093777246</v>
+        <v>0.4190824525767238</v>
       </c>
       <c r="E282">
-        <v>0.07319374747124528</v>
+        <v>0.07329202557390935</v>
       </c>
       <c r="F282">
-        <v>0.0544935058840877</v>
+        <v>0.05449047139262001</v>
       </c>
       <c r="G282" t="s">
         <v>347</v>
@@ -9986,16 +9986,16 @@
         <v>63</v>
       </c>
       <c r="C283">
-        <v>0.1402918286495127</v>
+        <v>0.1403783278936904</v>
       </c>
       <c r="D283">
-        <v>0.428466725987783</v>
+        <v>0.4285764774426152</v>
       </c>
       <c r="E283">
-        <v>0.05209338091898907</v>
+        <v>0.0521507774968535</v>
       </c>
       <c r="F283">
-        <v>0.0694009256661143</v>
+        <v>0.06941498960271612</v>
       </c>
       <c r="G283" t="s">
         <v>348</v>
@@ -10015,16 +10015,16 @@
         <v>64</v>
       </c>
       <c r="C284">
-        <v>0.04926825867101315</v>
+        <v>0.04936207632957966</v>
       </c>
       <c r="D284">
-        <v>0.3563949511291982</v>
+        <v>0.3564808814060242</v>
       </c>
       <c r="E284">
-        <v>0.0173020202721331</v>
+        <v>0.01733764946858101</v>
       </c>
       <c r="F284">
-        <v>0.01093265273809281</v>
+        <v>0.01095868848728306</v>
       </c>
       <c r="G284" t="s">
         <v>349</v>
@@ -10044,16 +10044,16 @@
         <v>65</v>
       </c>
       <c r="C285">
-        <v>0.02505280641170244</v>
+        <v>0.02513899981474836</v>
       </c>
       <c r="D285">
-        <v>0.4388862483007396</v>
+        <v>0.4390552807693315</v>
       </c>
       <c r="E285">
-        <v>0.01105213580807157</v>
+        <v>0.01108781915223444</v>
       </c>
       <c r="F285">
-        <v>0.003769123980713156</v>
+        <v>0.003782155708778134</v>
       </c>
       <c r="G285" t="s">
         <v>350</v>
@@ -10073,16 +10073,16 @@
         <v>66</v>
       </c>
       <c r="C286">
-        <v>0.2533433920219134</v>
+        <v>0.2534433055962199</v>
       </c>
       <c r="D286">
-        <v>0.4363111200707165</v>
+        <v>0.436505822849854</v>
       </c>
       <c r="E286">
-        <v>0.1081466552515234</v>
+        <v>0.1083314072549889</v>
       </c>
       <c r="F286">
-        <v>0.05611694833007021</v>
+        <v>0.05621379837714011</v>
       </c>
       <c r="G286" t="s">
         <v>351</v>
@@ -10102,16 +10102,16 @@
         <v>8</v>
       </c>
       <c r="C287">
-        <v>0.07146930893623778</v>
+        <v>0.07146990816675761</v>
       </c>
       <c r="D287">
-        <v>0.2717376954376001</v>
+        <v>0.2717149583423111</v>
       </c>
       <c r="E287">
-        <v>0.01880053877907014</v>
+        <v>0.01879550096511722</v>
       </c>
       <c r="F287">
-        <v>0.02021898892345239</v>
+        <v>0.02021956903058637</v>
       </c>
       <c r="G287" t="s">
         <v>352</v>
@@ -10131,16 +10131,16 @@
         <v>9</v>
       </c>
       <c r="C288">
-        <v>0.9716805063606022</v>
+        <v>0.9714403669603457</v>
       </c>
       <c r="D288">
-        <v>0.2330200395614502</v>
+        <v>0.2329802653038509</v>
       </c>
       <c r="E288">
-        <v>0.2268576866673908</v>
+        <v>0.2267730756716031</v>
       </c>
       <c r="F288">
-        <v>0.009538893312575134</v>
+        <v>0.009523259137910429</v>
       </c>
       <c r="G288" t="s">
         <v>353</v>
@@ -10160,16 +10160,16 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>0.03096471728780494</v>
+        <v>0.03101007506155815</v>
       </c>
       <c r="D289">
-        <v>0.3737714936335481</v>
+        <v>0.373529841529897</v>
       </c>
       <c r="E289">
-        <v>0.01149742752115855</v>
+        <v>0.01150082652816293</v>
       </c>
       <c r="F289">
-        <v>0.006013276545710205</v>
+        <v>0.006033759411195939</v>
       </c>
       <c r="G289" t="s">
         <v>354</v>
@@ -10189,16 +10189,16 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>0.05517407709026299</v>
+        <v>0.05503770079609346</v>
       </c>
       <c r="D290">
-        <v>0.3525621338916152</v>
+        <v>0.3526405549475434</v>
       </c>
       <c r="E290">
-        <v>0.01883076802999066</v>
+        <v>0.01879131527011837</v>
       </c>
       <c r="F290">
-        <v>0.01413661510674237</v>
+        <v>0.01413470753203055</v>
       </c>
       <c r="G290" t="s">
         <v>355</v>
@@ -10218,16 +10218,16 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>0.03435016651373204</v>
+        <v>0.03428296546786722</v>
       </c>
       <c r="D291">
-        <v>0.3582307402690526</v>
+        <v>0.3581939099328818</v>
       </c>
       <c r="E291">
-        <v>0.01227358519659306</v>
+        <v>0.01225161304417187</v>
       </c>
       <c r="F291">
-        <v>0.006581585003938124</v>
+        <v>0.006589130383850014</v>
       </c>
       <c r="G291" t="s">
         <v>356</v>
@@ -10247,16 +10247,16 @@
         <v>13</v>
       </c>
       <c r="C292">
-        <v>0.3872039585732901</v>
+        <v>0.3875204270786021</v>
       </c>
       <c r="D292">
-        <v>0.3903717372943433</v>
+        <v>0.3903630308033097</v>
       </c>
       <c r="E292">
-        <v>0.1337059700458659</v>
+        <v>0.1338437512226507</v>
       </c>
       <c r="F292">
-        <v>0.09071622205908331</v>
+        <v>0.09068155356948443</v>
       </c>
       <c r="G292" t="s">
         <v>357</v>
@@ -10276,16 +10276,16 @@
         <v>14</v>
       </c>
       <c r="C293">
-        <v>0.05152431920831019</v>
+        <v>0.05142788508652937</v>
       </c>
       <c r="D293">
-        <v>0.2297663232969588</v>
+        <v>0.2297625024627642</v>
       </c>
       <c r="E293">
-        <v>0.01198455285425897</v>
+        <v>0.01196682946059326</v>
       </c>
       <c r="F293">
-        <v>0.01039598136620985</v>
+        <v>0.0103981532528452</v>
       </c>
       <c r="G293" t="s">
         <v>358</v>
@@ -10305,16 +10305,16 @@
         <v>15</v>
       </c>
       <c r="C294">
-        <v>0.05222764771865965</v>
+        <v>0.05219532646189532</v>
       </c>
       <c r="D294">
-        <v>0.3329865746663954</v>
+        <v>0.3327215591011938</v>
       </c>
       <c r="E294">
-        <v>0.01709331982343138</v>
+        <v>0.01707159045722479</v>
       </c>
       <c r="F294">
-        <v>0.007838938481990273</v>
+        <v>0.007846446824283102</v>
       </c>
       <c r="G294" t="s">
         <v>359</v>
@@ -10334,10 +10334,10 @@
         <v>16</v>
       </c>
       <c r="C295">
-        <v>0.03034735113324075</v>
+        <v>0.03034735113324076</v>
       </c>
       <c r="D295">
-        <v>0.4001974894660487</v>
+        <v>0.4001287770871723</v>
       </c>
       <c r="E295">
         <v>0.01142128454458838</v>
@@ -10363,16 +10363,16 @@
         <v>17</v>
       </c>
       <c r="C296">
-        <v>0.02032198845325314</v>
+        <v>0.02034878295241959</v>
       </c>
       <c r="D296">
-        <v>0.3413835723793917</v>
+        <v>0.3409012703581076</v>
       </c>
       <c r="E296">
-        <v>0.006922330001969395</v>
+        <v>0.006915592684514279</v>
       </c>
       <c r="F296">
-        <v>0.004264185520079552</v>
+        <v>0.00427651140390479</v>
       </c>
       <c r="G296" t="s">
         <v>361</v>
@@ -10392,16 +10392,16 @@
         <v>18</v>
       </c>
       <c r="C297">
-        <v>0.2514064869960269</v>
+        <v>0.2513521839399929</v>
       </c>
       <c r="D297">
-        <v>0.2869074437589981</v>
+        <v>0.2864979254972898</v>
       </c>
       <c r="E297">
-        <v>0.06736684286414701</v>
+        <v>0.06729048659965571</v>
       </c>
       <c r="F297">
-        <v>0.0463705625809998</v>
+        <v>0.04638569850080453</v>
       </c>
       <c r="G297" t="s">
         <v>362</v>
@@ -10421,16 +10421,16 @@
         <v>19</v>
       </c>
       <c r="C298">
-        <v>0.1300576434728155</v>
+        <v>0.1306988632298884</v>
       </c>
       <c r="D298">
-        <v>0.3635185573806772</v>
+        <v>0.3627810111078696</v>
       </c>
       <c r="E298">
-        <v>0.05108182353481494</v>
+        <v>0.05098877571806997</v>
       </c>
       <c r="F298">
-        <v>0.04496178392873643</v>
+        <v>0.04552077453697487</v>
       </c>
       <c r="G298" t="s">
         <v>363</v>
@@ -10450,16 +10450,16 @@
         <v>20</v>
       </c>
       <c r="C299">
-        <v>0.6915959453496998</v>
+        <v>0.691481972688382</v>
       </c>
       <c r="D299">
-        <v>0.299306230719348</v>
+        <v>0.2991181955676734</v>
       </c>
       <c r="E299">
-        <v>0.1873543889208768</v>
+        <v>0.1871375808312401</v>
       </c>
       <c r="F299">
-        <v>0.1127429580315484</v>
+        <v>0.1127083534560388</v>
       </c>
       <c r="G299" t="s">
         <v>364</v>
@@ -10479,16 +10479,16 @@
         <v>21</v>
       </c>
       <c r="C300">
-        <v>0.02625309708324007</v>
+        <v>0.02625334325827973</v>
       </c>
       <c r="D300">
-        <v>0.3483338498243209</v>
+        <v>0.3478508588001494</v>
       </c>
       <c r="E300">
-        <v>0.009057265953509232</v>
+        <v>0.009038814201199726</v>
       </c>
       <c r="F300">
-        <v>0.002284750408700061</v>
+        <v>0.002284913943068176</v>
       </c>
       <c r="G300" t="s">
         <v>365</v>
@@ -10508,16 +10508,16 @@
         <v>22</v>
       </c>
       <c r="C301">
-        <v>0.1294591886066197</v>
+        <v>0.129461305421822</v>
       </c>
       <c r="D301">
-        <v>0.3955136936988588</v>
+        <v>0.3951240938842633</v>
       </c>
       <c r="E301">
-        <v>0.05176841243595999</v>
+        <v>0.05160865910675402</v>
       </c>
       <c r="F301">
-        <v>0.03785058528386589</v>
+        <v>0.03785256266096884</v>
       </c>
       <c r="G301" t="s">
         <v>366</v>
@@ -10537,16 +10537,16 @@
         <v>23</v>
       </c>
       <c r="C302">
-        <v>0.0218134103211105</v>
+        <v>0.02182478653795974</v>
       </c>
       <c r="D302">
-        <v>0.2436325067236232</v>
+        <v>0.2434750382455053</v>
       </c>
       <c r="E302">
-        <v>0.005246014777302879</v>
+        <v>0.005245347115212733</v>
       </c>
       <c r="F302">
-        <v>0.005519226555813176</v>
+        <v>0.005521254698113474</v>
       </c>
       <c r="G302" t="s">
         <v>367</v>
@@ -10566,16 +10566,16 @@
         <v>24</v>
       </c>
       <c r="C303">
-        <v>0.01842599895894497</v>
+        <v>0.01844195427046345</v>
       </c>
       <c r="D303">
-        <v>0.413567940509058</v>
+        <v>0.4132618979537341</v>
       </c>
       <c r="E303">
-        <v>0.007430229906815974</v>
+        <v>0.007430229906815972</v>
       </c>
       <c r="F303">
-        <v>0.003186840593144901</v>
+        <v>0.003189417863553003</v>
       </c>
       <c r="G303" t="s">
         <v>368</v>
@@ -10595,16 +10595,16 @@
         <v>25</v>
       </c>
       <c r="C304">
-        <v>0.01835109970958514</v>
+        <v>0.01832102522006831</v>
       </c>
       <c r="D304">
-        <v>0.4093857671484195</v>
+        <v>0.4093374116730388</v>
       </c>
       <c r="E304">
-        <v>0.007421493756191103</v>
+        <v>0.007410204197212262</v>
       </c>
       <c r="F304">
-        <v>0.003719588389216403</v>
+        <v>0.00373223944392215</v>
       </c>
       <c r="G304" t="s">
         <v>369</v>
@@ -10624,16 +10624,16 @@
         <v>26</v>
       </c>
       <c r="C305">
-        <v>0.189360071690695</v>
+        <v>0.189294716117036</v>
       </c>
       <c r="D305">
-        <v>0.2315034606571008</v>
+        <v>0.2314033673285278</v>
       </c>
       <c r="E305">
-        <v>0.03444670723262105</v>
+        <v>0.03441587338336701</v>
       </c>
       <c r="F305">
-        <v>0.03585301225093714</v>
+        <v>0.03587553002802395</v>
       </c>
       <c r="G305" t="s">
         <v>370</v>
@@ -10653,16 +10653,16 @@
         <v>27</v>
       </c>
       <c r="C306">
-        <v>0.0194139377866425</v>
+        <v>0.01938251669831558</v>
       </c>
       <c r="D306">
-        <v>0.4127478131113251</v>
+        <v>0.4122918811096464</v>
       </c>
       <c r="E306">
-        <v>0.007921231439595576</v>
+        <v>0.007900837397569284</v>
       </c>
       <c r="F306">
-        <v>0.004396908568357871</v>
+        <v>0.004400552023769297</v>
       </c>
       <c r="G306" t="s">
         <v>371</v>
@@ -10682,16 +10682,16 @@
         <v>28</v>
       </c>
       <c r="C307">
-        <v>0.3449525546264027</v>
+        <v>0.344811875568634</v>
       </c>
       <c r="D307">
-        <v>0.3955832414111979</v>
+        <v>0.3954845260884</v>
       </c>
       <c r="E307">
-        <v>0.1367487734345277</v>
+        <v>0.1366272589341211</v>
       </c>
       <c r="F307">
-        <v>0.04648000391198882</v>
+        <v>0.04636528324520608</v>
       </c>
       <c r="G307" t="s">
         <v>372</v>
@@ -10711,16 +10711,16 @@
         <v>29</v>
       </c>
       <c r="C308">
-        <v>0.7941369270052758</v>
+        <v>0.793821853302348</v>
       </c>
       <c r="D308">
-        <v>0.4073889587575882</v>
+        <v>0.4073308946051557</v>
       </c>
       <c r="E308">
-        <v>0.3219534921168197</v>
+        <v>0.3217680034488664</v>
       </c>
       <c r="F308">
-        <v>0.03932544696117846</v>
+        <v>0.03923972022104193</v>
       </c>
       <c r="G308" t="s">
         <v>373</v>
@@ -10740,16 +10740,16 @@
         <v>30</v>
       </c>
       <c r="C309">
-        <v>0.03173561460568671</v>
+        <v>0.03179750631580833</v>
       </c>
       <c r="D309">
-        <v>0.3729860644813932</v>
+        <v>0.3722289129446035</v>
       </c>
       <c r="E309">
-        <v>0.01192528591713213</v>
+        <v>0.0118823734537018</v>
       </c>
       <c r="F309">
-        <v>0.007713538158855865</v>
+        <v>0.007769959240358993</v>
       </c>
       <c r="G309" t="s">
         <v>374</v>
@@ -10769,16 +10769,16 @@
         <v>31</v>
       </c>
       <c r="C310">
-        <v>0.031247506146692</v>
+        <v>0.03131358763252391</v>
       </c>
       <c r="D310">
-        <v>0.3757857868953166</v>
+        <v>0.3751086223301088</v>
       </c>
       <c r="E310">
-        <v>0.01188190525094616</v>
+        <v>0.0118465191601684</v>
       </c>
       <c r="F310">
-        <v>0.00841603198194772</v>
+        <v>0.008473909640638424</v>
       </c>
       <c r="G310" t="s">
         <v>375</v>
@@ -10798,16 +10798,16 @@
         <v>32</v>
       </c>
       <c r="C311">
-        <v>0.1481193813566231</v>
+        <v>0.1483087440946511</v>
       </c>
       <c r="D311">
-        <v>0.4580227569487245</v>
+        <v>0.4578382294481138</v>
       </c>
       <c r="E311">
-        <v>0.06734717182875621</v>
+        <v>0.06736944746394563</v>
       </c>
       <c r="F311">
-        <v>0.06308349346899907</v>
+        <v>0.06315551678901261</v>
       </c>
       <c r="G311" t="s">
         <v>376</v>
@@ -10827,16 +10827,16 @@
         <v>33</v>
       </c>
       <c r="C312">
-        <v>0.01592936465145117</v>
+        <v>0.0158810130166713</v>
       </c>
       <c r="D312">
-        <v>0.3686654468642487</v>
+        <v>0.3683495077219947</v>
       </c>
       <c r="E312">
-        <v>0.005906174122089035</v>
+        <v>0.005876007934925142</v>
       </c>
       <c r="F312">
-        <v>0.003977550594179764</v>
+        <v>0.003946581379868331</v>
       </c>
       <c r="G312" t="s">
         <v>377</v>
@@ -10856,16 +10856,16 @@
         <v>34</v>
       </c>
       <c r="C313">
-        <v>0.1797132488637037</v>
+        <v>0.1796845213356924</v>
       </c>
       <c r="D313">
-        <v>0.4041034519262622</v>
+        <v>0.4040811532873561</v>
       </c>
       <c r="E313">
-        <v>0.07061865307085492</v>
+        <v>0.07059971574611623</v>
       </c>
       <c r="F313">
-        <v>0.02583695182885849</v>
+        <v>0.02581375557867403</v>
       </c>
       <c r="G313" t="s">
         <v>378</v>
@@ -10885,16 +10885,16 @@
         <v>35</v>
       </c>
       <c r="C314">
-        <v>0.088895497155357</v>
+        <v>0.08890901258845654</v>
       </c>
       <c r="D314">
-        <v>0.2891113628260478</v>
+        <v>0.2889845236581128</v>
       </c>
       <c r="E314">
-        <v>0.02545634298322634</v>
+        <v>0.02545100168650517</v>
       </c>
       <c r="F314">
-        <v>0.009530762002723868</v>
+        <v>0.009527650412123093</v>
       </c>
       <c r="G314" t="s">
         <v>379</v>
@@ -10914,16 +10914,16 @@
         <v>36</v>
       </c>
       <c r="C315">
-        <v>0.123017439497949</v>
+        <v>0.1230340359328582</v>
       </c>
       <c r="D315">
-        <v>0.4086047455373689</v>
+        <v>0.4084521000794639</v>
       </c>
       <c r="E315">
-        <v>0.04886090252042877</v>
+        <v>0.04884979505111087</v>
       </c>
       <c r="F315">
-        <v>0.01905455054425441</v>
+        <v>0.01905345417062656</v>
       </c>
       <c r="G315" t="s">
         <v>380</v>
@@ -10943,16 +10943,16 @@
         <v>37</v>
       </c>
       <c r="C316">
-        <v>0.02450161449142633</v>
+        <v>0.02444105363809883</v>
       </c>
       <c r="D316">
-        <v>0.3595992650556275</v>
+        <v>0.3594845773931638</v>
       </c>
       <c r="E316">
-        <v>0.008923431231171472</v>
+        <v>0.008901216292535687</v>
       </c>
       <c r="F316">
-        <v>0.003646067921892102</v>
+        <v>0.003660467747863178</v>
       </c>
       <c r="G316" t="s">
         <v>381</v>
@@ -10972,16 +10972,16 @@
         <v>38</v>
       </c>
       <c r="C317">
-        <v>0.1459760278154273</v>
+        <v>0.1458424932715235</v>
       </c>
       <c r="D317">
-        <v>0.2129008834187163</v>
+        <v>0.2128269095632441</v>
       </c>
       <c r="E317">
-        <v>0.02799885736316964</v>
+        <v>0.02795066429957179</v>
       </c>
       <c r="F317">
-        <v>0.02344565263950085</v>
+        <v>0.02345841215596332</v>
       </c>
       <c r="G317" t="s">
         <v>382</v>
@@ -11001,16 +11001,16 @@
         <v>39</v>
       </c>
       <c r="C318">
-        <v>0.1040551972733778</v>
+        <v>0.1039858359225174</v>
       </c>
       <c r="D318">
-        <v>0.3984240509928843</v>
+        <v>0.3980320083498692</v>
       </c>
       <c r="E318">
-        <v>0.04147381393994087</v>
+        <v>0.04133409047343931</v>
       </c>
       <c r="F318">
-        <v>0.02337035148868109</v>
+        <v>0.02330528256811485</v>
       </c>
       <c r="G318" t="s">
         <v>383</v>
@@ -11030,16 +11030,16 @@
         <v>40</v>
       </c>
       <c r="C319">
-        <v>0.0175711860600474</v>
+        <v>0.01772927817732006</v>
       </c>
       <c r="D319">
-        <v>0.4145385043152002</v>
+        <v>0.4136449928433021</v>
       </c>
       <c r="E319">
-        <v>0.007701987681644768</v>
+        <v>0.007719346895988579</v>
       </c>
       <c r="F319">
-        <v>0.005998545090658675</v>
+        <v>0.006142897236337177</v>
       </c>
       <c r="G319" t="s">
         <v>384</v>
@@ -11085,16 +11085,16 @@
         <v>42</v>
       </c>
       <c r="C321">
-        <v>0.1569605850114569</v>
+        <v>0.1568464788121601</v>
       </c>
       <c r="D321">
-        <v>0.3135600442811854</v>
+        <v>0.3135225875787532</v>
       </c>
       <c r="E321">
-        <v>0.04776650418484063</v>
+        <v>0.04772765839050484</v>
       </c>
       <c r="F321">
-        <v>0.01269781413346875</v>
+        <v>0.01268819047534512</v>
       </c>
       <c r="G321" t="s">
         <v>386</v>
@@ -11114,16 +11114,16 @@
         <v>43</v>
       </c>
       <c r="C322">
-        <v>0.01139531608785698</v>
+        <v>0.01133882263484096</v>
       </c>
       <c r="D322">
-        <v>0.4238720390778011</v>
+        <v>0.4234099686867607</v>
       </c>
       <c r="E322">
-        <v>0.00495351003812105</v>
+        <v>0.004915574692089999</v>
       </c>
       <c r="F322">
-        <v>0.004325823460565661</v>
+        <v>0.00430417720756645</v>
       </c>
       <c r="G322" t="s">
         <v>387</v>
@@ -11143,16 +11143,16 @@
         <v>44</v>
       </c>
       <c r="C323">
-        <v>0.04332034121139565</v>
+        <v>0.04331647074073829</v>
       </c>
       <c r="D323">
-        <v>0.345738191576884</v>
+        <v>0.3457045557086464</v>
       </c>
       <c r="E323">
-        <v>0.01435402055283868</v>
+        <v>0.01435104642170984</v>
       </c>
       <c r="F323">
-        <v>0.00903358315873287</v>
+        <v>0.009033112598197038</v>
       </c>
       <c r="G323" t="s">
         <v>388</v>
@@ -11172,16 +11172,16 @@
         <v>45</v>
       </c>
       <c r="C324">
-        <v>0.3604216850783726</v>
+        <v>0.3604942936102003</v>
       </c>
       <c r="D324">
-        <v>0.3857916437143126</v>
+        <v>0.3854066790100515</v>
       </c>
       <c r="E324">
-        <v>0.1331073303248619</v>
+        <v>0.1330964656417586</v>
       </c>
       <c r="F324">
-        <v>0.1096249360348858</v>
+        <v>0.1096034797706199</v>
       </c>
       <c r="G324" t="s">
         <v>389</v>
@@ -11201,16 +11201,16 @@
         <v>46</v>
       </c>
       <c r="C325">
-        <v>0.02156288824514151</v>
+        <v>0.02166110966839839</v>
       </c>
       <c r="D325">
-        <v>0.3667165064678009</v>
+        <v>0.3661182014149043</v>
       </c>
       <c r="E325">
-        <v>0.007886820376880994</v>
+        <v>0.007902662177383562</v>
       </c>
       <c r="F325">
-        <v>0.004271522861993148</v>
+        <v>0.004317807305645463</v>
       </c>
       <c r="G325" t="s">
         <v>390</v>
@@ -11230,16 +11230,16 @@
         <v>47</v>
       </c>
       <c r="C326">
-        <v>0.04036882489316088</v>
+        <v>0.04040684216262053</v>
       </c>
       <c r="D326">
-        <v>0.3661286111427383</v>
+        <v>0.3657454629006351</v>
       </c>
       <c r="E326">
-        <v>0.01421722502585941</v>
+        <v>0.01422214144670503</v>
       </c>
       <c r="F326">
-        <v>0.00701931273773617</v>
+        <v>0.007010932344122236</v>
       </c>
       <c r="G326" t="s">
         <v>391</v>
@@ -11259,16 +11259,16 @@
         <v>48</v>
       </c>
       <c r="C327">
-        <v>0.04110120818338495</v>
+        <v>0.04105263481215467</v>
       </c>
       <c r="D327">
-        <v>0.409243894081896</v>
+        <v>0.4089362229742926</v>
       </c>
       <c r="E327">
-        <v>0.01662249914067759</v>
+        <v>0.016590026484475</v>
       </c>
       <c r="F327">
-        <v>0.005552468456014166</v>
+        <v>0.005553836108709055</v>
       </c>
       <c r="G327" t="s">
         <v>392</v>
@@ -11288,16 +11288,16 @@
         <v>49</v>
       </c>
       <c r="C328">
-        <v>0.1011148813086139</v>
+        <v>0.1009243446960898</v>
       </c>
       <c r="D328">
-        <v>0.3318966142127805</v>
+        <v>0.3318805792364884</v>
       </c>
       <c r="E328">
-        <v>0.02950220047519204</v>
+        <v>0.02945358253571864</v>
       </c>
       <c r="F328">
-        <v>0.0337076045986732</v>
+        <v>0.0335197979187979</v>
       </c>
       <c r="G328" t="s">
         <v>393</v>
@@ -11317,16 +11317,16 @@
         <v>50</v>
       </c>
       <c r="C329">
-        <v>0.04823321970246393</v>
+        <v>0.04817193423915712</v>
       </c>
       <c r="D329">
-        <v>0.3037370415557612</v>
+        <v>0.3034447790581884</v>
       </c>
       <c r="E329">
-        <v>0.01445648233855915</v>
+        <v>0.01441435893032628</v>
       </c>
       <c r="F329">
-        <v>0.005523278895640165</v>
+        <v>0.005470840835295417</v>
       </c>
       <c r="G329" t="s">
         <v>394</v>
@@ -11346,16 +11346,16 @@
         <v>51</v>
       </c>
       <c r="C330">
-        <v>0.01753886075936889</v>
+        <v>0.01759661499905961</v>
       </c>
       <c r="D330">
-        <v>0.417809502246</v>
+        <v>0.4169954766526745</v>
       </c>
       <c r="E330">
-        <v>0.007685429760909543</v>
+        <v>0.007677296422720485</v>
       </c>
       <c r="F330">
-        <v>0.004568514270113578</v>
+        <v>0.004609773203825668</v>
       </c>
       <c r="G330" t="s">
         <v>395</v>
@@ -11404,16 +11404,16 @@
         <v>53</v>
       </c>
       <c r="C332">
-        <v>0.05784902936373532</v>
+        <v>0.05781568963418789</v>
       </c>
       <c r="D332">
-        <v>0.2430206449406932</v>
+        <v>0.2430304788909973</v>
       </c>
       <c r="E332">
-        <v>0.01250952045576623</v>
+        <v>0.01250090154514797</v>
       </c>
       <c r="F332">
-        <v>0.01111292205260904</v>
+        <v>0.01111970291321155</v>
       </c>
       <c r="G332" t="s">
         <v>397</v>
@@ -11433,16 +11433,16 @@
         <v>54</v>
       </c>
       <c r="C333">
-        <v>0.9886984574622281</v>
+        <v>0.9885463499114002</v>
       </c>
       <c r="D333">
-        <v>0.2369844344965364</v>
+        <v>0.236970466528907</v>
       </c>
       <c r="E333">
-        <v>0.2355883897067888</v>
+        <v>0.2355356444016672</v>
       </c>
       <c r="F333">
-        <v>0.005395812241112932</v>
+        <v>0.00536620965203777</v>
       </c>
       <c r="G333" t="s">
         <v>398</v>
@@ -11462,16 +11462,16 @@
         <v>55</v>
       </c>
       <c r="C334">
-        <v>0.7628419432040655</v>
+        <v>0.7631562787967595</v>
       </c>
       <c r="D334">
-        <v>0.5031509104387107</v>
+        <v>0.5027680753797384</v>
       </c>
       <c r="E334">
-        <v>0.3806803113982449</v>
+        <v>0.3806568825285361</v>
       </c>
       <c r="F334">
-        <v>0.0621246316142246</v>
+        <v>0.06194839174266781</v>
       </c>
       <c r="G334" t="s">
         <v>399</v>
@@ -11491,16 +11491,16 @@
         <v>56</v>
       </c>
       <c r="C335">
-        <v>0.1727793358199186</v>
+        <v>0.172998345924493</v>
       </c>
       <c r="D335">
-        <v>0.4868492078690853</v>
+        <v>0.4865579475575307</v>
       </c>
       <c r="E335">
-        <v>0.08176573609427482</v>
+        <v>0.08176106245964379</v>
       </c>
       <c r="F335">
-        <v>0.04821180283125042</v>
+        <v>0.04833144231955591</v>
       </c>
       <c r="G335" t="s">
         <v>400</v>
@@ -11520,16 +11520,16 @@
         <v>57</v>
       </c>
       <c r="C336">
-        <v>0.05554414331313659</v>
+        <v>0.05557716956842249</v>
       </c>
       <c r="D336">
-        <v>0.4167303457117711</v>
+        <v>0.4167403049353275</v>
       </c>
       <c r="E336">
-        <v>0.02298218940947667</v>
+        <v>0.02299718145822814</v>
       </c>
       <c r="F336">
-        <v>0.009461087318646739</v>
+        <v>0.009456850945245609</v>
       </c>
       <c r="G336" t="s">
         <v>401</v>
@@ -11549,16 +11549,16 @@
         <v>58</v>
       </c>
       <c r="C337">
-        <v>0.05655763673715283</v>
+        <v>0.05655199437191437</v>
       </c>
       <c r="D337">
-        <v>0.3005093513438292</v>
+        <v>0.3004356280348616</v>
       </c>
       <c r="E337">
-        <v>0.01793449953188793</v>
+        <v>0.01792436320742842</v>
       </c>
       <c r="F337">
-        <v>0.009858740502286929</v>
+        <v>0.009855102924766027</v>
       </c>
       <c r="G337" t="s">
         <v>402</v>
@@ -11578,16 +11578,16 @@
         <v>59</v>
       </c>
       <c r="C338">
-        <v>0.05136553185196778</v>
+        <v>0.0513759231414599</v>
       </c>
       <c r="D338">
-        <v>0.2889068183517796</v>
+        <v>0.2888129886858207</v>
       </c>
       <c r="E338">
-        <v>0.01472616710858691</v>
+        <v>0.01472325367401173</v>
       </c>
       <c r="F338">
-        <v>0.006026077576671626</v>
+        <v>0.006030276897490405</v>
       </c>
       <c r="G338" t="s">
         <v>403</v>
@@ -11607,16 +11607,16 @@
         <v>60</v>
       </c>
       <c r="C339">
-        <v>0.06244198516092352</v>
+        <v>0.06236308290131169</v>
       </c>
       <c r="D339">
-        <v>0.4229336718365586</v>
+        <v>0.4217607383754465</v>
       </c>
       <c r="E339">
-        <v>0.0255974302531847</v>
+        <v>0.02549983019491601</v>
       </c>
       <c r="F339">
-        <v>0.01182010385896771</v>
+        <v>0.01182959174158269</v>
       </c>
       <c r="G339" t="s">
         <v>404</v>
@@ -11636,16 +11636,16 @@
         <v>61</v>
       </c>
       <c r="C340">
-        <v>0.2138545782160822</v>
+        <v>0.2140972292326676</v>
       </c>
       <c r="D340">
-        <v>0.2808689242656772</v>
+        <v>0.2804361051790444</v>
       </c>
       <c r="E340">
-        <v>0.06409050230144095</v>
+        <v>0.06391181164749628</v>
       </c>
       <c r="F340">
-        <v>0.05754468102741955</v>
+        <v>0.05773069430147897</v>
       </c>
       <c r="G340" t="s">
         <v>405</v>
@@ -11665,16 +11665,16 @@
         <v>62</v>
       </c>
       <c r="C341">
-        <v>0.04397582503864116</v>
+        <v>0.0438979342385856</v>
       </c>
       <c r="D341">
-        <v>0.4217249056022639</v>
+        <v>0.4210622727343207</v>
       </c>
       <c r="E341">
-        <v>0.01870337222788871</v>
+        <v>0.01862604481853901</v>
       </c>
       <c r="F341">
-        <v>0.00565629148390117</v>
+        <v>0.005628796558311885</v>
       </c>
       <c r="G341" t="s">
         <v>406</v>
@@ -11694,16 +11694,16 @@
         <v>63</v>
       </c>
       <c r="C342">
-        <v>0.5544448631430212</v>
+        <v>0.5543919019938208</v>
       </c>
       <c r="D342">
-        <v>0.4225438279930424</v>
+        <v>0.4221824772968363</v>
       </c>
       <c r="E342">
-        <v>0.2169906159730516</v>
+        <v>0.2168822119282332</v>
       </c>
       <c r="F342">
-        <v>0.1493971869867705</v>
+        <v>0.1494113068251127</v>
       </c>
       <c r="G342" t="s">
         <v>407</v>
@@ -11723,16 +11723,16 @@
         <v>64</v>
       </c>
       <c r="C343">
-        <v>0.07832198367323341</v>
+        <v>0.07827585469049569</v>
       </c>
       <c r="D343">
-        <v>0.2179260990364794</v>
+        <v>0.217840975861554</v>
       </c>
       <c r="E343">
-        <v>0.01660338566478014</v>
+        <v>0.01658730107806297</v>
       </c>
       <c r="F343">
-        <v>0.008106357762312564</v>
+        <v>0.008113558042840705</v>
       </c>
       <c r="G343" t="s">
         <v>408</v>
@@ -11752,16 +11752,16 @@
         <v>65</v>
       </c>
       <c r="C344">
-        <v>0.05408021776893817</v>
+        <v>0.05404799806035411</v>
       </c>
       <c r="D344">
-        <v>0.3460250618773014</v>
+        <v>0.3457463915276011</v>
       </c>
       <c r="E344">
-        <v>0.018598333702741</v>
+        <v>0.01857484413647857</v>
       </c>
       <c r="F344">
-        <v>0.006007728748553959</v>
+        <v>0.006017574757239107</v>
       </c>
       <c r="G344" t="s">
         <v>409</v>
@@ -11781,16 +11781,16 @@
         <v>66</v>
       </c>
       <c r="C345">
-        <v>0.9726392505941607</v>
+        <v>0.9725597909341575</v>
       </c>
       <c r="D345">
-        <v>0.299872985255929</v>
+        <v>0.2998753654477224</v>
       </c>
       <c r="E345">
-        <v>0.2925262193119048</v>
+        <v>0.2925083745251318</v>
       </c>
       <c r="F345">
-        <v>0.008849346176341024</v>
+        <v>0.008896394230035477</v>
       </c>
       <c r="G345" t="s">
         <v>410</v>
@@ -11810,16 +11810,16 @@
         <v>8</v>
       </c>
       <c r="C346">
-        <v>0.1043562863470803</v>
+        <v>0.1044127395161229</v>
       </c>
       <c r="D346">
-        <v>0.1513495457009437</v>
+        <v>0.1513342765353477</v>
       </c>
       <c r="E346">
-        <v>0.01397158750956015</v>
+        <v>0.01397712368848947</v>
       </c>
       <c r="F346">
-        <v>0.03260498599845073</v>
+        <v>0.03262338857498289</v>
       </c>
       <c r="G346" t="s">
         <v>411</v>
@@ -11839,16 +11839,16 @@
         <v>9</v>
       </c>
       <c r="C347">
-        <v>0.4664407688184335</v>
+        <v>0.4663686086626511</v>
       </c>
       <c r="D347">
-        <v>0.1459512499954433</v>
+        <v>0.1457575922854457</v>
       </c>
       <c r="E347">
-        <v>0.06616434495725863</v>
+        <v>0.06605860393970897</v>
       </c>
       <c r="F347">
-        <v>0.1143731843233157</v>
+        <v>0.1143654831605861</v>
       </c>
       <c r="G347" t="s">
         <v>412</v>
@@ -11868,16 +11868,16 @@
         <v>10</v>
       </c>
       <c r="C348">
-        <v>0.03746934136049342</v>
+        <v>0.03750585266020123</v>
       </c>
       <c r="D348">
-        <v>0.3320316262210628</v>
+        <v>0.3317889954555562</v>
       </c>
       <c r="E348">
-        <v>0.01248854359535862</v>
+        <v>0.012490942606228</v>
       </c>
       <c r="F348">
-        <v>0.008470775794200018</v>
+        <v>0.008480188148502725</v>
       </c>
       <c r="G348" t="s">
         <v>413</v>
@@ -11897,16 +11897,16 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>0.07335482828416783</v>
+        <v>0.0734679133282089</v>
       </c>
       <c r="D349">
-        <v>0.372343134305356</v>
+        <v>0.3716882360687583</v>
       </c>
       <c r="E349">
-        <v>0.02727826106569393</v>
+        <v>0.02726571239345417</v>
       </c>
       <c r="F349">
-        <v>0.01216898287041245</v>
+        <v>0.01222223918744831</v>
       </c>
       <c r="G349" t="s">
         <v>414</v>
@@ -11926,16 +11926,16 @@
         <v>12</v>
       </c>
       <c r="C350">
-        <v>0.07345903125957104</v>
+        <v>0.07357215276069108</v>
       </c>
       <c r="D350">
-        <v>0.3752412913082999</v>
+        <v>0.3742467472418604</v>
       </c>
       <c r="E350">
-        <v>0.02766383419349149</v>
+        <v>0.027617514829783</v>
       </c>
       <c r="F350">
-        <v>0.01002932044286368</v>
+        <v>0.0101280473520213</v>
       </c>
       <c r="G350" t="s">
         <v>415</v>
@@ -11955,16 +11955,16 @@
         <v>13</v>
       </c>
       <c r="C351">
-        <v>0.1908047532774196</v>
+        <v>0.1908351189519595</v>
       </c>
       <c r="D351">
-        <v>0.3682782789789265</v>
+        <v>0.3679939373220358</v>
       </c>
       <c r="E351">
-        <v>0.06867321412094703</v>
+        <v>0.06867487497462584</v>
       </c>
       <c r="F351">
-        <v>0.1525939362807478</v>
+        <v>0.1525785340753307</v>
       </c>
       <c r="G351" t="s">
         <v>416</v>
@@ -11984,16 +11984,16 @@
         <v>14</v>
       </c>
       <c r="C352">
-        <v>0.0555088077267684</v>
+        <v>0.05556666003566668</v>
       </c>
       <c r="D352">
-        <v>0.2029306239308358</v>
+        <v>0.2028658230817212</v>
       </c>
       <c r="E352">
-        <v>0.01125091808300578</v>
+        <v>0.01125885327280444</v>
       </c>
       <c r="F352">
-        <v>0.01047401861311375</v>
+        <v>0.01049373684556888</v>
       </c>
       <c r="G352" t="s">
         <v>417</v>
@@ -12013,16 +12013,16 @@
         <v>15</v>
       </c>
       <c r="C353">
-        <v>0.04025515804007871</v>
+        <v>0.04024772598848173</v>
       </c>
       <c r="D353">
-        <v>0.2880294199298375</v>
+        <v>0.2879089424890987</v>
       </c>
       <c r="E353">
-        <v>0.0111834004851333</v>
+        <v>0.01117546529533463</v>
       </c>
       <c r="F353">
-        <v>0.01161045798826724</v>
+        <v>0.01160785240320461</v>
       </c>
       <c r="G353" t="s">
         <v>418</v>
@@ -12042,16 +12042,16 @@
         <v>16</v>
       </c>
       <c r="C354">
-        <v>0.02308912728632083</v>
+        <v>0.02308064222207419</v>
       </c>
       <c r="D354">
-        <v>0.347965610688544</v>
+        <v>0.3479561140123806</v>
       </c>
       <c r="E354">
-        <v>0.007545610117674545</v>
+        <v>0.007542657488912262</v>
       </c>
       <c r="F354">
-        <v>0.007045474118634015</v>
+        <v>0.007044326923366989</v>
       </c>
       <c r="G354" t="s">
         <v>419</v>
@@ -12071,16 +12071,16 @@
         <v>17</v>
       </c>
       <c r="C355">
-        <v>0.02432363615450835</v>
+        <v>0.02429636556228704</v>
       </c>
       <c r="D355">
-        <v>0.3673529996747741</v>
+        <v>0.3675822233680501</v>
       </c>
       <c r="E355">
-        <v>0.008843885085328915</v>
+        <v>0.008840563377971336</v>
       </c>
       <c r="F355">
-        <v>0.003370648662309404</v>
+        <v>0.003355327496680438</v>
       </c>
       <c r="G355" t="s">
         <v>420</v>
@@ -12100,16 +12100,16 @@
         <v>18</v>
       </c>
       <c r="C356">
-        <v>0.03715802307895213</v>
+        <v>0.03719479208146063</v>
       </c>
       <c r="D356">
-        <v>0.2861471771009413</v>
+        <v>0.2861544392650662</v>
       </c>
       <c r="E356">
-        <v>0.01027719770925219</v>
+        <v>0.01028753190992022</v>
       </c>
       <c r="F356">
-        <v>0.007783110876406638</v>
+        <v>0.007778180995791727</v>
       </c>
       <c r="G356" t="s">
         <v>421</v>
@@ -12129,16 +12129,16 @@
         <v>19</v>
       </c>
       <c r="C357">
-        <v>0.03514075043308122</v>
+        <v>0.0351697622074196</v>
       </c>
       <c r="D357">
-        <v>0.3778187500203205</v>
+        <v>0.3779440689038093</v>
       </c>
       <c r="E357">
-        <v>0.01350470964791952</v>
+        <v>0.0135181810166475</v>
       </c>
       <c r="F357">
-        <v>0.003721223060376102</v>
+        <v>0.003696058882240641</v>
       </c>
       <c r="G357" t="s">
         <v>422</v>
@@ -12158,16 +12158,16 @@
         <v>20</v>
       </c>
       <c r="C358">
-        <v>0.05290753611384334</v>
+        <v>0.05297184448730042</v>
       </c>
       <c r="D358">
-        <v>0.3038841116095413</v>
+        <v>0.3036695984538517</v>
       </c>
       <c r="E358">
-        <v>0.01546961519455567</v>
+        <v>0.01547515137348498</v>
       </c>
       <c r="F358">
-        <v>0.01440013179734462</v>
+        <v>0.01442009105609835</v>
       </c>
       <c r="G358" t="s">
         <v>423</v>
@@ -12187,16 +12187,16 @@
         <v>21</v>
       </c>
       <c r="C359">
-        <v>0.03233303235199224</v>
+        <v>0.03235106606519919</v>
       </c>
       <c r="D359">
-        <v>0.3918340683983839</v>
+        <v>0.392053236787487</v>
       </c>
       <c r="E359">
-        <v>0.0124306540277752</v>
+        <v>0.01244578625018197</v>
       </c>
       <c r="F359">
-        <v>0.006204621513282916</v>
+        <v>0.006212016204957038</v>
       </c>
       <c r="G359" t="s">
         <v>424</v>
@@ -12216,16 +12216,16 @@
         <v>22</v>
       </c>
       <c r="C360">
-        <v>0.56051223337029</v>
+        <v>0.5604775110815485</v>
       </c>
       <c r="D360">
-        <v>0.3790012110811403</v>
+        <v>0.3788630437534304</v>
       </c>
       <c r="E360">
-        <v>0.2125568575828223</v>
+        <v>0.2124682787199534</v>
       </c>
       <c r="F360">
-        <v>0.008418386723507258</v>
+        <v>0.008447046669185576</v>
       </c>
       <c r="G360" t="s">
         <v>425</v>
@@ -12245,16 +12245,16 @@
         <v>23</v>
       </c>
       <c r="C361">
-        <v>0.02469415870009723</v>
+        <v>0.02474599131005775</v>
       </c>
       <c r="D361">
-        <v>0.2339299188600205</v>
+        <v>0.2339695814487027</v>
       </c>
       <c r="E361">
-        <v>0.004898126516041583</v>
+        <v>0.00491012157038842</v>
       </c>
       <c r="F361">
-        <v>0.01310783767352855</v>
+        <v>0.01311727896659883</v>
       </c>
       <c r="G361" t="s">
         <v>426</v>
@@ -12274,16 +12274,16 @@
         <v>24</v>
       </c>
       <c r="C362">
-        <v>0.02606422229171857</v>
+        <v>0.02611414079726969</v>
       </c>
       <c r="D362">
-        <v>0.3478833719262036</v>
+        <v>0.3479753593384524</v>
       </c>
       <c r="E362">
-        <v>0.008632461282630122</v>
+        <v>0.008650177055203897</v>
       </c>
       <c r="F362">
-        <v>0.005550363042802453</v>
+        <v>0.005566567042655866</v>
       </c>
       <c r="G362" t="s">
         <v>427</v>
@@ -12303,16 +12303,16 @@
         <v>25</v>
       </c>
       <c r="C363">
-        <v>0.0182954300012695</v>
+        <v>0.01829043062202396</v>
       </c>
       <c r="D363">
-        <v>0.4287610449415249</v>
+        <v>0.4289599165129455</v>
       </c>
       <c r="E363">
-        <v>0.007764539338652158</v>
+        <v>0.007766200192330958</v>
       </c>
       <c r="F363">
-        <v>0.002085538501858605</v>
+        <v>0.002084548510483918</v>
       </c>
       <c r="G363" t="s">
         <v>428</v>
@@ -12332,16 +12332,16 @@
         <v>26</v>
       </c>
       <c r="C364">
-        <v>0.2732029616954015</v>
+        <v>0.2732571167619099</v>
       </c>
       <c r="D364">
-        <v>0.2223454748532666</v>
+        <v>0.2223955651647948</v>
       </c>
       <c r="E364">
-        <v>0.06051914267143187</v>
+        <v>0.06054516271239962</v>
       </c>
       <c r="F364">
-        <v>0.01043511136289643</v>
+        <v>0.01048419036705152</v>
       </c>
       <c r="G364" t="s">
         <v>429</v>
@@ -12361,16 +12361,16 @@
         <v>27</v>
       </c>
       <c r="C365">
-        <v>0.02435206445869526</v>
+        <v>0.02435433576776073</v>
       </c>
       <c r="D365">
-        <v>0.3865675041603993</v>
+        <v>0.3869037982221836</v>
       </c>
       <c r="E365">
-        <v>0.008912421340124368</v>
+        <v>0.00892035652992304</v>
       </c>
       <c r="F365">
-        <v>0.007057521438022702</v>
+        <v>0.007056996007875102</v>
       </c>
       <c r="G365" t="s">
         <v>430</v>
@@ -12390,16 +12390,16 @@
         <v>28</v>
       </c>
       <c r="C366">
-        <v>0.1321558336299368</v>
+        <v>0.1321825854029423</v>
       </c>
       <c r="D366">
-        <v>0.3664393417975329</v>
+        <v>0.3664624317552634</v>
       </c>
       <c r="E366">
-        <v>0.04771209573078585</v>
+        <v>0.04772427532443033</v>
       </c>
       <c r="F366">
-        <v>0.009605336082898309</v>
+        <v>0.009626017502605926</v>
       </c>
       <c r="G366" t="s">
         <v>431</v>
@@ -12419,16 +12419,16 @@
         <v>29</v>
       </c>
       <c r="C367">
-        <v>0.1362981553708134</v>
+        <v>0.1363089256482267</v>
       </c>
       <c r="D367">
-        <v>0.4023244513019235</v>
+        <v>0.4023626242159133</v>
       </c>
       <c r="E367">
-        <v>0.05409556921146357</v>
+        <v>0.05410516525494103</v>
       </c>
       <c r="F367">
-        <v>0.008936746941037212</v>
+        <v>0.008945716083275077</v>
       </c>
       <c r="G367" t="s">
         <v>432</v>
@@ -12448,16 +12448,16 @@
         <v>30</v>
       </c>
       <c r="C368">
-        <v>0.01984191753831198</v>
+        <v>0.01983605814105594</v>
       </c>
       <c r="D368">
-        <v>0.3641620283361842</v>
+        <v>0.3642722642634135</v>
       </c>
       <c r="E368">
-        <v>0.007158641872786808</v>
+        <v>0.007157903715596233</v>
       </c>
       <c r="F368">
-        <v>0.005295067657013034</v>
+        <v>0.005298860351426943</v>
       </c>
       <c r="G368" t="s">
         <v>433</v>
@@ -12477,16 +12477,16 @@
         <v>31</v>
       </c>
       <c r="C369">
-        <v>0.01810016280401472</v>
+        <v>0.01810806259189507</v>
       </c>
       <c r="D369">
-        <v>0.3896589445457758</v>
+        <v>0.3897689942636687</v>
       </c>
       <c r="E369">
-        <v>0.006961092144572162</v>
+        <v>0.006965521087715615</v>
       </c>
       <c r="F369">
-        <v>0.005018394454276206</v>
+        <v>0.005013671617023322</v>
       </c>
       <c r="G369" t="s">
         <v>434</v>
@@ -12506,16 +12506,16 @@
         <v>32</v>
       </c>
       <c r="C370">
-        <v>0.1215362260510769</v>
+        <v>0.1215296125515804</v>
       </c>
       <c r="D370">
-        <v>0.4280050548630341</v>
+        <v>0.4278747083274588</v>
       </c>
       <c r="E370">
-        <v>0.0521802259991265</v>
+        <v>0.05216048029427866</v>
       </c>
       <c r="F370">
-        <v>0.01007089275163671</v>
+        <v>0.01006788676978473</v>
       </c>
       <c r="G370" t="s">
         <v>435</v>
@@ -12535,16 +12535,16 @@
         <v>33</v>
       </c>
       <c r="C371">
-        <v>0.02437954229122665</v>
+        <v>0.02436329896391504</v>
       </c>
       <c r="D371">
-        <v>0.3764595364894929</v>
+        <v>0.3767960167606137</v>
       </c>
       <c r="E371">
-        <v>0.009039610745108145</v>
+        <v>0.009040902520191666</v>
       </c>
       <c r="F371">
-        <v>0.004906431650910223</v>
+        <v>0.004910847013822089</v>
       </c>
       <c r="G371" t="s">
         <v>436</v>
@@ -12564,16 +12564,16 @@
         <v>34</v>
       </c>
       <c r="C372">
-        <v>0.1711413570546998</v>
+        <v>0.1711258600289144</v>
       </c>
       <c r="D372">
-        <v>0.3588380387459757</v>
+        <v>0.358994454588666</v>
       </c>
       <c r="E372">
-        <v>0.06162553367739657</v>
+        <v>0.06164620207873265</v>
       </c>
       <c r="F372">
-        <v>0.0060243386072699</v>
+        <v>0.006030115469759659</v>
       </c>
       <c r="G372" t="s">
         <v>437</v>
@@ -12593,16 +12593,16 @@
         <v>35</v>
       </c>
       <c r="C373">
-        <v>0.02847521819166037</v>
+        <v>0.0285055732360284</v>
       </c>
       <c r="D373">
-        <v>0.3072710938909347</v>
+        <v>0.3074425926898845</v>
       </c>
       <c r="E373">
-        <v>0.008666858587536214</v>
+        <v>0.008680699034859482</v>
       </c>
       <c r="F373">
-        <v>0.001368639905108848</v>
+        <v>0.001386244628295236</v>
       </c>
       <c r="G373" t="s">
         <v>438</v>
@@ -12622,16 +12622,16 @@
         <v>36</v>
       </c>
       <c r="C374">
-        <v>0.1243648360835252</v>
+        <v>0.1243523809387091</v>
       </c>
       <c r="D374">
-        <v>0.3543836084871851</v>
+        <v>0.3545798731278942</v>
       </c>
       <c r="E374">
-        <v>0.04332049267891596</v>
+        <v>0.04334245285533554</v>
       </c>
       <c r="F374">
-        <v>0.01008569463004681</v>
+        <v>0.01008093203052476</v>
       </c>
       <c r="G374" t="s">
         <v>439</v>
@@ -12651,16 +12651,16 @@
         <v>37</v>
       </c>
       <c r="C375">
-        <v>0.01554993959205933</v>
+        <v>0.01555489893006735</v>
       </c>
       <c r="D375">
-        <v>0.3289143486128931</v>
+        <v>0.3291037235081504</v>
       </c>
       <c r="E375">
-        <v>0.004979409105168938</v>
+        <v>0.004983468969717103</v>
       </c>
       <c r="F375">
-        <v>0.003221473540324589</v>
+        <v>0.003219464410419957</v>
       </c>
       <c r="G375" t="s">
         <v>440</v>
@@ -12680,16 +12680,16 @@
         <v>38</v>
       </c>
       <c r="C376">
-        <v>0.3179713871704783</v>
+        <v>0.3180022556202508</v>
       </c>
       <c r="D376">
-        <v>0.2014514094125569</v>
+        <v>0.2014607198793837</v>
       </c>
       <c r="E376">
-        <v>0.06101588473265381</v>
+        <v>0.06102381992245248</v>
       </c>
       <c r="F376">
-        <v>0.03065758801745253</v>
+        <v>0.03067339443011597</v>
       </c>
       <c r="G376" t="s">
         <v>441</v>
@@ -12709,16 +12709,16 @@
         <v>39</v>
       </c>
       <c r="C377">
-        <v>0.58307695544169</v>
+        <v>0.583260406766378</v>
       </c>
       <c r="D377">
-        <v>0.3885821453990481</v>
+        <v>0.3889689021910336</v>
       </c>
       <c r="E377">
-        <v>0.2278018884521459</v>
+        <v>0.2280613507046326</v>
       </c>
       <c r="F377">
-        <v>0.07948953464396394</v>
+        <v>0.0793756786136014</v>
       </c>
       <c r="G377" t="s">
         <v>442</v>
@@ -12738,16 +12738,16 @@
         <v>40</v>
       </c>
       <c r="C378">
-        <v>0.01492741806672593</v>
+        <v>0.01491262620068886</v>
       </c>
       <c r="D378">
-        <v>0.4113136388264989</v>
+        <v>0.4115856906671782</v>
       </c>
       <c r="E378">
-        <v>0.006121987037139546</v>
+        <v>0.006118296251186687</v>
       </c>
       <c r="F378">
-        <v>0.003574108756026851</v>
+        <v>0.003587827588360913</v>
       </c>
       <c r="G378" t="s">
         <v>443</v>
@@ -12767,16 +12767,16 @@
         <v>42</v>
       </c>
       <c r="C379">
-        <v>0.2602315873421781</v>
+        <v>0.2602787474004918</v>
       </c>
       <c r="D379">
-        <v>0.2909479303090868</v>
+        <v>0.2910049103660668</v>
       </c>
       <c r="E379">
-        <v>0.07438181590769753</v>
+        <v>0.07441189581321342</v>
       </c>
       <c r="F379">
-        <v>0.02731771340764683</v>
+        <v>0.02736149791331513</v>
       </c>
       <c r="G379" t="s">
         <v>444</v>
@@ -12796,16 +12796,16 @@
         <v>43</v>
       </c>
       <c r="C380">
-        <v>0.01071465657661443</v>
+        <v>0.01071374005019001</v>
       </c>
       <c r="D380">
-        <v>0.3971464463216612</v>
+        <v>0.3973715734095333</v>
       </c>
       <c r="E380">
-        <v>0.004282483734911339</v>
+        <v>0.004283775509994851</v>
       </c>
       <c r="F380">
-        <v>0.001753925404589697</v>
+        <v>0.001754831112606474</v>
       </c>
       <c r="G380" t="s">
         <v>445</v>
@@ -12825,16 +12825,16 @@
         <v>44</v>
       </c>
       <c r="C381">
-        <v>0.1251488992792203</v>
+        <v>0.1251456899596574</v>
       </c>
       <c r="D381">
-        <v>0.3238818822391958</v>
+        <v>0.3239984492838675</v>
       </c>
       <c r="E381">
-        <v>0.04029048125798388</v>
+        <v>0.04030358354811658</v>
       </c>
       <c r="F381">
-        <v>0.004308244020532535</v>
+        <v>0.004309923971226307</v>
       </c>
       <c r="G381" t="s">
         <v>446</v>
@@ -12854,16 +12854,16 @@
         <v>45</v>
       </c>
       <c r="C382">
-        <v>0.01307382997764504</v>
+        <v>0.0130609429756935</v>
       </c>
       <c r="D382">
-        <v>0.3756939645736245</v>
+        <v>0.3761619086363397</v>
       </c>
       <c r="E382">
-        <v>0.005107704105589278</v>
+        <v>0.005104751476826995</v>
       </c>
       <c r="F382">
-        <v>0.006766325960995126</v>
+        <v>0.006774838503224415</v>
       </c>
       <c r="G382" t="s">
         <v>447</v>
@@ -12883,16 +12883,16 @@
         <v>46</v>
       </c>
       <c r="C383">
-        <v>0.004880535968915063</v>
+        <v>0.004879778568529772</v>
       </c>
       <c r="D383">
-        <v>0.419977261647862</v>
+        <v>0.4208835424887833</v>
       </c>
       <c r="E383">
-        <v>0.002191601001433249</v>
+        <v>0.002194369090897902</v>
       </c>
       <c r="F383">
-        <v>0.003323433616612672</v>
+        <v>0.003323600921867751</v>
       </c>
       <c r="G383" t="s">
         <v>448</v>
@@ -12915,7 +12915,7 @@
         <v>0.006891366426652011</v>
       </c>
       <c r="D384">
-        <v>0.371790118838503</v>
+        <v>0.3724519068205525</v>
       </c>
       <c r="E384">
         <v>0.002846639231824414</v>
@@ -12941,16 +12941,16 @@
         <v>48</v>
       </c>
       <c r="C385">
-        <v>0.02869084238114773</v>
+        <v>0.0286770068739956</v>
       </c>
       <c r="D385">
-        <v>0.3699612949977572</v>
+        <v>0.3699808469780934</v>
       </c>
       <c r="E385">
-        <v>0.01057053153469029</v>
+        <v>0.01056554897365392</v>
       </c>
       <c r="F385">
-        <v>0.007288390423667901</v>
+        <v>0.007300411604069623</v>
       </c>
       <c r="G385" t="s">
         <v>450</v>
@@ -12970,16 +12970,16 @@
         <v>49</v>
       </c>
       <c r="C386">
-        <v>0.0354987526184751</v>
+        <v>0.03548601768870152</v>
       </c>
       <c r="D386">
-        <v>0.2729551461733439</v>
+        <v>0.2729635255934881</v>
       </c>
       <c r="E386">
-        <v>0.009547360370390853</v>
+        <v>0.009545145898819144</v>
       </c>
       <c r="F386">
-        <v>0.001698155579493806</v>
+        <v>0.001698440136740416</v>
       </c>
       <c r="G386" t="s">
         <v>451</v>
@@ -12999,16 +12999,16 @@
         <v>50</v>
       </c>
       <c r="C387">
-        <v>0.03660660620791867</v>
+        <v>0.03657673930314952</v>
       </c>
       <c r="D387">
-        <v>0.3582485386261712</v>
+        <v>0.3582489110448443</v>
       </c>
       <c r="E387">
-        <v>0.01307169105661051</v>
+        <v>0.01306080323804955</v>
       </c>
       <c r="F387">
-        <v>0.006504537111360793</v>
+        <v>0.006534403752290103</v>
       </c>
       <c r="G387" t="s">
         <v>452</v>
@@ -13028,16 +13028,16 @@
         <v>51</v>
       </c>
       <c r="C388">
-        <v>0.01440309693049806</v>
+        <v>0.01439842198632973</v>
       </c>
       <c r="D388">
-        <v>0.3877444502474761</v>
+        <v>0.3878293617049366</v>
       </c>
       <c r="E388">
-        <v>0.005660884025253175</v>
+        <v>0.005659223171574385</v>
       </c>
       <c r="F388">
-        <v>0.006572827390243506</v>
+        <v>0.006577492144805195</v>
       </c>
       <c r="G388" t="s">
         <v>453</v>
@@ -13057,16 +13057,16 @@
         <v>52</v>
       </c>
       <c r="C389">
-        <v>0.2150827616659049</v>
+        <v>0.2150906884512977</v>
       </c>
       <c r="D389">
-        <v>0.1089833970238231</v>
+        <v>0.1089902867692749</v>
       </c>
       <c r="E389">
-        <v>0.02363245103044692</v>
+        <v>0.02363429642342336</v>
       </c>
       <c r="F389">
-        <v>0.04431413195861</v>
+        <v>0.04430765217009131</v>
       </c>
       <c r="G389" t="s">
         <v>454</v>
@@ -13086,16 +13086,16 @@
         <v>53</v>
       </c>
       <c r="C390">
-        <v>0.04918794876547553</v>
+        <v>0.04921004950054233</v>
       </c>
       <c r="D390">
-        <v>0.2252694413384925</v>
+        <v>0.2252761448746077</v>
       </c>
       <c r="E390">
-        <v>0.01256720818698341</v>
+        <v>0.01257071443363864</v>
       </c>
       <c r="F390">
-        <v>0.01771892567437829</v>
+        <v>0.01769703155732094</v>
       </c>
       <c r="G390" t="s">
         <v>455</v>
@@ -13115,16 +13115,16 @@
         <v>54</v>
       </c>
       <c r="C391">
-        <v>0.841298051370149</v>
+        <v>0.8412767047007667</v>
       </c>
       <c r="D391">
-        <v>0.2422801911006568</v>
+        <v>0.2422838221827193</v>
       </c>
       <c r="E391">
-        <v>0.2038428807814624</v>
+        <v>0.2038403895009442</v>
       </c>
       <c r="F391">
-        <v>0.1037577680553796</v>
+        <v>0.103779114724762</v>
       </c>
       <c r="G391" t="s">
         <v>456</v>
@@ -13144,16 +13144,16 @@
         <v>55</v>
       </c>
       <c r="C392">
-        <v>0.5806221918535767</v>
+        <v>0.5805015282137637</v>
       </c>
       <c r="D392">
-        <v>0.4116637545595425</v>
+        <v>0.4118082530046945</v>
       </c>
       <c r="E392">
-        <v>0.2593415736281041</v>
+        <v>0.2593460025712476</v>
       </c>
       <c r="F392">
-        <v>0.1895736087859217</v>
+        <v>0.1896595800813627</v>
       </c>
       <c r="G392" t="s">
         <v>457</v>
@@ -13173,16 +13173,16 @@
         <v>56</v>
       </c>
       <c r="C393">
-        <v>0.1544081204195225</v>
+        <v>0.1543944970026418</v>
       </c>
       <c r="D393">
-        <v>0.4240866853230688</v>
+        <v>0.424188169411481</v>
       </c>
       <c r="E393">
-        <v>0.0760423070692904</v>
+        <v>0.0760384317440399</v>
       </c>
       <c r="F393">
-        <v>0.1262915570025276</v>
+        <v>0.1262992551303611</v>
       </c>
       <c r="G393" t="s">
         <v>458</v>
@@ -13202,16 +13202,16 @@
         <v>57</v>
       </c>
       <c r="C394">
-        <v>0.029624112548419</v>
+        <v>0.02961691511986536</v>
       </c>
       <c r="D394">
-        <v>0.3717886245763122</v>
+        <v>0.3718834051286091</v>
       </c>
       <c r="E394">
-        <v>0.01240668688397192</v>
+        <v>0.01240428787310258</v>
       </c>
       <c r="F394">
-        <v>0.02161472144910902</v>
+        <v>0.02161943270971259</v>
       </c>
       <c r="G394" t="s">
         <v>459</v>
@@ -13231,16 +13231,16 @@
         <v>58</v>
       </c>
       <c r="C395">
-        <v>0.0523454537383955</v>
+        <v>0.05233716470174633</v>
       </c>
       <c r="D395">
-        <v>0.2342766750354955</v>
+        <v>0.2343398000005813</v>
       </c>
       <c r="E395">
-        <v>0.01244050350522142</v>
+        <v>0.01244197981960257</v>
       </c>
       <c r="F395">
-        <v>0.00323247161451476</v>
+        <v>0.003240719060081449</v>
       </c>
       <c r="G395" t="s">
         <v>460</v>
@@ -13260,16 +13260,16 @@
         <v>59</v>
       </c>
       <c r="C396">
-        <v>0.04920283945917706</v>
+        <v>0.04919459530249556</v>
       </c>
       <c r="D396">
-        <v>0.2344777104591617</v>
+        <v>0.2345298490733918</v>
       </c>
       <c r="E396">
-        <v>0.01190628930430734</v>
+        <v>0.01190721200079558</v>
       </c>
       <c r="F396">
-        <v>0.003265598988071652</v>
+        <v>0.003270761984400995</v>
       </c>
       <c r="G396" t="s">
         <v>461</v>
@@ -13289,16 +13289,16 @@
         <v>60</v>
       </c>
       <c r="C397">
-        <v>0.02170475078131523</v>
+        <v>0.0216558168431151</v>
       </c>
       <c r="D397">
-        <v>0.319586852622059</v>
+        <v>0.3200207203761882</v>
       </c>
       <c r="E397">
-        <v>0.007226325145939821</v>
+        <v>0.007215068248783578</v>
       </c>
       <c r="F397">
-        <v>0.007303720084397875</v>
+        <v>0.007349596816645645</v>
       </c>
       <c r="G397" t="s">
         <v>462</v>
@@ -13318,16 +13318,16 @@
         <v>61</v>
       </c>
       <c r="C398">
-        <v>0.02303127610242025</v>
+        <v>0.0229921829466208</v>
       </c>
       <c r="D398">
-        <v>0.3684903136230751</v>
+        <v>0.3691245426233172</v>
       </c>
       <c r="E398">
-        <v>0.00875980077957599</v>
+        <v>0.008752788286265542</v>
       </c>
       <c r="F398">
-        <v>0.007240024821720922</v>
+        <v>0.007273232987777109</v>
       </c>
       <c r="G398" t="s">
         <v>463</v>
@@ -13347,16 +13347,16 @@
         <v>62</v>
       </c>
       <c r="C399">
-        <v>0.02941303008292862</v>
+        <v>0.02935663617135636</v>
       </c>
       <c r="D399">
-        <v>0.3126699528427319</v>
+        <v>0.3132019529172156</v>
       </c>
       <c r="E399">
-        <v>0.009823215453730855</v>
+        <v>0.009813065792360484</v>
       </c>
       <c r="F399">
-        <v>0.01059514483782046</v>
+        <v>0.01064412025286833</v>
       </c>
       <c r="G399" t="s">
         <v>464</v>
@@ -13376,16 +13376,16 @@
         <v>63</v>
       </c>
       <c r="C400">
-        <v>0.2543069915443535</v>
+        <v>0.2542083459461734</v>
       </c>
       <c r="D400">
-        <v>0.4035062461286439</v>
+        <v>0.4046177296584281</v>
       </c>
       <c r="E400">
-        <v>0.1121824954224002</v>
+        <v>0.1121931987016635</v>
       </c>
       <c r="F400">
-        <v>0.1999462112260549</v>
+        <v>0.1999980019578754</v>
       </c>
       <c r="G400" t="s">
         <v>465</v>
@@ -13405,16 +13405,16 @@
         <v>64</v>
       </c>
       <c r="C401">
-        <v>0.03616788684601439</v>
+        <v>0.03614356884238209</v>
       </c>
       <c r="D401">
-        <v>0.2238382113775481</v>
+        <v>0.2240387588329975</v>
       </c>
       <c r="E401">
-        <v>0.008015985204049178</v>
+        <v>0.008015800664751549</v>
       </c>
       <c r="F401">
-        <v>0.008976547106405899</v>
+        <v>0.008996609126550498</v>
       </c>
       <c r="G401" t="s">
         <v>466</v>
@@ -13434,16 +13434,16 @@
         <v>65</v>
       </c>
       <c r="C402">
-        <v>0.01750536016100358</v>
+        <v>0.01751803598351032</v>
       </c>
       <c r="D402">
-        <v>0.3622071474249367</v>
+        <v>0.3629497502590429</v>
       </c>
       <c r="E402">
-        <v>0.006463837474190113</v>
+        <v>0.006471034506798211</v>
       </c>
       <c r="F402">
-        <v>0.006873803786583869</v>
+        <v>0.006861130123039463</v>
       </c>
       <c r="G402" t="s">
         <v>467</v>
@@ -13463,16 +13463,16 @@
         <v>66</v>
       </c>
       <c r="C403">
-        <v>0.6989552550991013</v>
+        <v>0.6988309983218736</v>
       </c>
       <c r="D403">
-        <v>0.2375541745399226</v>
+        <v>0.2378493163383323</v>
       </c>
       <c r="E403">
-        <v>0.1681885114035033</v>
+        <v>0.1683774796442902</v>
       </c>
       <c r="F403">
-        <v>0.04739986262393111</v>
+        <v>0.04736916535023662</v>
       </c>
       <c r="G403" t="s">
         <v>468</v>

--- a/Bence folder/Image processing - Adhesion assay/condition_plot_df.xlsx
+++ b/Bence folder/Image processing - Adhesion assay/condition_plot_df.xlsx
@@ -220,178 +220,178 @@
     <t>[0.04315944513805384]</t>
   </si>
   <si>
-    <t>[0.11079780227485579, 0.07682094327313733, 0.06541565323375081, 0.086152449492604, 0.1779884792283763, 0.030971346588406133]</t>
-  </si>
-  <si>
-    <t>[0.06453754219181082, 0.050181417104594735, 0.030268949454706474, 0.03130714554911782, 0.05371101318289565, 0.00968001896183924]</t>
-  </si>
-  <si>
-    <t>[0.056510959770567505, 0.03643082589245232, 0.024521016417504524, 0.027231775325551034, 0.05008122822658678, 0.00825953412953318]</t>
-  </si>
-  <si>
-    <t>[0.05293627824912213, 0.03742922651734276, 0.02205491550346673, 0.02341496208320145, 0.04590423709456376, 0.00862945472374905]</t>
-  </si>
-  <si>
-    <t>[0.08065403487653088, 0.06978303142901612, 0.036844818934215665, 0.06899070110627138, 0.10834754901327726, 0.09826220725069214]</t>
-  </si>
-  <si>
-    <t>[0.06308841315681096, 0.04818646200483861, 0.026673119056054292, 0.031513021239809307, 0.08329962046216419, 0.07401792084609898]</t>
-  </si>
-  <si>
-    <t>[0.1537447762146297, 0.1401818485025212, 0.1378508774678711, 0.11077169248672625, 0.2007515655543232, 0.43232713657127986]</t>
-  </si>
-  <si>
-    <t>[0.07489777867312146, 0.06724844242153237, 0.03870106362882087, 0.043497306514948424, 0.06326655698570922, 0.001777048480678689]</t>
-  </si>
-  <si>
-    <t>[0.5469423770114503, 0.3868344481631397, 0.43615854399314924, 0.5417790095959003, 0.6007287740272227, 0.28904511702178115]</t>
-  </si>
-  <si>
-    <t>[0.030944027415143568, 0.028946900851960253, 0.02296013466267149, 0.011972769466089776, 0.026297443087768546, 0.021645930261935543]</t>
-  </si>
-  <si>
-    <t>[0.028135517116935585, 0.023922915045599503, 0.01785632961544816, 0.009463818200858716, 0.021728733360127518, 0.011702953189375597]</t>
-  </si>
-  <si>
-    <t>[0.039302925775135576, 0.03478656045632456, 0.030250351670847213, 0.018879717049061263, 0.04380667744774927, 0.012996569474165626]</t>
-  </si>
-  <si>
-    <t>[0.04691951446741284, 0.037108358306213333, 0.026517185865814887, 0.015621359516036592, 0.035604266911072095, 0.034040245678577906]</t>
-  </si>
-  <si>
-    <t>[0.038127766747022035, 0.02880855960703857, 0.02728764638594524, 0.007553326941862766, 0.0344768988889472, 0.02270920915798262]</t>
-  </si>
-  <si>
-    <t>[0.04946147927430566, 0.041486297412955925, 0.027044327178280314, 0.0203287822682352, 0.04384718175048708, 0.02014638698927387]</t>
-  </si>
-  <si>
-    <t>[0.051429035381714824, 0.037692088745893915, 0.024579144254056634, 0.026564997877509697, 0.043653440705527534, 0.027543524939715618]</t>
-  </si>
-  <si>
-    <t>[0.0455082257096845, 0.030588835214017358, 0.022239389107551848, 0.02108801151372074, 0.03757849293563581, 0.01618821788338968]</t>
-  </si>
-  <si>
-    <t>[0.17684662144837604, 0.17277844160821745, 0.137626405859287, 0.11358147382044675, 0.16446813903182275, 0.20303301866958204]</t>
-  </si>
-  <si>
-    <t>[0.039100760569641145, 0.026338384551057536, 0.016986897440631175, 0.01936329827045026, 0.027591194028538567, 0.017404792949957212]</t>
-  </si>
-  <si>
-    <t>[0.10077643752765171, 0.08326665157875636, 0.08814096729029205, 0.1052907018521456, 0.07635023898995111, 0.07786072927902575]</t>
-  </si>
-  <si>
-    <t>[0.15789897060438357, 0.1358258972688058, 0.14322644702991177, 0.20309320626219843, 0.1461278754523896, 0.1417719300772491]</t>
-  </si>
-  <si>
-    <t>[0.021622858516470788, 0.01577994588928765, 0.014953840289962933, 0.006944778284171867, 0.01891679793138104, 0.025349478555805563]</t>
-  </si>
-  <si>
-    <t>[0.0277061259358574, 0.022468409501061458, 0.01774958261861784, 0.008293163261394496, 0.020125815552297574, 0.02570407369551097]</t>
-  </si>
-  <si>
-    <t>[0.036229312073707075, 0.026915559032704227, 0.021308180763321662, 0.013418431941325143, 0.026881063630854716, 0.029161807355117222]</t>
-  </si>
-  <si>
-    <t>[0.05096328485193013, 0.03816740429986913, 0.02441350519079114, 0.020616116665228414, 0.03759462796653259, 0.035116392484623185]</t>
-  </si>
-  <si>
-    <t>[0.07267547405467421, 0.06986579244157297, 0.044780775216223465, 0.060635837312949935, 0.12639107767695187, 0.08660881606770976]</t>
-  </si>
-  <si>
-    <t>[0.036962307643667196, 0.02938822653004397, 0.01858973728581101, 0.019437150759685256, 0.03121828754467069, 0.026038380372758643]</t>
-  </si>
-  <si>
-    <t>[0.08715350262928413, 0.0766896819999832, 0.0627033221474755, 0.05528394546313477, 0.07767542908024253, 0.07789700031594991]</t>
-  </si>
-  <si>
-    <t>[0.039022714032982464, 0.02830598873634353, 0.017311568640416174, 0.014332892196738794, 0.028489387623851312, 0.013824721577269664]</t>
-  </si>
-  <si>
-    <t>[0.08859690461414987, 0.06617455421651863, 0.060754925581734905, 0.07334614360402844, 0.09812547775787524, 0.13116150630947973]</t>
-  </si>
-  <si>
-    <t>[0.020743598747679285, 0.01947009340785743, 0.01832941664272613, 0.00924264969681277, 0.020470064944556977, 0.040057113275791395]</t>
-  </si>
-  <si>
-    <t>[0.02470125978186328, 0.018356204485726706, 0.014748647703299428, 0.010094721171298912, 0.021108453137677976, 0.0272739873776861]</t>
+    <t>[0.11079780227485579, 0.07682094327313733, 0.06488607978741746, 0.086152449492604, 0.1779884792283763, 0.030971346588406133]</t>
+  </si>
+  <si>
+    <t>[0.06453754219181082, 0.050181417104594735, 0.029856577136341364, 0.03130714554911782, 0.05371101318289565, 0.00968001896183924]</t>
+  </si>
+  <si>
+    <t>[0.056510959770567505, 0.03643082589245232, 0.024131532508697727, 0.027231775325551034, 0.05008122822658678, 0.00825953412953318]</t>
+  </si>
+  <si>
+    <t>[0.05293627824912213, 0.03742922651734276, 0.021761323526150584, 0.02341496208320145, 0.04590423709456376, 0.00862945472374905]</t>
+  </si>
+  <si>
+    <t>[0.08065403487653088, 0.06978303142901612, 0.03654211434531803, 0.06899070110627138, 0.10834754901327726, 0.09826220725069214]</t>
+  </si>
+  <si>
+    <t>[0.06308841315681096, 0.04818646200483861, 0.026371300072268816, 0.031513021239809307, 0.08329962046216419, 0.07401792084609898]</t>
+  </si>
+  <si>
+    <t>[0.1537447762146297, 0.1401818485025212, 0.137509649658102, 0.11077169248672625, 0.2007515655543232, 0.43232713657127986]</t>
+  </si>
+  <si>
+    <t>[0.07489777867312146, 0.06724844242153237, 0.03819259279443046, 0.043497306514948424, 0.06326655698570922, 0.001777048480678689]</t>
+  </si>
+  <si>
+    <t>[0.5469423770114503, 0.3868344481631397, 0.4371966689936789, 0.5417790095959003, 0.6007287740272227, 0.28904511702178115]</t>
+  </si>
+  <si>
+    <t>[0.030944027415143568, 0.028946900851960253, 0.022685684299589073, 0.011972769466089776, 0.026297443087768546, 0.021645930261935543]</t>
+  </si>
+  <si>
+    <t>[0.028135517116935585, 0.023922915045599503, 0.01764041255151331, 0.009463818200858716, 0.021728733360127518, 0.011702953189375597]</t>
+  </si>
+  <si>
+    <t>[0.039302925775135576, 0.08075076470926427, 0.02162441206837212, 0.028689710586950717, 0.01204197921587624, 0.02144466344672906, 0.002379761252701543, 0.03478656045632456, 0.025612465994431264, 0.017045723374942895, 0.01737754417780793, 0.010536575190052296, 0.010783190808218698, 0.004234922024890541, 0.029758001913321168, 0.020901070706276875, 0.01773510788216788, 0.014580233688836946, 0.012357345604782164, 0.012123947049757484, 0.006475767756287821, 0.018879717049061263, 0.02031429704345352, 0.008474297717975574, 0.014194392610044312, 0.005495724794939137, 0.013983011928389662, 0.004408907185477373, 0.04380667744774927, 0.03537355297713628, 0.02852674092557816, 0.021588949987335487, 0.044619690581535594, 0.014572302460750901, 0.010063304594794877, 0.012996569474165626, 0.0, 0.025913840212174372, 0.0033547852199365836, 0.030061301631445984, 0.009310114071255178, 0.037686300217907386]</t>
+  </si>
+  <si>
+    <t>[0.04691951446741284, 0.037108358306213333, 0.026242448314941637, 0.015621359516036592, 0.035604266911072095, 0.034040245678577906]</t>
+  </si>
+  <si>
+    <t>[0.07189124996578095, 0.038127766747022035, 0.046913018735184525, 0.04282808651883285, 0.03257383479464693, 0.03202591342758984, 0.017490504166053758, 0.04561426407027026, 0.02880855960703857, 0.03136117031452807, 0.033702376685967796, 0.021683744782147914, 0.023378550538296756, 0.012649384869415598, 0.04420085352696234, 0.02696870516808284, 0.029548343583815015, 0.03086469101690535, 0.018254927675594345, 0.025845724938148663, 0.012009694055638427, 0.04697741809033753, 0.007553326941862766, 0.023774864600842535, 0.03067846897956569, 0.019816421259456582, 0.03035517105854165, 0.01439005004820671, 0.05130512018982642, 0.0344768988889472, 0.04037898957480274, 0.06154115599295126, 0.027648518955058824, 0.044873658220533456, 0.017211165689821634, 0.02903293219890086, 0.02270920915798262, 0.013377346991179677, 0.032267974468453656, 0.013399252351550072, 0.041965976921798265, 0.017584437197532745]</t>
+  </si>
+  <si>
+    <t>[0.04946147927430566, 0.041486297412955925, 0.0267732632028525, 0.0203287822682352, 0.04384718175048708, 0.02014638698927387]</t>
+  </si>
+  <si>
+    <t>[0.051429035381714824, 0.037692088745893915, 0.024539659019157042, 0.026564997877509697, 0.043653440705527534, 0.027543524939715618]</t>
+  </si>
+  <si>
+    <t>[0.0455082257096845, 0.030588835214017358, 0.022018926145461686, 0.02108801151372074, 0.03757849293563581, 0.01618821788338968]</t>
+  </si>
+  <si>
+    <t>[0.17684662144837604, 0.17277844160821745, 0.1373999527584849, 0.11358147382044675, 0.16446813903182275, 0.20303301866958204]</t>
+  </si>
+  <si>
+    <t>[0.039100760569641145, 0.026338384551057536, 0.01690475657001169, 0.01936329827045026, 0.027591194028538567, 0.017404792949957212]</t>
+  </si>
+  <si>
+    <t>[0.10077643752765171, 0.08326665157875636, 0.087981410172994, 0.1052907018521456, 0.07635023898995111, 0.07786072927902575]</t>
+  </si>
+  <si>
+    <t>[0.15789897060438357, 0.1358258972688058, 0.14306467384629595, 0.20309320626219843, 0.1461278754523896, 0.1417719300772491]</t>
+  </si>
+  <si>
+    <t>[0.021622858516470788, 0.01577994588928765, 0.01473401645140996, 0.006944778284171867, 0.01891679793138104, 0.025349478555805563]</t>
+  </si>
+  <si>
+    <t>[0.0277061259358574, 0.022468409501061458, 0.017577396310694344, 0.008293163261394496, 0.020125815552297574, 0.02570407369551097]</t>
+  </si>
+  <si>
+    <t>[0.036229312073707075, 0.026915559032704227, 0.021037540118070776, 0.013418431941325143, 0.026881063630854716, 0.029161807355117222]</t>
+  </si>
+  <si>
+    <t>[0.05096328485193013, 0.03816740429986913, 0.024180405796512996, 0.020616116665228414, 0.03759462796653259, 0.035116392484623185]</t>
+  </si>
+  <si>
+    <t>[0.07267547405467421, 0.06986579244157297, 0.04461432406101108, 0.060635837312949935, 0.12639107767695187, 0.08660881606770976]</t>
+  </si>
+  <si>
+    <t>[0.036962307643667196, 0.02938822653004397, 0.018364052374779713, 0.019437150759685256, 0.03121828754467069, 0.026038380372758643]</t>
+  </si>
+  <si>
+    <t>[0.08715350262928413, 0.0766896819999832, 0.06272213709164329, 0.05528394546313477, 0.07767542908024253, 0.07789700031594991]</t>
+  </si>
+  <si>
+    <t>[0.039022714032982464, 0.02830598873634353, 0.01690698798306865, 0.014332892196738794, 0.028489387623851312, 0.013824721577269664]</t>
+  </si>
+  <si>
+    <t>[0.08859690461414987, 0.06617455421651863, 0.060408857390190696, 0.07334614360402844, 0.09812547775787524, 0.13116150630947973]</t>
+  </si>
+  <si>
+    <t>[0.020743598747679285, 0.01947009340785743, 0.018039758791308334, 0.00924264969681277, 0.020470064944556977, 0.040057113275791395]</t>
+  </si>
+  <si>
+    <t>[0.02470125978186328, 0.018356204485726706, 0.014534838859583172, 0.010094721171298912, 0.021108453137677976, 0.0272739873776861]</t>
   </si>
   <si>
     <t>[0.9707765340867188]</t>
   </si>
   <si>
-    <t>[0.028164060088032645, 0.025015911637513884, 0.014810643219796566, 0.01564049985867673, 0.02049821033650861, 0.04439732010847981]</t>
-  </si>
-  <si>
-    <t>[0.02953553115569126, 0.02213288345295154, 0.022982740570038428, 0.009691043772888062, 0.020275335459021715, 0.030824761385070912]</t>
-  </si>
-  <si>
-    <t>[0.05078111195663181, 0.06496938127049386, 0.05390889909936763, 0.043937989721122214, 0.04377126782022484, 0.06439334166699823]</t>
-  </si>
-  <si>
-    <t>[0.021918306101613213, 0.01261493303624164, 0.005778674696405111, 0.005947625147945771, 0.01435319213774194, 0.017793439074594953]</t>
-  </si>
-  <si>
-    <t>[0.02416695098373701, 0.014969111879277632, 0.011656021334832714, 0.007013211763325044, 0.01798675530138058, 0.014294545961423674]</t>
-  </si>
-  <si>
-    <t>[0.02129630705924743, 0.011862041683176006, 0.007024530635088086, 0.0072730030624547325, 0.015239679663417485, 0.008996408721052994]</t>
-  </si>
-  <si>
-    <t>[0.008685129366572846, 0.009944608961680366, 0.011969924004050685, 0.005915251107385841, 0.015239215030213396, 0.02628938546616991]</t>
-  </si>
-  <si>
-    <t>[0.004692124194846054, 0.008941479730269295, 0.00576064259768186, 0.0, 0.00906342417287047, 0.019701228925246485]</t>
-  </si>
-  <si>
-    <t>[0.009177319318809711, 0.0361176512225174, 0.005879853336244868, 0.0019786044731659714, 0.01211632487190659, 0.024461990504702682]</t>
-  </si>
-  <si>
-    <t>[0.01038737933410904, 0.013312831292522169, 0.005812660849804931, 0.002248176709908704, 0.010582271627240928, 0.02289091071454528]</t>
-  </si>
-  <si>
-    <t>[0.08370805366772006, 0.08207374834538328, 0.06233254274213002, 0.09427606246013558, 0.08404589842448197, 0.18514028663457344]</t>
-  </si>
-  <si>
-    <t>[0.1014176663031624, 0.07880361099426504, 0.16604656970482037, 0.08770635621400887, 0.07734387624290347, 0.09173934088458786]</t>
-  </si>
-  <si>
-    <t>[0.992385392016357, 0.9983719539050256, 0.928273910652614, 0.9707445755313282, 0.9902141210782611, 0.9973195198158197]</t>
-  </si>
-  <si>
-    <t>[0.01361598721966612, 0.013461202759882109, 0.005801280899810012, 0.01036815897459536, 0.024422721268163798, 0.046327178734220674]</t>
-  </si>
-  <si>
-    <t>[0.016824699769136295, 0.011628119390248921, 0.004794488214709819, 0.006703579122888935, 0.011629461798462297, 0.019077996351114974]</t>
-  </si>
-  <si>
-    <t>[0.019418008042222157, 0.011969396896166764, 0.010648757002675707, 0.009987575428784553, 0.014325445131733828, 0.007950717292973147]</t>
-  </si>
-  <si>
-    <t>[0.02922082190628188, 0.031136335552188265, 0.03028153782066848, 0.027636727406263027, 0.02816648511473687, 0.037058185060765796]</t>
-  </si>
-  <si>
-    <t>[0.01872358681057572, 0.01967391845641154, 0.017059575395265734, 0.013112956139422408, 0.02124817612222128, 0.044046816790797645]</t>
-  </si>
-  <si>
-    <t>[0.0040529446579406535, 0.011350505133991199, 0.00906559237959059, 0.006527271992751314, 0.008283232409635655, 0.027820117811899178]</t>
-  </si>
-  <si>
-    <t>[0.007218821194796197, 0.01132352148128862, 0.00803936404984069, 0.006068246297030772, 0.008044667410328134, 0.023415071739641424]</t>
-  </si>
-  <si>
-    <t>[0.019861028876676186, 0.01843246928309143, 0.015561563459134932, 0.016595414238239157, 0.018650767862994574, 0.03616522303574298]</t>
-  </si>
-  <si>
-    <t>[0.019558809511134978, 0.019694934690384223, 0.017245109721168918, 0.014426292885283921, 0.012507596085796414, 0.032667562429875535]</t>
-  </si>
-  <si>
-    <t>[0.026602034395247987, 0.029723886526531348, 0.03732488466458932, 0.030103211820540977, 0.035839058307882164, 0.06095028340080972]</t>
-  </si>
-  <si>
-    <t>[0.019756653009951823, 0.03297793735319553, 0.019036025725075036, 0.012236454701144163, 0.019533332607962417, 0.04833914415588948]</t>
-  </si>
-  <si>
-    <t>[0.2825284283065561, 0.28337427539699717, 0.2553790443872676, 0.2588873223525822, 0.25689331766855195, 0.20369403094823468]</t>
+    <t>[0.028164060088032645, 0.025015911637513884, 0.014673107853555118, 0.01564049985867673, 0.02049821033650861, 0.04439732010847981]</t>
+  </si>
+  <si>
+    <t>[0.02953553115569126, 0.02213288345295154, 0.02286694087611699, 0.009691043772888062, 0.020275335459021715, 0.030824761385070912]</t>
+  </si>
+  <si>
+    <t>[0.05078111195663181, 0.06496938127049386, 0.05375403209930755, 0.043937989721122214, 0.04377126782022484, 0.06439334166699823]</t>
+  </si>
+  <si>
+    <t>[0.021918306101613213, 0.01261493303624164, 0.005548143606522289, 0.005947625147945771, 0.01435319213774194, 0.017793439074594953]</t>
+  </si>
+  <si>
+    <t>[0.02416695098373701, 0.014969111879277632, 0.011436281070089194, 0.007013211763325044, 0.01798675530138058, 0.014294545961423674]</t>
+  </si>
+  <si>
+    <t>[0.02129630705924743, 0.011862041683176006, 0.006658570911249237, 0.0072730030624547325, 0.015239679663417485, 0.008996408721052994]</t>
+  </si>
+  <si>
+    <t>[0.008685129366572846, 0.009944608961680366, 0.01170019326348327, 0.005915251107385841, 0.015239215030213396, 0.02628938546616991]</t>
+  </si>
+  <si>
+    <t>[0.004692124194846054, 0.008941479730269295, 0.0055067771173321345, 0.0, 0.00906342417287047, 0.019701228925246485]</t>
+  </si>
+  <si>
+    <t>[0.009177319318809711, 0.0361176512225174, 0.005644488314822884, 0.0019786044731659714, 0.01211632487190659, 0.024461990504702682]</t>
+  </si>
+  <si>
+    <t>[0.01038737933410904, 0.013312831292522169, 0.0055362395927569565, 0.002248176709908704, 0.010582271627240928, 0.02289091071454528]</t>
+  </si>
+  <si>
+    <t>[0.08370805366772006, 0.08207374834538328, 0.062129671068142635, 0.09427606246013558, 0.08404589842448197, 0.18514028663457344]</t>
+  </si>
+  <si>
+    <t>[0.1014176663031624, 0.07880361099426504, 0.16223540534483014, 0.08770635621400887, 0.07734387624290347, 0.09173934088458786]</t>
+  </si>
+  <si>
+    <t>[0.992385392016357, 0.9983719539050256, 0.9265905418383911, 0.9707445755313282, 0.9902141210782611, 0.9973195198158197]</t>
+  </si>
+  <si>
+    <t>[0.01361598721966612, 0.013461202759882109, 0.005547141311468332, 0.01036815897459536, 0.024422721268163798, 0.046327178734220674]</t>
+  </si>
+  <si>
+    <t>[0.016824699769136295, 0.011628119390248921, 0.004637937687186465, 0.006703579122888935, 0.011629461798462297, 0.019077996351114974]</t>
+  </si>
+  <si>
+    <t>[0.019418008042222157, 0.011969396896166764, 0.010380970457878636, 0.009987575428784553, 0.014325445131733828, 0.007950717292973147]</t>
+  </si>
+  <si>
+    <t>[0.02922082190628188, 0.031136335552188265, 0.02991072407584731, 0.027636727406263027, 0.02816648511473687, 0.037058185060765796]</t>
+  </si>
+  <si>
+    <t>[0.01872358681057572, 0.01967391845641154, 0.01686844966397157, 0.013112956139422408, 0.02124817612222128, 0.044046816790797645]</t>
+  </si>
+  <si>
+    <t>[0.0040529446579406535, 0.011350505133991199, 0.0088669622673123, 0.006527271992751314, 0.008283232409635655, 0.027820117811899178]</t>
+  </si>
+  <si>
+    <t>[0.007218821194796197, 0.01132352148128862, 0.007894781182674941, 0.006068246297030772, 0.008044667410328134, 0.023415071739641424]</t>
+  </si>
+  <si>
+    <t>[0.019861028876676186, 0.01843246928309143, 0.015431266189046005, 0.016595414238239157, 0.018650767862994574, 0.03616522303574298]</t>
+  </si>
+  <si>
+    <t>[0.019558809511134978, 0.019694934690384223, 0.01643706097347952, 0.014426292885283921, 0.012507596085796414, 0.032667562429875535]</t>
+  </si>
+  <si>
+    <t>[0.026602034395247987, 0.029723886526531348, 0.03601203088930162, 0.030103211820540977, 0.035839058307882164, 0.06095028340080972]</t>
+  </si>
+  <si>
+    <t>[0.019756653009951823, 0.03297793735319553, 0.018749781993788905, 0.012236454701144163, 0.019533332607962417, 0.04833914415588948]</t>
+  </si>
+  <si>
+    <t>[0.2825284283065561, 0.28337427539699717, 0.25610113847535065, 0.2588873223525822, 0.25689331766855195, 0.20369403094823468]</t>
   </si>
   <si>
     <t>[0.07613232073733361, 0.17826819889195644, 0.07290436603430243, 0.05253020257866953, 0.09373151020789453, 0.1710057932712726, 0.09597730012390668, 0.09268779624812146, 0.052462038254807435]</t>
@@ -430,13 +430,13 @@
     <t>[0.005667874479815135, 0.005425384003107928, 0.016634326668028384, 0.013450734628345758, 0.04188652121019014, 0.022823110817538662, 0.028104625346529473, 0.004214570376041758, 0.02240577323972847, 0.017188009355534828]</t>
   </si>
   <si>
-    <t>[0.002743842086840644, 0.025437882686452456, 0.04320581558598713, 0.02626807178468269, 0.0, 0.031802252951560125, 0.04740449660447034, 0.011659112793974616, 0.05729584148372257, 0.011356597220522048]</t>
+    <t>[0.002743842086840644, 0.0632259748165596, 0.006032624521439383, 0.05911946098239015, 0.021434140917476148, 0.04782653575985247, 0.046605504402441884, 0.025437882686452456, 0.17204923721013907, 0.10535280074462158, 0.17603196328593412, 0.1304191768277396, 0.1873594851839072, 0.1397066795047813, 0.04320581558598713, 0.1066612731698091, 0.10488728364939623, 0.06794828553756943, 0.13334043279670008, 0.058257118105050014, 0.14767084336432104, 0.02626807178468269, 0.04295493885585765, 0.019743301716010322, 0.0477880498908941, 0.010016730889571631, 0.03311360551673667, 0.003923361700058221, 0.0, 0.04822005613884468, 0.017999421386415, 0.05127609969810601, 0.017515672526076553, 0.05049478576048875, 0.014811318579347348, 0.031802252951560125, 0.04546783932686146, 0.07693077107134917, 0.0204173273332125, 0.08469395204460234, 0.017606787463474174, 0.23794844326448858, 0.04740449660447034, 0.031952169979653694, 0.07528771599201163, 0.02524593994625548, 0.06483487958666384, 0.023499614956789636, 0.04784941124180389, 0.011659112793974616, 0.013581297214884665, 0.03772533630581059, 0.019313010252509772, 0.04418383940457942, 0.03704396331044489, 0.056295769346126, 0.05729584148372257, 0.02376361102574725, 0.05571995005536616, 0.02214730454507607, 0.05459938721729433, 0.02702464128463533, 0.05158349671212779, 0.011356597220522048, 0.021913503073902222, 0.04449302093466205, 0.02395324943406405, 0.0404958576452022, 0.04424438365513647, 0.04855875053434284]</t>
   </si>
   <si>
     <t>[0.020618826606369718, 0.026324447109641335, 0.024447421788161523, 0.021532590900771708, 0.16193732560722243, 0.19780773083661798, 0.024739147352778965, 0.009486088244458724, 0.02415124222482982, 0.012827053343814605]</t>
   </si>
   <si>
-    <t>[0.0, 0.030101314028472603, 0.05255212812785911, 0.021045713716073267, 0.017673018616825898, 0.03477601496182006, 0.032491910788412584, 0.014654551666683498, 0.039381201062786274, 0.009002583562044713]</t>
+    <t>[0.00031575875999460877, 0.0, 0.04810913598540343, 0.010377676395182453, 0.052404938984937095, 0.026873169583301732, 0.03942750181119553, 0.040658087244952665, 0.030101314028472603, 0.15765184466063675, 0.1150766163860039, 0.18695451659941273, 0.076231137895942, 0.15138211035797103, 0.08584618223363366, 0.05255212812785911, 0.09088311688697187, 0.07820810065825262, 0.05140198376212918, 0.09889141431671424, 0.04012717728398483, 0.030817882606743587, 0.021045713716073267, 0.04233050560994591, 0.021280572841031947, 0.05253608717349347, 0.013930318439834744, 0.0327282826684107, 0.028254537025685967, 0.017673018616825898, 0.04913682719749477, 0.030375858676556195, 0.05572091939734356, 0.03536858493086044, 0.05135105953773504, 0.10986875638026403, 0.03477601496182006, 0.03795975850262407, 0.11255594550879443, 0.030291515372794373, 0.10945235846074021, 0.02731723438972996, 0.057688878611528674, 0.032491910788412584, 0.030366382319995538, 0.057831556929830205, 0.026918049153597155, 0.05549352082182648, 0.0380627554873028, 0.020736766767400043, 0.014654551666683498, 0.015671014245079027, 0.028572191817728944, 0.027315759521298392, 0.03959123592460603, 0.025852114354326303, 0.05643323139258721, 0.039381201062786274, 0.015011556054303944, 0.04938425978947812, 0.016471539383308306, 0.04325439594815039, 0.009929125963550165, 0.0283987898690313, 0.009002583562044713, 0.022024002229974887, 0.031315501536761284, 0.030976069027371416, 0.03376739333277694, 0.038285687130145754]</t>
   </si>
   <si>
     <t>[0.018984839068702988, 0.04211334546687345, 0.060419860335421974, 0.01788468089812724, 0.03219928225173359, 0.2224570914587801, 0.014179895921179924, 0.004703709267525775, 0.025388424309498926, 0.008500818967159174]</t>
@@ -568,157 +568,157 @@
     <t>[0.7396755784545245, 0.9681952752968855, 1.0, 0.8874928617392608, 0.8941892092293361, 1.0, 0.9584421552475292, 0.9487590804626705, 0.973966593366255, 0.9463651122054686]</t>
   </si>
   <si>
-    <t>[0.8747489572068591, 0.8092854878030855, 0.3354711297160911]</t>
-  </si>
-  <si>
-    <t>[0.04515260612821587, 0.01719634540121891, 0.044946578781514215, 0.07334936797288723, 0.01828851402102394]</t>
-  </si>
-  <si>
-    <t>[0.047438755253906464, 0.027996628779062876, 0.06835853740868544, 0.07379142804208863, 0.04618175417785547]</t>
-  </si>
-  <si>
-    <t>[0.05564250012823213, 0.0229580519939964, 0.07360260726336612, 0.06151124695018763, 0.04281272559167502]</t>
-  </si>
-  <si>
-    <t>[0.04495907898907816, 0.03009584251720096, 0.0910771146488572, 0.08214204285154365, 0.04724036221970149]</t>
-  </si>
-  <si>
-    <t>[0.10797048839354033, 0.03451344445914522, 0.08634915228763625, 0.09037349107370052, 0.10643766631989734]</t>
-  </si>
-  <si>
-    <t>[0.06173372959832493, 0.01206875785610661, 0.08763675774047684, 0.054920457994193844, 0.08852148289490158]</t>
-  </si>
-  <si>
-    <t>[0.061330480350252126, 0.02604666543641639, 0.07930594414670045, 0.03607949973572936]</t>
-  </si>
-  <si>
-    <t>[0.04458637433522855, 0.01833871416798899, 0.05552428240499736, 0.015377988179077382, 0.007005754054839949]</t>
-  </si>
-  <si>
-    <t>[0.04632668380723748, 0.023538825015474645, 0.06789508436980893, 0.05577704109079348]</t>
-  </si>
-  <si>
-    <t>[0.055069903605291064, 0.021916408426610388, 0.07232513909690985, 0.02265117880444681, 0.0010840046295233403]</t>
-  </si>
-  <si>
-    <t>[0.02317805729351317, 0.015393482696064994, 0.03323239121991992, 0.23821585183597496, 0.02672050691482309]</t>
-  </si>
-  <si>
-    <t>[0.10321537791850237, 0.049867403795418895, 0.12135388916365955, 0.023223183211937892, 0.02035377150777382]</t>
-  </si>
-  <si>
-    <t>[0.09760552810070651, 0.03458354481334341, 0.21634924172462616, 0.12736522524395968, 0.24148586537841854]</t>
-  </si>
-  <si>
-    <t>[0.042498061496772765, 0.008548850018041367, 0.27908214923763275]</t>
-  </si>
-  <si>
-    <t>[0.0109885485589449, 0.0, 0.01871872333997061, 0.01386503665782443, 0.015802370003373162]</t>
-  </si>
-  <si>
-    <t>[0.07839398396688006, 0.07889152009392164, 0.06244473693754287, 0.06827982047906715, 0.11363362795072961]</t>
-  </si>
-  <si>
-    <t>[0.03647606778317311, 0.02127884050071337, 0.023578035952940477, 0.02533059209612328, 0.04678451717404448]</t>
-  </si>
-  <si>
-    <t>[0.1575121783599135]</t>
-  </si>
-  <si>
-    <t>[0.0829865827710621, 0.09950640884563018, 0.13800790898579213, 0.029320331305864908, 0.03797617635322593]</t>
-  </si>
-  <si>
-    <t>[0.06468088770724068, 0.03669908631335323, 0.08164957848161478, 0.011873934472661335, 0.004631569892093584]</t>
-  </si>
-  <si>
-    <t>[0.07328178665975583, 0.034499371477644314, 0.08423468942815604, 0.021508053454552017, 0.016403239799393225]</t>
-  </si>
-  <si>
-    <t>[0.7469461201722937, 0.3580606720623115, 0.2879245269150145, 0.8871437136948412, 0.7749609436986082]</t>
-  </si>
-  <si>
-    <t>[0.01574418092883916, 0.014753167329330878, 0.028002155569015582, 0.038387821069567334, 0.011945172596668618]</t>
-  </si>
-  <si>
-    <t>[0.12794451328430495, 0.16146023402837453, 0.18559849543403545, 0.0833829171773098]</t>
-  </si>
-  <si>
-    <t>[0.03147602523939259, 0.017305191578010137, 0.051597151848671266, 0.030855808021392397, 0.049041949899418014]</t>
-  </si>
-  <si>
-    <t>[0.07084847094026515, 0.0664392067786369, 0.06907395845420379, 0.10498970641324598, 0.1582887979192277]</t>
-  </si>
-  <si>
-    <t>[0.04691752961129578, 0.020349505333045474, 0.03848809432575901, 0.05683587118286716, 0.11610431578340069]</t>
-  </si>
-  <si>
-    <t>[0.04650746416091467, 0.05610025386748373, 0.0881070148067625, 0.015054475035056619, 0.01986207225531835]</t>
-  </si>
-  <si>
-    <t>[0.019680853076623216, 0.03302928197695662, 0.04296197935837961, 0.0003080839929083333, 0.00732027543772048]</t>
-  </si>
-  <si>
-    <t>[0.3546200327061434, 0.47474267964010974, 0.4594366508752905, 0.39253965930772733, 0.5928490528951563]</t>
-  </si>
-  <si>
-    <t>[0.06735291612646797, 0.11176793699911058, 0.05933428178283742]</t>
-  </si>
-  <si>
-    <t>[0.061838078579028684, 0.062031765262680526, 0.058324056840991075, 0.003004925224980378, 0.022778448483403418]</t>
-  </si>
-  <si>
-    <t>[0.004277420945540342, 0.012181238729287395, 0.009238514994698367, 0.0077101060115203615, 0.030018600599870583]</t>
-  </si>
-  <si>
-    <t>[0.011988851818894773, 0.014568602781643607, 0.009610213015411295, 0.009477247185636948, 0.032775406882876904]</t>
-  </si>
-  <si>
-    <t>[0.030559037742919962, 0.036305571696515555, 0.04450147957392879, 0.0037961333144881284, 0.0080968450818173]</t>
-  </si>
-  <si>
-    <t>[0.06132317809345212, 0.09639523353198778, 0.11503284229190007]</t>
-  </si>
-  <si>
-    <t>[0.03568316749085816, 0.0539256758877208, 0.046591240942250846, 0.0665822103683026, 0.0648384485946885]</t>
+    <t>[0.8823016752101526, 0.8092854878030855, 0.3354711297160911]</t>
+  </si>
+  <si>
+    <t>[0.044970705823829595, 0.01719634540121891, 0.044946578781514215, 0.07334936797288723, 0.01828851402102394]</t>
+  </si>
+  <si>
+    <t>[0.04726067463872122, 0.027996628779062876, 0.06835853740868544, 0.07379142804208863, 0.04618175417785547]</t>
+  </si>
+  <si>
+    <t>[0.05540023819971165, 0.0229580519939964, 0.07360260726336612, 0.06151124695018763, 0.04281272559167502]</t>
+  </si>
+  <si>
+    <t>[0.0447283999567459, 0.03009584251720096, 0.0910771146488572, 0.08214204285154365, 0.04724036221970149]</t>
+  </si>
+  <si>
+    <t>[0.1077056115404835, 0.03451344445914522, 0.08634915228763625, 0.09037349107370052, 0.10643766631989734]</t>
+  </si>
+  <si>
+    <t>[0.061625260729021164, 0.01206875785610661, 0.08763675774047684, 0.054920457994193844, 0.08852148289490158]</t>
+  </si>
+  <si>
+    <t>[0.06126368583115989, 0.02604666543641639, 0.07930594414670045, 0.03607949973572936]</t>
+  </si>
+  <si>
+    <t>[0.04443534593378158, 0.01833871416798899, 0.05552428240499736, 0.015377988179077382, 0.007005754054839949]</t>
+  </si>
+  <si>
+    <t>[0.04624770449085066, 0.023538825015474645, 0.06789508436980893, 0.05577704109079348]</t>
+  </si>
+  <si>
+    <t>[0.054813044848230214, 0.020797194858655475, 0.041880664353055666, 0.016568628497613987, 0.03485575849595854, 0.010113702654277267, 0.038783434404881835, 0.021916408426610388, 0.000420988757862646, 0.025773898266279117, 0.015722241906264645, 0.03433591615999957, 0.4168417883272418, 0.04671526895183214, 0.07232513909690985, 0.035722140398938514, 0.06530735205104138, 0.014903389947101092, 0.05590846316679237, 0.0035851850815434363, 0.05065452702346237, 0.02265117880444681, 0.02998497471663804, 0.015810402724658456, 0.019759576843487087, 0.011001064249140203, 0.004681251440835879, 0.0022106359341752765, 0.0010840046295233403, 0.030155786808097898, 0.008521149692141758, 0.03934185967282988, 0.006758020941307196, 0.03320234045018591, 0.009559417083275483]</t>
+  </si>
+  <si>
+    <t>[0.023353695698961507, 0.015393482696064994, 0.03323239121991992, 0.23821585183597496, 0.02672050691482309]</t>
+  </si>
+  <si>
+    <t>[0.0911759915744671, 0.10303008492874624, 0.042200178523699755, 0.07426124350617652, 0.04601958891015698, 0.06289035487305572, 0.02792119429268972, 0.04830965015544699, 0.049867403795418895, 0.02790829673823525, 0.05394265100830809, 0.08127987552902484, 0.07813274537955152, 0.7116989526088545, 0.12987612954162664, 0.12135388916365955, 0.0520824632974744, 0.10947937254825857, 0.032097503503565265, 0.10842136035851672, 0.004975632757081654, 0.025176538192499393, 0.023223183211937892, 0.05024629622709379, 0.03030963197917018, 0.03528275140171753, 0.015100440868071946, 0.006180940111623765, 0.1928775816372027, 0.02035377150777382, 0.06636420457203478, 0.021958731761693696, 0.0785784099755094, 0.034446160835591114, 0.06686492249186284]</t>
+  </si>
+  <si>
+    <t>[0.09759509944793163, 0.03458354481334341, 0.21634924172462616, 0.12736522524395968, 0.24148586537841854]</t>
+  </si>
+  <si>
+    <t>[0.042539968400932424, 0.008548850018041367, 0.27908214923763275]</t>
+  </si>
+  <si>
+    <t>[0.011018439002018784, 0.0, 0.01871872333997061, 0.01386503665782443, 0.015802370003373162]</t>
+  </si>
+  <si>
+    <t>[0.07884169321031503, 0.07889152009392164, 0.06244473693754287, 0.06827982047906715, 0.11363362795072961]</t>
+  </si>
+  <si>
+    <t>[0.03673101909294863, 0.02127884050071337, 0.023578035952940477, 0.02533059209612328, 0.04678451717404448]</t>
+  </si>
+  <si>
+    <t>[0.15718336981014525]</t>
+  </si>
+  <si>
+    <t>[0.08277210440232555, 0.09950640884563018, 0.13800790898579213, 0.029320331305864908, 0.03797617635322593]</t>
+  </si>
+  <si>
+    <t>[0.06429885298925714, 0.03669908631335323, 0.08164957848161478, 0.011873934472661335, 0.004631569892093584]</t>
+  </si>
+  <si>
+    <t>[0.07305933074369468, 0.034499371477644314, 0.08423468942815604, 0.021508053454552017, 0.016403239799393225]</t>
+  </si>
+  <si>
+    <t>[0.7469765879625921, 0.3580606720623115, 0.2879245269150145, 0.8871437136948412, 0.7749609436986082]</t>
+  </si>
+  <si>
+    <t>[0.015689700623108916, 0.014753167329330878, 0.028002155569015582, 0.038387821069567334, 0.011945172596668618]</t>
+  </si>
+  <si>
+    <t>[0.12761554157949528, 0.16146023402837453, 0.18559849543403545, 0.0833829171773098]</t>
+  </si>
+  <si>
+    <t>[0.031399720891369824, 0.017305191578010137, 0.051597151848671266, 0.030855808021392397, 0.049041949899418014]</t>
+  </si>
+  <si>
+    <t>[0.07045529183460224, 0.0664392067786369, 0.06907395845420379, 0.10498970641324598, 0.1582887979192277]</t>
+  </si>
+  <si>
+    <t>[0.04632174459381286, 0.020349505333045474, 0.03848809432575901, 0.05683587118286716, 0.11610431578340069]</t>
+  </si>
+  <si>
+    <t>[0.04646762374911117, 0.05610025386748373, 0.0881070148067625, 0.015054475035056619, 0.01986207225531835]</t>
+  </si>
+  <si>
+    <t>[0.01965141292037328, 0.03302928197695662, 0.04296197935837961, 0.0003080839929083333, 0.00732027543772048]</t>
+  </si>
+  <si>
+    <t>[0.35506962415758453, 0.47474267964010974, 0.4594366508752905, 0.39253965930772733, 0.5928490528951563]</t>
+  </si>
+  <si>
+    <t>[0.06724995019400629, 0.11176793699911058, 0.05933428178283742]</t>
+  </si>
+  <si>
+    <t>[0.061420935544544315, 0.062031765262680526, 0.058324056840991075, 0.003004925224980378, 0.022778448483403418]</t>
+  </si>
+  <si>
+    <t>[0.004283281030897278, 0.012181238729287395, 0.009238514994698367, 0.0077101060115203615, 0.030018600599870583]</t>
+  </si>
+  <si>
+    <t>[0.012053871972481452, 0.014568602781643607, 0.009610213015411295, 0.009477247185636948, 0.032775406882876904]</t>
+  </si>
+  <si>
+    <t>[0.030577258164240322, 0.036305571696515555, 0.04450147957392879, 0.0037961333144881284, 0.0080968450818173]</t>
+  </si>
+  <si>
+    <t>[0.06129694845083336, 0.09639523353198778, 0.11503284229190007]</t>
+  </si>
+  <si>
+    <t>[0.03563873954530482, 0.0539256758877208, 0.046591240942250846, 0.0665822103683026, 0.0648384485946885]</t>
   </si>
   <si>
     <t>[0.13983871249574328]</t>
   </si>
   <si>
-    <t>[0.015439032750010025, 0.0438644590136261, 0.03182253953345313, 0.006744383986003003, 0.03482319357424954]</t>
-  </si>
-  <si>
-    <t>[0.003995667843475408, 0.01996565943548069, 0.01011069866763844, 0.003035121607833655, 0.0456314757336516]</t>
-  </si>
-  <si>
-    <t>[0.004147649416050083, 0.024584329023049696, 0.006344225928784937, 0.010799692018495649, 0.05711300476909776]</t>
-  </si>
-  <si>
-    <t>[0.01266801122660536, 0.021955441233193724, 0.006257634550824516, 0.007409166982611794, 0.03706313386483627]</t>
-  </si>
-  <si>
-    <t>[0.25966108459581266, 0.6046156503771114, 0.48686112559706773]</t>
-  </si>
-  <si>
-    <t>[0.038611654062560424, 0.06761317899628806, 0.0728717929580206, 0.003166419339384881, 0.01992359070638208]</t>
-  </si>
-  <si>
-    <t>[0.013021393747356372, 0.031401211871350525, 0.022839432040218422, 0.0041128068437600845, 0.019619369376394143]</t>
-  </si>
-  <si>
-    <t>[0.03667955643898363, 0.08733760490090851, 0.06496594456661756, 0.030867069221384158, 0.04834478343040312]</t>
-  </si>
-  <si>
-    <t>[0.596966895834537, 0.45694449928744, 0.9070159312050199, 0.9389414808995037, 0.6954592238297385]</t>
-  </si>
-  <si>
-    <t>[0.028955168623292605, 0.0801877262603706, 0.07474127356783984, 0.05422148642042215]</t>
-  </si>
-  <si>
-    <t>[0.044820793060420305, 0.08373610272326075, 0.043465586829696506, 0.15716324036966622]</t>
-  </si>
-  <si>
-    <t>[0.953728819054206, 0.8998650765345902, 0.7327960106830443]</t>
+    <t>[0.01552189937239775, 0.0438644590136261, 0.03182253953345313, 0.006744383986003003, 0.03482319357424954]</t>
+  </si>
+  <si>
+    <t>[0.004091681516826905, 0.01996565943548069, 0.01011069866763844, 0.003035121607833655, 0.0456314757336516]</t>
+  </si>
+  <si>
+    <t>[0.004308429541076617, 0.024584329023049696, 0.006344225928784937, 0.010799692018495649, 0.05711300476909776]</t>
+  </si>
+  <si>
+    <t>[0.012745733419745078, 0.021955441233193724, 0.006257634550824516, 0.007409166982611794, 0.03706313386483627]</t>
+  </si>
+  <si>
+    <t>[0.2597303146329282, 0.6046156503771114, 0.48686112559706773]</t>
+  </si>
+  <si>
+    <t>[0.03870952952552438, 0.06761317899628806, 0.0728717929580206, 0.003166419339384881, 0.01992359070638208]</t>
+  </si>
+  <si>
+    <t>[0.013134579728924846, 0.031401211871350525, 0.022839432040218422, 0.0041128068437600845, 0.019619369376394143]</t>
+  </si>
+  <si>
+    <t>[0.037057278025481685, 0.08733760490090851, 0.06496594456661756, 0.030867069221384158, 0.04834478343040312]</t>
+  </si>
+  <si>
+    <t>[0.5963694406152505, 0.45694449928744, 0.9070159312050199, 0.9389414808995037, 0.6954592238297385]</t>
+  </si>
+  <si>
+    <t>[0.028975145173635333, 0.0801877262603706, 0.07474127356783984, 0.05422148642042215]</t>
+  </si>
+  <si>
+    <t>[0.04549404220740028, 0.08373610272326075, 0.043465586829696506, 0.15716324036966622]</t>
+  </si>
+  <si>
+    <t>[0.9531104420766019, 0.8998650765345902, 0.7327960106830443]</t>
   </si>
   <si>
     <t>[0.08333290050830297, 0.018031173850583764]</t>
@@ -757,13 +757,13 @@
     <t>[0.04839937616536182, 0.0182896405320522]</t>
   </si>
   <si>
-    <t>[0.053914303275173964, 0.0]</t>
+    <t>[0.053914303275173964, 0.04855034735724671, 0.02794558469899196, 0.038970041750092936, 0.010902305429209249, 0.027891048143700206, 0.0, 0.0, 0.021141682782170584, 0.017178938568001956, 0.023732194980703305, 0.023363064606424323, 0.034270519036048226, 0.034246109174483]</t>
   </si>
   <si>
     <t>[0.04005406980705663, 0.020702321932322344]</t>
   </si>
   <si>
-    <t>[0.05049854072933452, 0.01646487614307603]</t>
+    <t>[0.05917998887940822, 0.05049854072933452, 0.05518193687314389, 0.03280425803852644, 0.040501858817605596, 0.008818509895720644, 0.03989156723590124, 0.011986817407951688, 0.01646487614307603, 0.03567009738489134, 0.0438948567084698, 0.04739265015056426, 0.0369343821104595, 0.04475712977116501]</t>
   </si>
   <si>
     <t>[0.04736408521968144, 0.02361109950560812]</t>
@@ -931,13 +931,13 @@
     <t>[0.1328832564049509, 0.07869310550024353, 0.06975198718844684, 0.27969397884160846, 0.23496393252826483, 0.10087838253895658, 0.10198635918653398, 0.07031794688999075, 0.10143130852359153, 0.07854581938794572]</t>
   </si>
   <si>
-    <t>[0.029047099446346054, 0.05074147997095305, 0.07907433433547242, 0.057775862806507684, 0.2686137792339586, 0.04164224416936156, 0.06534611973243785, 0.046496897952036154, 0.05359412518037921, 0.06080368600460903]</t>
+    <t>[0.029047099446346054, 0.14711491579802158, 0.18284724846141148, 0.1308919826389361, 0.1487778293313009, 0.15063835029456224, 0.21962699990719076, 0.05074147997095305, 0.13991347514385263, 0.18292850216604903, 0.09960802386158267, 0.1689123040293691, 0.13136153112004811, 0.2231981682997772, 0.07907433433547242, 0.17490944176358547, 0.16259258353851228, 0.15804123342155152, 0.1581710761188173, 0.15301263270611243, 0.14610565708049778, 0.057775862806507684, 0.19435369009714853, 0.2271381520341652, 0.2357633498069006, 0.16106598330784724, 0.20171088077961197, 0.194034313586742, 0.2686137792339586, 0.45914225915666357, 0.4267581338640554, 0.5069806774347372, 0.6441314557128789, 0.4525334781001218, 0.4676244202856234, 0.04164224416936156, 0.10118156184030397, 0.1432219137770242, 0.1491349274039351, 0.10818853326856573, 0.15724086914458382, 0.14360609218002598, 0.06534611973243785, 0.05390661364003467, 0.16847691979469945, 0.10699290063706082, 0.14207559961843927, 0.12710151707152825, 0.15387174450806737, 0.046496897952036154, 0.01695825157540589, 0.12154011821000064, 0.07881146912988468, 0.08903162633052923, 0.10331560288670186, 0.04937170735707103, 0.05359412518037921, 0.2326369813310127, 0.2437025392147386, 0.3360541279647321, 0.14336244977261478, 0.3118680335866126, 0.13475014050771428, 0.06080368600460903, 0.048403281965403694, 0.11360359715048142, 0.09899602049806329, 0.11193163358573972, 0.1229170353085427, 0.09071906444126135]</t>
   </si>
   <si>
     <t>[0.06633540590530307, 0.043346980592844114, 0.05978775165939444, 0.053530687948865736, 0.0480022978975795, 0.03845868006897095, 0.026933488941912626, 0.011880577001522263, 0.03849849526708132, 0.04007717889314636]</t>
   </si>
   <si>
-    <t>[0.2593742116939677, 0.31613551935444584, 0.4082721689143266, 0.37052397657937, 0.334260601180076, 0.2860527006868471, 0.3265430993879011, 0.25114160582373446, 0.32050337081423824, 0.27492818769050964]</t>
+    <t>[0.13875076330271963, 0.2593742116939677, 0.1674648866626859, 0.21629863694880813, 0.17297067368493302, 0.1592423709294749, 0.17431198486589192, 0.21026952898818954, 0.31613551935444584, 0.1622987356394657, 0.18282125682240777, 0.14836380748055394, 0.2252978044073193, 0.1402801452884686, 0.22438338977899747, 0.4082721689143266, 0.17590050112656416, 0.16092682463359942, 0.1814792738204955, 0.19727636946928864, 0.1724326374988899, 0.7117339470791605, 0.37052397657937, 0.2718281423184836, 0.30018008805585067, 0.24395928085415983, 0.2204516280847757, 0.18107241051725007, 0.4198381012648607, 0.334260601180076, 0.5322367527718375, 0.4928400230886597, 0.5682296089156543, 0.6496325334919444, 0.5453626656448968, 0.3486375166685068, 0.2860527006868471, 0.31092763064729834, 0.3262545914429279, 0.2937696514054007, 0.32518483138743515, 0.2594864183486865, 0.34058392762965706, 0.3265430993879011, 0.27549299363390906, 0.3137414770512578, 0.3038926470569889, 0.3004232527520063, 0.19749257721777322, 0.25374647789523247, 0.25114160582373446, 0.19778796031028903, 0.21997464303025385, 0.2103498762058198, 0.21840678936594696, 0.17508711963178025, 0.32105824038321984, 0.32050337081423824, 0.23125326363990917, 0.27059629207823493, 0.26680488258326457, 0.2324696914859263, 0.1914284877411637, 0.3077742268306931, 0.27492818769050964, 0.20466047963329703, 0.2615044536516829, 0.2693045931277441, 0.24835571870816198, 0.19427877756799133]</t>
   </si>
   <si>
     <t>[0.021030847950724574, 0.00319961060148657, 0.08599137316626641, 0.03382347105987912, 0.013007717170700338, 0.007567892393921804, 0.020496318494939495, 0.013604795544567642, 0.007379848631550578, 0.018147205370268392]</t>
@@ -1072,181 +1072,181 @@
     <t>[0.21793882998208627, 0.21093247511531196, 0.13424071201101753, 0.2575358319066947, 0.7438821080068518, 0.18871896236867958, 0.2023865408643813, 0.18966883403915158, 0.2608160389531951, 0.1283127227148296]</t>
   </si>
   <si>
-    <t>[0.054230557335761945, 0.05560751289004809, 0.06958620033104093, 0.2280644357020852, 0.06145167368190316, 0.0491335817013068, 0.06888323703943898, 0.028138445162343678, 0.028133529656889634]</t>
-  </si>
-  <si>
-    <t>[0.9632211179967225, 0.982636240367267, 0.9281604835622612, 0.9754439430346363, 0.9232126214173334, 1.0, 0.9775631392700848, 0.9927257569948055, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.01417806374282006, 0.02369078172735995, 0.046970415744040594, 0.05295252276640074, 0.032298229418154877, 0.004955450849043175, 0.03834328819577514, 0.012762388708287628, 0.05293953440214111]</t>
-  </si>
-  <si>
-    <t>[0.011679118154987995, 0.011724808064281849, 0.03950297509740228, 0.05607398548879894, 0.05179553954694899, 0.043981703033530946, 0.05948260773040711, 0.1556653912970049, 0.06543317875147812]</t>
-  </si>
-  <si>
-    <t>[0.012625805551308853, 0.008693653284559465, 0.029419072085995077, 0.02809889314931619, 0.04617817303140971, 0.03464101388775937, 0.05021696792189461, 0.02597510592067828, 0.07269800437788347]</t>
-  </si>
-  <si>
-    <t>[0.05427045973889251, 0.05990084803625677, 0.07418162042864114, 0.30929925209402215, 0.5419590498403482, 0.7919766614152743, 0.5717362377670674, 0.5512851534096798, 0.533074560977237]</t>
-  </si>
-  <si>
-    <t>[0.019051760801720476, 0.006206055743265237, 0.046406174479825237, 0.04916884889017776, 0.0962546728728666, 0.036046391904745095, 0.09239416634217433, 0.0408809780324363, 0.07644191671155329]</t>
-  </si>
-  <si>
-    <t>[0.032754141868309675, 0.022790585498510853, 0.050161862421672296, 0.03749095944057621, 0.08750801336893785, 0.056798584563377046, 0.09049796657849034, 0.03708117881468726, 0.0546746456024964]</t>
-  </si>
-  <si>
-    <t>[0.011529183029417472, 0.0005143055256529837, 0.010123190530822909, 0.0, 0.054657792854979084, 0.03196704515391444, 0.08199107413560631, 0.03741773069770437, 0.04492583827106919]</t>
-  </si>
-  <si>
-    <t>[0.008700864945042602, 0.016338286124249, 0.011881373279155692, 0.03617137140219533, 0.03769673685201556, 0.0, 0.031650897063651776, 0.0200304492440595, 0.020669067661406883]</t>
-  </si>
-  <si>
-    <t>[0.07588973546635948, 0.11854022482129405, 0.10622491711922408, 0.1477189629931023, 0.3783600749959957, 0.4265989886384715, 0.3868324918482796, 0.34547044569909535, 0.2765338138781139]</t>
-  </si>
-  <si>
-    <t>[0.09495691332875279, 0.15928130259435702, 0.23117211554333178, 0.4487805355809918, 0.08578670282685334, 0.04581056467226249, 0.047209294641367146, 0.03413341322611149, 0.029158926654967516]</t>
-  </si>
-  <si>
-    <t>[0.23204591863845814, 0.3112120058919515, 0.23115524108841082, 0.9648337422981631, 0.9578736698436565, 0.9780800702336925, 0.9201617340178277, 0.9498315076376914, 0.6781438645455853]</t>
-  </si>
-  <si>
-    <t>[0.023132541680332217, 0.019309323337397037, 0.01812237014387304, 0.038396861552047995, 0.032433424772631024, 0.0304788233431695, 0.022731869579179942, 0.030054574357406133, 0.021620300558480722]</t>
-  </si>
-  <si>
-    <t>[0.04122897043860223, 0.1611048874303394, 0.039770430807428044, 0.41233560093083715, 0.1095243352750128, 0.057312655618503565, 0.1130688884602724, 0.11053922173330724, 0.12026675810209575]</t>
-  </si>
-  <si>
-    <t>[0.0066947272659690195, 0.0, 0.03523956395674669, 0.029743441976757514, 0.038826970128300005, 0.012776835740132412, 0.034014670209543435, 0.0006266380401102332, 0.03850023152407833]</t>
-  </si>
-  <si>
-    <t>[0.010776556547153083, 0.0027247553774503498, 0.014043796807139372, 0.0226256179190664, 0.033163247545114447, 0.018030596384100997, 0.02812179757181481, 0.011956168157035612, 0.024535052125296036]</t>
-  </si>
-  <si>
-    <t>[0.007241565955138377, 0.008046910820675308, 0.016438802244081625, 0.005662063020055226, 0.035511574435059506, 0.021214522904659614, 0.03529337835032203, 0.01472314541714374, 0.020757263833479388]</t>
-  </si>
-  <si>
-    <t>[0.07418710311690836, 0.06332773162387867, 0.08473756347911349, 0.09017914961567088, 0.2981894866187706, 0.30581193016121344, 0.29131066114015536, 0.24200373066271463, 0.25390508863489897]</t>
-  </si>
-  <si>
-    <t>[0.0025325190331895483, 0.015282742879529526, 0.005961001296238188, 0.015176368286259968, 0.029634070169911663, 0.021474914928100296, 0.047248941564333166, 0.01652067384477175, 0.0206114182825061]</t>
-  </si>
-  <si>
-    <t>[0.2276105221849679, 0.3984355808545121, 0.26094774780329216, 0.6471022895545232, 0.3143523239265029, 0.4092481952294348, 0.35413433951352996, 0.3322216871796608, 0.15925419387128223]</t>
-  </si>
-  <si>
-    <t>[0.6542487659309482, 0.8126817905006878, 0.562490972159889, 0.8780670844450449, 0.8431496268921481, 0.9278446146837387, 0.877611857535224, 0.8328712338452368, 0.7554307337282146]</t>
-  </si>
-  <si>
-    <t>[0.013062714312606635, 0.03183039029643805, 0.02485587490444078, 0.08850469703793029, 0.025424345397055608, 0.01456229588431835, 0.03388411789252597, 0.01390462277205157, 0.040148498344907774]</t>
-  </si>
-  <si>
-    <t>[0.01351314936366339, 0.051418992281517875, 0.01579457670883097, 0.09075032861655803, 0.023447922965270148, 0.01942163050742971, 0.02204397761409043, 0.011797736505664307, 0.03363397412969027]</t>
-  </si>
-  <si>
-    <t>[0.05529132711489016, 0.08330392818908361, 0.055798865167290566, 0.3411240989129518, 0.03296436078979878, 0.08369587128709048, 0.021199360093230337, 0.0773257438704841, 0.58407514142704]</t>
-  </si>
-  <si>
-    <t>[0.009445432854389653, 0.02085646982483298, 0.004898123263194043, 0.03598922750472978, 0.022512865827356215, 0.007711978771205221, 0.013017396275948672, 0.0, 0.028497622828385125]</t>
-  </si>
-  <si>
-    <t>[0.09628883222714713, 0.10083560854086124, 0.11055703695704605, 0.34639255968744287, 0.20544595840556845, 0.21798591021784808, 0.17157760927098525, 0.1846474144102786, 0.18342976230405378]</t>
-  </si>
-  <si>
-    <t>[0.031144558852513944, 0.11326571968684544, 0.059541430114551104, 0.07141218224097874, 0.105083650822136, 0.10944281589430561, 0.09752184310531585, 0.10050710877711914, 0.11226180380234307]</t>
-  </si>
-  <si>
-    <t>[0.028033749834721684, 0.09747397615152309, 0.05118627193371957, 0.11303064184137433, 0.17616295150558725, 0.20244942579023237, 0.15050550820018554, 0.15863762418763808, 0.12982617395074214]</t>
-  </si>
-  <si>
-    <t>[0.02677138654682022, 0.029700235543595684, 0.012339475000103236, 0.017249579075290115, 0.032906891809269624, 0.028888361400855548, 0.04467726420184608, 0.012586764362985685, 0.01484952480212325]</t>
-  </si>
-  <si>
-    <t>[0.07849404339518688, 0.06512876809874199, 0.044609637113372506, 0.1273812129671808, 0.19881928775052363, 0.23012967244936533, 0.2120168826211991, 0.20649395523648376, 0.14950897981165803]</t>
-  </si>
-  <si>
-    <t>[0.045774092605829576, 0.0896965104026884, 0.036507658684272554, 0.2788568319578721, 0.08899579412002111, 0.0944395296576941, 0.10198471308390321, 0.1033519817171048, 0.0962654110732708]</t>
-  </si>
-  <si>
-    <t>[0.012824303515275005, 0.026309071755960287, 0.014352585106945396, 0.06270650790248428, 0.0, 0.016438756969176016, 0.007356008665436184, 0.005593641088044989, 0.013982628592558322]</t>
+    <t>[0.054230557335761945, 0.05560751289004809, 0.06958620033104093, 0.22805904262740678, 0.06149308885107545, 0.0491335817013068, 0.06888323703943898, 0.028138445162343678, 0.028133529656889634]</t>
+  </si>
+  <si>
+    <t>[0.9632211179967225, 0.982636240367267, 0.9281604835622612, 0.9776051976369452, 0.9239625485574972, 1.0, 0.9775631392700848, 0.9927257569948055, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.01417806374282006, 0.02369078172735995, 0.046970415744040594, 0.05254430280262188, 0.032225468259002514, 0.004955450849043175, 0.03834328819577514, 0.012762388708287628, 0.05293953440214111]</t>
+  </si>
+  <si>
+    <t>[0.011679118154987995, 0.011724808064281849, 0.03950297509740228, 0.05730137213632467, 0.051769869331365556, 0.043981703033530946, 0.05948260773040711, 0.1556653912970049, 0.06543317875147812]</t>
+  </si>
+  <si>
+    <t>[0.012625805551308853, 0.008693653284559465, 0.029419072085995077, 0.02870370256209951, 0.0461955613911002, 0.03464101388775937, 0.05021696792189461, 0.02597510592067828, 0.07269800437788347]</t>
+  </si>
+  <si>
+    <t>[0.05427045973889251, 0.05990084803625677, 0.07418162042864114, 0.3064510355462137, 0.5416660897849476, 0.7919766614152743, 0.5717362377670674, 0.5512851534096798, 0.533074560977237]</t>
+  </si>
+  <si>
+    <t>[0.019051760801720476, 0.006206055743265237, 0.046406174479825237, 0.05003675598620519, 0.09620820414296352, 0.036046391904745095, 0.09239416634217433, 0.0408809780324363, 0.07644191671155329]</t>
+  </si>
+  <si>
+    <t>[0.032754141868309675, 0.022790585498510853, 0.050161862421672296, 0.037781850751455064, 0.08738144432811062, 0.056798584563377046, 0.09049796657849034, 0.03708117881468726, 0.0546746456024964]</t>
+  </si>
+  <si>
+    <t>[0.011529183029417472, 0.0005143055256529837, 0.010123190530822909, 0.0, 0.05461053137526784, 0.03196704515391444, 0.08199107413560631, 0.03741773069770437, 0.04492583827106919]</t>
+  </si>
+  <si>
+    <t>[0.008700864945042602, 0.016338286124249, 0.011881373279155692, 0.03593022090969721, 0.037492083137548454, 0.0, 0.031650897063651776, 0.0200304492440595, 0.020669067661406883]</t>
+  </si>
+  <si>
+    <t>[0.07588973546635948, 0.11854022482129405, 0.10622491711922408, 0.148207690497408, 0.37711670887019483, 0.4265989886384715, 0.3868324918482796, 0.34547044569909535, 0.2765338138781139]</t>
+  </si>
+  <si>
+    <t>[0.09495691332875279, 0.15928130259435702, 0.23117211554333178, 0.4430095577673355, 0.08564487349245331, 0.04581056467226249, 0.047209294641367146, 0.03413341322611149, 0.029158926654967516]</t>
+  </si>
+  <si>
+    <t>[0.23204591863845814, 0.20740837741599702, 0.3447207188143812, 0.26912945200231264, 0.2087584633949777, 0.24636708050940645, 0.22492561500239255, 0.3112120058919515, 0.21499390382080594, 0.47722447203088336, 0.2977130218548922, 0.304908478858596, 0.35094608587135245, 0.37871860572211274, 0.23115524108841082, 0.14999752870710065, 0.3707960062711559, 0.1741955209664817, 0.2050427052882168, 0.169260276199465, 0.19750574023770961, 0.9658594962500238, 0.4130846883444552, 0.6662968640673917, 0.6101092971533836, 0.6179588326473537, 0.5759283421032666, 0.6751461500690893, 0.9581443621101523, 0.9234279895285862, 0.9497817326751445, 0.9175511453194054, 0.9516679580913623, 0.9229432690989088, 0.936947996544139, 0.9780800702336925, 1.0, 0.9987289431256855, 1.0, 1.0, 1.0, 1.0, 0.9201617340178277, 0.9676833745144313, 0.977346051900127, 0.9760084343650952, 0.9931781497337852, 0.9872380488620153, 0.99668690183391, 0.9498315076376914, 0.9676017439485575, 0.9685080504028198, 0.9652798689105495, 0.975600512622019, 0.9680245810043011, 0.9576134301880571, 0.6781438645455853, 0.9934407788416593, 0.9731737356944725, 0.9974059677760754, 0.9961313003944582, 0.9918151875325695, 0.990181907866688]</t>
+  </si>
+  <si>
+    <t>[0.023132541680332217, 0.019309323337397037, 0.01812237014387304, 0.03839464597669098, 0.032332940499141385, 0.0304788233431695, 0.022731869579179942, 0.030054574357406133, 0.021620300558480722]</t>
+  </si>
+  <si>
+    <t>[0.12449349113423895, 0.04122897043860223, 0.11899802411399456, 0.14517355625718642, 0.12753802073838, 0.1528188108755855, 0.13164449672600906, 0.1658612503816944, 0.1611048874303394, 0.1256077892859204, 0.15019594505191014, 0.14611364263108823, 0.16429266151292657, 0.17279221159151725, 0.1085997242889508, 0.039770430807428044, 0.1223037070576392, 0.11656010752628984, 0.10984334734558594, 0.10610713475237993, 0.12312157623995386, 0.21458885829367333, 0.41231654959401576, 0.11617228752425589, 0.21572809493319245, 0.12357764289946316, 0.2072553932557751, 0.13634487783116708, 0.338422364578161, 0.10972360897690192, 0.3753757896339142, 0.29023542417838916, 0.3412129191456675, 0.3191264480583099, 0.3589876435959924, 0.3067707338886525, 0.057312655618503565, 0.42864685518448636, 0.2911826846834941, 0.4088139966880124, 0.342530569567235, 0.43145067289060723, 0.4440644230122052, 0.1130688884602724, 0.46400850242247027, 0.34675938116598, 0.42997840934551423, 0.3822673764016968, 0.4457655237211395, 0.37013234648606236, 0.11053922173330724, 0.4324820999249884, 0.33954924051666246, 0.43143104523503223, 0.3975437736253021, 0.48215076201200563, 0.4087166265856933, 0.12026675810209575, 0.48690103726074935, 0.360384598246619, 0.48040190866617766, 0.37539598260326035, 0.5155309789641154]</t>
+  </si>
+  <si>
+    <t>[0.0066947272659690195, 0.0, 0.03523956395674669, 0.02964105602511435, 0.03873666653406603, 0.012776835740132412, 0.034014670209543435, 0.0006266380401102332, 0.03850023152407833]</t>
+  </si>
+  <si>
+    <t>[0.010776556547153083, 0.0027247553774503498, 0.014043796807139372, 0.02248202011540004, 0.03308495285410659, 0.018030596384100997, 0.02812179757181481, 0.011956168157035612, 0.024535052125296036]</t>
+  </si>
+  <si>
+    <t>[0.007241565955138377, 0.008046910820675308, 0.016438802244081625, 0.005932733425706652, 0.03526931428480273, 0.021214522904659614, 0.03529337835032203, 0.01472314541714374, 0.020757263833479388]</t>
+  </si>
+  <si>
+    <t>[0.07418710311690836, 0.06332773162387867, 0.08473756347911349, 0.09076734977860185, 0.2977022467805685, 0.30581193016121344, 0.29131066114015536, 0.24200373066271463, 0.25390508863489897]</t>
+  </si>
+  <si>
+    <t>[0.0025325190331895483, 0.015282742879529526, 0.005961001296238188, 0.015459158081202276, 0.02950730411425019, 0.021474914928100296, 0.047248941564333166, 0.01652067384477175, 0.0206114182825061]</t>
+  </si>
+  <si>
+    <t>[0.2276105221849679, 0.3984355808545121, 0.26094774780329216, 0.6483684010744417, 0.31447299388300687, 0.4092481952294348, 0.35413433951352996, 0.3322216871796608, 0.15925419387128223]</t>
+  </si>
+  <si>
+    <t>[0.6542487659309482, 0.8126817905006878, 0.562490972159889, 0.8809027477713961, 0.8431862747998659, 0.9278446146837387, 0.877611857535224, 0.8328712338452368, 0.7554307337282146]</t>
+  </si>
+  <si>
+    <t>[0.013062714312606635, 0.03183039029643805, 0.02485587490444078, 0.08794767164683565, 0.025498043628196815, 0.01456229588431835, 0.03388411789252597, 0.01390462277205157, 0.040148498344907774]</t>
+  </si>
+  <si>
+    <t>[0.01351314936366339, 0.051418992281517875, 0.01579457670883097, 0.09015559524407091, 0.023417529836480593, 0.01942163050742971, 0.02204397761409043, 0.011797736505664307, 0.03363397412969027]</t>
+  </si>
+  <si>
+    <t>[0.05529132711489016, 0.08330392818908361, 0.055798865167290566, 0.33941983427069944, 0.03287685945621119, 0.08369587128709048, 0.021199360093230337, 0.0773257438704841, 0.58407514142704]</t>
+  </si>
+  <si>
+    <t>[0.009445432854389653, 0.02085646982483298, 0.004898123263194043, 0.036424392217748625, 0.022430434701799493, 0.007711978771205221, 0.013017396275948672, 0.0, 0.028497622828385125]</t>
+  </si>
+  <si>
+    <t>[0.09628883222714713, 0.10083560854086124, 0.11055703695704605, 0.3466511074395443, 0.20539632661263435, 0.21798591021784808, 0.17157760927098525, 0.1846474144102786, 0.18342976230405378]</t>
+  </si>
+  <si>
+    <t>[0.031144558852513944, 0.11326571968684544, 0.059541430114551104, 0.07129054334308273, 0.1049729094563487, 0.10944281589430561, 0.09752184310531585, 0.10050710877711914, 0.11226180380234307]</t>
+  </si>
+  <si>
+    <t>[0.028033749834721684, 0.09747397615152309, 0.05118627193371957, 0.1128812739271915, 0.17569179804956525, 0.20244942579023237, 0.15050550820018554, 0.15863762418763808, 0.12982617395074214]</t>
+  </si>
+  <si>
+    <t>[0.02677138654682022, 0.029700235543595684, 0.012339475000103236, 0.017794626755237637, 0.03270443434312971, 0.028888361400855548, 0.04467726420184608, 0.012586764362985685, 0.01484952480212325]</t>
+  </si>
+  <si>
+    <t>[0.07849404339518688, 0.06512876809874199, 0.044609637113372506, 0.12858302386231482, 0.1986716121616288, 0.23012967244936533, 0.2120168826211991, 0.20649395523648376, 0.14950897981165803]</t>
+  </si>
+  <si>
+    <t>[0.045774092605829576, 0.0896965104026884, 0.036507658684272554, 0.2794810841156154, 0.08945755160484535, 0.0944395296576941, 0.10198471308390321, 0.1033519817171048, 0.0962654110732708]</t>
+  </si>
+  <si>
+    <t>[0.012824303515275005, 0.026309071755960287, 0.014352585106945396, 0.06128367884703044, 0.0, 0.016438756969176016, 0.007356008665436184, 0.005593641088044989, 0.013982628592558322]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[0.13544173132256296, 0.16515140587658714, 0.10101332591094327, 0.16495422426989237, 0.20404077091828843, 0.22115411090865095, 0.147797511180869, 0.15291442105734956, 0.1191508078642969]</t>
-  </si>
-  <si>
-    <t>[0.022190099027623082, 0.03416243633284459, 0.0, 0.024339668418510825, 0.005160957017289312, 0.014473905431240507, 0.0, 0.0017223374860603595, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.03381616446951273, 0.004177580609533967, 0.05208697360124757, 0.06681412722951004, 0.07834923505292983, 0.039676305520833156, 0.050161192535440775, 0.06476665764763649]</t>
-  </si>
-  <si>
-    <t>[0.008334060516154387, 0.027075586671757787, 0.008675844796321037, 0.10165138868227162, 0.49462167826002135, 0.4592005797283739, 0.5843372614070671, 0.7143315243994416, 0.8462207180303936]</t>
-  </si>
-  <si>
-    <t>[0.004070127191474783, 0.023013264359483174, 0.012447809615591936, 0.03824404250075307, 0.018835791174910417, 0.03883163517714862, 0.024179482095851856, 0.030510568902792735, 0.004817265997578925]</t>
-  </si>
-  <si>
-    <t>[0.01046385568449531, 0.03514301116947791, 0.01581897710816714, 0.02818779906358645, 0.04141578419139154, 0.07290124888271483, 0.05301632569502722, 0.0657979135139077, 0.04091666415481671]</t>
-  </si>
-  <si>
-    <t>[0.048795381654906995, 0.028876167699467527, 0.008426216947529814, 0.039607485808378605, 0.03981033881984312, 0.05637528538201709, 0.05502011005622771, 0.061446493011623506, 0.03111623392939761]</t>
-  </si>
-  <si>
-    <t>[0.045502331065861094, 0.05410013142651841, 0.04232022336189178, 0.36521897859251257, 0.07998404219566363, 0.08383238729073118, 0.07560264835471417, 0.09014992579484506, 0.0716084341820699]</t>
-  </si>
-  <si>
-    <t>[0.038128824145361735, 0.05213817060567199, 0.035724989058276715, 0.08555465927515092, 0.03748046778086354, 0.05347522046026983, 0.043853192415580194, 0.055491619076514544, 0.031700265334724614]</t>
-  </si>
-  <si>
-    <t>[0.01529820484185515, 0.03236012056883268, 0.007985306427121495, 0.04405506436837056, 0.0031449023646842873, 0.024983599319304713, 0.003081423744064697, 0.01600261347100577, 0.011458299886297162]</t>
-  </si>
-  <si>
-    <t>[0.08906997335817683, 0.131952831391729, 0.0830130693419419, 0.19267604508316136, 0.27515977635317246, 0.20510016069460463, 0.22047961791767434, 0.18007794301617916]</t>
-  </si>
-  <si>
-    <t>[0.02287503857118517, 0.06342270983569095, 0.00772356271699855, 0.0395950417346306, 0.07797967560046443, 0.11862281512541892, 0.051225082143498905, 0.08343005828521823, 0.055467222694585365]</t>
-  </si>
-  <si>
-    <t>[0.9849726865807983, 0.99175759445942, 0.9569925881506947, 0.9963157736669999, 0.9668785063446897, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.6422094493992571, 0.5163843248744121, 0.7024126440478755, 0.48615542568061754, 0.8894084892215974, 0.835124754923404, 0.987052009919754, 0.9718093232177438, 0.8378500878861741]</t>
-  </si>
-  <si>
-    <t>[0.011963363117424958, 0.025568002027568072, 0.023707222425506738, 0.38483057891922007, 0.16774784681543875, 0.34251455162345334, 0.1344239100361407, 0.3222182780579662, 0.1440113602977182]</t>
-  </si>
-  <si>
-    <t>[0.03906568361691962, 0.09390363599033703, 0.03603229850659217, 0.04600263969903473, 0.03130631865614662, 0.05687729264660765, 0.06688241541693062, 0.10583823901509531, 0.02428600256813857]</t>
-  </si>
-  <si>
-    <t>[0.07605324462151745, 0.07760392313017671, 0.02510773042228482, 0.10736671081527932, 0.03805617982594898, 0.057996376423097025, 0.057909245528735304, 0.0596796403974455, 0.009194898182744294]</t>
-  </si>
-  <si>
-    <t>[0.05249993854493652, 0.06416451890197197, 0.015448743083972191, 0.07090631127192842, 0.047627258678065616, 0.06949439697698877, 0.062089038749218416, 0.04594005152691828, 0.03421305053913885]</t>
-  </si>
-  <si>
-    <t>[0.028054430207514903, 0.03348952533916271, 0.013975092233191686, 0.05067210708163883, 0.06615626941862997, 0.10835436707912778, 0.07141358396110085, 0.12007046715463071, 0.06908190363680772]</t>
-  </si>
-  <si>
-    <t>[0.25871755970403554, 0.40595184535195283, 0.2193700719039986, 0.568542552426064, 0.10373818045495206, 0.14060004873061424, 0.07447810197596856, 0.10267406806197503, 0.052802634484447705]</t>
-  </si>
-  <si>
-    <t>[0.0442238939377597, 0.04960680136129801, 0.017904120131358205, 0.05952061003798117, 0.04006826242008089, 0.07359859063575226, 0.02322613994136543, 0.0449270990773354, 0.042005890604339284]</t>
-  </si>
-  <si>
-    <t>[0.03507656351870094, 0.060341820341820326, 0.01953846036062268, 0.23552174339936868, 0.8907697625787376, 0.9231850202285469, 0.9400597792377555, 0.8850339682788353, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.05627288705453999, 0.0875660126383787, 0.03545187983945328, 0.06796426142042375, 0.07714005493518256, 0.11822866567296758, 0.08052131876271566, 0.10330522557189663, 0.07803238631890316]</t>
-  </si>
-  <si>
-    <t>[0.04597135995841421, 0.058329843467135344, 0.032228984712569596, 0.03921988723877984, 0.060947741942866576, 0.08653645352354507, 0.053354252443652085, 0.07392941269584223, 0.03591404656038201]</t>
-  </si>
-  <si>
-    <t>[0.9497819605714009, 0.96654698707182, 0.959575746809911, 0.9302129505364151, 0.9519991172647488, 1.0, 1.0, 0.994921356153121, 1.0]</t>
+    <t>[0.13544173132256296, 0.16515140587658714, 0.10101332591094327, 0.16598118006356377, 0.20389973479123708, 0.22115411090865095, 0.147797511180869, 0.15291442105734956, 0.1191508078642969]</t>
+  </si>
+  <si>
+    <t>[0.022190099027623082, 0.03416243633284459, 0.0, 0.024848109495655007, 0.005104319391865405, 0.014473905431240507, 0.0, 0.0017223374860603595, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.03381616446951273, 0.004177580609533967, 0.05212180783716388, 0.06685723249928288, 0.07834923505292983, 0.039676305520833156, 0.050161192535440775, 0.06476665764763649]</t>
+  </si>
+  <si>
+    <t>[0.008334060516154387, 0.027075586671757787, 0.008675844796321037, 0.10099791189582259, 0.49175279676365713, 0.4592005797283739, 0.5843372614070671, 0.7143315243994416, 0.8462207180303936]</t>
+  </si>
+  <si>
+    <t>[0.004070127191474783, 0.023013264359483174, 0.012447809615591936, 0.03736004969144109, 0.01867300826863086, 0.03883163517714862, 0.024179482095851856, 0.030510568902792735, 0.004817265997578925]</t>
+  </si>
+  <si>
+    <t>[0.01046385568449531, 0.03514301116947791, 0.01581897710816714, 0.02784564363844963, 0.04127150002274505, 0.07290124888271483, 0.05301632569502722, 0.0657979135139077, 0.04091666415481671]</t>
+  </si>
+  <si>
+    <t>[0.048795381654906995, 0.028876167699467527, 0.008426216947529814, 0.04004464614945119, 0.039681081898194054, 0.05637528538201709, 0.05502011005622771, 0.061446493011623506, 0.03111623392939761]</t>
+  </si>
+  <si>
+    <t>[0.045502331065861094, 0.05410013142651841, 0.04232022336189178, 0.3669338081052302, 0.07996377045084281, 0.08383238729073118, 0.07560264835471417, 0.09014992579484506, 0.0716084341820699]</t>
+  </si>
+  <si>
+    <t>[0.038128824145361735, 0.05213817060567199, 0.035724989058276715, 0.08610622844491217, 0.03733969806144808, 0.05347522046026983, 0.043853192415580194, 0.055491619076514544, 0.031700265334724614]</t>
+  </si>
+  <si>
+    <t>[0.01529820484185515, 0.03236012056883268, 0.007985306427121495, 0.04353527621115404, 0.0030355927784808103, 0.024983599319304713, 0.003081423744064697, 0.01600261347100577, 0.011458299886297162]</t>
+  </si>
+  <si>
+    <t>[0.08906997335817683, 0.131952831391729, 0.0830130693419419, 0.19256357517468425, 0.27515977635317246, 0.20510016069460463, 0.22047961791767434, 0.18007794301617916]</t>
+  </si>
+  <si>
+    <t>[0.02287503857118517, 0.06342270983569095, 0.00772356271699855, 0.03989509930055738, 0.07758471499782323, 0.11862281512541892, 0.051225082143498905, 0.08343005828521823, 0.055467222694585365]</t>
+  </si>
+  <si>
+    <t>[0.9849726865807983, 0.99175759445942, 0.9569925881506947, 0.9976847416244505, 0.9666512241070361, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.6422094493992571, 0.5163843248744121, 0.7024126440478755, 0.48332640534637217, 0.889106208584101, 0.835124754923404, 0.987052009919754, 0.9718093232177438, 0.8378500878861741]</t>
+  </si>
+  <si>
+    <t>[0.011963363117424958, 0.025568002027568072, 0.023707222425506738, 0.38285948797805053, 0.16745116452311104, 0.34251455162345334, 0.1344239100361407, 0.3222182780579662, 0.1440113602977182]</t>
+  </si>
+  <si>
+    <t>[0.03906568361691962, 0.09390363599033703, 0.03603229850659217, 0.045705403401461765, 0.031175583065205136, 0.05687729264660765, 0.06688241541693062, 0.10583823901509531, 0.02428600256813857]</t>
+  </si>
+  <si>
+    <t>[0.07605324462151745, 0.07760392313017671, 0.02510773042228482, 0.10741749210242528, 0.03794537828562033, 0.057996376423097025, 0.057909245528735304, 0.0596796403974455, 0.009194898182744294]</t>
+  </si>
+  <si>
+    <t>[0.05249993854493652, 0.06416451890197197, 0.015448743083972191, 0.07081278966649944, 0.0473768605013369, 0.06949439697698877, 0.062089038749218416, 0.04594005152691828, 0.03421305053913885]</t>
+  </si>
+  <si>
+    <t>[0.028054430207514903, 0.03348952533916271, 0.013975092233191686, 0.05138222741814533, 0.06635820671820736, 0.10835436707912778, 0.07141358396110085, 0.12007046715463071, 0.06908190363680772]</t>
+  </si>
+  <si>
+    <t>[0.25871755970403554, 0.40595184535195283, 0.2193700719039986, 0.566358693276795, 0.10394773639611803, 0.14060004873061424, 0.07447810197596856, 0.10267406806197503, 0.052802634484447705]</t>
+  </si>
+  <si>
+    <t>[0.0442238939377597, 0.04960680136129801, 0.017904120131358205, 0.0602216272384812, 0.04093221718545033, 0.07359859063575226, 0.02322613994136543, 0.0449270990773354, 0.042005890604339284]</t>
+  </si>
+  <si>
+    <t>[0.03507656351870094, 0.060341820341820326, 0.01953846036062268, 0.23599839374217194, 0.8913331809885167, 0.9231850202285469, 0.9400597792377555, 0.8850339682788353, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.05627288705453999, 0.0875660126383787, 0.03545187983945328, 0.06837942226506312, 0.07688767391628269, 0.11822866567296758, 0.08052131876271566, 0.10330522557189663, 0.07803238631890316]</t>
+  </si>
+  <si>
+    <t>[0.04597135995841421, 0.058329843467135344, 0.032228984712569596, 0.03950986461603639, 0.060854797750839476, 0.08653645352354507, 0.053354252443652085, 0.07392941269584223, 0.03591404656038201]</t>
+  </si>
+  <si>
+    <t>[0.9497819605714009, 0.96654698707182, 0.959575746809911, 0.930928087476445, 0.9512517277913857, 1.0, 1.0, 0.994921356153121, 1.0]</t>
   </si>
   <si>
     <t>[0.1257323064396975, 0.040349178135667796, 0.14715673397300338]</t>
@@ -1285,13 +1285,13 @@
     <t>[0.028765185952705694, 0.04156870577932104, 0.03517539489023205]</t>
   </si>
   <si>
-    <t>[0.061981026667209914, 0.024740832353804292, 0.07219367444088706]</t>
+    <t>[0.061981026667209914, 0.042313577597189074, 0.05741063856662167, 0.02814083101485003, 0.04713090824503734, 0.014837754144919876, 0.047349514411954126, 0.024740832353804292, 0.4547873925528735, 0.10812129085837269, 0.3417559386466645, 0.14066722965768444, 0.3337328590273692, 0.12049745630086785, 0.07219367444088706, 0.03813033659390183, 0.055460215699683395, 0.02162500219320904, 0.04733357777256838, 0.012609934143855046, 0.03892599132617053]</t>
   </si>
   <si>
     <t>[0.037460519748434215, 0.019988814138928394, 0.039603864308234975]</t>
   </si>
   <si>
-    <t>[0.5465219782012392, 0.5757008896162751, 0.5592096654271315]</t>
+    <t>[0.7128246514366668, 0.5465219782012392, 0.6626514262636047, 0.7145174539469147, 0.7046251368102412, 0.7133370037149109, 0.6656606752096778, 0.7271488595775796, 0.5757008896162751, 0.595957275934241, 0.7293526904671549, 0.6042233209446015, 0.690280663064484, 0.5775821134017377, 0.7212281269538152, 0.5592096654271315, 0.7401173289884071, 0.7653858952274009, 0.795007453295298, 0.773099932186073, 0.7329571385199779]</t>
   </si>
   <si>
     <t>[0.029574720398704072, 0.0, 0.04466325353146919]</t>
@@ -1878,16 +1878,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.09135777901518839</v>
+        <v>0.09126951677413285</v>
       </c>
       <c r="D3">
-        <v>0.367748871705482</v>
+        <v>0.3679276986010471</v>
       </c>
       <c r="E3">
-        <v>0.03219642083586188</v>
+        <v>0.03217762618743761</v>
       </c>
       <c r="F3">
-        <v>0.02036395744437377</v>
+        <v>0.02038662397463464</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -1907,16 +1907,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.03994768107416079</v>
+        <v>0.03987895235443328</v>
       </c>
       <c r="D4">
-        <v>0.3986539215089389</v>
+        <v>0.3989329797755986</v>
       </c>
       <c r="E4">
-        <v>0.01520028444656091</v>
+        <v>0.01518229146560497</v>
       </c>
       <c r="F4">
-        <v>0.008130781027117199</v>
+        <v>0.008147417166253421</v>
       </c>
       <c r="G4" t="s">
         <v>69</v>
@@ -1936,16 +1936,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.03383922329369923</v>
+        <v>0.03377430930889809</v>
       </c>
       <c r="D5">
-        <v>0.4135550057031959</v>
+        <v>0.4139851616579107</v>
       </c>
       <c r="E5">
-        <v>0.01401933923461308</v>
+        <v>0.01400286051443066</v>
       </c>
       <c r="F5">
-        <v>0.007232644995484178</v>
+        <v>0.007249642765815368</v>
       </c>
       <c r="G5" t="s">
         <v>70</v>
@@ -1965,16 +1965,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.03172817902857431</v>
+        <v>0.03167924703235495</v>
       </c>
       <c r="D6">
-        <v>0.4414418900859432</v>
+        <v>0.4417877987031918</v>
       </c>
       <c r="E6">
-        <v>0.01414134319821325</v>
+        <v>0.01412682410962008</v>
       </c>
       <c r="F6">
-        <v>0.006781048849613741</v>
+        <v>0.006795171129471106</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1994,16 +1994,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.07714705710166724</v>
+        <v>0.07709660633685096</v>
       </c>
       <c r="D7">
-        <v>0.4363161865825149</v>
+        <v>0.4371406448032535</v>
       </c>
       <c r="E7">
-        <v>0.03349193483882813</v>
+        <v>0.03349897169771684</v>
       </c>
       <c r="F7">
-        <v>0.01029019690934497</v>
+        <v>0.01032976326972237</v>
       </c>
       <c r="G7" t="s">
         <v>72</v>
@@ -2023,16 +2023,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.05446309279429606</v>
+        <v>0.05441278963033181</v>
       </c>
       <c r="D8">
-        <v>0.3502116187395845</v>
+        <v>0.3506280867097005</v>
       </c>
       <c r="E8">
-        <v>0.0185855132394955</v>
+        <v>0.01857731841648587</v>
       </c>
       <c r="F8">
-        <v>0.009357202748376446</v>
+        <v>0.009387169068720093</v>
       </c>
       <c r="G8" t="s">
         <v>73</v>
@@ -2052,16 +2052,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.1959379827995585</v>
+        <v>0.1958811114979303</v>
       </c>
       <c r="D9">
-        <v>0.2386264326143948</v>
+        <v>0.2387929844786101</v>
       </c>
       <c r="E9">
-        <v>0.04795990987032256</v>
+        <v>0.04796926265745313</v>
       </c>
       <c r="F9">
-        <v>0.04879187931236761</v>
+        <v>0.04880545171282411</v>
       </c>
       <c r="G9" t="s">
         <v>74</v>
@@ -2081,16 +2081,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.0482313661174685</v>
+        <v>0.04814662097840344</v>
       </c>
       <c r="D10">
-        <v>0.3420595371782236</v>
+        <v>0.342162682765394</v>
       </c>
       <c r="E10">
-        <v>0.01566910652263957</v>
+        <v>0.01564630353687362</v>
       </c>
       <c r="F10">
-        <v>0.01090878136660614</v>
+        <v>0.01092390733057094</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
@@ -2110,16 +2110,16 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.4669147116354406</v>
+        <v>0.4670877324688622</v>
       </c>
       <c r="D11">
-        <v>0.4156842562227697</v>
+        <v>0.4158718257665624</v>
       </c>
       <c r="E11">
-        <v>0.190400564890011</v>
+        <v>0.1905519909673631</v>
       </c>
       <c r="F11">
-        <v>0.04792761095732474</v>
+        <v>0.04790571203084391</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
@@ -2139,16 +2139,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.02379453429092819</v>
+        <v>0.02374879256374779</v>
       </c>
       <c r="D12">
-        <v>0.4149994051815991</v>
+        <v>0.4150867433542973</v>
       </c>
       <c r="E12">
-        <v>0.009889084734199549</v>
+        <v>0.009872160643201381</v>
       </c>
       <c r="F12">
-        <v>0.00276280974821268</v>
+        <v>0.002765949522765468</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -2168,16 +2168,16 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.01880171108805751</v>
+        <v>0.01876572491073504</v>
       </c>
       <c r="D13">
-        <v>0.4993308614838385</v>
+        <v>0.4991532709223662</v>
       </c>
       <c r="E13">
-        <v>0.00944264690438063</v>
+        <v>0.009421447253551346</v>
       </c>
       <c r="F13">
-        <v>0.002946164046950475</v>
+        <v>0.002948692229213853</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -2197,22 +2197,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.03000380031221392</v>
+        <v>0.02009921790033892</v>
       </c>
       <c r="D14">
-        <v>0.4157336725208896</v>
+        <v>0.5172710919975302</v>
       </c>
       <c r="E14">
-        <v>0.01241590992305643</v>
+        <v>0.0102487658307574</v>
       </c>
       <c r="F14">
-        <v>0.004874832862046294</v>
+        <v>0.002311307901120583</v>
       </c>
       <c r="G14" t="s">
         <v>79</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
         <v>469</v>
@@ -2226,16 +2226,16 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.03263515512418794</v>
+        <v>0.03258936553237574</v>
       </c>
       <c r="D15">
-        <v>0.4437752005547648</v>
+        <v>0.4439500535193173</v>
       </c>
       <c r="E15">
-        <v>0.01474625779256592</v>
+        <v>0.0147318277781359</v>
       </c>
       <c r="F15">
-        <v>0.004327205263082461</v>
+        <v>0.004340375306536417</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -2255,22 +2255,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.02649390128813308</v>
+        <v>0.03066808864204942</v>
       </c>
       <c r="D16">
-        <v>0.3666948359006563</v>
+        <v>0.4613590869161505</v>
       </c>
       <c r="E16">
-        <v>0.009650716813892554</v>
+        <v>0.01392937057772435</v>
       </c>
       <c r="F16">
-        <v>0.004389882313192191</v>
+        <v>0.002133685647493078</v>
       </c>
       <c r="G16" t="s">
         <v>81</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
         <v>469</v>
@@ -2284,16 +2284,16 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.03371907581225634</v>
+        <v>0.03367389848301838</v>
       </c>
       <c r="D17">
-        <v>0.3158107287967427</v>
+        <v>0.3157756698942542</v>
       </c>
       <c r="E17">
-        <v>0.01060422750688655</v>
+        <v>0.01058997564078283</v>
       </c>
       <c r="F17">
-        <v>0.005224307419679901</v>
+        <v>0.005236033606943968</v>
       </c>
       <c r="G17" t="s">
         <v>82</v>
@@ -2313,16 +2313,16 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0.03524370531740304</v>
+        <v>0.03523712444491977</v>
       </c>
       <c r="D18">
-        <v>0.4585777737168088</v>
+        <v>0.4579178362399901</v>
       </c>
       <c r="E18">
-        <v>0.01606151420934041</v>
+        <v>0.01604271956091613</v>
       </c>
       <c r="F18">
-        <v>0.004423530804504187</v>
+        <v>0.004426707685499377</v>
       </c>
       <c r="G18" t="s">
         <v>83</v>
@@ -2342,16 +2342,16 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0.02886519539399999</v>
+        <v>0.02882845156698496</v>
       </c>
       <c r="D19">
-        <v>0.4883961065455749</v>
+        <v>0.4888814559865753</v>
       </c>
       <c r="E19">
-        <v>0.01414159387737369</v>
+        <v>0.01413455701848497</v>
       </c>
       <c r="F19">
-        <v>0.004549632231381458</v>
+        <v>0.004560469991312131</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
@@ -2371,16 +2371,16 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0.161389016739622</v>
+        <v>0.161351274556155</v>
       </c>
       <c r="D20">
-        <v>0.3433247442581727</v>
+        <v>0.3432730831550095</v>
       </c>
       <c r="E20">
-        <v>0.05625379159083294</v>
+        <v>0.05623606583236643</v>
       </c>
       <c r="F20">
-        <v>0.01286154898501902</v>
+        <v>0.01287554301356868</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -2400,16 +2400,16 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.02446422130171265</v>
+        <v>0.0244505311566094</v>
       </c>
       <c r="D21">
-        <v>0.4859265794136201</v>
+        <v>0.4854248927006792</v>
       </c>
       <c r="E21">
-        <v>0.01190713142579282</v>
+        <v>0.01189181066973132</v>
       </c>
       <c r="F21">
-        <v>0.00346065525880601</v>
+        <v>0.003466593212338522</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -2429,16 +2429,16 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0.08861428775297044</v>
+        <v>0.08858769490008743</v>
       </c>
       <c r="D22">
-        <v>0.4377286593948113</v>
+        <v>0.4382639920569917</v>
       </c>
       <c r="E22">
-        <v>0.03857266292448162</v>
+        <v>0.03860855981223036</v>
       </c>
       <c r="F22">
-        <v>0.004901999018003996</v>
+        <v>0.004902584658005288</v>
       </c>
       <c r="G22" t="s">
         <v>87</v>
@@ -2458,16 +2458,16 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.1546573877824897</v>
+        <v>0.1546304255852204</v>
       </c>
       <c r="D23">
-        <v>0.4331620604794916</v>
+        <v>0.4337105512688026</v>
       </c>
       <c r="E23">
-        <v>0.06675713204738838</v>
+        <v>0.0668243830405653</v>
       </c>
       <c r="F23">
-        <v>0.01013346833239452</v>
+        <v>0.01013958523390095</v>
       </c>
       <c r="G23" t="s">
         <v>88</v>
@@ -2487,16 +2487,16 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.01726128324451331</v>
+        <v>0.01722464593808781</v>
       </c>
       <c r="D24">
-        <v>0.4707789496367884</v>
+        <v>0.4708324652410907</v>
       </c>
       <c r="E24">
-        <v>0.008198981827166449</v>
+        <v>0.008182770329473473</v>
       </c>
       <c r="F24">
-        <v>0.002589284966100593</v>
+        <v>0.002596065162073315</v>
       </c>
       <c r="G24" t="s">
         <v>89</v>
@@ -2516,16 +2516,16 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.02034119509412329</v>
+        <v>0.02031249737613604</v>
       </c>
       <c r="D25">
-        <v>0.456841625459935</v>
+        <v>0.4570952505681143</v>
       </c>
       <c r="E25">
-        <v>0.009339035133346107</v>
+        <v>0.009330751236173315</v>
       </c>
       <c r="F25">
-        <v>0.002825158573381397</v>
+        <v>0.002830564231624113</v>
       </c>
       <c r="G25" t="s">
         <v>90</v>
@@ -2545,16 +2545,16 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>0.02565239246617167</v>
+        <v>0.02560728569196319</v>
       </c>
       <c r="D26">
-        <v>0.4380782228835063</v>
+        <v>0.4382411540550211</v>
       </c>
       <c r="E26">
-        <v>0.01121795582932599</v>
+        <v>0.01120174433163301</v>
       </c>
       <c r="F26">
-        <v>0.003140246324178147</v>
+        <v>0.003153024412869583</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
@@ -2574,16 +2574,16 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0.03447855524316243</v>
+        <v>0.03443970534411608</v>
       </c>
       <c r="D27">
-        <v>0.4538781043692724</v>
+        <v>0.4536274817867471</v>
       </c>
       <c r="E27">
-        <v>0.01564596810530068</v>
+        <v>0.0156223634520664</v>
       </c>
       <c r="F27">
-        <v>0.00443073770789548</v>
+        <v>0.00444852294837233</v>
       </c>
       <c r="G27" t="s">
         <v>92</v>
@@ -2603,16 +2603,16 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.07682629546168036</v>
+        <v>0.07679855360247829</v>
       </c>
       <c r="D28">
-        <v>0.4341496460951224</v>
+        <v>0.4342793728652879</v>
       </c>
       <c r="E28">
-        <v>0.03324074466022021</v>
+        <v>0.03323424224631039</v>
       </c>
       <c r="F28">
-        <v>0.01141211281777429</v>
+        <v>0.01142771584791304</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -2632,16 +2632,16 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>0.02693901502277279</v>
+        <v>0.02690140087093424</v>
       </c>
       <c r="D29">
-        <v>0.4537247102459546</v>
+        <v>0.453806043367345</v>
       </c>
       <c r="E29">
-        <v>0.01223414662250405</v>
+        <v>0.01221855864395311</v>
       </c>
       <c r="F29">
-        <v>0.002895840431904688</v>
+        <v>0.002917692072801478</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -2661,16 +2661,16 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0.07290048027267833</v>
+        <v>0.0729036160967063</v>
       </c>
       <c r="D30">
-        <v>0.3857364042909743</v>
+        <v>0.3856881872613552</v>
       </c>
       <c r="E30">
-        <v>0.02809285388245498</v>
+        <v>0.02809107239919201</v>
       </c>
       <c r="F30">
-        <v>0.004759539113583859</v>
+        <v>0.004758196276924752</v>
       </c>
       <c r="G30" t="s">
         <v>95</v>
@@ -2690,16 +2690,16 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0.02354787880126699</v>
+        <v>0.02348044869170907</v>
       </c>
       <c r="D31">
-        <v>0.3759622083764677</v>
+        <v>0.3760643825582795</v>
       </c>
       <c r="E31">
-        <v>0.008873085284464918</v>
+        <v>0.008850371372862117</v>
       </c>
       <c r="F31">
-        <v>0.004102340689546364</v>
+        <v>0.004123342331620801</v>
       </c>
       <c r="G31" t="s">
         <v>96</v>
@@ -2719,16 +2719,16 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0.08635991868063113</v>
+        <v>0.0863022406487071</v>
       </c>
       <c r="D32">
-        <v>0.2450276788426567</v>
+        <v>0.2450874644270012</v>
       </c>
       <c r="E32">
-        <v>0.02109159682763909</v>
+        <v>0.02108251126299797</v>
       </c>
       <c r="F32">
-        <v>0.01061922422216781</v>
+        <v>0.01064715868576173</v>
       </c>
       <c r="G32" t="s">
         <v>97</v>
@@ -2748,16 +2748,16 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0.02138548945257067</v>
+        <v>0.02133721314400103</v>
       </c>
       <c r="D33">
-        <v>0.3877031588521452</v>
+        <v>0.387833327170201</v>
       </c>
       <c r="E33">
-        <v>0.008645609724942235</v>
+        <v>0.008630378043043882</v>
       </c>
       <c r="F33">
-        <v>0.004124465388645139</v>
+        <v>0.004131895413692428</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -2777,16 +2777,16 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.01938054560959207</v>
+        <v>0.01934491080230602</v>
       </c>
       <c r="D34">
-        <v>0.4506222652285867</v>
+        <v>0.4508476312717877</v>
       </c>
       <c r="E34">
-        <v>0.00883387555751144</v>
+        <v>0.008821405174670685</v>
       </c>
       <c r="F34">
-        <v>0.002597000674663482</v>
+        <v>0.002609924339783941</v>
       </c>
       <c r="G34" t="s">
         <v>99</v>
@@ -2832,16 +2832,16 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0.02475444087483471</v>
+        <v>0.02473151831379447</v>
       </c>
       <c r="D36">
-        <v>0.482728424541153</v>
+        <v>0.4826778231529265</v>
       </c>
       <c r="E36">
-        <v>0.01179994556455176</v>
+        <v>0.01178792055252675</v>
       </c>
       <c r="F36">
-        <v>0.004463164444546938</v>
+        <v>0.00447342567015038</v>
       </c>
       <c r="G36" t="s">
         <v>101</v>
@@ -2861,16 +2861,16 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.02257371596594365</v>
+        <v>0.02255441601695675</v>
       </c>
       <c r="D37">
-        <v>0.4669455422237643</v>
+        <v>0.4669707987630886</v>
       </c>
       <c r="E37">
-        <v>0.01051169689311125</v>
+        <v>0.01050332392177531</v>
       </c>
       <c r="F37">
-        <v>0.00309921523112058</v>
+        <v>0.003098765863249968</v>
       </c>
       <c r="G37" t="s">
         <v>102</v>
@@ -2890,16 +2890,16 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0.05362699858913977</v>
+        <v>0.05360118742246309</v>
       </c>
       <c r="D38">
-        <v>0.4426253991172965</v>
+        <v>0.4425650836754837</v>
       </c>
       <c r="E38">
-        <v>0.02357357142600619</v>
+        <v>0.02355869604076044</v>
       </c>
       <c r="F38">
-        <v>0.0038460137311986</v>
+        <v>0.003845721956209405</v>
       </c>
       <c r="G38" t="s">
         <v>103</v>
@@ -2919,16 +2919,16 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>0.01306769503242377</v>
+        <v>0.01302927318410997</v>
       </c>
       <c r="D39">
-        <v>0.4148383654135214</v>
+        <v>0.4150697365080303</v>
       </c>
       <c r="E39">
-        <v>0.005493529939803357</v>
+        <v>0.005479188999536487</v>
       </c>
       <c r="F39">
-        <v>0.002622649308758147</v>
+        <v>0.0026441990637318</v>
       </c>
       <c r="G39" t="s">
         <v>104</v>
@@ -2948,16 +2948,16 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>0.01501443287066277</v>
+        <v>0.01497780949320552</v>
       </c>
       <c r="D40">
-        <v>0.4773008222790305</v>
+        <v>0.4771398339182331</v>
       </c>
       <c r="E40">
-        <v>0.007188818066493121</v>
+        <v>0.007170023418068841</v>
       </c>
       <c r="F40">
-        <v>0.002369402504494593</v>
+        <v>0.002380043707458966</v>
       </c>
       <c r="G40" t="s">
         <v>105</v>
@@ -2977,16 +2977,16 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.01194866180407279</v>
+        <v>0.01188766851676631</v>
       </c>
       <c r="D41">
-        <v>0.4308416144246277</v>
+        <v>0.4309721359809957</v>
       </c>
       <c r="E41">
-        <v>0.005183045813345846</v>
+        <v>0.005157570602685443</v>
       </c>
       <c r="F41">
-        <v>0.002258623652552551</v>
+        <v>0.002285877635354993</v>
       </c>
       <c r="G41" t="s">
         <v>106</v>
@@ -3006,16 +3006,16 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>0.01300725232267884</v>
+        <v>0.01296229719925094</v>
       </c>
       <c r="D42">
-        <v>0.4667634697965427</v>
+        <v>0.4672298326782607</v>
       </c>
       <c r="E42">
-        <v>0.006118969207404919</v>
+        <v>0.006103737525506567</v>
       </c>
       <c r="F42">
-        <v>0.002948614255612065</v>
+        <v>0.002952117931343662</v>
       </c>
       <c r="G42" t="s">
         <v>107</v>
@@ -3035,16 +3035,16 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0.008026483270152361</v>
+        <v>0.00798417235676074</v>
       </c>
       <c r="D43">
-        <v>0.4684582743282752</v>
+        <v>0.4691186533529841</v>
       </c>
       <c r="E43">
-        <v>0.003806646838091052</v>
+        <v>0.003790346266234918</v>
       </c>
       <c r="F43">
-        <v>0.002701163756303508</v>
+        <v>0.002708583350598714</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -3064,16 +3064,16 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.01495529062122454</v>
+        <v>0.01491606311765421</v>
       </c>
       <c r="D44">
-        <v>0.4264609270814378</v>
+        <v>0.4268783664569125</v>
       </c>
       <c r="E44">
-        <v>0.00651884135668696</v>
+        <v>0.00650494578723583</v>
       </c>
       <c r="F44">
-        <v>0.005261259269699032</v>
+        <v>0.005274920909305644</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,16 +3093,16 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.01087237175468851</v>
+        <v>0.01082630154518051</v>
       </c>
       <c r="D45">
-        <v>0.431185124189468</v>
+        <v>0.4314013060365511</v>
       </c>
       <c r="E45">
-        <v>0.004934223898000352</v>
+        <v>0.004917032584512736</v>
       </c>
       <c r="F45">
-        <v>0.002890777933525653</v>
+        <v>0.002907225533345857</v>
       </c>
       <c r="G45" t="s">
         <v>110</v>
@@ -3122,16 +3122,16 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.09859609871240405</v>
+        <v>0.0985622867667395</v>
       </c>
       <c r="D46">
-        <v>0.3432391072415914</v>
+        <v>0.3436063867767298</v>
       </c>
       <c r="E46">
-        <v>0.03152582751870325</v>
+        <v>0.0315355366024864</v>
       </c>
       <c r="F46">
-        <v>0.01782316371397968</v>
+        <v>0.01783694941901837</v>
       </c>
       <c r="G46" t="s">
         <v>111</v>
@@ -3151,16 +3151,16 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>0.1005095700572913</v>
+        <v>0.09987437599729297</v>
       </c>
       <c r="D47">
-        <v>0.2774903064036012</v>
+        <v>0.2773187208934368</v>
       </c>
       <c r="E47">
-        <v>0.02736546438356975</v>
+        <v>0.0271912353204518</v>
       </c>
       <c r="F47">
-        <v>0.01359480316738506</v>
+        <v>0.01298347640269392</v>
       </c>
       <c r="G47" t="s">
         <v>112</v>
@@ -3180,16 +3180,16 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.9795515788332342</v>
+        <v>0.9792710173641971</v>
       </c>
       <c r="D48">
-        <v>0.3728375379211808</v>
+        <v>0.3729841318207551</v>
       </c>
       <c r="E48">
-        <v>0.3652737626470759</v>
+        <v>0.3653058293458092</v>
       </c>
       <c r="F48">
-        <v>0.01103821448990038</v>
+        <v>0.01129935878837277</v>
       </c>
       <c r="G48" t="s">
         <v>113</v>
@@ -3209,16 +3209,16 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.01899942164272301</v>
+        <v>0.01895706504466607</v>
       </c>
       <c r="D49">
-        <v>0.4829315595377253</v>
+        <v>0.4830055629641368</v>
       </c>
       <c r="E49">
-        <v>0.009300678132348564</v>
+        <v>0.009280992742292798</v>
       </c>
       <c r="F49">
-        <v>0.006012657026020944</v>
+        <v>0.006031372143300113</v>
       </c>
       <c r="G49" t="s">
         <v>114</v>
@@ -3238,16 +3238,16 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0.01177639077442687</v>
+        <v>0.01175029901983965</v>
       </c>
       <c r="D50">
-        <v>0.4441082451227094</v>
+        <v>0.4445542968014746</v>
       </c>
       <c r="E50">
-        <v>0.005281468948834855</v>
+        <v>0.005272116161704287</v>
       </c>
       <c r="F50">
-        <v>0.002260699166454879</v>
+        <v>0.002276907889248761</v>
       </c>
       <c r="G50" t="s">
         <v>115</v>
@@ -3267,16 +3267,16 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0.01238331663242603</v>
+        <v>0.01233868554162651</v>
       </c>
       <c r="D51">
-        <v>0.4837819493522736</v>
+        <v>0.4843933165611611</v>
       </c>
       <c r="E51">
-        <v>0.005983150789873048</v>
+        <v>0.005968186330464147</v>
       </c>
       <c r="F51">
-        <v>0.001651527432561054</v>
+        <v>0.001661475521968555</v>
       </c>
       <c r="G51" t="s">
         <v>116</v>
@@ -3296,16 +3296,16 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>0.03058334881015072</v>
+        <v>0.03052154651934719</v>
       </c>
       <c r="D52">
-        <v>0.2495713411998711</v>
+        <v>0.249567985435905</v>
       </c>
       <c r="E52">
-        <v>0.007869488828282506</v>
+        <v>0.007856038629647122</v>
       </c>
       <c r="F52">
-        <v>0.001398817072462129</v>
+        <v>0.001402843458685237</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -3325,16 +3325,16 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.02231083828578239</v>
+        <v>0.02227898399723336</v>
       </c>
       <c r="D53">
-        <v>0.3044358792443098</v>
+        <v>0.3042803660773518</v>
       </c>
       <c r="E53">
-        <v>0.007090761217869779</v>
+        <v>0.00707811268670273</v>
       </c>
       <c r="F53">
-        <v>0.004492885226299081</v>
+        <v>0.004500438028652326</v>
       </c>
       <c r="G53" t="s">
         <v>118</v>
@@ -3354,16 +3354,16 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>0.01118327739763476</v>
+        <v>0.01115017237892172</v>
       </c>
       <c r="D54">
-        <v>0.3977133793831316</v>
+        <v>0.3977247713187008</v>
       </c>
       <c r="E54">
-        <v>0.004622009320548649</v>
+        <v>0.004609182641055305</v>
       </c>
       <c r="F54">
-        <v>0.003474801222912537</v>
+        <v>0.003478991503565182</v>
       </c>
       <c r="G54" t="s">
         <v>119</v>
@@ -3383,16 +3383,16 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>0.01068494869548764</v>
+        <v>0.01066085155096001</v>
       </c>
       <c r="D55">
-        <v>0.453184569747673</v>
+        <v>0.4530052129946395</v>
       </c>
       <c r="E55">
-        <v>0.005036992477045981</v>
+        <v>0.005025056539184118</v>
       </c>
       <c r="F55">
-        <v>0.002644251577737856</v>
+        <v>0.00264917864497093</v>
       </c>
       <c r="G55" t="s">
         <v>120</v>
@@ -3412,16 +3412,16 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0.02087774445931321</v>
+        <v>0.02085602824763172</v>
       </c>
       <c r="D56">
-        <v>0.4082276757041228</v>
+        <v>0.4083439794184236</v>
       </c>
       <c r="E56">
-        <v>0.008700189395599495</v>
+        <v>0.00869324161087393</v>
       </c>
       <c r="F56">
-        <v>0.003121322581843335</v>
+        <v>0.003128786534512977</v>
       </c>
       <c r="G56" t="s">
         <v>121</v>
@@ -3441,16 +3441,16 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.019350050887274</v>
+        <v>0.01921537609599243</v>
       </c>
       <c r="D57">
-        <v>0.4411936733643851</v>
+        <v>0.4409029582334221</v>
       </c>
       <c r="E57">
-        <v>0.008732129211981068</v>
+        <v>0.008669064704472115</v>
       </c>
       <c r="F57">
-        <v>0.002904089051511093</v>
+        <v>0.002926647147060165</v>
       </c>
       <c r="G57" t="s">
         <v>122</v>
@@ -3470,16 +3470,16 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>0.03675722651926692</v>
+        <v>0.03653841755671897</v>
       </c>
       <c r="D58">
-        <v>0.3765161653052821</v>
+        <v>0.3766132175315666</v>
       </c>
       <c r="E58">
-        <v>0.014000529558746</v>
+        <v>0.01392695429998555</v>
       </c>
       <c r="F58">
-        <v>0.005109928179690737</v>
+        <v>0.005109751450681808</v>
       </c>
       <c r="G58" t="s">
         <v>123</v>
@@ -3499,16 +3499,16 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>0.02531325792553641</v>
+        <v>0.02526555063698872</v>
       </c>
       <c r="D59">
-        <v>0.3874630950776725</v>
+        <v>0.3875131666084308</v>
       </c>
       <c r="E59">
-        <v>0.00987567844076997</v>
+        <v>0.009857952682303467</v>
       </c>
       <c r="F59">
-        <v>0.005365409487182876</v>
+        <v>0.005376772530215491</v>
       </c>
       <c r="G59" t="s">
         <v>124</v>
@@ -3528,16 +3528,16 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>0.2567927365100316</v>
+        <v>0.2569130855247121</v>
       </c>
       <c r="D60">
-        <v>0.4146075340076196</v>
+        <v>0.4146844516501071</v>
       </c>
       <c r="E60">
-        <v>0.1053504002818042</v>
+        <v>0.10541818571996</v>
       </c>
       <c r="F60">
-        <v>0.01182479387561379</v>
+        <v>0.01182252847340504</v>
       </c>
       <c r="G60" t="s">
         <v>125</v>
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>0.09841105848314054</v>
+        <v>0.09841105848314052</v>
       </c>
       <c r="D61">
         <v>0.2825141810986015</v>
@@ -3586,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>0.9239063876651301</v>
+        <v>0.9239063876651302</v>
       </c>
       <c r="D62">
         <v>0.3300762105350221</v>
@@ -3644,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>0.03441246169226946</v>
+        <v>0.03441246169226945</v>
       </c>
       <c r="D64">
         <v>0.4554806352644277</v>
@@ -3705,7 +3705,7 @@
         <v>0.2491162746349245</v>
       </c>
       <c r="D66">
-        <v>0.2720364730541142</v>
+        <v>0.2720364730541141</v>
       </c>
       <c r="E66">
         <v>0.05988254703259858</v>
@@ -3798,7 +3798,7 @@
         <v>0.01086019958123799</v>
       </c>
       <c r="F69">
-        <v>0.01410684407976188</v>
+        <v>0.01410684407976189</v>
       </c>
       <c r="G69" t="s">
         <v>134</v>
@@ -3818,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="C70">
-        <v>0.03382812725897253</v>
+        <v>0.03382812725897252</v>
       </c>
       <c r="D70">
         <v>0.370931689136251</v>
@@ -3856,7 +3856,7 @@
         <v>0.00970297810100742</v>
       </c>
       <c r="F71">
-        <v>0.004801406837549587</v>
+        <v>0.004801406837549588</v>
       </c>
       <c r="G71" t="s">
         <v>136</v>
@@ -3885,7 +3885,7 @@
         <v>0.00751617170457079</v>
       </c>
       <c r="F72">
-        <v>0.003709326921566565</v>
+        <v>0.003709326921566566</v>
       </c>
       <c r="G72" t="s">
         <v>137</v>
@@ -3905,22 +3905,22 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>0.02571739131982126</v>
+        <v>0.05439050429708324</v>
       </c>
       <c r="D73">
-        <v>0.4257640366890476</v>
+        <v>0.4953012039857329</v>
       </c>
       <c r="E73">
-        <v>0.01101374594350436</v>
+        <v>0.02732850943417266</v>
       </c>
       <c r="F73">
-        <v>0.006149811859590627</v>
+        <v>0.005712824077856074</v>
       </c>
       <c r="G73" t="s">
         <v>138</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I73" t="s">
         <v>470</v>
@@ -3937,13 +3937,13 @@
         <v>0.05238718740146668</v>
       </c>
       <c r="D74">
-        <v>0.4822710452015784</v>
+        <v>0.4822710452015785</v>
       </c>
       <c r="E74">
         <v>0.02449319465743015</v>
       </c>
       <c r="F74">
-        <v>0.02148298817277401</v>
+        <v>0.02148298817277402</v>
       </c>
       <c r="G74" t="s">
         <v>139</v>
@@ -3963,22 +3963,22 @@
         <v>22</v>
       </c>
       <c r="C75">
-        <v>0.0251678436530978</v>
+        <v>0.04675896698099487</v>
       </c>
       <c r="D75">
-        <v>0.4462513696993618</v>
+        <v>0.5022740790023864</v>
       </c>
       <c r="E75">
-        <v>0.01123362376660919</v>
+        <v>0.02365172991166291</v>
       </c>
       <c r="F75">
-        <v>0.004944858456784588</v>
+        <v>0.004353921053903718</v>
       </c>
       <c r="G75" t="s">
         <v>140</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I75" t="s">
         <v>470</v>
@@ -4021,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="C77">
-        <v>0.06254503564984594</v>
+        <v>0.06254503564984593</v>
       </c>
       <c r="D77">
         <v>0.3938223709067873</v>
@@ -4050,10 +4050,10 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>0.02086433101400965</v>
+        <v>0.02086433101400964</v>
       </c>
       <c r="D78">
-        <v>0.5552657198886002</v>
+        <v>0.5552657198886003</v>
       </c>
       <c r="E78">
         <v>0.01153414244952442</v>
@@ -4117,7 +4117,7 @@
         <v>0.01491348113402508</v>
       </c>
       <c r="F80">
-        <v>0.006823726369861608</v>
+        <v>0.006823726369861609</v>
       </c>
       <c r="G80" t="s">
         <v>145</v>
@@ -4140,13 +4140,13 @@
         <v>0.03907754307141214</v>
       </c>
       <c r="D81">
-        <v>0.3512262067837955</v>
+        <v>0.3512262067837956</v>
       </c>
       <c r="E81">
         <v>0.01374517224991013</v>
       </c>
       <c r="F81">
-        <v>0.004922541412271135</v>
+        <v>0.004922541412271136</v>
       </c>
       <c r="G81" t="s">
         <v>146</v>
@@ -4227,7 +4227,7 @@
         <v>0.01619230804292584</v>
       </c>
       <c r="D84">
-        <v>0.4605706108880386</v>
+        <v>0.4605706108880387</v>
       </c>
       <c r="E84">
         <v>0.007214551099086317</v>
@@ -4253,16 +4253,16 @@
         <v>32</v>
       </c>
       <c r="C85">
-        <v>0.194537435123829</v>
+        <v>0.1945374351238291</v>
       </c>
       <c r="D85">
-        <v>0.3713832790413149</v>
+        <v>0.371383279041315</v>
       </c>
       <c r="E85">
-        <v>0.06401108614984094</v>
+        <v>0.06401108614984093</v>
       </c>
       <c r="F85">
-        <v>0.06238832327693779</v>
+        <v>0.0623883232769378</v>
       </c>
       <c r="G85" t="s">
         <v>150</v>
@@ -4320,7 +4320,7 @@
         <v>0.07801425862073338</v>
       </c>
       <c r="F87">
-        <v>0.09872796418241311</v>
+        <v>0.09872796418241313</v>
       </c>
       <c r="G87" t="s">
         <v>152</v>
@@ -4401,7 +4401,7 @@
         <v>0.03292940501884729</v>
       </c>
       <c r="D90">
-        <v>0.2794342862810263</v>
+        <v>0.2794342862810262</v>
       </c>
       <c r="E90">
         <v>0.008394310924401276</v>
@@ -4427,7 +4427,7 @@
         <v>38</v>
       </c>
       <c r="C91">
-        <v>0.05416281362199258</v>
+        <v>0.05416281362199257</v>
       </c>
       <c r="D91">
         <v>0.318220905350334</v>
@@ -4456,7 +4456,7 @@
         <v>39</v>
       </c>
       <c r="C92">
-        <v>0.02451554935523753</v>
+        <v>0.02451554935523754</v>
       </c>
       <c r="D92">
         <v>0.4618400188675615</v>
@@ -4465,7 +4465,7 @@
         <v>0.01121048912183062</v>
       </c>
       <c r="F92">
-        <v>0.002998577885694751</v>
+        <v>0.002998577885694752</v>
       </c>
       <c r="G92" t="s">
         <v>157</v>
@@ -4494,7 +4494,7 @@
         <v>0.011508740714957</v>
       </c>
       <c r="F93">
-        <v>0.0034466234723901</v>
+        <v>0.003446623472390101</v>
       </c>
       <c r="G93" t="s">
         <v>158</v>
@@ -4517,7 +4517,7 @@
         <v>0.4583325544986684</v>
       </c>
       <c r="D94">
-        <v>0.3766605590010362</v>
+        <v>0.3766605590010363</v>
       </c>
       <c r="E94">
         <v>0.1657465308628134</v>
@@ -4633,7 +4633,7 @@
         <v>0.01570108834043558</v>
       </c>
       <c r="D98">
-        <v>0.485643250408131</v>
+        <v>0.4856432504081309</v>
       </c>
       <c r="E98">
         <v>0.007724928244026652</v>
@@ -4688,7 +4688,7 @@
         <v>48</v>
       </c>
       <c r="C100">
-        <v>0.03112762234683704</v>
+        <v>0.03112762234683705</v>
       </c>
       <c r="D100">
         <v>0.4731189699356534</v>
@@ -4749,7 +4749,7 @@
         <v>0.05797423897374249</v>
       </c>
       <c r="D102">
-        <v>0.4784362433631751</v>
+        <v>0.4784362433631753</v>
       </c>
       <c r="E102">
         <v>0.02709861700574145</v>
@@ -4778,7 +4778,7 @@
         <v>0.02564165517238864</v>
       </c>
       <c r="D103">
-        <v>0.3124952070910558</v>
+        <v>0.3124952070910559</v>
       </c>
       <c r="E103">
         <v>0.007643164708392478</v>
@@ -4833,7 +4833,7 @@
         <v>53</v>
       </c>
       <c r="C105">
-        <v>0.04551453410514699</v>
+        <v>0.045514534105147</v>
       </c>
       <c r="D105">
         <v>0.4243253512056954</v>
@@ -4888,7 +4888,7 @@
         <v>55</v>
       </c>
       <c r="C107">
-        <v>0.03352993059116441</v>
+        <v>0.03352993059116439</v>
       </c>
       <c r="D107">
         <v>0.3693261448523458</v>
@@ -4920,7 +4920,7 @@
         <v>0.02767321081336011</v>
       </c>
       <c r="D108">
-        <v>0.3607601081324485</v>
+        <v>0.3607601081324486</v>
       </c>
       <c r="E108">
         <v>0.01007980387780832</v>
@@ -4975,7 +4975,7 @@
         <v>58</v>
       </c>
       <c r="C110">
-        <v>0.0591603005665471</v>
+        <v>0.05916030056654711</v>
       </c>
       <c r="D110">
         <v>0.2967574074496054</v>
@@ -4984,7 +4984,7 @@
         <v>0.01652273446777193</v>
       </c>
       <c r="F110">
-        <v>0.005007624315160262</v>
+        <v>0.005007624315160263</v>
       </c>
       <c r="G110" t="s">
         <v>175</v>
@@ -5004,7 +5004,7 @@
         <v>59</v>
       </c>
       <c r="C111">
-        <v>0.07028553187307651</v>
+        <v>0.0702855318730765</v>
       </c>
       <c r="D111">
         <v>0.3113280944430932</v>
@@ -5065,7 +5065,7 @@
         <v>0.02175544142970839</v>
       </c>
       <c r="D113">
-        <v>0.4849712052701684</v>
+        <v>0.4849712052701685</v>
       </c>
       <c r="E113">
         <v>0.01076061537313381</v>
@@ -5123,7 +5123,7 @@
         <v>0.1349408886208242</v>
       </c>
       <c r="D115">
-        <v>0.3414590204505609</v>
+        <v>0.341459020450561</v>
       </c>
       <c r="E115">
         <v>0.04296529545314137</v>
@@ -5152,13 +5152,13 @@
         <v>0.03524229245050529</v>
       </c>
       <c r="D116">
-        <v>0.4662417508944598</v>
+        <v>0.4662417508944597</v>
       </c>
       <c r="E116">
         <v>0.01618946059005048</v>
       </c>
       <c r="F116">
-        <v>0.00606990581776044</v>
+        <v>0.006069905817760441</v>
       </c>
       <c r="G116" t="s">
         <v>181</v>
@@ -5216,7 +5216,7 @@
         <v>0.3513584447694487</v>
       </c>
       <c r="F118">
-        <v>0.0244731324048139</v>
+        <v>0.02447313240481391</v>
       </c>
       <c r="G118" t="s">
         <v>183</v>
@@ -5236,16 +5236,16 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>0.6731685249086786</v>
+        <v>0.675686097576443</v>
       </c>
       <c r="D119">
-        <v>0.1614782074363492</v>
+        <v>0.1614598776072479</v>
       </c>
       <c r="E119">
-        <v>0.09876866353657554</v>
+        <v>0.09906876956205761</v>
       </c>
       <c r="F119">
-        <v>0.1699029276739011</v>
+        <v>0.1714083906668819</v>
       </c>
       <c r="G119" t="s">
         <v>184</v>
@@ -5265,16 +5265,16 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>0.03978668246097204</v>
+        <v>0.03975030240009478</v>
       </c>
       <c r="D120">
-        <v>0.3706687021669959</v>
+        <v>0.3707450405140766</v>
       </c>
       <c r="E120">
-        <v>0.01353906596028516</v>
+        <v>0.01352548032224537</v>
       </c>
       <c r="F120">
-        <v>0.01037874294016089</v>
+        <v>0.01037410344135484</v>
       </c>
       <c r="G120" t="s">
         <v>185</v>
@@ -5294,16 +5294,16 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>0.05275342073231978</v>
+        <v>0.05271780460928273</v>
       </c>
       <c r="D121">
-        <v>0.4066223916862059</v>
+        <v>0.4065347319740921</v>
       </c>
       <c r="E121">
-        <v>0.02118247955159756</v>
+        <v>0.02116102286929663</v>
       </c>
       <c r="F121">
-        <v>0.008277827723250291</v>
+        <v>0.008283619028771257</v>
       </c>
       <c r="G121" t="s">
         <v>186</v>
@@ -5323,16 +5323,16 @@
         <v>12</v>
       </c>
       <c r="C122">
-        <v>0.05130542638549146</v>
+        <v>0.05125697399978736</v>
       </c>
       <c r="D122">
-        <v>0.4226272951950882</v>
+        <v>0.4226380774475008</v>
       </c>
       <c r="E122">
-        <v>0.0217114582088626</v>
+        <v>0.02168913894636867</v>
       </c>
       <c r="F122">
-        <v>0.008648216171021298</v>
+        <v>0.008642275151225487</v>
       </c>
       <c r="G122" t="s">
         <v>187</v>
@@ -5352,16 +5352,16 @@
         <v>13</v>
       </c>
       <c r="C123">
-        <v>0.0591028882452763</v>
+        <v>0.05905675243880985</v>
       </c>
       <c r="D123">
-        <v>0.2075245620990969</v>
+        <v>0.2074861772805084</v>
       </c>
       <c r="E123">
-        <v>0.01207707408129062</v>
+        <v>0.01206154763781658</v>
       </c>
       <c r="F123">
-        <v>0.01169471967370905</v>
+        <v>0.01170875163211463</v>
       </c>
       <c r="G123" t="s">
         <v>188</v>
@@ -5381,16 +5381,16 @@
         <v>15</v>
       </c>
       <c r="C124">
-        <v>0.08512884850678393</v>
+        <v>0.08507587313617257</v>
       </c>
       <c r="D124">
-        <v>0.1456023052567391</v>
+        <v>0.1455672629363985</v>
       </c>
       <c r="E124">
-        <v>0.01241670835731199</v>
+        <v>0.01240711215266484</v>
       </c>
       <c r="F124">
-        <v>0.01335425170720306</v>
+        <v>0.01333168492277106</v>
       </c>
       <c r="G124" t="s">
         <v>189</v>
@@ -5410,16 +5410,16 @@
         <v>16</v>
       </c>
       <c r="C125">
-        <v>0.06097623721680077</v>
+        <v>0.06095454344294001</v>
       </c>
       <c r="D125">
-        <v>0.1852879610480277</v>
+        <v>0.1852492527618668</v>
       </c>
       <c r="E125">
-        <v>0.01102952932107094</v>
+        <v>0.0110238147272923</v>
       </c>
       <c r="F125">
-        <v>0.01396193344092793</v>
+        <v>0.01396165604770842</v>
       </c>
       <c r="G125" t="s">
         <v>190</v>
@@ -5439,16 +5439,16 @@
         <v>17</v>
       </c>
       <c r="C126">
-        <v>0.05069064741727457</v>
+        <v>0.05067394878750152</v>
       </c>
       <c r="D126">
-        <v>0.2791115258219182</v>
+        <v>0.2790820094059389</v>
       </c>
       <c r="E126">
-        <v>0.01448129418680273</v>
+        <v>0.01447428572273459</v>
       </c>
       <c r="F126">
-        <v>0.01208598615545966</v>
+        <v>0.0120810965192266</v>
       </c>
       <c r="G126" t="s">
         <v>191</v>
@@ -5468,16 +5468,16 @@
         <v>18</v>
       </c>
       <c r="C127">
-        <v>0.02816662262842645</v>
+        <v>0.02813641694813706</v>
       </c>
       <c r="D127">
-        <v>0.3856115796790113</v>
+        <v>0.3855506599528805</v>
       </c>
       <c r="E127">
-        <v>0.01044439277250053</v>
+        <v>0.01043069931193662</v>
       </c>
       <c r="F127">
-        <v>0.009289696198310399</v>
+        <v>0.009276388465064461</v>
       </c>
       <c r="G127" t="s">
         <v>192</v>
@@ -5497,16 +5497,16 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>0.04838440857082863</v>
+        <v>0.04836466374173193</v>
       </c>
       <c r="D128">
-        <v>0.2683703872176397</v>
+        <v>0.2683108152730606</v>
       </c>
       <c r="E128">
-        <v>0.01281082909821752</v>
+        <v>0.0128022032962875</v>
       </c>
       <c r="F128">
-        <v>0.009384627230729208</v>
+        <v>0.009386091007471837</v>
       </c>
       <c r="G128" t="s">
         <v>193</v>
@@ -5526,22 +5526,22 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>0.03460932691255629</v>
+        <v>0.03750476570472273</v>
       </c>
       <c r="D129">
-        <v>0.4156128122677705</v>
+        <v>0.4356455269957163</v>
       </c>
       <c r="E129">
-        <v>0.01435869794386366</v>
+        <v>0.0161204273070452</v>
       </c>
       <c r="F129">
-        <v>0.01278509367852322</v>
+        <v>0.01160394708507667</v>
       </c>
       <c r="G129" t="s">
         <v>194</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I129" t="s">
         <v>471</v>
@@ -5555,16 +5555,16 @@
         <v>21</v>
       </c>
       <c r="C130">
-        <v>0.06734805799205923</v>
+        <v>0.0673831856731489</v>
       </c>
       <c r="D130">
-        <v>0.509369197298932</v>
+        <v>0.5086126066471449</v>
       </c>
       <c r="E130">
-        <v>0.0328705883901274</v>
+        <v>0.03287188226041691</v>
       </c>
       <c r="F130">
-        <v>0.04281386834591372</v>
+        <v>0.04280482171258371</v>
       </c>
       <c r="G130" t="s">
         <v>195</v>
@@ -5584,22 +5584,22 @@
         <v>22</v>
       </c>
       <c r="C131">
-        <v>0.06360272511945851</v>
+        <v>0.07782537507907994</v>
       </c>
       <c r="D131">
-        <v>0.2448192962494793</v>
+        <v>0.2779354334878853</v>
       </c>
       <c r="E131">
-        <v>0.01427265737911829</v>
+        <v>0.02165798504142723</v>
       </c>
       <c r="F131">
-        <v>0.02072920362107443</v>
+        <v>0.01983947790967642</v>
       </c>
       <c r="G131" t="s">
         <v>196</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I131" t="s">
         <v>471</v>
@@ -5613,16 +5613,16 @@
         <v>23</v>
       </c>
       <c r="C132">
-        <v>0.1434778810522109</v>
+        <v>0.1434757953216559</v>
       </c>
       <c r="D132">
-        <v>0.1423429828625477</v>
+        <v>0.1423111752179307</v>
       </c>
       <c r="E132">
-        <v>0.02119368535320066</v>
+        <v>0.02119034285495278</v>
       </c>
       <c r="F132">
-        <v>0.03816914140070581</v>
+        <v>0.03816976811956599</v>
       </c>
       <c r="G132" t="s">
         <v>197</v>
@@ -5642,16 +5642,16 @@
         <v>24</v>
       </c>
       <c r="C133">
-        <v>0.1100430202508156</v>
+        <v>0.1100569892188688</v>
       </c>
       <c r="D133">
-        <v>0.2923242090492733</v>
+        <v>0.2922600546474188</v>
       </c>
       <c r="E133">
         <v>0.03483825569059273</v>
       </c>
       <c r="F133">
-        <v>0.08508585387021993</v>
+        <v>0.08508031024029881</v>
       </c>
       <c r="G133" t="s">
         <v>198</v>
@@ -5671,16 +5671,16 @@
         <v>25</v>
       </c>
       <c r="C134">
-        <v>0.01187493571202262</v>
+        <v>0.0118809138006374</v>
       </c>
       <c r="D134">
-        <v>0.5859566687059046</v>
+        <v>0.5854342685765176</v>
       </c>
       <c r="E134">
-        <v>0.006921683634401488</v>
+        <v>0.006919527183918983</v>
       </c>
       <c r="F134">
-        <v>0.003225077141198508</v>
+        <v>0.003224671898620165</v>
       </c>
       <c r="G134" t="s">
         <v>199</v>
@@ -5700,16 +5700,16 @@
         <v>26</v>
       </c>
       <c r="C135">
-        <v>0.08032873788562828</v>
+        <v>0.08041827973431526</v>
       </c>
       <c r="D135">
-        <v>0.3292409297771917</v>
+        <v>0.3283996984439661</v>
       </c>
       <c r="E135">
-        <v>0.02543962571116672</v>
+        <v>0.02541471870809377</v>
       </c>
       <c r="F135">
-        <v>0.008888302623495235</v>
+        <v>0.008883879813920213</v>
       </c>
       <c r="G135" t="s">
         <v>200</v>
@@ -5729,16 +5729,16 @@
         <v>27</v>
       </c>
       <c r="C136">
-        <v>0.03068961070139894</v>
+        <v>0.03074060096335405</v>
       </c>
       <c r="D136">
-        <v>0.3950316248267802</v>
+        <v>0.3945063134892418</v>
       </c>
       <c r="E136">
-        <v>0.01205314980363179</v>
+        <v>0.01205465931896954</v>
       </c>
       <c r="F136">
-        <v>0.004797839469527591</v>
+        <v>0.004813459261629506</v>
       </c>
       <c r="G136" t="s">
         <v>201</v>
@@ -5758,13 +5758,13 @@
         <v>28</v>
       </c>
       <c r="C137">
-        <v>0.1575121783599135</v>
+        <v>0.1571833698101452</v>
       </c>
       <c r="D137">
-        <v>0.1333575934012615</v>
+        <v>0.1332627095800313</v>
       </c>
       <c r="E137">
-        <v>0.02100544503746832</v>
+        <v>0.02094668176182005</v>
       </c>
       <c r="G137" t="s">
         <v>202</v>
@@ -5784,16 +5784,16 @@
         <v>29</v>
       </c>
       <c r="C138">
-        <v>0.07755948165231505</v>
+        <v>0.07751658597856774</v>
       </c>
       <c r="D138">
-        <v>0.295642566690229</v>
+        <v>0.2956150719465771</v>
       </c>
       <c r="E138">
-        <v>0.02233162959475472</v>
+        <v>0.02231588750623243</v>
       </c>
       <c r="F138">
-        <v>0.02007359844599462</v>
+        <v>0.02007074475524943</v>
       </c>
       <c r="G138" t="s">
         <v>203</v>
@@ -5813,16 +5813,16 @@
         <v>30</v>
       </c>
       <c r="C139">
-        <v>0.03990701137339272</v>
+        <v>0.03983060442979601</v>
       </c>
       <c r="D139">
-        <v>0.2501954914768395</v>
+        <v>0.2501635760096984</v>
       </c>
       <c r="E139">
-        <v>0.009421842714101385</v>
+        <v>0.00940448328771722</v>
       </c>
       <c r="F139">
-        <v>0.01482681323279369</v>
+        <v>0.01479505932990199</v>
       </c>
       <c r="G139" t="s">
         <v>204</v>
@@ -5842,16 +5842,16 @@
         <v>31</v>
       </c>
       <c r="C140">
-        <v>0.04598542816390028</v>
+        <v>0.04594093698068806</v>
       </c>
       <c r="D140">
-        <v>0.2133733047528229</v>
+        <v>0.2133420362208266</v>
       </c>
       <c r="E140">
-        <v>0.009503174835211436</v>
+        <v>0.009493578630564287</v>
       </c>
       <c r="F140">
-        <v>0.0138099138550725</v>
+        <v>0.01378798304707668</v>
       </c>
       <c r="G140" t="s">
         <v>205</v>
@@ -5871,16 +5871,16 @@
         <v>32</v>
       </c>
       <c r="C141">
-        <v>0.6110071953086138</v>
+        <v>0.6110132888666735</v>
       </c>
       <c r="D141">
-        <v>0.3026504074595187</v>
+        <v>0.3026187076374259</v>
       </c>
       <c r="E141">
-        <v>0.1782616639001202</v>
+        <v>0.1782396681051986</v>
       </c>
       <c r="F141">
-        <v>0.1204109533907548</v>
+        <v>0.120412673375636</v>
       </c>
       <c r="G141" t="s">
         <v>206</v>
@@ -5900,16 +5900,16 @@
         <v>33</v>
       </c>
       <c r="C142">
-        <v>0.02176649949868431</v>
+        <v>0.02175560343753826</v>
       </c>
       <c r="D142">
-        <v>0.4497773560924677</v>
+        <v>0.4496109859377424</v>
       </c>
       <c r="E142">
-        <v>0.00962705836802526</v>
+        <v>0.009619402968812363</v>
       </c>
       <c r="F142">
-        <v>0.004985305149039561</v>
+        <v>0.004988606611958681</v>
       </c>
       <c r="G142" t="s">
         <v>207</v>
@@ -5929,16 +5929,16 @@
         <v>34</v>
       </c>
       <c r="C143">
-        <v>0.1395965399810062</v>
+        <v>0.1395142970548038</v>
       </c>
       <c r="D143">
-        <v>0.1244688801100332</v>
+        <v>0.1244025692576961</v>
       </c>
       <c r="E143">
-        <v>0.0169978035276155</v>
+        <v>0.01697556513201466</v>
       </c>
       <c r="F143">
-        <v>0.0221546498839339</v>
+        <v>0.02216921604146359</v>
       </c>
       <c r="G143" t="s">
         <v>208</v>
@@ -5958,16 +5958,16 @@
         <v>35</v>
       </c>
       <c r="C144">
-        <v>0.03605522531737688</v>
+        <v>0.03603996444777233</v>
       </c>
       <c r="D144">
-        <v>0.2335074638025222</v>
+        <v>0.233429831585152</v>
       </c>
       <c r="E144">
-        <v>0.008196424843043688</v>
+        <v>0.008190278959168545</v>
       </c>
       <c r="F144">
-        <v>0.006363070306358908</v>
+        <v>0.006365833637902358</v>
       </c>
       <c r="G144" t="s">
         <v>209</v>
@@ -5987,16 +5987,16 @@
         <v>36</v>
       </c>
       <c r="C145">
-        <v>0.09392802810111589</v>
+        <v>0.09384939227998332</v>
       </c>
       <c r="D145">
-        <v>0.1438727225133384</v>
+        <v>0.1438098619817734</v>
       </c>
       <c r="E145">
-        <v>0.01286729333017972</v>
+        <v>0.01284864003350605</v>
       </c>
       <c r="F145">
-        <v>0.01756515791718755</v>
+        <v>0.01759114539228363</v>
       </c>
       <c r="G145" t="s">
         <v>210</v>
@@ -6016,16 +6016,16 @@
         <v>37</v>
       </c>
       <c r="C146">
-        <v>0.05573906324727362</v>
+        <v>0.05561990624377704</v>
       </c>
       <c r="D146">
-        <v>0.1778662451397765</v>
+        <v>0.1777243506980277</v>
       </c>
       <c r="E146">
-        <v>0.009026950176722819</v>
+        <v>0.008997083337540113</v>
       </c>
       <c r="F146">
-        <v>0.01623730718928517</v>
+        <v>0.01625392004741772</v>
       </c>
       <c r="G146" t="s">
         <v>211</v>
@@ -6045,16 +6045,16 @@
         <v>39</v>
       </c>
       <c r="C147">
-        <v>0.04512625602510718</v>
+        <v>0.04511828794274648</v>
       </c>
       <c r="D147">
-        <v>0.2445296880075113</v>
+        <v>0.2444469881315073</v>
       </c>
       <c r="E147">
-        <v>0.01120996267314535</v>
+        <v>0.01120403243431846</v>
       </c>
       <c r="F147">
-        <v>0.01325193001693145</v>
+        <v>0.01325172478864142</v>
       </c>
       <c r="G147" t="s">
         <v>212</v>
@@ -6074,16 +6074,16 @@
         <v>40</v>
       </c>
       <c r="C148">
-        <v>0.02066009476851765</v>
+        <v>0.02065420673726766</v>
       </c>
       <c r="D148">
-        <v>0.4400915502432914</v>
+        <v>0.4397203172927281</v>
       </c>
       <c r="E148">
-        <v>0.008902596069037306</v>
+        <v>0.00889278421934191</v>
       </c>
       <c r="F148">
-        <v>0.007885064632382236</v>
+        <v>0.007885249636416011</v>
       </c>
       <c r="G148" t="s">
         <v>213</v>
@@ -6103,16 +6103,16 @@
         <v>42</v>
       </c>
       <c r="C149">
-        <v>0.4548376150848855</v>
+        <v>0.4549275333751737</v>
       </c>
       <c r="D149">
-        <v>0.2547201484542091</v>
+        <v>0.2545204611395292</v>
       </c>
       <c r="E149">
-        <v>0.1161760482341736</v>
+        <v>0.1161302236614204</v>
       </c>
       <c r="F149">
-        <v>0.04085897624969331</v>
+        <v>0.04080390089978864</v>
       </c>
       <c r="G149" t="s">
         <v>214</v>
@@ -6132,16 +6132,16 @@
         <v>44</v>
       </c>
       <c r="C150">
-        <v>0.07948504496947199</v>
+        <v>0.07945072299198476</v>
       </c>
       <c r="D150">
-        <v>0.2017417367591891</v>
+        <v>0.2015534067503836</v>
       </c>
       <c r="E150">
-        <v>0.01606518616303509</v>
+        <v>0.0160446998834513</v>
       </c>
       <c r="F150">
-        <v>0.01630657804417377</v>
+        <v>0.01631937695385122</v>
       </c>
       <c r="G150" t="s">
         <v>215</v>
@@ -6161,16 +6161,16 @@
         <v>45</v>
       </c>
       <c r="C151">
-        <v>0.04159545487821682</v>
+        <v>0.04151202627131994</v>
       </c>
       <c r="D151">
-        <v>0.2705404236483067</v>
+        <v>0.2704274256430234</v>
       </c>
       <c r="E151">
-        <v>0.008763469751176556</v>
+        <v>0.008742875649068626</v>
       </c>
       <c r="F151">
-        <v>0.01214611342905934</v>
+        <v>0.01211159051555064</v>
       </c>
       <c r="G151" t="s">
         <v>216</v>
@@ -6190,16 +6190,16 @@
         <v>46</v>
       </c>
       <c r="C152">
-        <v>0.01268517625618341</v>
+        <v>0.0126863482732548</v>
       </c>
       <c r="D152">
-        <v>0.4309518963938985</v>
+        <v>0.4303299760747438</v>
       </c>
       <c r="E152">
-        <v>0.005233084535631189</v>
+        <v>0.005230928085148684</v>
       </c>
       <c r="F152">
-        <v>0.004516761559257591</v>
+        <v>0.004516216263691655</v>
       </c>
       <c r="G152" t="s">
         <v>217</v>
@@ -6219,16 +6219,16 @@
         <v>47</v>
       </c>
       <c r="C153">
-        <v>0.01568406433689271</v>
+        <v>0.01569706836761004</v>
       </c>
       <c r="D153">
-        <v>0.4436779811661144</v>
+        <v>0.4429783208070655</v>
       </c>
       <c r="E153">
-        <v>0.007000945791708074</v>
+        <v>0.006998358051129072</v>
       </c>
       <c r="F153">
-        <v>0.004372808531614213</v>
+        <v>0.00437007977392031</v>
       </c>
       <c r="G153" t="s">
         <v>218</v>
@@ -6248,16 +6248,16 @@
         <v>48</v>
       </c>
       <c r="C154">
-        <v>0.02465181348193395</v>
+        <v>0.02465545756619802</v>
       </c>
       <c r="D154">
-        <v>0.4896334667828871</v>
+        <v>0.4897384859213851</v>
       </c>
       <c r="E154">
-        <v>0.01175181168897168</v>
+        <v>0.01175666370255732</v>
       </c>
       <c r="F154">
-        <v>0.007980416646180991</v>
+        <v>0.007981091801093363</v>
       </c>
       <c r="G154" t="s">
         <v>219</v>
@@ -6277,16 +6277,16 @@
         <v>49</v>
       </c>
       <c r="C155">
-        <v>0.09091708463911331</v>
+        <v>0.09090834142490707</v>
       </c>
       <c r="D155">
-        <v>0.1737467303686553</v>
+        <v>0.1738615613568487</v>
       </c>
       <c r="E155">
-        <v>0.01580271116984687</v>
+        <v>0.01580828200026002</v>
       </c>
       <c r="F155">
-        <v>0.01574473026705429</v>
+        <v>0.01575294745405503</v>
       </c>
       <c r="G155" t="s">
         <v>220</v>
@@ -6306,16 +6306,16 @@
         <v>50</v>
       </c>
       <c r="C156">
-        <v>0.05352414865676418</v>
+        <v>0.05351526306765351</v>
       </c>
       <c r="D156">
-        <v>0.4278632809611818</v>
+        <v>0.4277796106824606</v>
       </c>
       <c r="E156">
-        <v>0.02235210811194203</v>
+        <v>0.02234499182534976</v>
       </c>
       <c r="F156">
-        <v>0.005766512816273937</v>
+        <v>0.005773388331641231</v>
       </c>
       <c r="G156" t="s">
         <v>221</v>
@@ -6361,16 +6361,16 @@
         <v>53</v>
       </c>
       <c r="C158">
-        <v>0.02653872177146837</v>
+        <v>0.02655529509594591</v>
       </c>
       <c r="D158">
-        <v>0.3409572691746649</v>
+        <v>0.340841144316182</v>
       </c>
       <c r="E158">
-        <v>0.008998076619125777</v>
+        <v>0.00900271298766317</v>
       </c>
       <c r="F158">
-        <v>0.006751856333318335</v>
+        <v>0.006745061841597816</v>
       </c>
       <c r="G158" t="s">
         <v>223</v>
@@ -6390,16 +6390,16 @@
         <v>55</v>
       </c>
       <c r="C159">
-        <v>0.01654772465761596</v>
+        <v>0.01656692739228626</v>
       </c>
       <c r="D159">
-        <v>0.4441494168606612</v>
+        <v>0.4436028644858701</v>
       </c>
       <c r="E159">
-        <v>0.006112574817134425</v>
+        <v>0.006119906748774944</v>
       </c>
       <c r="F159">
-        <v>0.007871234750153834</v>
+        <v>0.007863598942517598</v>
       </c>
       <c r="G159" t="s">
         <v>224</v>
@@ -6419,16 +6419,16 @@
         <v>56</v>
       </c>
       <c r="C160">
-        <v>0.02059778023109562</v>
+        <v>0.02062993625610093</v>
       </c>
       <c r="D160">
-        <v>0.3918188521375384</v>
+        <v>0.3915249279367728</v>
       </c>
       <c r="E160">
-        <v>0.006937117874702953</v>
+        <v>0.006950919157790986</v>
       </c>
       <c r="F160">
-        <v>0.009795476866988825</v>
+        <v>0.009782020019031999</v>
       </c>
       <c r="G160" t="s">
         <v>225</v>
@@ -6448,16 +6448,16 @@
         <v>57</v>
       </c>
       <c r="C161">
-        <v>0.01707067757161434</v>
+        <v>0.01708622201024227</v>
       </c>
       <c r="D161">
-        <v>0.4112000061948231</v>
+        <v>0.4111145029331917</v>
       </c>
       <c r="E161">
-        <v>0.007309256244775991</v>
+        <v>0.007314108258361629</v>
       </c>
       <c r="F161">
-        <v>0.005714933865943726</v>
+        <v>0.005711960454457218</v>
       </c>
       <c r="G161" t="s">
         <v>226</v>
@@ -6477,16 +6477,16 @@
         <v>59</v>
       </c>
       <c r="C162">
-        <v>0.4503792868566639</v>
+        <v>0.4504023635357024</v>
       </c>
       <c r="D162">
-        <v>0.1477858552454239</v>
+        <v>0.1477292484202582</v>
       </c>
       <c r="E162">
-        <v>0.06592360757976155</v>
+        <v>0.06591264562314215</v>
       </c>
       <c r="F162">
-        <v>0.1012366971207439</v>
+        <v>0.1012149605231854</v>
       </c>
       <c r="G162" t="s">
         <v>227</v>
@@ -6506,16 +6506,16 @@
         <v>60</v>
       </c>
       <c r="C163">
-        <v>0.04043732721252721</v>
+        <v>0.04045690230512</v>
       </c>
       <c r="D163">
-        <v>0.3174681695994472</v>
+        <v>0.3174096219688473</v>
       </c>
       <c r="E163">
-        <v>0.01095129020979949</v>
+        <v>0.01095409359542675</v>
       </c>
       <c r="F163">
-        <v>0.01342346551742665</v>
+        <v>0.01342281419156635</v>
       </c>
       <c r="G163" t="s">
         <v>228</v>
@@ -6535,16 +6535,16 @@
         <v>61</v>
       </c>
       <c r="C164">
-        <v>0.01819884277581591</v>
+        <v>0.0182214799721296</v>
       </c>
       <c r="D164">
-        <v>0.5372541421790102</v>
+        <v>0.5365069320868219</v>
       </c>
       <c r="E164">
-        <v>0.01005082120932748</v>
+        <v>0.01005416370757537</v>
       </c>
       <c r="F164">
-        <v>0.004599336370608428</v>
+        <v>0.004593017094201562</v>
       </c>
       <c r="G164" t="s">
         <v>229</v>
@@ -6564,16 +6564,16 @@
         <v>62</v>
       </c>
       <c r="C165">
-        <v>0.05363899171165939</v>
+        <v>0.053714536028959</v>
       </c>
       <c r="D165">
-        <v>0.2288939179923456</v>
+        <v>0.2285054334379222</v>
       </c>
       <c r="E165">
-        <v>0.01233989837372506</v>
+        <v>0.01234539732245546</v>
       </c>
       <c r="F165">
-        <v>0.01024233355211004</v>
+        <v>0.01021129321177415</v>
       </c>
       <c r="G165" t="s">
         <v>230</v>
@@ -6593,16 +6593,16 @@
         <v>63</v>
       </c>
       <c r="C166">
-        <v>0.7190656062112477</v>
+        <v>0.7189461151673905</v>
       </c>
       <c r="D166">
-        <v>0.2015930057290573</v>
+        <v>0.2014199505778363</v>
       </c>
       <c r="E166">
-        <v>0.1386478995000204</v>
+        <v>0.1385223940819386</v>
       </c>
       <c r="F166">
-        <v>0.091608830359019</v>
+        <v>0.0916487148247882</v>
       </c>
       <c r="G166" t="s">
         <v>231</v>
@@ -6622,16 +6622,16 @@
         <v>64</v>
       </c>
       <c r="C167">
-        <v>0.0595264137179813</v>
+        <v>0.05953140785556698</v>
       </c>
       <c r="D167">
-        <v>0.2183243906701897</v>
+        <v>0.2181627916621569</v>
       </c>
       <c r="E167">
-        <v>0.01266293874136317</v>
+        <v>0.01265943450932909</v>
       </c>
       <c r="F167">
-        <v>0.01162298397033885</v>
+        <v>0.01161860562402901</v>
       </c>
       <c r="G167" t="s">
         <v>232</v>
@@ -6651,16 +6651,16 @@
         <v>65</v>
       </c>
       <c r="C168">
-        <v>0.08229643074576096</v>
+        <v>0.08246474303250594</v>
       </c>
       <c r="D168">
-        <v>0.1508160053741953</v>
+        <v>0.1507277256825678</v>
       </c>
       <c r="E168">
-        <v>0.01185465085447587</v>
+        <v>0.01187325023988749</v>
       </c>
       <c r="F168">
-        <v>0.02664483955325051</v>
+        <v>0.02656634582186583</v>
       </c>
       <c r="G168" t="s">
         <v>233</v>
@@ -6680,16 +6680,16 @@
         <v>66</v>
       </c>
       <c r="C169">
-        <v>0.8621299687572802</v>
+        <v>0.8619238430980788</v>
       </c>
       <c r="D169">
-        <v>0.4278834202061302</v>
+        <v>0.4265850573114549</v>
       </c>
       <c r="E169">
-        <v>0.3671609689909868</v>
+        <v>0.3658412212956932</v>
       </c>
       <c r="F169">
-        <v>0.06651010004231442</v>
+        <v>0.066368328455872</v>
       </c>
       <c r="G169" t="s">
         <v>234</v>
@@ -6718,7 +6718,7 @@
         <v>0.01472018273780389</v>
       </c>
       <c r="F170">
-        <v>0.0326508633288596</v>
+        <v>0.03265086332885961</v>
       </c>
       <c r="G170" t="s">
         <v>235</v>
@@ -7057,22 +7057,22 @@
         <v>20</v>
       </c>
       <c r="C182">
-        <v>0.02695715163758698</v>
+        <v>0.02586472427158903</v>
       </c>
       <c r="D182">
-        <v>0.4799090318388564</v>
+        <v>0.5203294888455707</v>
       </c>
       <c r="E182">
-        <v>0.01277940936531245</v>
+        <v>0.01342050672447148</v>
       </c>
       <c r="F182">
-        <v>0.02695715163758698</v>
+        <v>0.004253572879371434</v>
       </c>
       <c r="G182" t="s">
         <v>247</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I182" t="s">
         <v>472</v>
@@ -7115,22 +7115,22 @@
         <v>22</v>
       </c>
       <c r="C184">
-        <v>0.03348170843620527</v>
+        <v>0.0374269621533013</v>
       </c>
       <c r="D184">
-        <v>0.3100963829326402</v>
+        <v>0.4160580850273833</v>
       </c>
       <c r="E184">
-        <v>0.01062979278838309</v>
+        <v>0.01571288721068456</v>
       </c>
       <c r="F184">
-        <v>0.01701683229312924</v>
+        <v>0.004126742619028009</v>
       </c>
       <c r="G184" t="s">
         <v>249</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I184" t="s">
         <v>472</v>
@@ -7211,7 +7211,7 @@
         <v>0.01745091640833198</v>
       </c>
       <c r="F187">
-        <v>0.01059533383797881</v>
+        <v>0.01059533383797882</v>
       </c>
       <c r="G187" t="s">
         <v>252</v>
@@ -7269,7 +7269,7 @@
         <v>0.02191793114700602</v>
       </c>
       <c r="F189">
-        <v>0.005001414840137623</v>
+        <v>0.005001414840137624</v>
       </c>
       <c r="G189" t="s">
         <v>254</v>
@@ -7327,7 +7327,7 @@
         <v>0.0458780660249089</v>
       </c>
       <c r="F191">
-        <v>0.004118169238405476</v>
+        <v>0.004118169238405477</v>
       </c>
       <c r="G191" t="s">
         <v>256</v>
@@ -7356,7 +7356,7 @@
         <v>0.01768396149453418</v>
       </c>
       <c r="F192">
-        <v>0.01204979036647491</v>
+        <v>0.01204979036647492</v>
       </c>
       <c r="G192" t="s">
         <v>257</v>
@@ -7501,7 +7501,7 @@
         <v>0.02562516995703484</v>
       </c>
       <c r="F197">
-        <v>0.007075395870751413</v>
+        <v>0.007075395870751414</v>
       </c>
       <c r="G197" t="s">
         <v>262</v>
@@ -7559,7 +7559,7 @@
         <v>0.01930766302278783</v>
       </c>
       <c r="F199">
-        <v>0.006730681249241566</v>
+        <v>0.006730681249241567</v>
       </c>
       <c r="G199" t="s">
         <v>264</v>
@@ -7733,7 +7733,7 @@
         <v>0.02706858106270733</v>
       </c>
       <c r="F205">
-        <v>0.004811084924637342</v>
+        <v>0.004811084924637343</v>
       </c>
       <c r="G205" t="s">
         <v>270</v>
@@ -7762,7 +7762,7 @@
         <v>0.01368140534072984</v>
       </c>
       <c r="F206">
-        <v>0.001137997615677798</v>
+        <v>0.001137997615677799</v>
       </c>
       <c r="G206" t="s">
         <v>271</v>
@@ -7791,7 +7791,7 @@
         <v>0.01554522216783596</v>
       </c>
       <c r="F207">
-        <v>0.0007834949538613587</v>
+        <v>0.0007834949538613589</v>
       </c>
       <c r="G207" t="s">
         <v>272</v>
@@ -7907,7 +7907,7 @@
         <v>0.01726138032305433</v>
       </c>
       <c r="F211">
-        <v>0.009986209269513244</v>
+        <v>0.009986209269513246</v>
       </c>
       <c r="G211" t="s">
         <v>276</v>
@@ -8081,7 +8081,7 @@
         <v>0.01636971773535652</v>
       </c>
       <c r="F217">
-        <v>0.006746597647452632</v>
+        <v>0.006746597647452633</v>
       </c>
       <c r="G217" t="s">
         <v>282</v>
@@ -8168,7 +8168,7 @@
         <v>0.01966117365529994</v>
       </c>
       <c r="F220">
-        <v>0.009479008062668682</v>
+        <v>0.009479008062668683</v>
       </c>
       <c r="G220" t="s">
         <v>285</v>
@@ -8255,7 +8255,7 @@
         <v>0.02134741937238266</v>
       </c>
       <c r="F223">
-        <v>0.00336987267272004</v>
+        <v>0.003369872672720041</v>
       </c>
       <c r="G223" t="s">
         <v>288</v>
@@ -8284,7 +8284,7 @@
         <v>0.02352422907488987</v>
       </c>
       <c r="F224">
-        <v>0.006208854864462271</v>
+        <v>0.006208854864462272</v>
       </c>
       <c r="G224" t="s">
         <v>289</v>
@@ -8452,13 +8452,13 @@
         <v>0.1001475172674577</v>
       </c>
       <c r="D230">
-        <v>0.3843393920257387</v>
+        <v>0.3843393920257388</v>
       </c>
       <c r="E230">
         <v>0.03435605454856056</v>
       </c>
       <c r="F230">
-        <v>0.05068791366178822</v>
+        <v>0.05068791366178823</v>
       </c>
       <c r="G230" t="s">
         <v>295</v>
@@ -8478,16 +8478,16 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>0.09893431737443766</v>
+        <v>0.09893431737443763</v>
       </c>
       <c r="D231">
-        <v>0.3790731254216421</v>
+        <v>0.379073125421642</v>
       </c>
       <c r="E231">
         <v>0.03126572478595623</v>
       </c>
       <c r="F231">
-        <v>0.05869988319845296</v>
+        <v>0.05869988319845297</v>
       </c>
       <c r="G231" t="s">
         <v>296</v>
@@ -8507,7 +8507,7 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>0.08821902828906332</v>
+        <v>0.08821902828906331</v>
       </c>
       <c r="D232">
         <v>0.4010184345434763</v>
@@ -8516,7 +8516,7 @@
         <v>0.03071548992492026</v>
       </c>
       <c r="F232">
-        <v>0.04505462223417591</v>
+        <v>0.04505462223417592</v>
       </c>
       <c r="G232" t="s">
         <v>297</v>
@@ -8542,10 +8542,10 @@
         <v>0.4767920569081201</v>
       </c>
       <c r="E233">
-        <v>0.07964834367605009</v>
+        <v>0.07964834367605007</v>
       </c>
       <c r="F233">
-        <v>0.03818819094632592</v>
+        <v>0.03818819094632593</v>
       </c>
       <c r="G233" t="s">
         <v>298</v>
@@ -8565,13 +8565,13 @@
         <v>14</v>
       </c>
       <c r="C234">
-        <v>0.07862572891862811</v>
+        <v>0.0786257289186281</v>
       </c>
       <c r="D234">
         <v>0.2758216711496239</v>
       </c>
       <c r="E234">
-        <v>0.01962995539505256</v>
+        <v>0.01962995539505255</v>
       </c>
       <c r="F234">
         <v>0.0142976019648612</v>
@@ -8655,13 +8655,13 @@
         <v>0.01959762631680902</v>
       </c>
       <c r="D237">
-        <v>0.3908807067139075</v>
+        <v>0.3908807067139076</v>
       </c>
       <c r="E237">
         <v>0.007763817032088666</v>
       </c>
       <c r="F237">
-        <v>0.005027075892503607</v>
+        <v>0.005027075892503608</v>
       </c>
       <c r="G237" t="s">
         <v>302</v>
@@ -8681,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="C238">
-        <v>0.04125728151926893</v>
+        <v>0.04125728151926892</v>
       </c>
       <c r="D238">
         <v>0.3725340410046819</v>
@@ -8739,22 +8739,22 @@
         <v>20</v>
       </c>
       <c r="C240">
-        <v>0.07531356288320616</v>
+        <v>0.168657103605436</v>
       </c>
       <c r="D240">
-        <v>0.4332835053454868</v>
+        <v>0.5048123015931261</v>
       </c>
       <c r="E240">
-        <v>0.03189775615902928</v>
+        <v>0.08471533659947407</v>
       </c>
       <c r="F240">
-        <v>0.0219030284995154</v>
+        <v>0.01439137182665109</v>
       </c>
       <c r="G240" t="s">
         <v>305</v>
       </c>
       <c r="H240">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I240" t="s">
         <v>473</v>
@@ -8797,22 +8797,22 @@
         <v>22</v>
       </c>
       <c r="C242">
-        <v>0.3147735442125416</v>
+        <v>0.2766657100667738</v>
       </c>
       <c r="D242">
-        <v>0.369049382302101</v>
+        <v>0.4639372130596869</v>
       </c>
       <c r="E242">
-        <v>0.1162319091610645</v>
+        <v>0.1264024592779352</v>
       </c>
       <c r="F242">
-        <v>0.01561114493398287</v>
+        <v>0.0139128310075629</v>
       </c>
       <c r="G242" t="s">
         <v>307</v>
       </c>
       <c r="H242">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I242" t="s">
         <v>473</v>
@@ -8835,7 +8835,7 @@
         <v>0.006632207938617847</v>
       </c>
       <c r="F243">
-        <v>0.00758489653139364</v>
+        <v>0.007584896531393641</v>
       </c>
       <c r="G243" t="s">
         <v>308</v>
@@ -8858,7 +8858,7 @@
         <v>0.02194140273147049</v>
       </c>
       <c r="D244">
-        <v>0.3732623001918526</v>
+        <v>0.3732623001918527</v>
       </c>
       <c r="E244">
         <v>0.008007824450934727</v>
@@ -8884,7 +8884,7 @@
         <v>25</v>
       </c>
       <c r="C245">
-        <v>0.02986805224299083</v>
+        <v>0.02986805224299082</v>
       </c>
       <c r="D245">
         <v>0.4689647424496973</v>
@@ -8893,7 +8893,7 @@
         <v>0.01357690325377073</v>
       </c>
       <c r="F245">
-        <v>0.005985006197924717</v>
+        <v>0.005985006197924718</v>
       </c>
       <c r="G245" t="s">
         <v>310</v>
@@ -8942,7 +8942,7 @@
         <v>27</v>
       </c>
       <c r="C247">
-        <v>0.03121511877278036</v>
+        <v>0.03121511877278037</v>
       </c>
       <c r="D247">
         <v>0.4482652325580154</v>
@@ -8971,7 +8971,7 @@
         <v>28</v>
       </c>
       <c r="C248">
-        <v>0.07841326375454048</v>
+        <v>0.07841326375454047</v>
       </c>
       <c r="D248">
         <v>0.4465366997953081</v>
@@ -9006,7 +9006,7 @@
         <v>0.4879619062977255</v>
       </c>
       <c r="E249">
-        <v>0.04726813353159071</v>
+        <v>0.04726813353159072</v>
       </c>
       <c r="F249">
         <v>0.01048053491684277</v>
@@ -9058,7 +9058,7 @@
         <v>31</v>
       </c>
       <c r="C251">
-        <v>0.02709822380318199</v>
+        <v>0.02709822380318198</v>
       </c>
       <c r="D251">
         <v>0.4285798957438661</v>
@@ -9290,7 +9290,7 @@
         <v>39</v>
       </c>
       <c r="C259">
-        <v>0.2131315041192191</v>
+        <v>0.213131504119219</v>
       </c>
       <c r="D259">
         <v>0.3875989125390767</v>
@@ -9380,7 +9380,7 @@
         <v>0.3644751552577229</v>
       </c>
       <c r="D262">
-        <v>0.4785864546396524</v>
+        <v>0.4785864546396523</v>
       </c>
       <c r="E262">
         <v>0.171915375336178</v>
@@ -9470,10 +9470,10 @@
         <v>0.3328319085420398</v>
       </c>
       <c r="E265">
-        <v>0.03353423527508985</v>
+        <v>0.03353423527508986</v>
       </c>
       <c r="F265">
-        <v>0.02437787015304758</v>
+        <v>0.02437787015304759</v>
       </c>
       <c r="G265" t="s">
         <v>330</v>
@@ -9531,7 +9531,7 @@
         <v>0.007420878835653932</v>
       </c>
       <c r="F267">
-        <v>0.003842474828548508</v>
+        <v>0.003842474828548509</v>
       </c>
       <c r="G267" t="s">
         <v>332</v>
@@ -9580,7 +9580,7 @@
         <v>49</v>
       </c>
       <c r="C269">
-        <v>0.1034217570131437</v>
+        <v>0.1034217570131436</v>
       </c>
       <c r="D269">
         <v>0.3892263278736942</v>
@@ -9638,7 +9638,7 @@
         <v>51</v>
       </c>
       <c r="C271">
-        <v>0.08232233655606559</v>
+        <v>0.08232233655606561</v>
       </c>
       <c r="D271">
         <v>0.3590476382812101</v>
@@ -9647,7 +9647,7 @@
         <v>0.02707005482725965</v>
       </c>
       <c r="F271">
-        <v>0.04667975247878632</v>
+        <v>0.04667975247878633</v>
       </c>
       <c r="G271" t="s">
         <v>336</v>
@@ -9673,7 +9673,7 @@
         <v>0.3118951891712206</v>
       </c>
       <c r="E272">
-        <v>0.05864451000392055</v>
+        <v>0.05864451000392053</v>
       </c>
       <c r="F272">
         <v>0.06832064478084716</v>
@@ -9699,7 +9699,7 @@
         <v>0.06353286765109947</v>
       </c>
       <c r="D273">
-        <v>0.3992987243207598</v>
+        <v>0.3992987243207597</v>
       </c>
       <c r="E273">
         <v>0.02612561294704234</v>
@@ -9783,13 +9783,13 @@
         <v>56</v>
       </c>
       <c r="C276">
-        <v>0.06212882903244359</v>
+        <v>0.06212882903244358</v>
       </c>
       <c r="D276">
-        <v>0.4672896766403233</v>
+        <v>0.4672896766403234</v>
       </c>
       <c r="E276">
-        <v>0.02809298091089601</v>
+        <v>0.02809298091089602</v>
       </c>
       <c r="F276">
         <v>0.02669837538986117</v>
@@ -9815,7 +9815,7 @@
         <v>0.02237459456934657</v>
       </c>
       <c r="D277">
-        <v>0.4981894267115985</v>
+        <v>0.4981894267115984</v>
       </c>
       <c r="E277">
         <v>0.01072106599485288</v>
@@ -9844,7 +9844,7 @@
         <v>0.0401692273065016</v>
       </c>
       <c r="D278">
-        <v>0.4166889283426256</v>
+        <v>0.4166889283426257</v>
       </c>
       <c r="E278">
         <v>0.01653169667802411</v>
@@ -9879,7 +9879,7 @@
         <v>0.02357529170813292</v>
       </c>
       <c r="F279">
-        <v>0.03056416494140914</v>
+        <v>0.03056416494140915</v>
       </c>
       <c r="G279" t="s">
         <v>344</v>
@@ -9931,10 +9931,10 @@
         <v>0.3129348382785098</v>
       </c>
       <c r="D281">
-        <v>0.3741650804607281</v>
+        <v>0.3741650804607282</v>
       </c>
       <c r="E281">
-        <v>0.09670802699156211</v>
+        <v>0.09670802699156208</v>
       </c>
       <c r="F281">
         <v>0.09699352202711332</v>
@@ -9960,10 +9960,10 @@
         <v>0.1845400894368753</v>
       </c>
       <c r="D282">
-        <v>0.4190824525767238</v>
+        <v>0.4190824525767239</v>
       </c>
       <c r="E282">
-        <v>0.07329202557390935</v>
+        <v>0.07329202557390936</v>
       </c>
       <c r="F282">
         <v>0.05449047139262001</v>
@@ -9992,7 +9992,7 @@
         <v>0.4285764774426152</v>
       </c>
       <c r="E283">
-        <v>0.0521507774968535</v>
+        <v>0.05215077749685348</v>
       </c>
       <c r="F283">
         <v>0.06941498960271612</v>
@@ -10015,7 +10015,7 @@
         <v>64</v>
       </c>
       <c r="C284">
-        <v>0.04936207632957966</v>
+        <v>0.04936207632957965</v>
       </c>
       <c r="D284">
         <v>0.3564808814060242</v>
@@ -10102,16 +10102,16 @@
         <v>8</v>
       </c>
       <c r="C287">
-        <v>0.07146990816675761</v>
+        <v>0.07147391062170136</v>
       </c>
       <c r="D287">
-        <v>0.2717149583423111</v>
+        <v>0.2716555788207296</v>
       </c>
       <c r="E287">
-        <v>0.01879550096511722</v>
+        <v>0.01879685704699335</v>
       </c>
       <c r="F287">
-        <v>0.02021956903058637</v>
+        <v>0.02021870445306937</v>
       </c>
       <c r="G287" t="s">
         <v>352</v>
@@ -10131,16 +10131,16 @@
         <v>9</v>
       </c>
       <c r="C288">
-        <v>0.9714403669603457</v>
+        <v>0.9717638315983981</v>
       </c>
       <c r="D288">
-        <v>0.2329802653038509</v>
+        <v>0.2329872179693525</v>
       </c>
       <c r="E288">
-        <v>0.2267730756716031</v>
+        <v>0.2268513327104195</v>
       </c>
       <c r="F288">
-        <v>0.009523259137910429</v>
+        <v>0.009486188866681533</v>
       </c>
       <c r="G288" t="s">
         <v>353</v>
@@ -10160,16 +10160,16 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>0.03101007506155815</v>
+        <v>0.03095663271456579</v>
       </c>
       <c r="D289">
-        <v>0.373529841529897</v>
+        <v>0.3737630376890191</v>
       </c>
       <c r="E289">
-        <v>0.01150082652816293</v>
+        <v>0.01149404270295892</v>
       </c>
       <c r="F289">
-        <v>0.006033759411195939</v>
+        <v>0.00601305787070041</v>
       </c>
       <c r="G289" t="s">
         <v>354</v>
@@ -10189,16 +10189,16 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>0.05503770079609346</v>
+        <v>0.05517122484408705</v>
       </c>
       <c r="D290">
-        <v>0.3526405549475434</v>
+        <v>0.3525298133925265</v>
       </c>
       <c r="E290">
-        <v>0.01879131527011837</v>
+        <v>0.01882803642232079</v>
       </c>
       <c r="F290">
-        <v>0.01413470753203055</v>
+        <v>0.01413670060221556</v>
       </c>
       <c r="G290" t="s">
         <v>355</v>
@@ -10218,16 +10218,16 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>0.03428296546786722</v>
+        <v>0.03435209855369765</v>
       </c>
       <c r="D291">
-        <v>0.3581939099328818</v>
+        <v>0.3581707343812097</v>
       </c>
       <c r="E291">
-        <v>0.01225161304417187</v>
+        <v>0.01227156618222836</v>
       </c>
       <c r="F291">
-        <v>0.006589130383850014</v>
+        <v>0.006582019290625639</v>
       </c>
       <c r="G291" t="s">
         <v>356</v>
@@ -10247,16 +10247,16 @@
         <v>13</v>
       </c>
       <c r="C292">
-        <v>0.3875204270786021</v>
+        <v>0.3871714074560234</v>
       </c>
       <c r="D292">
-        <v>0.3903630308033097</v>
+        <v>0.3903776877738267</v>
       </c>
       <c r="E292">
-        <v>0.1338437512226507</v>
+        <v>0.1336978346056317</v>
       </c>
       <c r="F292">
-        <v>0.09068155356948443</v>
+        <v>0.09070928641251282</v>
       </c>
       <c r="G292" t="s">
         <v>357</v>
@@ -10276,16 +10276,16 @@
         <v>14</v>
       </c>
       <c r="C293">
-        <v>0.05142788508652937</v>
+        <v>0.05151915601609874</v>
       </c>
       <c r="D293">
-        <v>0.2297625024627642</v>
+        <v>0.229788246116108</v>
       </c>
       <c r="E293">
-        <v>0.01196682946059326</v>
+        <v>0.01198538421311502</v>
       </c>
       <c r="F293">
-        <v>0.0103981532528452</v>
+        <v>0.01039320534636558</v>
       </c>
       <c r="G293" t="s">
         <v>358</v>
@@ -10305,16 +10305,16 @@
         <v>15</v>
       </c>
       <c r="C294">
-        <v>0.05219532646189532</v>
+        <v>0.05221358449190106</v>
       </c>
       <c r="D294">
-        <v>0.3327215591011938</v>
+        <v>0.3329734209749058</v>
       </c>
       <c r="E294">
-        <v>0.01707159045722479</v>
+        <v>0.0170874409286636</v>
       </c>
       <c r="F294">
-        <v>0.007846446824283102</v>
+        <v>0.00783103539471049</v>
       </c>
       <c r="G294" t="s">
         <v>359</v>
@@ -10334,16 +10334,16 @@
         <v>16</v>
       </c>
       <c r="C295">
-        <v>0.03034735113324076</v>
+        <v>0.03034209985771728</v>
       </c>
       <c r="D295">
-        <v>0.4001287770871723</v>
+        <v>0.4002507305982683</v>
       </c>
       <c r="E295">
-        <v>0.01142128454458838</v>
+        <v>0.01142211590344443</v>
       </c>
       <c r="F295">
-        <v>0.009202452963499188</v>
+        <v>0.009200720238895165</v>
       </c>
       <c r="G295" t="s">
         <v>360</v>
@@ -10363,16 +10363,16 @@
         <v>17</v>
       </c>
       <c r="C296">
-        <v>0.02034878295241959</v>
+        <v>0.02029924915164568</v>
       </c>
       <c r="D296">
-        <v>0.3409012703581076</v>
+        <v>0.3413904624082671</v>
       </c>
       <c r="E296">
-        <v>0.006915592684514279</v>
+        <v>0.006915204068917537</v>
       </c>
       <c r="F296">
-        <v>0.00427651140390479</v>
+        <v>0.004252648917374374</v>
       </c>
       <c r="G296" t="s">
         <v>361</v>
@@ -10392,16 +10392,16 @@
         <v>18</v>
       </c>
       <c r="C297">
-        <v>0.2513521839399929</v>
+        <v>0.2512683352042712</v>
       </c>
       <c r="D297">
-        <v>0.2864979254972898</v>
+        <v>0.2870053448056561</v>
       </c>
       <c r="E297">
-        <v>0.06729048659965571</v>
+        <v>0.06736618965361726</v>
       </c>
       <c r="F297">
-        <v>0.04638569850080453</v>
+        <v>0.04632346536673377</v>
       </c>
       <c r="G297" t="s">
         <v>362</v>
@@ -10421,16 +10421,16 @@
         <v>19</v>
       </c>
       <c r="C298">
-        <v>0.1306988632298884</v>
+        <v>0.1300418846578821</v>
       </c>
       <c r="D298">
-        <v>0.3627810111078696</v>
+        <v>0.3635395406504343</v>
       </c>
       <c r="E298">
-        <v>0.05098877571806997</v>
+        <v>0.05107891377881876</v>
       </c>
       <c r="F298">
-        <v>0.04552077453697487</v>
+        <v>0.04496372623331801</v>
       </c>
       <c r="G298" t="s">
         <v>363</v>
@@ -10450,22 +10450,22 @@
         <v>20</v>
       </c>
       <c r="C299">
-        <v>0.691481972688382</v>
+        <v>0.6955513887070126</v>
       </c>
       <c r="D299">
-        <v>0.2991181955676734</v>
+        <v>0.3787472746594357</v>
       </c>
       <c r="E299">
-        <v>0.1871375808312401</v>
+        <v>0.2430286786429728</v>
       </c>
       <c r="F299">
-        <v>0.1127083534560388</v>
+        <v>0.04182981528543819</v>
       </c>
       <c r="G299" t="s">
         <v>364</v>
       </c>
       <c r="H299">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I299" t="s">
         <v>474</v>
@@ -10479,16 +10479,16 @@
         <v>21</v>
       </c>
       <c r="C300">
-        <v>0.02625334325827973</v>
+        <v>0.02624193216396344</v>
       </c>
       <c r="D300">
-        <v>0.3478508588001494</v>
+        <v>0.3484929468547184</v>
       </c>
       <c r="E300">
-        <v>0.009038814201199726</v>
+        <v>0.009058750522895034</v>
       </c>
       <c r="F300">
-        <v>0.002284913943068176</v>
+        <v>0.00228099942361649</v>
       </c>
       <c r="G300" t="s">
         <v>365</v>
@@ -10508,22 +10508,22 @@
         <v>22</v>
       </c>
       <c r="C301">
-        <v>0.129461305421822</v>
+        <v>0.260591821296807</v>
       </c>
       <c r="D301">
-        <v>0.3951240938842633</v>
+        <v>0.4606247067242508</v>
       </c>
       <c r="E301">
-        <v>0.05160865910675402</v>
+        <v>0.1174135648553271</v>
       </c>
       <c r="F301">
-        <v>0.03785256266096884</v>
+        <v>0.01795508307141472</v>
       </c>
       <c r="G301" t="s">
         <v>366</v>
       </c>
       <c r="H301">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I301" t="s">
         <v>474</v>
@@ -10537,16 +10537,16 @@
         <v>23</v>
       </c>
       <c r="C302">
-        <v>0.02182478653795974</v>
+        <v>0.02180337658841783</v>
       </c>
       <c r="D302">
-        <v>0.2434750382455053</v>
+        <v>0.2436410253047784</v>
       </c>
       <c r="E302">
-        <v>0.005245347115212733</v>
+        <v>0.005244173911264482</v>
       </c>
       <c r="F302">
-        <v>0.005521254698113474</v>
+        <v>0.005515368081313443</v>
       </c>
       <c r="G302" t="s">
         <v>367</v>
@@ -10566,16 +10566,16 @@
         <v>24</v>
       </c>
       <c r="C303">
-        <v>0.01844195427046345</v>
+        <v>0.01841729954883299</v>
       </c>
       <c r="D303">
-        <v>0.4132618979537341</v>
+        <v>0.4135842260318546</v>
       </c>
       <c r="E303">
-        <v>0.007430229906815972</v>
+        <v>0.007427438916370662</v>
       </c>
       <c r="F303">
-        <v>0.003189417863553003</v>
+        <v>0.003181819810031534</v>
       </c>
       <c r="G303" t="s">
         <v>368</v>
@@ -10595,16 +10595,16 @@
         <v>25</v>
       </c>
       <c r="C304">
-        <v>0.01832102522006831</v>
+        <v>0.01832418191511216</v>
       </c>
       <c r="D304">
-        <v>0.4093374116730388</v>
+        <v>0.4095036492788164</v>
       </c>
       <c r="E304">
-        <v>0.007410204197212262</v>
+        <v>0.007414783502567268</v>
       </c>
       <c r="F304">
-        <v>0.00373223944392215</v>
+        <v>0.00370413037296516</v>
       </c>
       <c r="G304" t="s">
         <v>369</v>
@@ -10624,16 +10624,16 @@
         <v>26</v>
       </c>
       <c r="C305">
-        <v>0.189294716117036</v>
+        <v>0.1893059339308948</v>
       </c>
       <c r="D305">
-        <v>0.2314033673285278</v>
+        <v>0.2315315218656119</v>
       </c>
       <c r="E305">
-        <v>0.03441587338336701</v>
+        <v>0.03444848871588402</v>
       </c>
       <c r="F305">
-        <v>0.03587553002802395</v>
+        <v>0.03583250581778701</v>
       </c>
       <c r="G305" t="s">
         <v>370</v>
@@ -10653,16 +10653,16 @@
         <v>27</v>
       </c>
       <c r="C306">
-        <v>0.01938251669831558</v>
+        <v>0.01939985266934678</v>
       </c>
       <c r="D306">
-        <v>0.4122918811096464</v>
+        <v>0.4129745576979547</v>
       </c>
       <c r="E306">
-        <v>0.007900837397569284</v>
+        <v>0.007921825267349901</v>
       </c>
       <c r="F306">
-        <v>0.004400552023769297</v>
+        <v>0.004392836829223124</v>
       </c>
       <c r="G306" t="s">
         <v>371</v>
@@ -10682,16 +10682,16 @@
         <v>28</v>
       </c>
       <c r="C307">
-        <v>0.344811875568634</v>
+        <v>0.3449659623993476</v>
       </c>
       <c r="D307">
-        <v>0.3954845260884</v>
+        <v>0.3955527373742674</v>
       </c>
       <c r="E307">
-        <v>0.1366272589341211</v>
+        <v>0.1367444384919212</v>
       </c>
       <c r="F307">
-        <v>0.04636528324520608</v>
+        <v>0.04647890245251656</v>
       </c>
       <c r="G307" t="s">
         <v>372</v>
@@ -10711,16 +10711,16 @@
         <v>29</v>
       </c>
       <c r="C308">
-        <v>0.793821853302348</v>
+        <v>0.7941409989950223</v>
       </c>
       <c r="D308">
-        <v>0.4073308946051557</v>
+        <v>0.4074049310972541</v>
       </c>
       <c r="E308">
-        <v>0.3217680034488664</v>
+        <v>0.3219685159590041</v>
       </c>
       <c r="F308">
-        <v>0.03923972022104193</v>
+        <v>0.03932608155004012</v>
       </c>
       <c r="G308" t="s">
         <v>373</v>
@@ -10740,16 +10740,16 @@
         <v>30</v>
       </c>
       <c r="C309">
-        <v>0.03179750631580833</v>
+        <v>0.03174380329803574</v>
       </c>
       <c r="D309">
-        <v>0.3722289129446035</v>
+        <v>0.3730248991896004</v>
       </c>
       <c r="E309">
-        <v>0.0118823734537018</v>
+        <v>0.01192944271141238</v>
       </c>
       <c r="F309">
-        <v>0.007769959240358993</v>
+        <v>0.007712704954964735</v>
       </c>
       <c r="G309" t="s">
         <v>374</v>
@@ -10769,16 +10769,16 @@
         <v>31</v>
       </c>
       <c r="C310">
-        <v>0.03131358763252391</v>
+        <v>0.03124412913238205</v>
       </c>
       <c r="D310">
-        <v>0.3751086223301088</v>
+        <v>0.3758198612199372</v>
       </c>
       <c r="E310">
-        <v>0.0118465191601684</v>
+        <v>0.01188137080596727</v>
       </c>
       <c r="F310">
-        <v>0.008473909640638424</v>
+        <v>0.008416423857636707</v>
       </c>
       <c r="G310" t="s">
         <v>375</v>
@@ -10798,16 +10798,16 @@
         <v>32</v>
       </c>
       <c r="C311">
-        <v>0.1483087440946511</v>
+        <v>0.1481096589862244</v>
       </c>
       <c r="D311">
-        <v>0.4578382294481138</v>
+        <v>0.4580054692399096</v>
       </c>
       <c r="E311">
-        <v>0.06736944746394563</v>
+        <v>0.06734206491006904</v>
       </c>
       <c r="F311">
-        <v>0.06315551678901261</v>
+        <v>0.06308571262749227</v>
       </c>
       <c r="G311" t="s">
         <v>376</v>
@@ -10827,16 +10827,16 @@
         <v>33</v>
       </c>
       <c r="C312">
-        <v>0.0158810130166713</v>
+        <v>0.01592020563750042</v>
       </c>
       <c r="D312">
-        <v>0.3683495077219947</v>
+        <v>0.3686864301340058</v>
       </c>
       <c r="E312">
-        <v>0.005876007934925142</v>
+        <v>0.005903323748868292</v>
       </c>
       <c r="F312">
-        <v>0.003946581379868331</v>
+        <v>0.003975665733184522</v>
       </c>
       <c r="G312" t="s">
         <v>377</v>
@@ -10856,16 +10856,16 @@
         <v>34</v>
       </c>
       <c r="C313">
-        <v>0.1796845213356924</v>
+        <v>0.1797077342200443</v>
       </c>
       <c r="D313">
-        <v>0.4040811532873561</v>
+        <v>0.4041726027615217</v>
       </c>
       <c r="E313">
-        <v>0.07059971574611623</v>
+        <v>0.07063076715704308</v>
       </c>
       <c r="F313">
-        <v>0.02581375557867403</v>
+        <v>0.02583626585900467</v>
       </c>
       <c r="G313" t="s">
         <v>378</v>
@@ -10885,16 +10885,16 @@
         <v>35</v>
       </c>
       <c r="C314">
-        <v>0.08890901258845654</v>
+        <v>0.08888319255915839</v>
       </c>
       <c r="D314">
-        <v>0.2889845236581128</v>
+        <v>0.2891463767000605</v>
       </c>
       <c r="E314">
-        <v>0.02545100168650517</v>
+        <v>0.02545634298322634</v>
       </c>
       <c r="F314">
-        <v>0.009527650412123093</v>
+        <v>0.009528157145121771</v>
       </c>
       <c r="G314" t="s">
         <v>379</v>
@@ -10914,16 +10914,16 @@
         <v>36</v>
       </c>
       <c r="C315">
-        <v>0.1230340359328582</v>
+        <v>0.1229650891139466</v>
       </c>
       <c r="D315">
-        <v>0.4084521000794639</v>
+        <v>0.408752943794818</v>
       </c>
       <c r="E315">
-        <v>0.04884979505111087</v>
+        <v>0.04886695956352284</v>
       </c>
       <c r="F315">
-        <v>0.01905345417062656</v>
+        <v>0.01903636231047963</v>
       </c>
       <c r="G315" t="s">
         <v>380</v>
@@ -10943,16 +10943,16 @@
         <v>37</v>
       </c>
       <c r="C316">
-        <v>0.02444105363809883</v>
+        <v>0.02447911921741078</v>
       </c>
       <c r="D316">
-        <v>0.3594845773931638</v>
+        <v>0.3597646883852653</v>
       </c>
       <c r="E316">
-        <v>0.008901216292535687</v>
+        <v>0.008920224561298136</v>
       </c>
       <c r="F316">
-        <v>0.003660467747863178</v>
+        <v>0.003639649375186193</v>
       </c>
       <c r="G316" t="s">
         <v>381</v>
@@ -10972,16 +10972,16 @@
         <v>38</v>
       </c>
       <c r="C317">
-        <v>0.1458424932715235</v>
+        <v>0.1459596194166612</v>
       </c>
       <c r="D317">
-        <v>0.2128269095632441</v>
+        <v>0.2128991922298105</v>
       </c>
       <c r="E317">
-        <v>0.02795066429957179</v>
+        <v>0.0279960069899489</v>
       </c>
       <c r="F317">
-        <v>0.02345841215596332</v>
+        <v>0.02344103514368349</v>
       </c>
       <c r="G317" t="s">
         <v>382</v>
@@ -11001,16 +11001,16 @@
         <v>39</v>
       </c>
       <c r="C318">
-        <v>0.1039858359225174</v>
+        <v>0.1041065036605805</v>
       </c>
       <c r="D318">
-        <v>0.3980320083498692</v>
+        <v>0.398459941779663</v>
       </c>
       <c r="E318">
-        <v>0.04133409047343931</v>
+        <v>0.0414956668012999</v>
       </c>
       <c r="F318">
-        <v>0.02330528256811485</v>
+        <v>0.02336627484554522</v>
       </c>
       <c r="G318" t="s">
         <v>383</v>
@@ -11030,16 +11030,16 @@
         <v>40</v>
       </c>
       <c r="C319">
-        <v>0.01772927817732006</v>
+        <v>0.0175711860600474</v>
       </c>
       <c r="D319">
-        <v>0.4136449928433021</v>
+        <v>0.4145540381984831</v>
       </c>
       <c r="E319">
-        <v>0.007719346895988579</v>
+        <v>0.007701987681644768</v>
       </c>
       <c r="F319">
-        <v>0.006142897236337177</v>
+        <v>0.005998545090658675</v>
       </c>
       <c r="G319" t="s">
         <v>384</v>
@@ -11085,16 +11085,16 @@
         <v>42</v>
       </c>
       <c r="C321">
-        <v>0.1568464788121601</v>
+        <v>0.1569449143306734</v>
       </c>
       <c r="D321">
-        <v>0.3135225875787532</v>
+        <v>0.3135649925746505</v>
       </c>
       <c r="E321">
-        <v>0.04772765839050484</v>
+        <v>0.04776347566329359</v>
       </c>
       <c r="F321">
-        <v>0.01268819047534512</v>
+        <v>0.01269055888041231</v>
       </c>
       <c r="G321" t="s">
         <v>386</v>
@@ -11114,16 +11114,16 @@
         <v>43</v>
       </c>
       <c r="C322">
-        <v>0.01133882263484096</v>
+        <v>0.01138902301836544</v>
       </c>
       <c r="D322">
-        <v>0.4234099686867607</v>
+        <v>0.4238895773331205</v>
       </c>
       <c r="E322">
-        <v>0.004915574692089999</v>
+        <v>0.004950778430451172</v>
       </c>
       <c r="F322">
-        <v>0.00430417720756645</v>
+        <v>0.004326961581574359</v>
       </c>
       <c r="G322" t="s">
         <v>387</v>
@@ -11143,16 +11143,16 @@
         <v>44</v>
       </c>
       <c r="C323">
-        <v>0.04331647074073829</v>
+        <v>0.04332513068581486</v>
       </c>
       <c r="D323">
-        <v>0.3457045557086464</v>
+        <v>0.3458080940516571</v>
       </c>
       <c r="E323">
-        <v>0.01435104642170984</v>
+        <v>0.01436031512703449</v>
       </c>
       <c r="F323">
-        <v>0.009033112598197038</v>
+        <v>0.009035141301971618</v>
       </c>
       <c r="G323" t="s">
         <v>388</v>
@@ -11172,16 +11172,16 @@
         <v>45</v>
       </c>
       <c r="C324">
-        <v>0.3604942936102003</v>
+        <v>0.3601029204676655</v>
       </c>
       <c r="D324">
-        <v>0.3854066790100515</v>
+        <v>0.3860490802477512</v>
       </c>
       <c r="E324">
-        <v>0.1330964656417586</v>
+        <v>0.1331043611860903</v>
       </c>
       <c r="F324">
-        <v>0.1096034797706199</v>
+        <v>0.1095766109139353</v>
       </c>
       <c r="G324" t="s">
         <v>389</v>
@@ -11201,16 +11201,16 @@
         <v>46</v>
       </c>
       <c r="C325">
-        <v>0.02166110966839839</v>
+        <v>0.02154480125555489</v>
       </c>
       <c r="D325">
-        <v>0.3661182014149043</v>
+        <v>0.3671357334065611</v>
       </c>
       <c r="E325">
-        <v>0.007902662177383562</v>
+        <v>0.007887889266838774</v>
       </c>
       <c r="F325">
-        <v>0.004317807305645463</v>
+        <v>0.004273004322932541</v>
       </c>
       <c r="G325" t="s">
         <v>390</v>
@@ -11230,16 +11230,16 @@
         <v>47</v>
       </c>
       <c r="C326">
-        <v>0.04040684216262053</v>
+        <v>0.04035279331886683</v>
       </c>
       <c r="D326">
-        <v>0.3657454629006351</v>
+        <v>0.3664634665460869</v>
       </c>
       <c r="E326">
-        <v>0.01422214144670503</v>
+        <v>0.01422512293499188</v>
       </c>
       <c r="F326">
-        <v>0.007010932344122236</v>
+        <v>0.007019032142687227</v>
       </c>
       <c r="G326" t="s">
         <v>391</v>
@@ -11259,16 +11259,16 @@
         <v>48</v>
       </c>
       <c r="C327">
-        <v>0.04105263481215467</v>
+        <v>0.04108684630320172</v>
       </c>
       <c r="D327">
-        <v>0.4089362229742926</v>
+        <v>0.4089538238662381</v>
       </c>
       <c r="E327">
-        <v>0.016590026484475</v>
+        <v>0.01660468430804794</v>
       </c>
       <c r="F327">
-        <v>0.005553836108709055</v>
+        <v>0.005552904379369195</v>
       </c>
       <c r="G327" t="s">
         <v>392</v>
@@ -11288,16 +11288,16 @@
         <v>49</v>
       </c>
       <c r="C328">
-        <v>0.1009243446960898</v>
+        <v>0.1011126288925227</v>
       </c>
       <c r="D328">
-        <v>0.3318805792364884</v>
+        <v>0.3318081086600436</v>
       </c>
       <c r="E328">
-        <v>0.02945358253571864</v>
+        <v>0.02949442133161042</v>
       </c>
       <c r="F328">
-        <v>0.0335197979187979</v>
+        <v>0.03370778117459504</v>
       </c>
       <c r="G328" t="s">
         <v>393</v>
@@ -11317,16 +11317,16 @@
         <v>50</v>
       </c>
       <c r="C329">
-        <v>0.04817193423915712</v>
+        <v>0.04821757862252887</v>
       </c>
       <c r="D329">
-        <v>0.3034447790581884</v>
+        <v>0.3037002738562166</v>
       </c>
       <c r="E329">
-        <v>0.01441435893032628</v>
+        <v>0.01445048467824051</v>
       </c>
       <c r="F329">
-        <v>0.005470840835295417</v>
+        <v>0.005527105984643994</v>
       </c>
       <c r="G329" t="s">
         <v>394</v>
@@ -11346,16 +11346,16 @@
         <v>51</v>
       </c>
       <c r="C330">
-        <v>0.01759661499905961</v>
+        <v>0.01752671524979073</v>
       </c>
       <c r="D330">
-        <v>0.4169954766526745</v>
+        <v>0.4177766806539022</v>
       </c>
       <c r="E330">
-        <v>0.007677296422720485</v>
+        <v>0.007680322842222378</v>
       </c>
       <c r="F330">
-        <v>0.004609773203825668</v>
+        <v>0.004573311233616394</v>
       </c>
       <c r="G330" t="s">
         <v>395</v>
@@ -11375,16 +11375,16 @@
         <v>52</v>
       </c>
       <c r="C331">
-        <v>0.17219117714458</v>
+        <v>0.1721771184060203</v>
       </c>
       <c r="D331">
-        <v>0.1588781527719003</v>
+        <v>0.1588785755691267</v>
       </c>
       <c r="E331">
-        <v>0.02536812582377601</v>
+        <v>0.02536652248883934</v>
       </c>
       <c r="F331">
-        <v>0.02352055784803417</v>
+        <v>0.02351881280747213</v>
       </c>
       <c r="G331" t="s">
         <v>396</v>
@@ -11404,16 +11404,16 @@
         <v>53</v>
       </c>
       <c r="C332">
-        <v>0.05781568963418789</v>
+        <v>0.05780514485233074</v>
       </c>
       <c r="D332">
-        <v>0.2430304788909973</v>
+        <v>0.2430200185744317</v>
       </c>
       <c r="E332">
-        <v>0.01250090154514797</v>
+        <v>0.01250209760883721</v>
       </c>
       <c r="F332">
-        <v>0.01111970291321155</v>
+        <v>0.01110306743670938</v>
       </c>
       <c r="G332" t="s">
         <v>397</v>
@@ -11433,16 +11433,16 @@
         <v>54</v>
       </c>
       <c r="C333">
-        <v>0.9885463499114002</v>
+        <v>0.9886732038802665</v>
       </c>
       <c r="D333">
-        <v>0.236970466528907</v>
+        <v>0.236980676298968</v>
       </c>
       <c r="E333">
-        <v>0.2355356444016672</v>
+        <v>0.2355810856254106</v>
       </c>
       <c r="F333">
-        <v>0.00536620965203777</v>
+        <v>0.005408621401589478</v>
       </c>
       <c r="G333" t="s">
         <v>398</v>
@@ -11462,16 +11462,16 @@
         <v>55</v>
       </c>
       <c r="C334">
-        <v>0.7631562787967595</v>
+        <v>0.762808356466566</v>
       </c>
       <c r="D334">
-        <v>0.5027680753797384</v>
+        <v>0.5031961967194105</v>
       </c>
       <c r="E334">
-        <v>0.3806568825285361</v>
+        <v>0.3807050146328246</v>
       </c>
       <c r="F334">
-        <v>0.06194839174266781</v>
+        <v>0.06211608682082863</v>
       </c>
       <c r="G334" t="s">
         <v>399</v>
@@ -11491,16 +11491,16 @@
         <v>56</v>
       </c>
       <c r="C335">
-        <v>0.172998345924493</v>
+        <v>0.1727463711207711</v>
       </c>
       <c r="D335">
-        <v>0.4865579475575307</v>
+        <v>0.4868977512543444</v>
       </c>
       <c r="E335">
-        <v>0.08176106245964379</v>
+        <v>0.08175908522342641</v>
       </c>
       <c r="F335">
-        <v>0.04833144231955591</v>
+        <v>0.04821224413249273</v>
       </c>
       <c r="G335" t="s">
         <v>400</v>
@@ -11520,16 +11520,16 @@
         <v>57</v>
       </c>
       <c r="C336">
-        <v>0.05557716956842249</v>
+        <v>0.05552961713636532</v>
       </c>
       <c r="D336">
-        <v>0.4167403049353275</v>
+        <v>0.4167866560386717</v>
       </c>
       <c r="E336">
-        <v>0.02299718145822814</v>
+        <v>0.02297797323242099</v>
       </c>
       <c r="F336">
-        <v>0.009456850945245609</v>
+        <v>0.009465749045492881</v>
       </c>
       <c r="G336" t="s">
         <v>401</v>
@@ -11549,16 +11549,16 @@
         <v>58</v>
       </c>
       <c r="C337">
-        <v>0.05655199437191437</v>
+        <v>0.05654532545489407</v>
       </c>
       <c r="D337">
-        <v>0.3004356280348616</v>
+        <v>0.3005127337216408</v>
       </c>
       <c r="E337">
-        <v>0.01792436320742842</v>
+        <v>0.01793158977589175</v>
       </c>
       <c r="F337">
-        <v>0.009855102924766027</v>
+        <v>0.009861635768150306</v>
       </c>
       <c r="G337" t="s">
         <v>402</v>
@@ -11578,16 +11578,16 @@
         <v>59</v>
       </c>
       <c r="C338">
-        <v>0.0513759231414599</v>
+        <v>0.05133770983233126</v>
       </c>
       <c r="D338">
-        <v>0.2888129886858207</v>
+        <v>0.2889086974505639</v>
       </c>
       <c r="E338">
-        <v>0.01472325367401173</v>
+        <v>0.0147198725343911</v>
       </c>
       <c r="F338">
-        <v>0.006030276897490405</v>
+        <v>0.006028298814943897</v>
       </c>
       <c r="G338" t="s">
         <v>403</v>
@@ -11607,16 +11607,16 @@
         <v>60</v>
       </c>
       <c r="C339">
-        <v>0.06236308290131169</v>
+        <v>0.06246442263865434</v>
       </c>
       <c r="D339">
-        <v>0.4217607383754465</v>
+        <v>0.4229572858446137</v>
       </c>
       <c r="E339">
-        <v>0.02549983019491601</v>
+        <v>0.02560835668386422</v>
       </c>
       <c r="F339">
-        <v>0.01182959174158269</v>
+        <v>0.01182100644910448</v>
       </c>
       <c r="G339" t="s">
         <v>404</v>
@@ -11636,16 +11636,16 @@
         <v>61</v>
       </c>
       <c r="C340">
-        <v>0.2140972292326676</v>
+        <v>0.2138778622095451</v>
       </c>
       <c r="D340">
-        <v>0.2804361051790444</v>
+        <v>0.2808839570559509</v>
       </c>
       <c r="E340">
-        <v>0.06391181164749628</v>
+        <v>0.06409774700004367</v>
       </c>
       <c r="F340">
-        <v>0.05773069430147897</v>
+        <v>0.05753911599356044</v>
       </c>
       <c r="G340" t="s">
         <v>405</v>
@@ -11665,16 +11665,16 @@
         <v>62</v>
       </c>
       <c r="C341">
-        <v>0.0438979342385856</v>
+        <v>0.04407182001257109</v>
       </c>
       <c r="D341">
-        <v>0.4210622727343207</v>
+        <v>0.4219260318088019</v>
       </c>
       <c r="E341">
-        <v>0.01862604481853901</v>
+        <v>0.01875141289321332</v>
       </c>
       <c r="F341">
-        <v>0.005628796558311885</v>
+        <v>0.005648811538097914</v>
       </c>
       <c r="G341" t="s">
         <v>406</v>
@@ -11694,16 +11694,16 @@
         <v>63</v>
       </c>
       <c r="C342">
-        <v>0.5543919019938208</v>
+        <v>0.5545074651885522</v>
       </c>
       <c r="D342">
-        <v>0.4221824772968363</v>
+        <v>0.4227884240181221</v>
       </c>
       <c r="E342">
-        <v>0.2168822119282332</v>
+        <v>0.2172338478212217</v>
       </c>
       <c r="F342">
-        <v>0.1494113068251127</v>
+        <v>0.1494148153806814</v>
       </c>
       <c r="G342" t="s">
         <v>407</v>
@@ -11723,16 +11723,16 @@
         <v>64</v>
       </c>
       <c r="C343">
-        <v>0.07827585469049569</v>
+        <v>0.07829394133780009</v>
       </c>
       <c r="D343">
-        <v>0.217840975861554</v>
+        <v>0.2179373109925586</v>
       </c>
       <c r="E343">
-        <v>0.01658730107806297</v>
+        <v>0.01659845689441927</v>
       </c>
       <c r="F343">
-        <v>0.008113558042840705</v>
+        <v>0.008106917327425659</v>
       </c>
       <c r="G343" t="s">
         <v>408</v>
@@ -11752,16 +11752,16 @@
         <v>65</v>
       </c>
       <c r="C344">
-        <v>0.05404799806035411</v>
+        <v>0.05406989063649072</v>
       </c>
       <c r="D344">
-        <v>0.3457463915276011</v>
+        <v>0.3460707866143842</v>
       </c>
       <c r="E344">
-        <v>0.01857484413647857</v>
+        <v>0.01859762110943581</v>
       </c>
       <c r="F344">
-        <v>0.006017574757239107</v>
+        <v>0.006006261808141044</v>
       </c>
       <c r="G344" t="s">
         <v>409</v>
@@ -11781,16 +11781,16 @@
         <v>66</v>
       </c>
       <c r="C345">
-        <v>0.9725597909341575</v>
+        <v>0.9725562073193426</v>
       </c>
       <c r="D345">
-        <v>0.2998753654477224</v>
+        <v>0.2999545381431643</v>
       </c>
       <c r="E345">
-        <v>0.2925083745251318</v>
+        <v>0.2925778229437553</v>
       </c>
       <c r="F345">
-        <v>0.008896394230035477</v>
+        <v>0.008873912891182978</v>
       </c>
       <c r="G345" t="s">
         <v>410</v>
@@ -11897,7 +11897,7 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>0.0734679133282089</v>
+        <v>0.07346791332820891</v>
       </c>
       <c r="D349">
         <v>0.3716882360687583</v>
@@ -12042,7 +12042,7 @@
         <v>16</v>
       </c>
       <c r="C354">
-        <v>0.02308064222207419</v>
+        <v>0.02308064222207418</v>
       </c>
       <c r="D354">
         <v>0.3479561140123806</v>
@@ -12051,7 +12051,7 @@
         <v>0.007542657488912262</v>
       </c>
       <c r="F354">
-        <v>0.007044326923366989</v>
+        <v>0.007044326923366988</v>
       </c>
       <c r="G354" t="s">
         <v>419</v>
@@ -12071,7 +12071,7 @@
         <v>17</v>
       </c>
       <c r="C355">
-        <v>0.02429636556228704</v>
+        <v>0.02429636556228703</v>
       </c>
       <c r="D355">
         <v>0.3675822233680501</v>
@@ -12103,13 +12103,13 @@
         <v>0.03719479208146063</v>
       </c>
       <c r="D356">
-        <v>0.2861544392650662</v>
+        <v>0.2861544392650663</v>
       </c>
       <c r="E356">
         <v>0.01028753190992022</v>
       </c>
       <c r="F356">
-        <v>0.007778180995791727</v>
+        <v>0.007778180995791726</v>
       </c>
       <c r="G356" t="s">
         <v>421</v>
@@ -12158,22 +12158,22 @@
         <v>20</v>
       </c>
       <c r="C358">
-        <v>0.05297184448730042</v>
+        <v>0.1004640943912235</v>
       </c>
       <c r="D358">
-        <v>0.3036695984538517</v>
+        <v>0.3561975045197285</v>
       </c>
       <c r="E358">
-        <v>0.01547515137348498</v>
+        <v>0.04172300194469269</v>
       </c>
       <c r="F358">
-        <v>0.01442009105609835</v>
+        <v>0.02664534682274064</v>
       </c>
       <c r="G358" t="s">
         <v>423</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I358" t="s">
         <v>475</v>
@@ -12187,7 +12187,7 @@
         <v>21</v>
       </c>
       <c r="C359">
-        <v>0.03235106606519919</v>
+        <v>0.0323510660651992</v>
       </c>
       <c r="D359">
         <v>0.392053236787487</v>
@@ -12196,7 +12196,7 @@
         <v>0.01244578625018197</v>
       </c>
       <c r="F359">
-        <v>0.006212016204957038</v>
+        <v>0.006212016204957037</v>
       </c>
       <c r="G359" t="s">
         <v>424</v>
@@ -12216,22 +12216,22 @@
         <v>22</v>
       </c>
       <c r="C360">
-        <v>0.5604775110815485</v>
+        <v>0.6813042704374968</v>
       </c>
       <c r="D360">
-        <v>0.3788630437534304</v>
+        <v>0.4314648264910762</v>
       </c>
       <c r="E360">
-        <v>0.2124682787199534</v>
+        <v>0.2930554593314932</v>
       </c>
       <c r="F360">
-        <v>0.008447046669185576</v>
+        <v>0.01641028996368221</v>
       </c>
       <c r="G360" t="s">
         <v>425</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I360" t="s">
         <v>475</v>
@@ -12312,7 +12312,7 @@
         <v>0.007766200192330958</v>
       </c>
       <c r="F363">
-        <v>0.002084548510483918</v>
+        <v>0.002084548510483919</v>
       </c>
       <c r="G363" t="s">
         <v>428</v>
@@ -12332,7 +12332,7 @@
         <v>26</v>
       </c>
       <c r="C364">
-        <v>0.2732571167619099</v>
+        <v>0.2732571167619098</v>
       </c>
       <c r="D364">
         <v>0.2223955651647948</v>
@@ -12448,7 +12448,7 @@
         <v>30</v>
       </c>
       <c r="C368">
-        <v>0.01983605814105594</v>
+        <v>0.01983605814105593</v>
       </c>
       <c r="D368">
         <v>0.3642722642634135</v>
@@ -12573,7 +12573,7 @@
         <v>0.06164620207873265</v>
       </c>
       <c r="F372">
-        <v>0.006030115469759659</v>
+        <v>0.006030115469759658</v>
       </c>
       <c r="G372" t="s">
         <v>437</v>
@@ -12747,7 +12747,7 @@
         <v>0.006118296251186687</v>
       </c>
       <c r="F378">
-        <v>0.003587827588360913</v>
+        <v>0.003587827588360912</v>
       </c>
       <c r="G378" t="s">
         <v>443</v>
@@ -12776,7 +12776,7 @@
         <v>0.07441189581321342</v>
       </c>
       <c r="F379">
-        <v>0.02736149791331513</v>
+        <v>0.02736149791331512</v>
       </c>
       <c r="G379" t="s">
         <v>444</v>
@@ -12834,7 +12834,7 @@
         <v>0.04030358354811658</v>
       </c>
       <c r="F381">
-        <v>0.004309923971226307</v>
+        <v>0.004309923971226308</v>
       </c>
       <c r="G381" t="s">
         <v>446</v>
@@ -12892,7 +12892,7 @@
         <v>0.002194369090897902</v>
       </c>
       <c r="F383">
-        <v>0.003323600921867751</v>
+        <v>0.00332360092186775</v>
       </c>
       <c r="G383" t="s">
         <v>448</v>
@@ -12979,7 +12979,7 @@
         <v>0.009545145898819144</v>
       </c>
       <c r="F386">
-        <v>0.001698440136740416</v>
+        <v>0.001698440136740415</v>
       </c>
       <c r="G386" t="s">
         <v>451</v>
@@ -13240,7 +13240,7 @@
         <v>0.01244197981960257</v>
       </c>
       <c r="F395">
-        <v>0.003240719060081449</v>
+        <v>0.003240719060081448</v>
       </c>
       <c r="G395" t="s">
         <v>460</v>
@@ -13347,7 +13347,7 @@
         <v>62</v>
       </c>
       <c r="C399">
-        <v>0.02935663617135636</v>
+        <v>0.02935663617135637</v>
       </c>
       <c r="D399">
         <v>0.3132019529172156</v>
@@ -13443,7 +13443,7 @@
         <v>0.006471034506798211</v>
       </c>
       <c r="F402">
-        <v>0.006861130123039463</v>
+        <v>0.006861130123039462</v>
       </c>
       <c r="G402" t="s">
         <v>467</v>
@@ -13466,13 +13466,13 @@
         <v>0.6988309983218736</v>
       </c>
       <c r="D403">
-        <v>0.2378493163383323</v>
+        <v>0.2378493163383324</v>
       </c>
       <c r="E403">
         <v>0.1683774796442902</v>
       </c>
       <c r="F403">
-        <v>0.04736916535023662</v>
+        <v>0.04736916535023661</v>
       </c>
       <c r="G403" t="s">
         <v>468</v>
